--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R272"/>
+  <dimension ref="A1:R273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,29 +16845,29 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K229" t="n">
-        <v>22000</v>
+        <v>75000</v>
       </c>
       <c r="L229" t="n">
-        <v>23000</v>
+        <v>80000</v>
       </c>
       <c r="M229" t="n">
-        <v>22536</v>
+        <v>77667</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>901</v>
+        <v>3107</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="K230" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L230" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M230" t="n">
-        <v>21400</v>
+        <v>22536</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16935,11 +16935,11 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>856</v>
+        <v>901</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="K231" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="L231" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M231" t="n">
-        <v>25905</v>
+        <v>21400</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1036</v>
+        <v>856</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,32 +17061,32 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="K232" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L232" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M232" t="n">
-        <v>30857</v>
+        <v>25905</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>2057</v>
+        <v>1036</v>
       </c>
       <c r="Q232" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17133,32 +17133,32 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="K233" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L233" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="M233" t="n">
-        <v>37182</v>
+        <v>30857</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1487</v>
+        <v>2057</v>
       </c>
       <c r="Q233" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K234" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L234" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M234" t="n">
-        <v>24150</v>
+        <v>37182</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>966</v>
+        <v>1487</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="K235" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L235" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M235" t="n">
-        <v>23172</v>
+        <v>24150</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17295,11 +17295,11 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>927</v>
+        <v>966</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,29 +17349,29 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="K236" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="L236" t="n">
-        <v>37000</v>
+        <v>24000</v>
       </c>
       <c r="M236" t="n">
-        <v>35800</v>
+        <v>23172</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1432</v>
+        <v>927</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17421,29 +17421,29 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K237" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L237" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M237" t="n">
-        <v>33667</v>
+        <v>35800</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1347</v>
+        <v>1432</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K238" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L238" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M238" t="n">
-        <v>21275</v>
+        <v>33667</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>851</v>
+        <v>1347</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K239" t="n">
         <v>20000</v>
       </c>
       <c r="L239" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M239" t="n">
-        <v>21143</v>
+        <v>21275</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K240" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L240" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M240" t="n">
-        <v>18933</v>
+        <v>21143</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>757</v>
+        <v>846</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17705,20 +17705,20 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K241" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L241" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M241" t="n">
-        <v>16000</v>
+        <v>18933</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>640</v>
+        <v>757</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17781,7 +17781,7 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K242" t="n">
         <v>16000</v>
@@ -17799,7 +17799,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P242" t="n">
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17849,20 +17849,20 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J243" t="n">
         <v>500</v>
       </c>
       <c r="K243" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L243" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="M243" t="n">
-        <v>26080</v>
+        <v>16000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17871,11 +17871,11 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1043</v>
+        <v>640</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44314</v>
+        <v>44298</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,7 +17925,7 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K244" t="n">
         <v>25000</v>
@@ -17934,7 +17934,7 @@
         <v>27000</v>
       </c>
       <c r="M244" t="n">
-        <v>26150</v>
+        <v>26080</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K245" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L245" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M245" t="n">
-        <v>24585</v>
+        <v>26150</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>983</v>
+        <v>1046</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>50</v>
+        <v>410</v>
       </c>
       <c r="K246" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L246" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M246" t="n">
-        <v>20000</v>
+        <v>24585</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>800</v>
+        <v>983</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18141,7 +18141,7 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K247" t="n">
         <v>20000</v>
@@ -18159,7 +18159,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P247" t="n">
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44187</v>
+        <v>44314</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18209,20 +18209,20 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>1680</v>
+        <v>60</v>
       </c>
       <c r="K248" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="L248" t="n">
-        <v>43000</v>
+        <v>20000</v>
       </c>
       <c r="M248" t="n">
-        <v>41780</v>
+        <v>20000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1671</v>
+        <v>800</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>550</v>
+        <v>1680</v>
       </c>
       <c r="K249" t="n">
         <v>40000</v>
       </c>
       <c r="L249" t="n">
-        <v>42000</v>
+        <v>43000</v>
       </c>
       <c r="M249" t="n">
-        <v>40836</v>
+        <v>41780</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18303,11 +18303,11 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1633</v>
+        <v>1671</v>
       </c>
       <c r="Q249" t="n">
         <v>25</v>
@@ -18357,7 +18357,7 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="K250" t="n">
         <v>40000</v>
@@ -18366,7 +18366,7 @@
         <v>42000</v>
       </c>
       <c r="M250" t="n">
-        <v>41042</v>
+        <v>40836</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1642</v>
+        <v>1633</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18425,20 +18425,20 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>610</v>
+        <v>480</v>
       </c>
       <c r="K251" t="n">
-        <v>37000</v>
+        <v>40000</v>
       </c>
       <c r="L251" t="n">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="M251" t="n">
-        <v>37000</v>
+        <v>41042</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18447,11 +18447,11 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1480</v>
+        <v>1642</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>260</v>
+        <v>610</v>
       </c>
       <c r="K252" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="L252" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M252" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="Q252" t="n">
         <v>25</v>
@@ -18573,7 +18573,7 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="K253" t="n">
         <v>35000</v>
@@ -18591,7 +18591,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P253" t="n">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K254" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L254" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M254" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K255" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L255" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M255" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q255" t="n">
         <v>25</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K256" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L256" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M256" t="n">
-        <v>25850</v>
+        <v>23000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1034</v>
+        <v>920</v>
       </c>
       <c r="Q256" t="n">
         <v>25</v>
@@ -18870,7 +18870,7 @@
         <v>27000</v>
       </c>
       <c r="M257" t="n">
-        <v>26150</v>
+        <v>25850</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18879,11 +18879,11 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,29 +18933,29 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K258" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L258" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M258" t="n">
-        <v>23545</v>
+        <v>26150</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="Q258" t="n">
         <v>25</v>
@@ -19005,7 +19005,7 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K259" t="n">
         <v>23000</v>
@@ -19014,20 +19014,20 @@
         <v>25000</v>
       </c>
       <c r="M259" t="n">
-        <v>23667</v>
+        <v>23545</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="K260" t="n">
         <v>23000</v>
@@ -19086,7 +19086,7 @@
         <v>25000</v>
       </c>
       <c r="M260" t="n">
-        <v>23897</v>
+        <v>23667</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19095,11 +19095,11 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="K261" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L261" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M261" t="n">
-        <v>22571</v>
+        <v>23897</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19167,11 +19167,11 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>903</v>
+        <v>956</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19217,33 +19217,33 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K262" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L262" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M262" t="n">
-        <v>20000</v>
+        <v>22571</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>800</v>
+        <v>903</v>
       </c>
       <c r="Q262" t="n">
         <v>25</v>
@@ -19306,12 +19306,12 @@
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P263" t="n">
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K264" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L264" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M264" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q264" t="n">
         <v>25</v>
@@ -19437,7 +19437,7 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K265" t="n">
         <v>18000</v>
@@ -19455,7 +19455,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P265" t="n">
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19505,36 +19505,36 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>610</v>
+        <v>150</v>
       </c>
       <c r="K266" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L266" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M266" t="n">
-        <v>21148</v>
+        <v>18000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>1410</v>
+        <v>720</v>
       </c>
       <c r="Q266" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19581,32 +19581,32 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K267" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L267" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M267" t="n">
-        <v>28725</v>
+        <v>21148</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>1149</v>
+        <v>1410</v>
       </c>
       <c r="Q267" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19653,29 +19653,29 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>740</v>
+        <v>400</v>
       </c>
       <c r="K268" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L268" t="n">
         <v>30000</v>
       </c>
       <c r="M268" t="n">
-        <v>28865</v>
+        <v>28725</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="Q268" t="n">
         <v>25</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="K269" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="L269" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M269" t="n">
-        <v>22675</v>
+        <v>28865</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>907</v>
+        <v>1155</v>
       </c>
       <c r="Q269" t="n">
         <v>25</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K270" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L270" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M270" t="n">
-        <v>18308</v>
+        <v>22675</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19815,11 +19815,11 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>732</v>
+        <v>907</v>
       </c>
       <c r="Q270" t="n">
         <v>25</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K271" t="n">
         <v>15000</v>
       </c>
       <c r="L271" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M271" t="n">
-        <v>20125</v>
+        <v>18308</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>805</v>
+        <v>732</v>
       </c>
       <c r="Q271" t="n">
         <v>25</v>
@@ -19917,58 +19917,130 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E272" t="n">
+        <v>13</v>
+      </c>
+      <c r="F272" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J272" t="n">
+        <v>480</v>
+      </c>
+      <c r="K272" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L272" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M272" t="n">
+        <v>20125</v>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P272" t="n">
+        <v>805</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>25</v>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>6</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D273" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E272" t="n">
-        <v>13</v>
-      </c>
-      <c r="F272" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I272" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J272" t="n">
+      <c r="E273" t="n">
+        <v>13</v>
+      </c>
+      <c r="F273" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J273" t="n">
         <v>550</v>
       </c>
-      <c r="K272" t="n">
+      <c r="K273" t="n">
         <v>27000</v>
       </c>
-      <c r="L272" t="n">
+      <c r="L273" t="n">
         <v>30000</v>
       </c>
-      <c r="M272" t="n">
+      <c r="M273" t="n">
         <v>28745</v>
       </c>
-      <c r="N272" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O272" t="inlineStr">
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P272" t="n">
+      <c r="P273" t="n">
         <v>1150</v>
       </c>
-      <c r="Q272" t="n">
-        <v>25</v>
-      </c>
-      <c r="R272" t="inlineStr">
+      <c r="Q273" t="n">
+        <v>25</v>
+      </c>
+      <c r="R273" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R273"/>
+  <dimension ref="A1:R274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44176</v>
+        <v>44490</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -2805,32 +2805,32 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>810</v>
+        <v>200</v>
       </c>
       <c r="K34" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="L34" t="n">
-        <v>34000</v>
+        <v>42000</v>
       </c>
       <c r="M34" t="n">
-        <v>33136</v>
+        <v>40800</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>2209</v>
+        <v>1632</v>
       </c>
       <c r="Q34" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2877,32 +2877,32 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>660</v>
+        <v>810</v>
       </c>
       <c r="K35" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="L35" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="M35" t="n">
-        <v>36348</v>
+        <v>33136</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1454</v>
+        <v>2209</v>
       </c>
       <c r="Q35" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>490</v>
+        <v>660</v>
       </c>
       <c r="K36" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="L36" t="n">
         <v>37000</v>
       </c>
       <c r="M36" t="n">
-        <v>36061</v>
+        <v>36348</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1442</v>
+        <v>1454</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44208</v>
+        <v>44176</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="K37" t="n">
         <v>35000</v>
@@ -3030,7 +3030,7 @@
         <v>37000</v>
       </c>
       <c r="M37" t="n">
-        <v>35850</v>
+        <v>36061</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1434</v>
+        <v>1442</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="K38" t="n">
         <v>35000</v>
@@ -3102,7 +3102,7 @@
         <v>37000</v>
       </c>
       <c r="M38" t="n">
-        <v>36061</v>
+        <v>35850</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44277</v>
+        <v>44208</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="K39" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L39" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M39" t="n">
-        <v>28275</v>
+        <v>36061</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1131</v>
+        <v>1442</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44354</v>
+        <v>44277</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K40" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L40" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M40" t="n">
-        <v>26133</v>
+        <v>28275</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1045</v>
+        <v>1131</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44237</v>
+        <v>44354</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K41" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L41" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M41" t="n">
-        <v>23875</v>
+        <v>26133</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>955</v>
+        <v>1045</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="K42" t="n">
         <v>23000</v>
@@ -3390,7 +3390,7 @@
         <v>25000</v>
       </c>
       <c r="M42" t="n">
-        <v>23945</v>
+        <v>23875</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44179</v>
+        <v>44237</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3453,32 +3453,32 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>340</v>
+        <v>550</v>
       </c>
       <c r="K43" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L43" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M43" t="n">
-        <v>22000</v>
+        <v>23945</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1467</v>
+        <v>958</v>
       </c>
       <c r="Q43" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3525,32 +3525,32 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1200</v>
+        <v>340</v>
       </c>
       <c r="K44" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L44" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M44" t="n">
-        <v>27500</v>
+        <v>22000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1100</v>
+        <v>1467</v>
       </c>
       <c r="Q44" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44302</v>
+        <v>44179</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>790</v>
+        <v>1200</v>
       </c>
       <c r="K45" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="L45" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M45" t="n">
-        <v>26532</v>
+        <v>27500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1061</v>
+        <v>1100</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44309</v>
+        <v>44302</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>400</v>
+        <v>790</v>
       </c>
       <c r="K46" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L46" t="n">
         <v>27000</v>
       </c>
-      <c r="L46" t="n">
-        <v>30000</v>
-      </c>
       <c r="M46" t="n">
-        <v>28275</v>
+        <v>26532</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1131</v>
+        <v>1061</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44253</v>
+        <v>44309</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="K47" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L47" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M47" t="n">
-        <v>26147</v>
+        <v>28275</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1046</v>
+        <v>1131</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K48" t="n">
         <v>25000</v>
@@ -3822,7 +3822,7 @@
         <v>27000</v>
       </c>
       <c r="M48" t="n">
-        <v>25850</v>
+        <v>26147</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1034</v>
+        <v>1046</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44323</v>
+        <v>44253</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K49" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L49" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M49" t="n">
-        <v>23897</v>
+        <v>25850</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>956</v>
+        <v>1034</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44194</v>
+        <v>44323</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="K50" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L50" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M50" t="n">
-        <v>28400</v>
+        <v>23897</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1136</v>
+        <v>956</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K51" t="n">
         <v>26000</v>
@@ -4038,7 +4038,7 @@
         <v>30000</v>
       </c>
       <c r="M51" t="n">
-        <v>28333</v>
+        <v>28400</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K52" t="n">
         <v>26000</v>
       </c>
       <c r="L52" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M52" t="n">
-        <v>27143</v>
+        <v>28333</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1086</v>
+        <v>1133</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K53" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L53" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M53" t="n">
-        <v>24000</v>
+        <v>27143</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>960</v>
+        <v>1086</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K54" t="n">
         <v>24000</v>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K55" t="n">
         <v>24000</v>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44341</v>
+        <v>44194</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4385,33 +4385,33 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K56" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="L56" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M56" t="n">
-        <v>25852</v>
+        <v>24000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1034</v>
+        <v>960</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44160</v>
+        <v>44341</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4461,32 +4461,32 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K57" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="L57" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="M57" t="n">
-        <v>37425</v>
+        <v>25852</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>2495</v>
+        <v>1034</v>
       </c>
       <c r="Q57" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44196</v>
+        <v>44160</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4533,32 +4533,32 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K58" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="L58" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="M58" t="n">
-        <v>28000</v>
+        <v>37425</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1120</v>
+        <v>2495</v>
       </c>
       <c r="Q58" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K59" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L59" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M59" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K60" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L60" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M60" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K61" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L61" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M61" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>800</v>
+        <v>1120</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K62" t="n">
         <v>20000</v>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K63" t="n">
         <v>20000</v>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44299</v>
+        <v>44196</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -4961,33 +4961,33 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1080</v>
+        <v>250</v>
       </c>
       <c r="K64" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L64" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M64" t="n">
-        <v>25833</v>
+        <v>20000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1033</v>
+        <v>800</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44167</v>
+        <v>44299</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>580</v>
+        <v>1080</v>
       </c>
       <c r="K65" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L65" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M65" t="n">
-        <v>35897</v>
+        <v>25833</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1436</v>
+        <v>1033</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>610</v>
+        <v>580</v>
       </c>
       <c r="K66" t="n">
-        <v>43000</v>
+        <v>35000</v>
       </c>
       <c r="L66" t="n">
-        <v>45000</v>
+        <v>37000</v>
       </c>
       <c r="M66" t="n">
-        <v>44148</v>
+        <v>35897</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1766</v>
+        <v>1436</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1460</v>
+        <v>610</v>
       </c>
       <c r="K67" t="n">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="L67" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="M67" t="n">
-        <v>25137</v>
+        <v>44148</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1005</v>
+        <v>1766</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5253,7 +5253,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>610</v>
+        <v>1460</v>
       </c>
       <c r="K68" t="n">
         <v>24000</v>
@@ -5262,7 +5262,7 @@
         <v>26000</v>
       </c>
       <c r="M68" t="n">
-        <v>25049</v>
+        <v>25137</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>350</v>
+        <v>610</v>
       </c>
       <c r="K69" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L69" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M69" t="n">
-        <v>22000</v>
+        <v>25049</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>880</v>
+        <v>1002</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="K70" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L70" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M70" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44238</v>
+        <v>44217</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -5465,33 +5465,33 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>950</v>
+        <v>230</v>
       </c>
       <c r="K71" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L71" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M71" t="n">
-        <v>26053</v>
+        <v>20000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1042</v>
+        <v>800</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>490</v>
+        <v>950</v>
       </c>
       <c r="K72" t="n">
         <v>25000</v>
@@ -5550,16 +5550,16 @@
         <v>27000</v>
       </c>
       <c r="M72" t="n">
-        <v>26061</v>
+        <v>26053</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="K73" t="n">
         <v>25000</v>
       </c>
       <c r="L73" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="M73" t="n">
-        <v>25400</v>
+        <v>26061</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1016</v>
+        <v>1042</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44222</v>
+        <v>44238</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="K74" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L74" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M74" t="n">
-        <v>23923</v>
+        <v>25400</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>957</v>
+        <v>1016</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>790</v>
+        <v>1300</v>
       </c>
       <c r="K75" t="n">
         <v>23000</v>
@@ -5766,7 +5766,7 @@
         <v>25000</v>
       </c>
       <c r="M75" t="n">
-        <v>24063</v>
+        <v>23923</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1400</v>
+        <v>790</v>
       </c>
       <c r="K76" t="n">
         <v>23000</v>
@@ -5838,7 +5838,7 @@
         <v>25000</v>
       </c>
       <c r="M76" t="n">
-        <v>23857</v>
+        <v>24063</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="K77" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L77" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M77" t="n">
-        <v>20000</v>
+        <v>23857</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>800</v>
+        <v>954</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="K78" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L78" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M78" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>700</v>
+        <v>230</v>
       </c>
       <c r="K79" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L79" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M79" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44260</v>
+        <v>44222</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="K80" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L80" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="M80" t="n">
-        <v>25897</v>
+        <v>18000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1036</v>
+        <v>720</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6189,7 +6189,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>810</v>
+        <v>580</v>
       </c>
       <c r="K81" t="n">
         <v>25000</v>
@@ -6198,7 +6198,7 @@
         <v>27000</v>
       </c>
       <c r="M81" t="n">
-        <v>25938</v>
+        <v>25897</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44211</v>
+        <v>44260</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>620</v>
+        <v>810</v>
       </c>
       <c r="K82" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L82" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M82" t="n">
-        <v>28871</v>
+        <v>25938</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1155</v>
+        <v>1038</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>460</v>
+        <v>620</v>
       </c>
       <c r="K83" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L83" t="n">
         <v>30000</v>
       </c>
       <c r="M83" t="n">
-        <v>29587</v>
+        <v>28871</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6351,11 +6351,11 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1183</v>
+        <v>1155</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>600</v>
+        <v>460</v>
       </c>
       <c r="K84" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L84" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M84" t="n">
-        <v>21233</v>
+        <v>29587</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>849</v>
+        <v>1183</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K85" t="n">
         <v>20000</v>
@@ -6486,7 +6486,7 @@
         <v>22000</v>
       </c>
       <c r="M85" t="n">
-        <v>21080</v>
+        <v>21233</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44218</v>
+        <v>44272</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>610</v>
+        <v>500</v>
       </c>
       <c r="K86" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L86" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M86" t="n">
-        <v>25951</v>
+        <v>21080</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1038</v>
+        <v>843</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="K87" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L87" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M87" t="n">
-        <v>24103</v>
+        <v>25951</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>964</v>
+        <v>1038</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="K88" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L88" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M88" t="n">
-        <v>33000</v>
+        <v>24103</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1320</v>
+        <v>964</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>880</v>
+        <v>700</v>
       </c>
       <c r="K89" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L89" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="M89" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6783,11 +6783,11 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1240</v>
+        <v>1320</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44257</v>
+        <v>44210</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>600</v>
+        <v>880</v>
       </c>
       <c r="K90" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="L90" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M90" t="n">
-        <v>26833</v>
+        <v>31000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6855,11 +6855,11 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1073</v>
+        <v>1240</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K91" t="n">
         <v>26000</v>
       </c>
       <c r="L91" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M91" t="n">
-        <v>27636</v>
+        <v>26833</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6927,11 +6927,11 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44200</v>
+        <v>44257</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6981,29 +6981,29 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K92" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="L92" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M92" t="n">
-        <v>24150</v>
+        <v>27636</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>966</v>
+        <v>1105</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7053,7 +7053,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K93" t="n">
         <v>23000</v>
@@ -7062,7 +7062,7 @@
         <v>25000</v>
       </c>
       <c r="M93" t="n">
-        <v>24103</v>
+        <v>24150</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7071,11 +7071,11 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7125,29 +7125,29 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="K94" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L94" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M94" t="n">
-        <v>21769</v>
+        <v>24103</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>871</v>
+        <v>964</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1350</v>
+        <v>390</v>
       </c>
       <c r="K95" t="n">
         <v>20000</v>
@@ -7206,7 +7206,7 @@
         <v>23000</v>
       </c>
       <c r="M95" t="n">
-        <v>21444</v>
+        <v>21769</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7215,11 +7215,11 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44246</v>
+        <v>44200</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>230</v>
+        <v>1350</v>
       </c>
       <c r="K96" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L96" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M96" t="n">
-        <v>25000</v>
+        <v>21444</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7287,11 +7287,11 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1000</v>
+        <v>858</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="K97" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L97" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M97" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7359,11 +7359,11 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44295</v>
+        <v>44246</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="K98" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L98" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M98" t="n">
-        <v>24150</v>
+        <v>22000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>966</v>
+        <v>880</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44225</v>
+        <v>44295</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K99" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L99" t="n">
         <v>25000</v>
       </c>
-      <c r="L99" t="n">
-        <v>30000</v>
-      </c>
       <c r="M99" t="n">
-        <v>27969</v>
+        <v>24150</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1119</v>
+        <v>966</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K100" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L100" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M100" t="n">
-        <v>24150</v>
+        <v>27969</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>966</v>
+        <v>1119</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K101" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L101" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M101" t="n">
-        <v>20000</v>
+        <v>24150</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>800</v>
+        <v>966</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="K102" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L102" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M102" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44327</v>
+        <v>44225</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7769,33 +7769,33 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K103" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="L103" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M103" t="n">
-        <v>34200</v>
+        <v>18000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1368</v>
+        <v>720</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7845,29 +7845,29 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K104" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L104" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M104" t="n">
-        <v>30850</v>
+        <v>34200</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1234</v>
+        <v>1368</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44175</v>
+        <v>44327</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7917,32 +7917,32 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K105" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L105" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M105" t="n">
-        <v>23897</v>
+        <v>30850</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1593</v>
+        <v>1234</v>
       </c>
       <c r="Q105" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1400</v>
+        <v>580</v>
       </c>
       <c r="K106" t="n">
         <v>23000</v>
@@ -7998,23 +7998,23 @@
         <v>25000</v>
       </c>
       <c r="M106" t="n">
-        <v>24071</v>
+        <v>23897</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>963</v>
+        <v>1593</v>
       </c>
       <c r="Q106" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8061,20 +8061,20 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>550</v>
+        <v>1400</v>
       </c>
       <c r="K107" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L107" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M107" t="n">
-        <v>23164</v>
+        <v>24071</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>927</v>
+        <v>963</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="K108" t="n">
         <v>22000</v>
       </c>
       <c r="L108" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="M108" t="n">
-        <v>22475</v>
+        <v>23164</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8151,11 +8151,11 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>899</v>
+        <v>927</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8201,33 +8201,33 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>450</v>
+        <v>610</v>
       </c>
       <c r="K109" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L109" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M109" t="n">
-        <v>20000</v>
+        <v>22475</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>800</v>
+        <v>899</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8277,29 +8277,29 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="K110" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L110" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M110" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1130</v>
+        <v>170</v>
       </c>
       <c r="K111" t="n">
-        <v>38000</v>
+        <v>18000</v>
       </c>
       <c r="L111" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="M111" t="n">
-        <v>38796</v>
+        <v>18000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8367,11 +8367,11 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1552</v>
+        <v>720</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>850</v>
+        <v>1130</v>
       </c>
       <c r="K112" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="L112" t="n">
         <v>40000</v>
       </c>
       <c r="M112" t="n">
-        <v>39188</v>
+        <v>38796</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1568</v>
+        <v>1552</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>230</v>
+        <v>850</v>
       </c>
       <c r="K113" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="L113" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M113" t="n">
-        <v>35000</v>
+        <v>39188</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1400</v>
+        <v>1568</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8565,7 +8565,7 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K114" t="n">
         <v>35000</v>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P114" t="n">
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44278</v>
+        <v>44188</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>810</v>
+        <v>170</v>
       </c>
       <c r="K115" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L115" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M115" t="n">
-        <v>26136</v>
+        <v>35000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1045</v>
+        <v>1400</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8709,7 +8709,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1030</v>
+        <v>810</v>
       </c>
       <c r="K116" t="n">
         <v>25000</v>
@@ -8718,7 +8718,7 @@
         <v>27000</v>
       </c>
       <c r="M116" t="n">
-        <v>25680</v>
+        <v>26136</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44245</v>
+        <v>44278</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>680</v>
+        <v>1030</v>
       </c>
       <c r="K117" t="n">
         <v>25000</v>
       </c>
       <c r="L117" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M117" t="n">
-        <v>26691</v>
+        <v>25680</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8799,11 +8799,11 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1068</v>
+        <v>1027</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1350</v>
+        <v>680</v>
       </c>
       <c r="K118" t="n">
         <v>25000</v>
       </c>
       <c r="L118" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M118" t="n">
-        <v>25889</v>
+        <v>26691</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1036</v>
+        <v>1068</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>150</v>
+        <v>1350</v>
       </c>
       <c r="K119" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L119" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M119" t="n">
-        <v>20000</v>
+        <v>25889</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>800</v>
+        <v>1036</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -9000,13 +9000,13 @@
         <v>150</v>
       </c>
       <c r="K120" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L120" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M120" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9065,33 +9065,33 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K121" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L121" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M121" t="n">
-        <v>29150</v>
+        <v>22000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1166</v>
+        <v>880</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9141,29 +9141,29 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K122" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L122" t="n">
         <v>30000</v>
       </c>
       <c r="M122" t="n">
-        <v>28380</v>
+        <v>29150</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1135</v>
+        <v>1166</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K123" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L123" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M123" t="n">
-        <v>25850</v>
+        <v>28380</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1034</v>
+        <v>1135</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44216</v>
+        <v>44230</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K124" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L124" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M124" t="n">
-        <v>23852</v>
+        <v>25850</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>954</v>
+        <v>1034</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9357,7 +9357,7 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>720</v>
+        <v>610</v>
       </c>
       <c r="K125" t="n">
         <v>23000</v>
@@ -9366,7 +9366,7 @@
         <v>25000</v>
       </c>
       <c r="M125" t="n">
-        <v>24028</v>
+        <v>23852</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44284</v>
+        <v>44216</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>250</v>
+        <v>720</v>
       </c>
       <c r="K126" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L126" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M126" t="n">
-        <v>27600</v>
+        <v>24028</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1104</v>
+        <v>961</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44174</v>
+        <v>44284</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9501,32 +9501,32 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>710</v>
+        <v>250</v>
       </c>
       <c r="K127" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L127" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M127" t="n">
-        <v>26211</v>
+        <v>27600</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>1747</v>
+        <v>1104</v>
       </c>
       <c r="Q127" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9573,32 +9573,32 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>400</v>
+        <v>710</v>
       </c>
       <c r="K128" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L128" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M128" t="n">
-        <v>29150</v>
+        <v>26211</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>1166</v>
+        <v>1747</v>
       </c>
       <c r="Q128" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9641,36 +9641,36 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K129" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L129" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M129" t="n">
-        <v>23000</v>
+        <v>29150</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1533</v>
+        <v>1166</v>
       </c>
       <c r="Q129" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9717,32 +9717,32 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K130" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L130" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M130" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1000</v>
+        <v>1533</v>
       </c>
       <c r="Q130" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44244</v>
+        <v>44174</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K131" t="n">
         <v>25000</v>
       </c>
       <c r="L131" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M131" t="n">
-        <v>25850</v>
+        <v>25000</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1034</v>
+        <v>1000</v>
       </c>
       <c r="Q131" t="n">
         <v>25</v>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P132" t="n">
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44271</v>
+        <v>44244</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>630</v>
+        <v>400</v>
       </c>
       <c r="K133" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L133" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M133" t="n">
-        <v>21143</v>
+        <v>25850</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>846</v>
+        <v>1034</v>
       </c>
       <c r="Q133" t="n">
         <v>25</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10005,29 +10005,29 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>400</v>
+        <v>630</v>
       </c>
       <c r="K134" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L134" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M134" t="n">
-        <v>27575</v>
+        <v>21143</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1103</v>
+        <v>846</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10080,26 +10080,26 @@
         <v>400</v>
       </c>
       <c r="K135" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L135" t="n">
         <v>28000</v>
       </c>
-      <c r="L135" t="n">
-        <v>30000</v>
-      </c>
       <c r="M135" t="n">
-        <v>29150</v>
+        <v>27575</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>1166</v>
+        <v>1103</v>
       </c>
       <c r="Q135" t="n">
         <v>25</v>
@@ -10152,13 +10152,13 @@
         <v>400</v>
       </c>
       <c r="K136" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L136" t="n">
         <v>30000</v>
       </c>
-      <c r="L136" t="n">
-        <v>32000</v>
-      </c>
       <c r="M136" t="n">
-        <v>30850</v>
+        <v>29150</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10167,11 +10167,11 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1234</v>
+        <v>1166</v>
       </c>
       <c r="Q136" t="n">
         <v>25</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10224,26 +10224,26 @@
         <v>400</v>
       </c>
       <c r="K137" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L137" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="M137" t="n">
-        <v>36275</v>
+        <v>30850</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1451</v>
+        <v>1234</v>
       </c>
       <c r="Q137" t="n">
         <v>25</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44265</v>
+        <v>44330</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10293,29 +10293,29 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="K138" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L138" t="n">
-        <v>22000</v>
+        <v>38000</v>
       </c>
       <c r="M138" t="n">
-        <v>21333</v>
+        <v>36275</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>853</v>
+        <v>1451</v>
       </c>
       <c r="Q138" t="n">
         <v>25</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>810</v>
+        <v>720</v>
       </c>
       <c r="K139" t="n">
         <v>20000</v>
       </c>
       <c r="L139" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="M139" t="n">
-        <v>22222</v>
+        <v>21333</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>889</v>
+        <v>853</v>
       </c>
       <c r="Q139" t="n">
         <v>25</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>1100</v>
+        <v>810</v>
       </c>
       <c r="K140" t="n">
         <v>20000</v>
       </c>
       <c r="L140" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="M140" t="n">
-        <v>21773</v>
+        <v>22222</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10455,11 +10455,11 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="Q140" t="n">
         <v>25</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="K141" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L141" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M141" t="n">
-        <v>17000</v>
+        <v>21773</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>680</v>
+        <v>871</v>
       </c>
       <c r="Q141" t="n">
         <v>25</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>570</v>
+        <v>350</v>
       </c>
       <c r="K142" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L142" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M142" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10599,11 +10599,11 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>800</v>
+        <v>680</v>
       </c>
       <c r="Q142" t="n">
         <v>25</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>650</v>
+        <v>570</v>
       </c>
       <c r="K143" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L143" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M143" t="n">
-        <v>17431</v>
+        <v>20000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>697</v>
+        <v>800</v>
       </c>
       <c r="Q143" t="n">
         <v>25</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,29 +10725,29 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>410</v>
+        <v>650</v>
       </c>
       <c r="K144" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L144" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M144" t="n">
-        <v>24561</v>
+        <v>17431</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>982</v>
+        <v>697</v>
       </c>
       <c r="Q144" t="n">
         <v>25</v>
@@ -10797,20 +10797,20 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="K145" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L145" t="n">
         <v>25000</v>
       </c>
-      <c r="L145" t="n">
-        <v>27000</v>
-      </c>
       <c r="M145" t="n">
-        <v>25867</v>
+        <v>24561</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>1035</v>
+        <v>982</v>
       </c>
       <c r="Q145" t="n">
         <v>25</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="K146" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L146" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M146" t="n">
-        <v>22553</v>
+        <v>25867</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>902</v>
+        <v>1035</v>
       </c>
       <c r="Q146" t="n">
         <v>25</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="K147" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L147" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M147" t="n">
-        <v>18867</v>
+        <v>22553</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>755</v>
+        <v>902</v>
       </c>
       <c r="Q147" t="n">
         <v>25</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44195</v>
+        <v>44293</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,29 +11013,29 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="K148" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L148" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M148" t="n">
-        <v>25897</v>
+        <v>18867</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>1036</v>
+        <v>755</v>
       </c>
       <c r="Q148" t="n">
         <v>25</v>
@@ -11085,7 +11085,7 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>900</v>
+        <v>580</v>
       </c>
       <c r="K149" t="n">
         <v>25000</v>
@@ -11094,7 +11094,7 @@
         <v>27000</v>
       </c>
       <c r="M149" t="n">
-        <v>26333</v>
+        <v>25897</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11103,11 +11103,11 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="Q149" t="n">
         <v>25</v>
@@ -11157,7 +11157,7 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="K150" t="n">
         <v>25000</v>
@@ -11166,7 +11166,7 @@
         <v>27000</v>
       </c>
       <c r="M150" t="n">
-        <v>26077</v>
+        <v>26333</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1043</v>
+        <v>1053</v>
       </c>
       <c r="Q150" t="n">
         <v>25</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="K151" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L151" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M151" t="n">
-        <v>23889</v>
+        <v>26077</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>956</v>
+        <v>1043</v>
       </c>
       <c r="Q151" t="n">
         <v>25</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="K152" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L152" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M152" t="n">
-        <v>20000</v>
+        <v>23889</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11373,7 +11373,7 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K153" t="n">
         <v>20000</v>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P153" t="n">
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K154" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L154" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M154" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11463,11 +11463,11 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>920</v>
+        <v>800</v>
       </c>
       <c r="Q154" t="n">
         <v>25</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K155" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L155" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M155" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>800</v>
+        <v>920</v>
       </c>
       <c r="Q155" t="n">
         <v>25</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K156" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L156" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="M156" t="n">
-        <v>36150</v>
+        <v>20000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1446</v>
+        <v>800</v>
       </c>
       <c r="Q156" t="n">
         <v>25</v>
@@ -11661,29 +11661,29 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>690</v>
+        <v>400</v>
       </c>
       <c r="K157" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L157" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M157" t="n">
-        <v>33000</v>
+        <v>36150</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1320</v>
+        <v>1446</v>
       </c>
       <c r="Q157" t="n">
         <v>25</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>790</v>
+        <v>690</v>
       </c>
       <c r="K158" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="L158" t="n">
         <v>35000</v>
       </c>
       <c r="M158" t="n">
-        <v>34063</v>
+        <v>33000</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1363</v>
+        <v>1320</v>
       </c>
       <c r="Q158" t="n">
         <v>25</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>460</v>
+        <v>790</v>
       </c>
       <c r="K159" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L159" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M159" t="n">
-        <v>30000</v>
+        <v>34063</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1200</v>
+        <v>1363</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44294</v>
+        <v>44209</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="K160" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L160" t="n">
         <v>30000</v>
       </c>
       <c r="M160" t="n">
-        <v>29103</v>
+        <v>30000</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1164</v>
+        <v>1200</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,29 +11949,29 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K161" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L161" t="n">
         <v>30000</v>
       </c>
-      <c r="L161" t="n">
-        <v>250000</v>
-      </c>
       <c r="M161" t="n">
-        <v>112500</v>
+        <v>29103</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>4500</v>
+        <v>1164</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -12021,29 +12021,29 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K162" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L162" t="n">
-        <v>27000</v>
+        <v>250000</v>
       </c>
       <c r="M162" t="n">
-        <v>24038</v>
+        <v>112500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>962</v>
+        <v>4500</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12089,33 +12089,33 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>100</v>
+        <v>520</v>
       </c>
       <c r="K163" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L163" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M163" t="n">
-        <v>20000</v>
+        <v>24038</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>800</v>
+        <v>962</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12161,33 +12161,33 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K164" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L164" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="M164" t="n">
-        <v>28164</v>
+        <v>20000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>1127</v>
+        <v>800</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K165" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="L165" t="n">
-        <v>40000</v>
+        <v>29000</v>
       </c>
       <c r="M165" t="n">
-        <v>39233</v>
+        <v>28164</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>1569</v>
+        <v>1127</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44319</v>
+        <v>44169</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,29 +12309,29 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="K166" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="L166" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="M166" t="n">
-        <v>23000</v>
+        <v>39233</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>920</v>
+        <v>1569</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12381,29 +12381,29 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="K167" t="n">
         <v>23000</v>
       </c>
       <c r="L167" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M167" t="n">
-        <v>24275</v>
+        <v>23000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>971</v>
+        <v>920</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12449,33 +12449,33 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="K168" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L168" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M168" t="n">
-        <v>25000</v>
+        <v>24275</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>1000</v>
+        <v>971</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44236</v>
+        <v>44319</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>550</v>
+        <v>170</v>
       </c>
       <c r="K169" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L169" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M169" t="n">
-        <v>18836</v>
+        <v>25000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12543,11 +12543,11 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>753</v>
+        <v>1000</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12597,29 +12597,29 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K170" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L170" t="n">
         <v>20000</v>
       </c>
-      <c r="L170" t="n">
-        <v>22000</v>
-      </c>
       <c r="M170" t="n">
-        <v>20800</v>
+        <v>18836</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>832</v>
+        <v>753</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12669,7 +12669,7 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K171" t="n">
         <v>20000</v>
@@ -12678,7 +12678,7 @@
         <v>22000</v>
       </c>
       <c r="M171" t="n">
-        <v>21150</v>
+        <v>20800</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12687,11 +12687,11 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K172" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L172" t="n">
         <v>22000</v>
       </c>
       <c r="M172" t="n">
-        <v>20500</v>
+        <v>21150</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12809,33 +12809,33 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>260</v>
+        <v>1600</v>
       </c>
       <c r="K173" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L173" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M173" t="n">
-        <v>15000</v>
+        <v>20500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>600</v>
+        <v>820</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12885,29 +12885,29 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="K174" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L174" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M174" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K175" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L175" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M175" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="K176" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L176" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M176" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K177" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="L177" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M177" t="n">
-        <v>29150</v>
+        <v>15000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>1166</v>
+        <v>600</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="K178" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="L178" t="n">
         <v>30000</v>
       </c>
       <c r="M178" t="n">
-        <v>27805</v>
+        <v>29150</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1112</v>
+        <v>1166</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>600</v>
+        <v>820</v>
       </c>
       <c r="K179" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="L179" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M179" t="n">
-        <v>23833</v>
+        <v>27805</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>953</v>
+        <v>1112</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="K180" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L180" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M180" t="n">
-        <v>18523</v>
+        <v>23833</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>741</v>
+        <v>953</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="K181" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L181" t="n">
         <v>20000</v>
       </c>
       <c r="M181" t="n">
-        <v>18850</v>
+        <v>18523</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K182" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L182" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M182" t="n">
-        <v>15000</v>
+        <v>18850</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>600</v>
+        <v>754</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13533,7 +13533,7 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K183" t="n">
         <v>15000</v>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P183" t="n">
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44291</v>
+        <v>44203</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>1500</v>
+        <v>120</v>
       </c>
       <c r="K184" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L184" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M184" t="n">
-        <v>23600</v>
+        <v>15000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>944</v>
+        <v>600</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44168</v>
+        <v>44291</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,29 +13677,29 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K185" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="L185" t="n">
-        <v>37000</v>
+        <v>24000</v>
       </c>
       <c r="M185" t="n">
-        <v>36575</v>
+        <v>23600</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1463</v>
+        <v>944</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13762,12 +13762,12 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P186" t="n">
@@ -13817,33 +13817,33 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="K187" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="L187" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="M187" t="n">
-        <v>32000</v>
+        <v>36575</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1280</v>
+        <v>1463</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,24 +13889,24 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="K188" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="L188" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="M188" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>840</v>
+        <v>1280</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="K189" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L189" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M189" t="n">
-        <v>18464</v>
+        <v>21000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>739</v>
+        <v>840</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,32 +14037,32 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K190" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L190" t="n">
-        <v>37000</v>
+        <v>19000</v>
       </c>
       <c r="M190" t="n">
-        <v>36150</v>
+        <v>18464</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2410</v>
+        <v>739</v>
       </c>
       <c r="Q190" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14112,29 +14112,29 @@
         <v>400</v>
       </c>
       <c r="K191" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L191" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M191" t="n">
-        <v>32875</v>
+        <v>36150</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1315</v>
+        <v>2410</v>
       </c>
       <c r="Q191" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,29 +14181,29 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="K192" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="L192" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M192" t="n">
-        <v>28286</v>
+        <v>32875</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1131</v>
+        <v>1315</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>510</v>
+        <v>1050</v>
       </c>
       <c r="K193" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L193" t="n">
         <v>30000</v>
       </c>
-      <c r="L193" t="n">
-        <v>32000</v>
-      </c>
       <c r="M193" t="n">
-        <v>31098</v>
+        <v>28286</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1244</v>
+        <v>1131</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>1400</v>
+        <v>510</v>
       </c>
       <c r="K194" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L194" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M194" t="n">
-        <v>29071</v>
+        <v>31098</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1163</v>
+        <v>1244</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,7 +14397,7 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="K195" t="n">
         <v>28000</v>
@@ -14406,7 +14406,7 @@
         <v>30000</v>
       </c>
       <c r="M195" t="n">
-        <v>29292</v>
+        <v>29071</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14472,13 +14472,13 @@
         <v>650</v>
       </c>
       <c r="K196" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="L196" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M196" t="n">
-        <v>27292</v>
+        <v>29292</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1092</v>
+        <v>1172</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44229</v>
+        <v>44274</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="K197" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="L197" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M197" t="n">
-        <v>33909</v>
+        <v>27292</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1356</v>
+        <v>1092</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14613,7 +14613,7 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="K198" t="n">
         <v>33000</v>
@@ -14622,7 +14622,7 @@
         <v>35000</v>
       </c>
       <c r="M198" t="n">
-        <v>33791</v>
+        <v>33909</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>270</v>
+        <v>430</v>
       </c>
       <c r="K199" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L199" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M199" t="n">
-        <v>25741</v>
+        <v>33791</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14703,11 +14703,11 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1030</v>
+        <v>1352</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44165</v>
+        <v>44344</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14760,29 +14760,29 @@
         <v>270</v>
       </c>
       <c r="K200" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="L200" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="M200" t="n">
-        <v>37444</v>
+        <v>25741</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>2496</v>
+        <v>1030</v>
       </c>
       <c r="Q200" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,32 +14829,32 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>550</v>
+        <v>270</v>
       </c>
       <c r="K201" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="L201" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="M201" t="n">
-        <v>26164</v>
+        <v>37444</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1047</v>
+        <v>2496</v>
       </c>
       <c r="Q201" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>1400</v>
+        <v>550</v>
       </c>
       <c r="K202" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L202" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M202" t="n">
-        <v>24143</v>
+        <v>26164</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>966</v>
+        <v>1047</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14973,29 +14973,29 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>680</v>
+        <v>1400</v>
       </c>
       <c r="K203" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L203" t="n">
         <v>25000</v>
       </c>
-      <c r="L203" t="n">
-        <v>27000</v>
-      </c>
       <c r="M203" t="n">
-        <v>26324</v>
+        <v>24143</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>1053</v>
+        <v>966</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15041,33 +15041,33 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>200</v>
+        <v>680</v>
       </c>
       <c r="K204" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L204" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M204" t="n">
-        <v>20000</v>
+        <v>26324</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>800</v>
+        <v>1053</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K205" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L205" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M205" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15135,11 +15135,11 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15189,29 +15189,29 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="K206" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L206" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M206" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15257,33 +15257,33 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>550</v>
+        <v>230</v>
       </c>
       <c r="K207" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L207" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M207" t="n">
-        <v>23836</v>
+        <v>20000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>953</v>
+        <v>800</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K208" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L208" t="n">
         <v>25000</v>
       </c>
-      <c r="L208" t="n">
-        <v>27000</v>
-      </c>
       <c r="M208" t="n">
-        <v>26080</v>
+        <v>23836</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>1043</v>
+        <v>953</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,7 +15405,7 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K209" t="n">
         <v>25000</v>
@@ -15414,7 +15414,7 @@
         <v>27000</v>
       </c>
       <c r="M209" t="n">
-        <v>25850</v>
+        <v>26080</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1034</v>
+        <v>1043</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15477,7 +15477,7 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>1080</v>
+        <v>400</v>
       </c>
       <c r="K210" t="n">
         <v>25000</v>
@@ -15486,7 +15486,7 @@
         <v>27000</v>
       </c>
       <c r="M210" t="n">
-        <v>26167</v>
+        <v>25850</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,29 +15549,29 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>400</v>
+        <v>1080</v>
       </c>
       <c r="K211" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L211" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M211" t="n">
-        <v>29150</v>
+        <v>26167</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>1166</v>
+        <v>1047</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15621,29 +15621,29 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K212" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L212" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M212" t="n">
-        <v>23929</v>
+        <v>29150</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>957</v>
+        <v>1166</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K213" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L213" t="n">
         <v>25000</v>
       </c>
-      <c r="L213" t="n">
-        <v>27000</v>
-      </c>
       <c r="M213" t="n">
-        <v>25800</v>
+        <v>23929</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1032</v>
+        <v>957</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="K214" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L214" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M214" t="n">
-        <v>20000</v>
+        <v>25800</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15783,11 +15783,11 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>800</v>
+        <v>1032</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15855,7 +15855,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P215" t="n">
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44300</v>
+        <v>44204</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="K216" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L216" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M216" t="n">
-        <v>24448</v>
+        <v>20000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>978</v>
+        <v>800</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,32 +15981,32 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="K217" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L217" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M217" t="n">
-        <v>20897</v>
+        <v>24448</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>1393</v>
+        <v>978</v>
       </c>
       <c r="Q217" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16053,32 +16053,32 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>600</v>
+        <v>290</v>
       </c>
       <c r="K218" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L218" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M218" t="n">
-        <v>30767</v>
+        <v>20897</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1231</v>
+        <v>1393</v>
       </c>
       <c r="Q218" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44243</v>
+        <v>44186</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K219" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L219" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M219" t="n">
-        <v>26303</v>
+        <v>30767</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1052</v>
+        <v>1231</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>1150</v>
+        <v>660</v>
       </c>
       <c r="K220" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L220" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M220" t="n">
-        <v>24043</v>
+        <v>26303</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16215,11 +16215,11 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>962</v>
+        <v>1052</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,7 +16269,7 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>830</v>
+        <v>1150</v>
       </c>
       <c r="K221" t="n">
         <v>23000</v>
@@ -16278,7 +16278,7 @@
         <v>25000</v>
       </c>
       <c r="M221" t="n">
-        <v>24108</v>
+        <v>24043</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16341,7 +16341,7 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>1380</v>
+        <v>830</v>
       </c>
       <c r="K222" t="n">
         <v>23000</v>
@@ -16350,7 +16350,7 @@
         <v>25000</v>
       </c>
       <c r="M222" t="n">
-        <v>23913</v>
+        <v>24108</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16359,11 +16359,11 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16413,7 +16413,7 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>1400</v>
+        <v>1380</v>
       </c>
       <c r="K223" t="n">
         <v>23000</v>
@@ -16422,7 +16422,7 @@
         <v>25000</v>
       </c>
       <c r="M223" t="n">
-        <v>23929</v>
+        <v>23913</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P223" t="n">
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44242</v>
+        <v>44202</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,7 +16485,7 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K224" t="n">
         <v>23000</v>
@@ -16494,7 +16494,7 @@
         <v>25000</v>
       </c>
       <c r="M224" t="n">
-        <v>24150</v>
+        <v>23929</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16503,11 +16503,11 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16566,7 +16566,7 @@
         <v>25000</v>
       </c>
       <c r="M225" t="n">
-        <v>23850</v>
+        <v>24150</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44307</v>
+        <v>44242</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K226" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L226" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M226" t="n">
-        <v>28714</v>
+        <v>23850</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1149</v>
+        <v>954</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="K227" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L227" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M227" t="n">
-        <v>25807</v>
+        <v>28714</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1032</v>
+        <v>1149</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44166</v>
+        <v>44307</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,32 +16773,32 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>430</v>
+        <v>570</v>
       </c>
       <c r="K228" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="L228" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="M228" t="n">
-        <v>37209</v>
+        <v>25807</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>2481</v>
+        <v>1032</v>
       </c>
       <c r="Q228" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,32 +16845,32 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="K229" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="L229" t="n">
-        <v>80000</v>
+        <v>38000</v>
       </c>
       <c r="M229" t="n">
-        <v>77667</v>
+        <v>37209</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>3107</v>
+        <v>2481</v>
       </c>
       <c r="Q229" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,29 +16917,29 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K230" t="n">
-        <v>22000</v>
+        <v>75000</v>
       </c>
       <c r="L230" t="n">
-        <v>23000</v>
+        <v>80000</v>
       </c>
       <c r="M230" t="n">
-        <v>22536</v>
+        <v>77667</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>901</v>
+        <v>3107</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="K231" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L231" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M231" t="n">
-        <v>21400</v>
+        <v>22536</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>856</v>
+        <v>901</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="K232" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="L232" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M232" t="n">
-        <v>25905</v>
+        <v>21400</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17079,11 +17079,11 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1036</v>
+        <v>856</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,32 +17133,32 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="K233" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L233" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M233" t="n">
-        <v>30857</v>
+        <v>25905</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>2057</v>
+        <v>1036</v>
       </c>
       <c r="Q233" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17205,32 +17205,32 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="K234" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L234" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="M234" t="n">
-        <v>37182</v>
+        <v>30857</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>1487</v>
+        <v>2057</v>
       </c>
       <c r="Q234" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K235" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L235" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M235" t="n">
-        <v>24150</v>
+        <v>37182</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>966</v>
+        <v>1487</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="K236" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L236" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M236" t="n">
-        <v>23172</v>
+        <v>24150</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17367,11 +17367,11 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>927</v>
+        <v>966</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,29 +17421,29 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="K237" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="L237" t="n">
-        <v>37000</v>
+        <v>24000</v>
       </c>
       <c r="M237" t="n">
-        <v>35800</v>
+        <v>23172</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1432</v>
+        <v>927</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17493,29 +17493,29 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K238" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L238" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M238" t="n">
-        <v>33667</v>
+        <v>35800</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1347</v>
+        <v>1432</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K239" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L239" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M239" t="n">
-        <v>21275</v>
+        <v>33667</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>851</v>
+        <v>1347</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K240" t="n">
         <v>20000</v>
       </c>
       <c r="L240" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M240" t="n">
-        <v>21143</v>
+        <v>21275</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K241" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L241" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M241" t="n">
-        <v>18933</v>
+        <v>21143</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>757</v>
+        <v>846</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K242" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L242" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M242" t="n">
-        <v>16000</v>
+        <v>18933</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>640</v>
+        <v>757</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17853,7 +17853,7 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K243" t="n">
         <v>16000</v>
@@ -17871,7 +17871,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P243" t="n">
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J244" t="n">
         <v>500</v>
       </c>
       <c r="K244" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L244" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="M244" t="n">
-        <v>26080</v>
+        <v>16000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1043</v>
+        <v>640</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44314</v>
+        <v>44298</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,7 +17997,7 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K245" t="n">
         <v>25000</v>
@@ -18006,7 +18006,7 @@
         <v>27000</v>
       </c>
       <c r="M245" t="n">
-        <v>26150</v>
+        <v>26080</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K246" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L246" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M246" t="n">
-        <v>24585</v>
+        <v>26150</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>983</v>
+        <v>1046</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>50</v>
+        <v>410</v>
       </c>
       <c r="K247" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L247" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M247" t="n">
-        <v>20000</v>
+        <v>24585</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18159,11 +18159,11 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>800</v>
+        <v>983</v>
       </c>
       <c r="Q247" t="n">
         <v>25</v>
@@ -18213,7 +18213,7 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K248" t="n">
         <v>20000</v>
@@ -18231,7 +18231,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P248" t="n">
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44187</v>
+        <v>44314</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>1680</v>
+        <v>60</v>
       </c>
       <c r="K249" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="L249" t="n">
-        <v>43000</v>
+        <v>20000</v>
       </c>
       <c r="M249" t="n">
-        <v>41780</v>
+        <v>20000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18303,11 +18303,11 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1671</v>
+        <v>800</v>
       </c>
       <c r="Q249" t="n">
         <v>25</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>550</v>
+        <v>1680</v>
       </c>
       <c r="K250" t="n">
         <v>40000</v>
       </c>
       <c r="L250" t="n">
-        <v>42000</v>
+        <v>43000</v>
       </c>
       <c r="M250" t="n">
-        <v>40836</v>
+        <v>41780</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1633</v>
+        <v>1671</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18429,7 +18429,7 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="K251" t="n">
         <v>40000</v>
@@ -18438,7 +18438,7 @@
         <v>42000</v>
       </c>
       <c r="M251" t="n">
-        <v>41042</v>
+        <v>40836</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18447,11 +18447,11 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1642</v>
+        <v>1633</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18497,20 +18497,20 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>610</v>
+        <v>480</v>
       </c>
       <c r="K252" t="n">
-        <v>37000</v>
+        <v>40000</v>
       </c>
       <c r="L252" t="n">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="M252" t="n">
-        <v>37000</v>
+        <v>41042</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1480</v>
+        <v>1642</v>
       </c>
       <c r="Q252" t="n">
         <v>25</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>260</v>
+        <v>610</v>
       </c>
       <c r="K253" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="L253" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M253" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18645,7 +18645,7 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="K254" t="n">
         <v>35000</v>
@@ -18663,7 +18663,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P254" t="n">
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K255" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L255" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M255" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q255" t="n">
         <v>25</v>
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K256" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L256" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M256" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q256" t="n">
         <v>25</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K257" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L257" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M257" t="n">
-        <v>25850</v>
+        <v>23000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18879,11 +18879,11 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1034</v>
+        <v>920</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18942,7 +18942,7 @@
         <v>27000</v>
       </c>
       <c r="M258" t="n">
-        <v>26150</v>
+        <v>25850</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18951,11 +18951,11 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="Q258" t="n">
         <v>25</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,29 +19005,29 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K259" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L259" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M259" t="n">
-        <v>23545</v>
+        <v>26150</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K260" t="n">
         <v>23000</v>
@@ -19086,20 +19086,20 @@
         <v>25000</v>
       </c>
       <c r="M260" t="n">
-        <v>23667</v>
+        <v>23545</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19149,7 +19149,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="K261" t="n">
         <v>23000</v>
@@ -19158,7 +19158,7 @@
         <v>25000</v>
       </c>
       <c r="M261" t="n">
-        <v>23897</v>
+        <v>23667</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19167,11 +19167,11 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="K262" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L262" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M262" t="n">
-        <v>22571</v>
+        <v>23897</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>903</v>
+        <v>956</v>
       </c>
       <c r="Q262" t="n">
         <v>25</v>
@@ -19289,33 +19289,33 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K263" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L263" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M263" t="n">
-        <v>20000</v>
+        <v>22571</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>800</v>
+        <v>903</v>
       </c>
       <c r="Q263" t="n">
         <v>25</v>
@@ -19378,12 +19378,12 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P264" t="n">
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K265" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L265" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M265" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q265" t="n">
         <v>25</v>
@@ -19509,7 +19509,7 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K266" t="n">
         <v>18000</v>
@@ -19527,7 +19527,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P266" t="n">
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19577,36 +19577,36 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>610</v>
+        <v>150</v>
       </c>
       <c r="K267" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L267" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M267" t="n">
-        <v>21148</v>
+        <v>18000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>1410</v>
+        <v>720</v>
       </c>
       <c r="Q267" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19653,32 +19653,32 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K268" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L268" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M268" t="n">
-        <v>28725</v>
+        <v>21148</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>1149</v>
+        <v>1410</v>
       </c>
       <c r="Q268" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19725,29 +19725,29 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>740</v>
+        <v>400</v>
       </c>
       <c r="K269" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L269" t="n">
         <v>30000</v>
       </c>
       <c r="M269" t="n">
-        <v>28865</v>
+        <v>28725</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="Q269" t="n">
         <v>25</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="K270" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="L270" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M270" t="n">
-        <v>22675</v>
+        <v>28865</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>907</v>
+        <v>1155</v>
       </c>
       <c r="Q270" t="n">
         <v>25</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K271" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L271" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M271" t="n">
-        <v>18308</v>
+        <v>22675</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>732</v>
+        <v>907</v>
       </c>
       <c r="Q271" t="n">
         <v>25</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K272" t="n">
         <v>15000</v>
       </c>
       <c r="L272" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M272" t="n">
-        <v>20125</v>
+        <v>18308</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>805</v>
+        <v>732</v>
       </c>
       <c r="Q272" t="n">
         <v>25</v>
@@ -19989,58 +19989,130 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E273" t="n">
+        <v>13</v>
+      </c>
+      <c r="F273" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J273" t="n">
+        <v>480</v>
+      </c>
+      <c r="K273" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L273" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M273" t="n">
+        <v>20125</v>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P273" t="n">
+        <v>805</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>25</v>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>6</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D274" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E273" t="n">
-        <v>13</v>
-      </c>
-      <c r="F273" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G273" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I273" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J273" t="n">
+      <c r="E274" t="n">
+        <v>13</v>
+      </c>
+      <c r="F274" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J274" t="n">
         <v>550</v>
       </c>
-      <c r="K273" t="n">
+      <c r="K274" t="n">
         <v>27000</v>
       </c>
-      <c r="L273" t="n">
+      <c r="L274" t="n">
         <v>30000</v>
       </c>
-      <c r="M273" t="n">
+      <c r="M274" t="n">
         <v>28745</v>
       </c>
-      <c r="N273" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O273" t="inlineStr">
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O274" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P273" t="n">
+      <c r="P274" t="n">
         <v>1150</v>
       </c>
-      <c r="Q273" t="n">
-        <v>25</v>
-      </c>
-      <c r="R273" t="inlineStr">
+      <c r="Q274" t="n">
+        <v>25</v>
+      </c>
+      <c r="R274" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R274"/>
+  <dimension ref="A1:R275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,32 +17205,32 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="K234" t="n">
         <v>30000</v>
       </c>
       <c r="L234" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M234" t="n">
-        <v>30857</v>
+        <v>31974</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>2057</v>
+        <v>1279</v>
       </c>
       <c r="Q234" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17277,32 +17277,32 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="K235" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L235" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="M235" t="n">
-        <v>37182</v>
+        <v>30857</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1487</v>
+        <v>2057</v>
       </c>
       <c r="Q235" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K236" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L236" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M236" t="n">
-        <v>24150</v>
+        <v>37182</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>966</v>
+        <v>1487</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="K237" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L237" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M237" t="n">
-        <v>23172</v>
+        <v>24150</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>927</v>
+        <v>966</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,29 +17493,29 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="K238" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="L238" t="n">
-        <v>37000</v>
+        <v>24000</v>
       </c>
       <c r="M238" t="n">
-        <v>35800</v>
+        <v>23172</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1432</v>
+        <v>927</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17565,29 +17565,29 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K239" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L239" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M239" t="n">
-        <v>33667</v>
+        <v>35800</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1347</v>
+        <v>1432</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K240" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L240" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M240" t="n">
-        <v>21275</v>
+        <v>33667</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>851</v>
+        <v>1347</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K241" t="n">
         <v>20000</v>
       </c>
       <c r="L241" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M241" t="n">
-        <v>21143</v>
+        <v>21275</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K242" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L242" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M242" t="n">
-        <v>18933</v>
+        <v>21143</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>757</v>
+        <v>846</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17849,20 +17849,20 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K243" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L243" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M243" t="n">
-        <v>16000</v>
+        <v>18933</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17871,11 +17871,11 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>640</v>
+        <v>757</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17925,7 +17925,7 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K244" t="n">
         <v>16000</v>
@@ -17943,7 +17943,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P244" t="n">
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J245" t="n">
         <v>500</v>
       </c>
       <c r="K245" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L245" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="M245" t="n">
-        <v>26080</v>
+        <v>16000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1043</v>
+        <v>640</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44314</v>
+        <v>44298</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,7 +18069,7 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K246" t="n">
         <v>25000</v>
@@ -18078,7 +18078,7 @@
         <v>27000</v>
       </c>
       <c r="M246" t="n">
-        <v>26150</v>
+        <v>26080</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K247" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L247" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M247" t="n">
-        <v>24585</v>
+        <v>26150</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18159,11 +18159,11 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>983</v>
+        <v>1046</v>
       </c>
       <c r="Q247" t="n">
         <v>25</v>
@@ -18209,20 +18209,20 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>50</v>
+        <v>410</v>
       </c>
       <c r="K248" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L248" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M248" t="n">
-        <v>20000</v>
+        <v>24585</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>800</v>
+        <v>983</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18285,7 +18285,7 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K249" t="n">
         <v>20000</v>
@@ -18303,7 +18303,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P249" t="n">
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44187</v>
+        <v>44314</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18353,20 +18353,20 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>1680</v>
+        <v>60</v>
       </c>
       <c r="K250" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="L250" t="n">
-        <v>43000</v>
+        <v>20000</v>
       </c>
       <c r="M250" t="n">
-        <v>41780</v>
+        <v>20000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1671</v>
+        <v>800</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>550</v>
+        <v>1680</v>
       </c>
       <c r="K251" t="n">
         <v>40000</v>
       </c>
       <c r="L251" t="n">
-        <v>42000</v>
+        <v>43000</v>
       </c>
       <c r="M251" t="n">
-        <v>40836</v>
+        <v>41780</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18447,11 +18447,11 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1633</v>
+        <v>1671</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18501,7 +18501,7 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="K252" t="n">
         <v>40000</v>
@@ -18510,7 +18510,7 @@
         <v>42000</v>
       </c>
       <c r="M252" t="n">
-        <v>41042</v>
+        <v>40836</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1642</v>
+        <v>1633</v>
       </c>
       <c r="Q252" t="n">
         <v>25</v>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>610</v>
+        <v>480</v>
       </c>
       <c r="K253" t="n">
-        <v>37000</v>
+        <v>40000</v>
       </c>
       <c r="L253" t="n">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="M253" t="n">
-        <v>37000</v>
+        <v>41042</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1480</v>
+        <v>1642</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>260</v>
+        <v>610</v>
       </c>
       <c r="K254" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="L254" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M254" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18717,7 +18717,7 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="K255" t="n">
         <v>35000</v>
@@ -18735,7 +18735,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P255" t="n">
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K256" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L256" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M256" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q256" t="n">
         <v>25</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K257" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L257" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M257" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18929,20 +18929,20 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K258" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L258" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M258" t="n">
-        <v>25850</v>
+        <v>23000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18951,11 +18951,11 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>1034</v>
+        <v>920</v>
       </c>
       <c r="Q258" t="n">
         <v>25</v>
@@ -19014,7 +19014,7 @@
         <v>27000</v>
       </c>
       <c r="M259" t="n">
-        <v>26150</v>
+        <v>25850</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19023,11 +19023,11 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,29 +19077,29 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K260" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L260" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M260" t="n">
-        <v>23545</v>
+        <v>26150</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19149,7 +19149,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K261" t="n">
         <v>23000</v>
@@ -19158,20 +19158,20 @@
         <v>25000</v>
       </c>
       <c r="M261" t="n">
-        <v>23667</v>
+        <v>23545</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="K262" t="n">
         <v>23000</v>
@@ -19230,7 +19230,7 @@
         <v>25000</v>
       </c>
       <c r="M262" t="n">
-        <v>23897</v>
+        <v>23667</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="Q262" t="n">
         <v>25</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="K263" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L263" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M263" t="n">
-        <v>22571</v>
+        <v>23897</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19311,11 +19311,11 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>903</v>
+        <v>956</v>
       </c>
       <c r="Q263" t="n">
         <v>25</v>
@@ -19361,33 +19361,33 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K264" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L264" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M264" t="n">
-        <v>20000</v>
+        <v>22571</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>800</v>
+        <v>903</v>
       </c>
       <c r="Q264" t="n">
         <v>25</v>
@@ -19450,12 +19450,12 @@
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P265" t="n">
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K266" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L266" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M266" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q266" t="n">
         <v>25</v>
@@ -19581,7 +19581,7 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K267" t="n">
         <v>18000</v>
@@ -19599,7 +19599,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P267" t="n">
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19649,36 +19649,36 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>610</v>
+        <v>150</v>
       </c>
       <c r="K268" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L268" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M268" t="n">
-        <v>21148</v>
+        <v>18000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>1410</v>
+        <v>720</v>
       </c>
       <c r="Q268" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19725,32 +19725,32 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K269" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L269" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M269" t="n">
-        <v>28725</v>
+        <v>21148</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1149</v>
+        <v>1410</v>
       </c>
       <c r="Q269" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19797,29 +19797,29 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>740</v>
+        <v>400</v>
       </c>
       <c r="K270" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L270" t="n">
         <v>30000</v>
       </c>
       <c r="M270" t="n">
-        <v>28865</v>
+        <v>28725</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="Q270" t="n">
         <v>25</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="K271" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="L271" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M271" t="n">
-        <v>22675</v>
+        <v>28865</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>907</v>
+        <v>1155</v>
       </c>
       <c r="Q271" t="n">
         <v>25</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K272" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L272" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M272" t="n">
-        <v>18308</v>
+        <v>22675</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>732</v>
+        <v>907</v>
       </c>
       <c r="Q272" t="n">
         <v>25</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K273" t="n">
         <v>15000</v>
       </c>
       <c r="L273" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M273" t="n">
-        <v>20125</v>
+        <v>18308</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>805</v>
+        <v>732</v>
       </c>
       <c r="Q273" t="n">
         <v>25</v>
@@ -20061,58 +20061,130 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E274" t="n">
+        <v>13</v>
+      </c>
+      <c r="F274" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J274" t="n">
+        <v>480</v>
+      </c>
+      <c r="K274" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L274" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M274" t="n">
+        <v>20125</v>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P274" t="n">
+        <v>805</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>25</v>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>6</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D275" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E274" t="n">
-        <v>13</v>
-      </c>
-      <c r="F274" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G274" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I274" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J274" t="n">
+      <c r="E275" t="n">
+        <v>13</v>
+      </c>
+      <c r="F275" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J275" t="n">
         <v>550</v>
       </c>
-      <c r="K274" t="n">
+      <c r="K275" t="n">
         <v>27000</v>
       </c>
-      <c r="L274" t="n">
+      <c r="L275" t="n">
         <v>30000</v>
       </c>
-      <c r="M274" t="n">
+      <c r="M275" t="n">
         <v>28745</v>
       </c>
-      <c r="N274" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O274" t="inlineStr">
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P274" t="n">
+      <c r="P275" t="n">
         <v>1150</v>
       </c>
-      <c r="Q274" t="n">
-        <v>25</v>
-      </c>
-      <c r="R274" t="inlineStr">
+      <c r="Q275" t="n">
+        <v>25</v>
+      </c>
+      <c r="R275" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R275"/>
+  <dimension ref="A1:R276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44230</v>
+        <v>44495</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K122" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L122" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M122" t="n">
-        <v>29150</v>
+        <v>34167</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1166</v>
+        <v>1367</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9213,29 +9213,29 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K123" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L123" t="n">
         <v>30000</v>
       </c>
       <c r="M123" t="n">
-        <v>28380</v>
+        <v>29150</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1135</v>
+        <v>1166</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K124" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L124" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M124" t="n">
-        <v>25850</v>
+        <v>28380</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1034</v>
+        <v>1135</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44216</v>
+        <v>44230</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K125" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L125" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M125" t="n">
-        <v>23852</v>
+        <v>25850</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>954</v>
+        <v>1034</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9429,7 +9429,7 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>720</v>
+        <v>610</v>
       </c>
       <c r="K126" t="n">
         <v>23000</v>
@@ -9438,7 +9438,7 @@
         <v>25000</v>
       </c>
       <c r="M126" t="n">
-        <v>24028</v>
+        <v>23852</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44284</v>
+        <v>44216</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>250</v>
+        <v>720</v>
       </c>
       <c r="K127" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L127" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M127" t="n">
-        <v>27600</v>
+        <v>24028</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>1104</v>
+        <v>961</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44174</v>
+        <v>44284</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9573,32 +9573,32 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>710</v>
+        <v>250</v>
       </c>
       <c r="K128" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L128" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M128" t="n">
-        <v>26211</v>
+        <v>27600</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>1747</v>
+        <v>1104</v>
       </c>
       <c r="Q128" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9645,32 +9645,32 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>400</v>
+        <v>710</v>
       </c>
       <c r="K129" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L129" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M129" t="n">
-        <v>29150</v>
+        <v>26211</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1166</v>
+        <v>1747</v>
       </c>
       <c r="Q129" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9713,36 +9713,36 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K130" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L130" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M130" t="n">
-        <v>23000</v>
+        <v>29150</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1533</v>
+        <v>1166</v>
       </c>
       <c r="Q130" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9789,32 +9789,32 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K131" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L131" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M131" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1000</v>
+        <v>1533</v>
       </c>
       <c r="Q131" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44244</v>
+        <v>44174</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K132" t="n">
         <v>25000</v>
       </c>
       <c r="L132" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M132" t="n">
-        <v>25850</v>
+        <v>25000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1034</v>
+        <v>1000</v>
       </c>
       <c r="Q132" t="n">
         <v>25</v>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P133" t="n">
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44271</v>
+        <v>44244</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>630</v>
+        <v>400</v>
       </c>
       <c r="K134" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L134" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M134" t="n">
-        <v>21143</v>
+        <v>25850</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>846</v>
+        <v>1034</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10077,29 +10077,29 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>400</v>
+        <v>630</v>
       </c>
       <c r="K135" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L135" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M135" t="n">
-        <v>27575</v>
+        <v>21143</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>1103</v>
+        <v>846</v>
       </c>
       <c r="Q135" t="n">
         <v>25</v>
@@ -10152,26 +10152,26 @@
         <v>400</v>
       </c>
       <c r="K136" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L136" t="n">
         <v>28000</v>
       </c>
-      <c r="L136" t="n">
-        <v>30000</v>
-      </c>
       <c r="M136" t="n">
-        <v>29150</v>
+        <v>27575</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1166</v>
+        <v>1103</v>
       </c>
       <c r="Q136" t="n">
         <v>25</v>
@@ -10224,13 +10224,13 @@
         <v>400</v>
       </c>
       <c r="K137" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L137" t="n">
         <v>30000</v>
       </c>
-      <c r="L137" t="n">
-        <v>32000</v>
-      </c>
       <c r="M137" t="n">
-        <v>30850</v>
+        <v>29150</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10239,11 +10239,11 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1234</v>
+        <v>1166</v>
       </c>
       <c r="Q137" t="n">
         <v>25</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10296,26 +10296,26 @@
         <v>400</v>
       </c>
       <c r="K138" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L138" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="M138" t="n">
-        <v>36275</v>
+        <v>30850</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>1451</v>
+        <v>1234</v>
       </c>
       <c r="Q138" t="n">
         <v>25</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44265</v>
+        <v>44330</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10365,29 +10365,29 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="K139" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L139" t="n">
-        <v>22000</v>
+        <v>38000</v>
       </c>
       <c r="M139" t="n">
-        <v>21333</v>
+        <v>36275</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>853</v>
+        <v>1451</v>
       </c>
       <c r="Q139" t="n">
         <v>25</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>810</v>
+        <v>720</v>
       </c>
       <c r="K140" t="n">
         <v>20000</v>
       </c>
       <c r="L140" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="M140" t="n">
-        <v>22222</v>
+        <v>21333</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>889</v>
+        <v>853</v>
       </c>
       <c r="Q140" t="n">
         <v>25</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>1100</v>
+        <v>810</v>
       </c>
       <c r="K141" t="n">
         <v>20000</v>
       </c>
       <c r="L141" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="M141" t="n">
-        <v>21773</v>
+        <v>22222</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10527,11 +10527,11 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="Q141" t="n">
         <v>25</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="K142" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L142" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M142" t="n">
-        <v>17000</v>
+        <v>21773</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>680</v>
+        <v>871</v>
       </c>
       <c r="Q142" t="n">
         <v>25</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>570</v>
+        <v>350</v>
       </c>
       <c r="K143" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L143" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M143" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>800</v>
+        <v>680</v>
       </c>
       <c r="Q143" t="n">
         <v>25</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>650</v>
+        <v>570</v>
       </c>
       <c r="K144" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L144" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M144" t="n">
-        <v>17431</v>
+        <v>20000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>697</v>
+        <v>800</v>
       </c>
       <c r="Q144" t="n">
         <v>25</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,29 +10797,29 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>410</v>
+        <v>650</v>
       </c>
       <c r="K145" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L145" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M145" t="n">
-        <v>24561</v>
+        <v>17431</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>982</v>
+        <v>697</v>
       </c>
       <c r="Q145" t="n">
         <v>25</v>
@@ -10869,20 +10869,20 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="K146" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L146" t="n">
         <v>25000</v>
       </c>
-      <c r="L146" t="n">
-        <v>27000</v>
-      </c>
       <c r="M146" t="n">
-        <v>25867</v>
+        <v>24561</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>1035</v>
+        <v>982</v>
       </c>
       <c r="Q146" t="n">
         <v>25</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="K147" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L147" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M147" t="n">
-        <v>22553</v>
+        <v>25867</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>902</v>
+        <v>1035</v>
       </c>
       <c r="Q147" t="n">
         <v>25</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="K148" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L148" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M148" t="n">
-        <v>18867</v>
+        <v>22553</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>755</v>
+        <v>902</v>
       </c>
       <c r="Q148" t="n">
         <v>25</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44195</v>
+        <v>44293</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,29 +11085,29 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="K149" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L149" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M149" t="n">
-        <v>25897</v>
+        <v>18867</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1036</v>
+        <v>755</v>
       </c>
       <c r="Q149" t="n">
         <v>25</v>
@@ -11157,7 +11157,7 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>900</v>
+        <v>580</v>
       </c>
       <c r="K150" t="n">
         <v>25000</v>
@@ -11166,7 +11166,7 @@
         <v>27000</v>
       </c>
       <c r="M150" t="n">
-        <v>26333</v>
+        <v>25897</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="Q150" t="n">
         <v>25</v>
@@ -11229,7 +11229,7 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="K151" t="n">
         <v>25000</v>
@@ -11238,7 +11238,7 @@
         <v>27000</v>
       </c>
       <c r="M151" t="n">
-        <v>26077</v>
+        <v>26333</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1043</v>
+        <v>1053</v>
       </c>
       <c r="Q151" t="n">
         <v>25</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="K152" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L152" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M152" t="n">
-        <v>23889</v>
+        <v>26077</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>956</v>
+        <v>1043</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="K153" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L153" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M153" t="n">
-        <v>20000</v>
+        <v>23889</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="Q153" t="n">
         <v>25</v>
@@ -11445,7 +11445,7 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K154" t="n">
         <v>20000</v>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P154" t="n">
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K155" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L155" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M155" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>920</v>
+        <v>800</v>
       </c>
       <c r="Q155" t="n">
         <v>25</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K156" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L156" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M156" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>800</v>
+        <v>920</v>
       </c>
       <c r="Q156" t="n">
         <v>25</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K157" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L157" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="M157" t="n">
-        <v>36150</v>
+        <v>20000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1446</v>
+        <v>800</v>
       </c>
       <c r="Q157" t="n">
         <v>25</v>
@@ -11733,29 +11733,29 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>690</v>
+        <v>400</v>
       </c>
       <c r="K158" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L158" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M158" t="n">
-        <v>33000</v>
+        <v>36150</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1320</v>
+        <v>1446</v>
       </c>
       <c r="Q158" t="n">
         <v>25</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>790</v>
+        <v>690</v>
       </c>
       <c r="K159" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="L159" t="n">
         <v>35000</v>
       </c>
       <c r="M159" t="n">
-        <v>34063</v>
+        <v>33000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1363</v>
+        <v>1320</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>460</v>
+        <v>790</v>
       </c>
       <c r="K160" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L160" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M160" t="n">
-        <v>30000</v>
+        <v>34063</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1200</v>
+        <v>1363</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44294</v>
+        <v>44209</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="K161" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L161" t="n">
         <v>30000</v>
       </c>
       <c r="M161" t="n">
-        <v>29103</v>
+        <v>30000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11967,11 +11967,11 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1164</v>
+        <v>1200</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,29 +12021,29 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K162" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L162" t="n">
         <v>30000</v>
       </c>
-      <c r="L162" t="n">
-        <v>250000</v>
-      </c>
       <c r="M162" t="n">
-        <v>112500</v>
+        <v>29103</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>4500</v>
+        <v>1164</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12093,29 +12093,29 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K163" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L163" t="n">
-        <v>27000</v>
+        <v>250000</v>
       </c>
       <c r="M163" t="n">
-        <v>24038</v>
+        <v>112500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>962</v>
+        <v>4500</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12161,33 +12161,33 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>100</v>
+        <v>520</v>
       </c>
       <c r="K164" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L164" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M164" t="n">
-        <v>20000</v>
+        <v>24038</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>800</v>
+        <v>962</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,33 +12233,33 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K165" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L165" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="M165" t="n">
-        <v>28164</v>
+        <v>20000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>1127</v>
+        <v>800</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K166" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="L166" t="n">
-        <v>40000</v>
+        <v>29000</v>
       </c>
       <c r="M166" t="n">
-        <v>39233</v>
+        <v>28164</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12327,11 +12327,11 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>1569</v>
+        <v>1127</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44319</v>
+        <v>44169</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,29 +12381,29 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="K167" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="L167" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="M167" t="n">
-        <v>23000</v>
+        <v>39233</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>920</v>
+        <v>1569</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12453,29 +12453,29 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="K168" t="n">
         <v>23000</v>
       </c>
       <c r="L168" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M168" t="n">
-        <v>24275</v>
+        <v>23000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>971</v>
+        <v>920</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12521,33 +12521,33 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="K169" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L169" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M169" t="n">
-        <v>25000</v>
+        <v>24275</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>1000</v>
+        <v>971</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44236</v>
+        <v>44319</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>550</v>
+        <v>170</v>
       </c>
       <c r="K170" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L170" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M170" t="n">
-        <v>18836</v>
+        <v>25000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>753</v>
+        <v>1000</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12669,29 +12669,29 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K171" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L171" t="n">
         <v>20000</v>
       </c>
-      <c r="L171" t="n">
-        <v>22000</v>
-      </c>
       <c r="M171" t="n">
-        <v>20800</v>
+        <v>18836</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>832</v>
+        <v>753</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12741,7 +12741,7 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K172" t="n">
         <v>20000</v>
@@ -12750,7 +12750,7 @@
         <v>22000</v>
       </c>
       <c r="M172" t="n">
-        <v>21150</v>
+        <v>20800</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K173" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L173" t="n">
         <v>22000</v>
       </c>
       <c r="M173" t="n">
-        <v>20500</v>
+        <v>21150</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12831,11 +12831,11 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12881,33 +12881,33 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>260</v>
+        <v>1600</v>
       </c>
       <c r="K174" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L174" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M174" t="n">
-        <v>15000</v>
+        <v>20500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>600</v>
+        <v>820</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12957,29 +12957,29 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="K175" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L175" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M175" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K176" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L176" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M176" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="K177" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L177" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M177" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K178" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="L178" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M178" t="n">
-        <v>29150</v>
+        <v>15000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1166</v>
+        <v>600</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="K179" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="L179" t="n">
         <v>30000</v>
       </c>
       <c r="M179" t="n">
-        <v>27805</v>
+        <v>29150</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1112</v>
+        <v>1166</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>600</v>
+        <v>820</v>
       </c>
       <c r="K180" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="L180" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M180" t="n">
-        <v>23833</v>
+        <v>27805</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>953</v>
+        <v>1112</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="K181" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L181" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M181" t="n">
-        <v>18523</v>
+        <v>23833</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>741</v>
+        <v>953</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="K182" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L182" t="n">
         <v>20000</v>
       </c>
       <c r="M182" t="n">
-        <v>18850</v>
+        <v>18523</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K183" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L183" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M183" t="n">
-        <v>15000</v>
+        <v>18850</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>600</v>
+        <v>754</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13605,7 +13605,7 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K184" t="n">
         <v>15000</v>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P184" t="n">
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44291</v>
+        <v>44203</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>1500</v>
+        <v>120</v>
       </c>
       <c r="K185" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L185" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M185" t="n">
-        <v>23600</v>
+        <v>15000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>944</v>
+        <v>600</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44168</v>
+        <v>44291</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,29 +13749,29 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K186" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="L186" t="n">
-        <v>37000</v>
+        <v>24000</v>
       </c>
       <c r="M186" t="n">
-        <v>36575</v>
+        <v>23600</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1463</v>
+        <v>944</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13834,12 +13834,12 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P187" t="n">
@@ -13889,33 +13889,33 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="K188" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="L188" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="M188" t="n">
-        <v>32000</v>
+        <v>36575</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1280</v>
+        <v>1463</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13961,24 +13961,24 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="K189" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="L189" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="M189" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>840</v>
+        <v>1280</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="K190" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L190" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M190" t="n">
-        <v>18464</v>
+        <v>21000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>739</v>
+        <v>840</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,32 +14109,32 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K191" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L191" t="n">
-        <v>37000</v>
+        <v>19000</v>
       </c>
       <c r="M191" t="n">
-        <v>36150</v>
+        <v>18464</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>2410</v>
+        <v>739</v>
       </c>
       <c r="Q191" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14184,29 +14184,29 @@
         <v>400</v>
       </c>
       <c r="K192" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L192" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M192" t="n">
-        <v>32875</v>
+        <v>36150</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1315</v>
+        <v>2410</v>
       </c>
       <c r="Q192" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,29 +14253,29 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="K193" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="L193" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M193" t="n">
-        <v>28286</v>
+        <v>32875</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1131</v>
+        <v>1315</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>510</v>
+        <v>1050</v>
       </c>
       <c r="K194" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L194" t="n">
         <v>30000</v>
       </c>
-      <c r="L194" t="n">
-        <v>32000</v>
-      </c>
       <c r="M194" t="n">
-        <v>31098</v>
+        <v>28286</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1244</v>
+        <v>1131</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>1400</v>
+        <v>510</v>
       </c>
       <c r="K195" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L195" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M195" t="n">
-        <v>29071</v>
+        <v>31098</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1163</v>
+        <v>1244</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,7 +14469,7 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="K196" t="n">
         <v>28000</v>
@@ -14478,7 +14478,7 @@
         <v>30000</v>
       </c>
       <c r="M196" t="n">
-        <v>29292</v>
+        <v>29071</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14544,13 +14544,13 @@
         <v>650</v>
       </c>
       <c r="K197" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="L197" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M197" t="n">
-        <v>27292</v>
+        <v>29292</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1092</v>
+        <v>1172</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44229</v>
+        <v>44274</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="K198" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="L198" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M198" t="n">
-        <v>33909</v>
+        <v>27292</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1356</v>
+        <v>1092</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="K199" t="n">
         <v>33000</v>
@@ -14694,7 +14694,7 @@
         <v>35000</v>
       </c>
       <c r="M199" t="n">
-        <v>33791</v>
+        <v>33909</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14703,11 +14703,11 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>270</v>
+        <v>430</v>
       </c>
       <c r="K200" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L200" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M200" t="n">
-        <v>25741</v>
+        <v>33791</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1030</v>
+        <v>1352</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44165</v>
+        <v>44344</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14832,29 +14832,29 @@
         <v>270</v>
       </c>
       <c r="K201" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="L201" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="M201" t="n">
-        <v>37444</v>
+        <v>25741</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>2496</v>
+        <v>1030</v>
       </c>
       <c r="Q201" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,32 +14901,32 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>550</v>
+        <v>270</v>
       </c>
       <c r="K202" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="L202" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="M202" t="n">
-        <v>26164</v>
+        <v>37444</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1047</v>
+        <v>2496</v>
       </c>
       <c r="Q202" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>1400</v>
+        <v>550</v>
       </c>
       <c r="K203" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L203" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M203" t="n">
-        <v>24143</v>
+        <v>26164</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14991,11 +14991,11 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>966</v>
+        <v>1047</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15045,29 +15045,29 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>680</v>
+        <v>1400</v>
       </c>
       <c r="K204" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L204" t="n">
         <v>25000</v>
       </c>
-      <c r="L204" t="n">
-        <v>27000</v>
-      </c>
       <c r="M204" t="n">
-        <v>26324</v>
+        <v>24143</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>1053</v>
+        <v>966</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15113,33 +15113,33 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>200</v>
+        <v>680</v>
       </c>
       <c r="K205" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L205" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M205" t="n">
-        <v>20000</v>
+        <v>26324</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>800</v>
+        <v>1053</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K206" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L206" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M206" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15261,29 +15261,29 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="K207" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L207" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M207" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15329,33 +15329,33 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>550</v>
+        <v>230</v>
       </c>
       <c r="K208" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L208" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M208" t="n">
-        <v>23836</v>
+        <v>20000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>953</v>
+        <v>800</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K209" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L209" t="n">
         <v>25000</v>
       </c>
-      <c r="L209" t="n">
-        <v>27000</v>
-      </c>
       <c r="M209" t="n">
-        <v>26080</v>
+        <v>23836</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1043</v>
+        <v>953</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,7 +15477,7 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K210" t="n">
         <v>25000</v>
@@ -15486,7 +15486,7 @@
         <v>27000</v>
       </c>
       <c r="M210" t="n">
-        <v>25850</v>
+        <v>26080</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>1034</v>
+        <v>1043</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15549,7 +15549,7 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>1080</v>
+        <v>400</v>
       </c>
       <c r="K211" t="n">
         <v>25000</v>
@@ -15558,7 +15558,7 @@
         <v>27000</v>
       </c>
       <c r="M211" t="n">
-        <v>26167</v>
+        <v>25850</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,29 +15621,29 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>400</v>
+        <v>1080</v>
       </c>
       <c r="K212" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L212" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M212" t="n">
-        <v>29150</v>
+        <v>26167</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>1166</v>
+        <v>1047</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15693,29 +15693,29 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K213" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L213" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M213" t="n">
-        <v>23929</v>
+        <v>29150</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>957</v>
+        <v>1166</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K214" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L214" t="n">
         <v>25000</v>
       </c>
-      <c r="L214" t="n">
-        <v>27000</v>
-      </c>
       <c r="M214" t="n">
-        <v>25800</v>
+        <v>23929</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15783,11 +15783,11 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>1032</v>
+        <v>957</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="K215" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L215" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M215" t="n">
-        <v>20000</v>
+        <v>25800</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>800</v>
+        <v>1032</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15927,7 +15927,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P216" t="n">
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44300</v>
+        <v>44204</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15977,20 +15977,20 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="K217" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L217" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M217" t="n">
-        <v>24448</v>
+        <v>20000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>978</v>
+        <v>800</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,32 +16053,32 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="K218" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L218" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M218" t="n">
-        <v>20897</v>
+        <v>24448</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1393</v>
+        <v>978</v>
       </c>
       <c r="Q218" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16125,32 +16125,32 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>600</v>
+        <v>290</v>
       </c>
       <c r="K219" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L219" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M219" t="n">
-        <v>30767</v>
+        <v>20897</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1231</v>
+        <v>1393</v>
       </c>
       <c r="Q219" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44243</v>
+        <v>44186</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K220" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L220" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M220" t="n">
-        <v>26303</v>
+        <v>30767</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1052</v>
+        <v>1231</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>1150</v>
+        <v>660</v>
       </c>
       <c r="K221" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L221" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M221" t="n">
-        <v>24043</v>
+        <v>26303</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>962</v>
+        <v>1052</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,7 +16341,7 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>830</v>
+        <v>1150</v>
       </c>
       <c r="K222" t="n">
         <v>23000</v>
@@ -16350,7 +16350,7 @@
         <v>25000</v>
       </c>
       <c r="M222" t="n">
-        <v>24108</v>
+        <v>24043</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16359,11 +16359,11 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16413,7 +16413,7 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>1380</v>
+        <v>830</v>
       </c>
       <c r="K223" t="n">
         <v>23000</v>
@@ -16422,7 +16422,7 @@
         <v>25000</v>
       </c>
       <c r="M223" t="n">
-        <v>23913</v>
+        <v>24108</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16431,11 +16431,11 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16485,7 +16485,7 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>1400</v>
+        <v>1380</v>
       </c>
       <c r="K224" t="n">
         <v>23000</v>
@@ -16494,7 +16494,7 @@
         <v>25000</v>
       </c>
       <c r="M224" t="n">
-        <v>23929</v>
+        <v>23913</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P224" t="n">
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44242</v>
+        <v>44202</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,7 +16557,7 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K225" t="n">
         <v>23000</v>
@@ -16566,7 +16566,7 @@
         <v>25000</v>
       </c>
       <c r="M225" t="n">
-        <v>24150</v>
+        <v>23929</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16638,7 +16638,7 @@
         <v>25000</v>
       </c>
       <c r="M226" t="n">
-        <v>23850</v>
+        <v>24150</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44307</v>
+        <v>44242</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K227" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L227" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M227" t="n">
-        <v>28714</v>
+        <v>23850</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1149</v>
+        <v>954</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="K228" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L228" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M228" t="n">
-        <v>25807</v>
+        <v>28714</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1032</v>
+        <v>1149</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44166</v>
+        <v>44307</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,32 +16845,32 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>430</v>
+        <v>570</v>
       </c>
       <c r="K229" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="L229" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="M229" t="n">
-        <v>37209</v>
+        <v>25807</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>2481</v>
+        <v>1032</v>
       </c>
       <c r="Q229" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,32 +16917,32 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="K230" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="L230" t="n">
-        <v>80000</v>
+        <v>38000</v>
       </c>
       <c r="M230" t="n">
-        <v>77667</v>
+        <v>37209</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>3107</v>
+        <v>2481</v>
       </c>
       <c r="Q230" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,29 +16989,29 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K231" t="n">
-        <v>22000</v>
+        <v>75000</v>
       </c>
       <c r="L231" t="n">
-        <v>23000</v>
+        <v>80000</v>
       </c>
       <c r="M231" t="n">
-        <v>22536</v>
+        <v>77667</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>901</v>
+        <v>3107</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="K232" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L232" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M232" t="n">
-        <v>21400</v>
+        <v>22536</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17079,11 +17079,11 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>856</v>
+        <v>901</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="K233" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="L233" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M233" t="n">
-        <v>25905</v>
+        <v>21400</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17151,11 +17151,11 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1036</v>
+        <v>856</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44491</v>
+        <v>44306</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,29 +17205,29 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="K234" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L234" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M234" t="n">
-        <v>31974</v>
+        <v>25905</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>1279</v>
+        <v>1036</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,32 +17277,32 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="K235" t="n">
         <v>30000</v>
       </c>
       <c r="L235" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M235" t="n">
-        <v>30857</v>
+        <v>31974</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>2057</v>
+        <v>1279</v>
       </c>
       <c r="Q235" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17349,32 +17349,32 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="K236" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L236" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="M236" t="n">
-        <v>37182</v>
+        <v>30857</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1487</v>
+        <v>2057</v>
       </c>
       <c r="Q236" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K237" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L237" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M237" t="n">
-        <v>24150</v>
+        <v>37182</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>966</v>
+        <v>1487</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="K238" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L238" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M238" t="n">
-        <v>23172</v>
+        <v>24150</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>927</v>
+        <v>966</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,29 +17565,29 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="K239" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="L239" t="n">
-        <v>37000</v>
+        <v>24000</v>
       </c>
       <c r="M239" t="n">
-        <v>35800</v>
+        <v>23172</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1432</v>
+        <v>927</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17637,29 +17637,29 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K240" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L240" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M240" t="n">
-        <v>33667</v>
+        <v>35800</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1347</v>
+        <v>1432</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K241" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L241" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M241" t="n">
-        <v>21275</v>
+        <v>33667</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>851</v>
+        <v>1347</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K242" t="n">
         <v>20000</v>
       </c>
       <c r="L242" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M242" t="n">
-        <v>21143</v>
+        <v>21275</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K243" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L243" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M243" t="n">
-        <v>18933</v>
+        <v>21143</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17871,11 +17871,11 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>757</v>
+        <v>846</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K244" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L244" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M244" t="n">
-        <v>16000</v>
+        <v>18933</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>640</v>
+        <v>757</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17997,7 +17997,7 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K245" t="n">
         <v>16000</v>
@@ -18015,7 +18015,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P245" t="n">
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J246" t="n">
         <v>500</v>
       </c>
       <c r="K246" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L246" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="M246" t="n">
-        <v>26080</v>
+        <v>16000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1043</v>
+        <v>640</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44314</v>
+        <v>44298</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,7 +18141,7 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K247" t="n">
         <v>25000</v>
@@ -18150,7 +18150,7 @@
         <v>27000</v>
       </c>
       <c r="M247" t="n">
-        <v>26150</v>
+        <v>26080</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="Q247" t="n">
         <v>25</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K248" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L248" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M248" t="n">
-        <v>24585</v>
+        <v>26150</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>983</v>
+        <v>1046</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>50</v>
+        <v>410</v>
       </c>
       <c r="K249" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L249" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M249" t="n">
-        <v>20000</v>
+        <v>24585</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18303,11 +18303,11 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>800</v>
+        <v>983</v>
       </c>
       <c r="Q249" t="n">
         <v>25</v>
@@ -18357,7 +18357,7 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K250" t="n">
         <v>20000</v>
@@ -18375,7 +18375,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P250" t="n">
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44187</v>
+        <v>44314</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18425,20 +18425,20 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>1680</v>
+        <v>60</v>
       </c>
       <c r="K251" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="L251" t="n">
-        <v>43000</v>
+        <v>20000</v>
       </c>
       <c r="M251" t="n">
-        <v>41780</v>
+        <v>20000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18447,11 +18447,11 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1671</v>
+        <v>800</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>550</v>
+        <v>1680</v>
       </c>
       <c r="K252" t="n">
         <v>40000</v>
       </c>
       <c r="L252" t="n">
-        <v>42000</v>
+        <v>43000</v>
       </c>
       <c r="M252" t="n">
-        <v>40836</v>
+        <v>41780</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1633</v>
+        <v>1671</v>
       </c>
       <c r="Q252" t="n">
         <v>25</v>
@@ -18573,7 +18573,7 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="K253" t="n">
         <v>40000</v>
@@ -18582,7 +18582,7 @@
         <v>42000</v>
       </c>
       <c r="M253" t="n">
-        <v>41042</v>
+        <v>40836</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1642</v>
+        <v>1633</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>610</v>
+        <v>480</v>
       </c>
       <c r="K254" t="n">
-        <v>37000</v>
+        <v>40000</v>
       </c>
       <c r="L254" t="n">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="M254" t="n">
-        <v>37000</v>
+        <v>41042</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>1480</v>
+        <v>1642</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>260</v>
+        <v>610</v>
       </c>
       <c r="K255" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="L255" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M255" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="Q255" t="n">
         <v>25</v>
@@ -18789,7 +18789,7 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="K256" t="n">
         <v>35000</v>
@@ -18807,7 +18807,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P256" t="n">
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K257" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L257" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M257" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18879,11 +18879,11 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18929,20 +18929,20 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K258" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L258" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M258" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q258" t="n">
         <v>25</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19001,20 +19001,20 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K259" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L259" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M259" t="n">
-        <v>25850</v>
+        <v>23000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19023,11 +19023,11 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1034</v>
+        <v>920</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19086,7 +19086,7 @@
         <v>27000</v>
       </c>
       <c r="M260" t="n">
-        <v>26150</v>
+        <v>25850</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19095,11 +19095,11 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,29 +19149,29 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K261" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L261" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M261" t="n">
-        <v>23545</v>
+        <v>26150</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K262" t="n">
         <v>23000</v>
@@ -19230,20 +19230,20 @@
         <v>25000</v>
       </c>
       <c r="M262" t="n">
-        <v>23667</v>
+        <v>23545</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="Q262" t="n">
         <v>25</v>
@@ -19293,7 +19293,7 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="K263" t="n">
         <v>23000</v>
@@ -19302,7 +19302,7 @@
         <v>25000</v>
       </c>
       <c r="M263" t="n">
-        <v>23897</v>
+        <v>23667</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19311,11 +19311,11 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="Q263" t="n">
         <v>25</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="K264" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L264" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M264" t="n">
-        <v>22571</v>
+        <v>23897</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>903</v>
+        <v>956</v>
       </c>
       <c r="Q264" t="n">
         <v>25</v>
@@ -19433,33 +19433,33 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K265" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L265" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M265" t="n">
-        <v>20000</v>
+        <v>22571</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>800</v>
+        <v>903</v>
       </c>
       <c r="Q265" t="n">
         <v>25</v>
@@ -19522,12 +19522,12 @@
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P266" t="n">
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K267" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L267" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M267" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q267" t="n">
         <v>25</v>
@@ -19653,7 +19653,7 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K268" t="n">
         <v>18000</v>
@@ -19671,7 +19671,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P268" t="n">
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19721,36 +19721,36 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>610</v>
+        <v>150</v>
       </c>
       <c r="K269" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L269" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M269" t="n">
-        <v>21148</v>
+        <v>18000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1410</v>
+        <v>720</v>
       </c>
       <c r="Q269" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19797,32 +19797,32 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K270" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L270" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M270" t="n">
-        <v>28725</v>
+        <v>21148</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>1149</v>
+        <v>1410</v>
       </c>
       <c r="Q270" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19869,29 +19869,29 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>740</v>
+        <v>400</v>
       </c>
       <c r="K271" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L271" t="n">
         <v>30000</v>
       </c>
       <c r="M271" t="n">
-        <v>28865</v>
+        <v>28725</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="Q271" t="n">
         <v>25</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="K272" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="L272" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M272" t="n">
-        <v>22675</v>
+        <v>28865</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>907</v>
+        <v>1155</v>
       </c>
       <c r="Q272" t="n">
         <v>25</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K273" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L273" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M273" t="n">
-        <v>18308</v>
+        <v>22675</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>732</v>
+        <v>907</v>
       </c>
       <c r="Q273" t="n">
         <v>25</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K274" t="n">
         <v>15000</v>
       </c>
       <c r="L274" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M274" t="n">
-        <v>20125</v>
+        <v>18308</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,11 +20103,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>805</v>
+        <v>732</v>
       </c>
       <c r="Q274" t="n">
         <v>25</v>
@@ -20133,58 +20133,130 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E275" t="n">
+        <v>13</v>
+      </c>
+      <c r="F275" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J275" t="n">
+        <v>480</v>
+      </c>
+      <c r="K275" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L275" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M275" t="n">
+        <v>20125</v>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P275" t="n">
+        <v>805</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>25</v>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>6</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D276" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E275" t="n">
-        <v>13</v>
-      </c>
-      <c r="F275" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I275" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J275" t="n">
+      <c r="E276" t="n">
+        <v>13</v>
+      </c>
+      <c r="F276" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J276" t="n">
         <v>550</v>
       </c>
-      <c r="K275" t="n">
+      <c r="K276" t="n">
         <v>27000</v>
       </c>
-      <c r="L275" t="n">
+      <c r="L276" t="n">
         <v>30000</v>
       </c>
-      <c r="M275" t="n">
+      <c r="M276" t="n">
         <v>28745</v>
       </c>
-      <c r="N275" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O275" t="inlineStr">
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P275" t="n">
+      <c r="P276" t="n">
         <v>1150</v>
       </c>
-      <c r="Q275" t="n">
-        <v>25</v>
-      </c>
-      <c r="R275" t="inlineStr">
+      <c r="Q276" t="n">
+        <v>25</v>
+      </c>
+      <c r="R276" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R277"/>
+  <dimension ref="A1:R278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44222</v>
+        <v>44497</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -5829,29 +5829,29 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1300</v>
+        <v>520</v>
       </c>
       <c r="K76" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="L76" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M76" t="n">
-        <v>23923</v>
+        <v>34038</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>957</v>
+        <v>1362</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>790</v>
+        <v>1300</v>
       </c>
       <c r="K77" t="n">
         <v>23000</v>
@@ -5910,7 +5910,7 @@
         <v>25000</v>
       </c>
       <c r="M77" t="n">
-        <v>24063</v>
+        <v>23923</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5973,7 +5973,7 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1400</v>
+        <v>790</v>
       </c>
       <c r="K78" t="n">
         <v>23000</v>
@@ -5982,7 +5982,7 @@
         <v>25000</v>
       </c>
       <c r="M78" t="n">
-        <v>23857</v>
+        <v>24063</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="K79" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L79" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M79" t="n">
-        <v>20000</v>
+        <v>23857</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>800</v>
+        <v>954</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="K80" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L80" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M80" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>700</v>
+        <v>230</v>
       </c>
       <c r="K81" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L81" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M81" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44260</v>
+        <v>44222</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="K82" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L82" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="M82" t="n">
-        <v>25897</v>
+        <v>18000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1036</v>
+        <v>720</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>810</v>
+        <v>580</v>
       </c>
       <c r="K83" t="n">
         <v>25000</v>
@@ -6342,7 +6342,7 @@
         <v>27000</v>
       </c>
       <c r="M83" t="n">
-        <v>25938</v>
+        <v>25897</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6351,11 +6351,11 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44211</v>
+        <v>44260</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>620</v>
+        <v>810</v>
       </c>
       <c r="K84" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L84" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M84" t="n">
-        <v>28871</v>
+        <v>25938</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1155</v>
+        <v>1038</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>460</v>
+        <v>620</v>
       </c>
       <c r="K85" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L85" t="n">
         <v>30000</v>
       </c>
       <c r="M85" t="n">
-        <v>29587</v>
+        <v>28871</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1183</v>
+        <v>1155</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>600</v>
+        <v>460</v>
       </c>
       <c r="K86" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L86" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M86" t="n">
-        <v>21233</v>
+        <v>29587</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>849</v>
+        <v>1183</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K87" t="n">
         <v>20000</v>
@@ -6630,7 +6630,7 @@
         <v>22000</v>
       </c>
       <c r="M87" t="n">
-        <v>21080</v>
+        <v>21233</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44218</v>
+        <v>44272</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>610</v>
+        <v>500</v>
       </c>
       <c r="K88" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L88" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M88" t="n">
-        <v>25951</v>
+        <v>21080</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1038</v>
+        <v>843</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="K89" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L89" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M89" t="n">
-        <v>24103</v>
+        <v>25951</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6783,11 +6783,11 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>964</v>
+        <v>1038</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="K90" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L90" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M90" t="n">
-        <v>33000</v>
+        <v>24103</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6855,11 +6855,11 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1320</v>
+        <v>964</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>880</v>
+        <v>700</v>
       </c>
       <c r="K91" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L91" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="M91" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6927,11 +6927,11 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1240</v>
+        <v>1320</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44257</v>
+        <v>44210</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>600</v>
+        <v>880</v>
       </c>
       <c r="K92" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="L92" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M92" t="n">
-        <v>26833</v>
+        <v>31000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1073</v>
+        <v>1240</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K93" t="n">
         <v>26000</v>
       </c>
       <c r="L93" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M93" t="n">
-        <v>27636</v>
+        <v>26833</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7071,11 +7071,11 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44200</v>
+        <v>44257</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7125,29 +7125,29 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K94" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="L94" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M94" t="n">
-        <v>24150</v>
+        <v>27636</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>966</v>
+        <v>1105</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K95" t="n">
         <v>23000</v>
@@ -7206,7 +7206,7 @@
         <v>25000</v>
       </c>
       <c r="M95" t="n">
-        <v>24103</v>
+        <v>24150</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7215,11 +7215,11 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7269,29 +7269,29 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="K96" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L96" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M96" t="n">
-        <v>21769</v>
+        <v>24103</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>871</v>
+        <v>964</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1350</v>
+        <v>390</v>
       </c>
       <c r="K97" t="n">
         <v>20000</v>
@@ -7350,7 +7350,7 @@
         <v>23000</v>
       </c>
       <c r="M97" t="n">
-        <v>21444</v>
+        <v>21769</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7359,11 +7359,11 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44246</v>
+        <v>44200</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>230</v>
+        <v>1350</v>
       </c>
       <c r="K98" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L98" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M98" t="n">
-        <v>25000</v>
+        <v>21444</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1000</v>
+        <v>858</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="K99" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L99" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M99" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44295</v>
+        <v>44246</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="K100" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L100" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M100" t="n">
-        <v>24150</v>
+        <v>22000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>966</v>
+        <v>880</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44225</v>
+        <v>44295</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K101" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L101" t="n">
         <v>25000</v>
       </c>
-      <c r="L101" t="n">
-        <v>30000</v>
-      </c>
       <c r="M101" t="n">
-        <v>27969</v>
+        <v>24150</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1119</v>
+        <v>966</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K102" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L102" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M102" t="n">
-        <v>24150</v>
+        <v>27969</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>966</v>
+        <v>1119</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K103" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L103" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M103" t="n">
-        <v>20000</v>
+        <v>24150</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>800</v>
+        <v>966</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="K104" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L104" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M104" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7863,11 +7863,11 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44327</v>
+        <v>44225</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7913,33 +7913,33 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K105" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="L105" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M105" t="n">
-        <v>34200</v>
+        <v>18000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1368</v>
+        <v>720</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7989,29 +7989,29 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K106" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L106" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M106" t="n">
-        <v>30850</v>
+        <v>34200</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1234</v>
+        <v>1368</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44175</v>
+        <v>44327</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8061,32 +8061,32 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K107" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L107" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M107" t="n">
-        <v>23897</v>
+        <v>30850</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1593</v>
+        <v>1234</v>
       </c>
       <c r="Q107" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1400</v>
+        <v>580</v>
       </c>
       <c r="K108" t="n">
         <v>23000</v>
@@ -8142,23 +8142,23 @@
         <v>25000</v>
       </c>
       <c r="M108" t="n">
-        <v>24071</v>
+        <v>23897</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>963</v>
+        <v>1593</v>
       </c>
       <c r="Q108" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8205,20 +8205,20 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>550</v>
+        <v>1400</v>
       </c>
       <c r="K109" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L109" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M109" t="n">
-        <v>23164</v>
+        <v>24071</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>927</v>
+        <v>963</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="K110" t="n">
         <v>22000</v>
       </c>
       <c r="L110" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="M110" t="n">
-        <v>22475</v>
+        <v>23164</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8295,11 +8295,11 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>899</v>
+        <v>927</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8345,33 +8345,33 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>450</v>
+        <v>610</v>
       </c>
       <c r="K111" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L111" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M111" t="n">
-        <v>20000</v>
+        <v>22475</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>800</v>
+        <v>899</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8421,29 +8421,29 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="K112" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L112" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M112" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1130</v>
+        <v>170</v>
       </c>
       <c r="K113" t="n">
-        <v>38000</v>
+        <v>18000</v>
       </c>
       <c r="L113" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="M113" t="n">
-        <v>38796</v>
+        <v>18000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1552</v>
+        <v>720</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>850</v>
+        <v>1130</v>
       </c>
       <c r="K114" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="L114" t="n">
         <v>40000</v>
       </c>
       <c r="M114" t="n">
-        <v>39188</v>
+        <v>38796</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1568</v>
+        <v>1552</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>230</v>
+        <v>850</v>
       </c>
       <c r="K115" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="L115" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M115" t="n">
-        <v>35000</v>
+        <v>39188</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1400</v>
+        <v>1568</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8709,7 +8709,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K116" t="n">
         <v>35000</v>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P116" t="n">
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44278</v>
+        <v>44188</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>810</v>
+        <v>170</v>
       </c>
       <c r="K117" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L117" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M117" t="n">
-        <v>26136</v>
+        <v>35000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1045</v>
+        <v>1400</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8853,7 +8853,7 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1030</v>
+        <v>810</v>
       </c>
       <c r="K118" t="n">
         <v>25000</v>
@@ -8862,7 +8862,7 @@
         <v>27000</v>
       </c>
       <c r="M118" t="n">
-        <v>25680</v>
+        <v>26136</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44245</v>
+        <v>44278</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>680</v>
+        <v>1030</v>
       </c>
       <c r="K119" t="n">
         <v>25000</v>
       </c>
       <c r="L119" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M119" t="n">
-        <v>26691</v>
+        <v>25680</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1068</v>
+        <v>1027</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1350</v>
+        <v>680</v>
       </c>
       <c r="K120" t="n">
         <v>25000</v>
       </c>
       <c r="L120" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M120" t="n">
-        <v>25889</v>
+        <v>26691</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1036</v>
+        <v>1068</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>150</v>
+        <v>1350</v>
       </c>
       <c r="K121" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L121" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M121" t="n">
-        <v>20000</v>
+        <v>25889</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>800</v>
+        <v>1036</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9144,13 +9144,13 @@
         <v>150</v>
       </c>
       <c r="K122" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L122" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M122" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44495</v>
+        <v>44245</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9209,33 +9209,33 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="K123" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="L123" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M123" t="n">
-        <v>34167</v>
+        <v>22000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1367</v>
+        <v>880</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44230</v>
+        <v>44495</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K124" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L124" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M124" t="n">
-        <v>29150</v>
+        <v>34167</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1166</v>
+        <v>1367</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9357,29 +9357,29 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K125" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L125" t="n">
         <v>30000</v>
       </c>
       <c r="M125" t="n">
-        <v>28380</v>
+        <v>29150</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1135</v>
+        <v>1166</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K126" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L126" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M126" t="n">
-        <v>25850</v>
+        <v>28380</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1034</v>
+        <v>1135</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44216</v>
+        <v>44230</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K127" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L127" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M127" t="n">
-        <v>23852</v>
+        <v>25850</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>954</v>
+        <v>1034</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9573,7 +9573,7 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>720</v>
+        <v>610</v>
       </c>
       <c r="K128" t="n">
         <v>23000</v>
@@ -9582,7 +9582,7 @@
         <v>25000</v>
       </c>
       <c r="M128" t="n">
-        <v>24028</v>
+        <v>23852</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44284</v>
+        <v>44216</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>250</v>
+        <v>720</v>
       </c>
       <c r="K129" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L129" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M129" t="n">
-        <v>27600</v>
+        <v>24028</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1104</v>
+        <v>961</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44174</v>
+        <v>44284</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9717,32 +9717,32 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>710</v>
+        <v>250</v>
       </c>
       <c r="K130" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L130" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M130" t="n">
-        <v>26211</v>
+        <v>27600</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1747</v>
+        <v>1104</v>
       </c>
       <c r="Q130" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9789,32 +9789,32 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>400</v>
+        <v>710</v>
       </c>
       <c r="K131" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L131" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M131" t="n">
-        <v>29150</v>
+        <v>26211</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1166</v>
+        <v>1747</v>
       </c>
       <c r="Q131" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9857,36 +9857,36 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K132" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L132" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M132" t="n">
-        <v>23000</v>
+        <v>29150</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1533</v>
+        <v>1166</v>
       </c>
       <c r="Q132" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9933,32 +9933,32 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K133" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L133" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M133" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>1000</v>
+        <v>1533</v>
       </c>
       <c r="Q133" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44244</v>
+        <v>44174</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K134" t="n">
         <v>25000</v>
       </c>
       <c r="L134" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M134" t="n">
-        <v>25850</v>
+        <v>25000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1034</v>
+        <v>1000</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10095,7 +10095,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P135" t="n">
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44271</v>
+        <v>44244</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>630</v>
+        <v>400</v>
       </c>
       <c r="K136" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L136" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M136" t="n">
-        <v>21143</v>
+        <v>25850</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>846</v>
+        <v>1034</v>
       </c>
       <c r="Q136" t="n">
         <v>25</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,29 +10221,29 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>400</v>
+        <v>630</v>
       </c>
       <c r="K137" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L137" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M137" t="n">
-        <v>27575</v>
+        <v>21143</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1103</v>
+        <v>846</v>
       </c>
       <c r="Q137" t="n">
         <v>25</v>
@@ -10296,26 +10296,26 @@
         <v>400</v>
       </c>
       <c r="K138" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L138" t="n">
         <v>28000</v>
       </c>
-      <c r="L138" t="n">
-        <v>30000</v>
-      </c>
       <c r="M138" t="n">
-        <v>29150</v>
+        <v>27575</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>1166</v>
+        <v>1103</v>
       </c>
       <c r="Q138" t="n">
         <v>25</v>
@@ -10368,13 +10368,13 @@
         <v>400</v>
       </c>
       <c r="K139" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L139" t="n">
         <v>30000</v>
       </c>
-      <c r="L139" t="n">
-        <v>32000</v>
-      </c>
       <c r="M139" t="n">
-        <v>30850</v>
+        <v>29150</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>1234</v>
+        <v>1166</v>
       </c>
       <c r="Q139" t="n">
         <v>25</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10440,26 +10440,26 @@
         <v>400</v>
       </c>
       <c r="K140" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L140" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="M140" t="n">
-        <v>36275</v>
+        <v>30850</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>1451</v>
+        <v>1234</v>
       </c>
       <c r="Q140" t="n">
         <v>25</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44265</v>
+        <v>44330</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,29 +10509,29 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="K141" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L141" t="n">
-        <v>22000</v>
+        <v>38000</v>
       </c>
       <c r="M141" t="n">
-        <v>21333</v>
+        <v>36275</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>853</v>
+        <v>1451</v>
       </c>
       <c r="Q141" t="n">
         <v>25</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>810</v>
+        <v>720</v>
       </c>
       <c r="K142" t="n">
         <v>20000</v>
       </c>
       <c r="L142" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="M142" t="n">
-        <v>22222</v>
+        <v>21333</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>889</v>
+        <v>853</v>
       </c>
       <c r="Q142" t="n">
         <v>25</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1100</v>
+        <v>810</v>
       </c>
       <c r="K143" t="n">
         <v>20000</v>
       </c>
       <c r="L143" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="M143" t="n">
-        <v>21773</v>
+        <v>22222</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="Q143" t="n">
         <v>25</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="K144" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L144" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M144" t="n">
-        <v>17000</v>
+        <v>21773</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>680</v>
+        <v>871</v>
       </c>
       <c r="Q144" t="n">
         <v>25</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>570</v>
+        <v>350</v>
       </c>
       <c r="K145" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L145" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M145" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>800</v>
+        <v>680</v>
       </c>
       <c r="Q145" t="n">
         <v>25</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>650</v>
+        <v>570</v>
       </c>
       <c r="K146" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L146" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M146" t="n">
-        <v>17431</v>
+        <v>20000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10887,11 +10887,11 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>697</v>
+        <v>800</v>
       </c>
       <c r="Q146" t="n">
         <v>25</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,29 +10941,29 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>410</v>
+        <v>650</v>
       </c>
       <c r="K147" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L147" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M147" t="n">
-        <v>24561</v>
+        <v>17431</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>982</v>
+        <v>697</v>
       </c>
       <c r="Q147" t="n">
         <v>25</v>
@@ -11013,20 +11013,20 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="K148" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L148" t="n">
         <v>25000</v>
       </c>
-      <c r="L148" t="n">
-        <v>27000</v>
-      </c>
       <c r="M148" t="n">
-        <v>25867</v>
+        <v>24561</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>1035</v>
+        <v>982</v>
       </c>
       <c r="Q148" t="n">
         <v>25</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="K149" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L149" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M149" t="n">
-        <v>22553</v>
+        <v>25867</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>902</v>
+        <v>1035</v>
       </c>
       <c r="Q149" t="n">
         <v>25</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="K150" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L150" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M150" t="n">
-        <v>18867</v>
+        <v>22553</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>755</v>
+        <v>902</v>
       </c>
       <c r="Q150" t="n">
         <v>25</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44195</v>
+        <v>44293</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,29 +11229,29 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="K151" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L151" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M151" t="n">
-        <v>25897</v>
+        <v>18867</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1036</v>
+        <v>755</v>
       </c>
       <c r="Q151" t="n">
         <v>25</v>
@@ -11301,7 +11301,7 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>900</v>
+        <v>580</v>
       </c>
       <c r="K152" t="n">
         <v>25000</v>
@@ -11310,7 +11310,7 @@
         <v>27000</v>
       </c>
       <c r="M152" t="n">
-        <v>26333</v>
+        <v>25897</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11373,7 +11373,7 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="K153" t="n">
         <v>25000</v>
@@ -11382,7 +11382,7 @@
         <v>27000</v>
       </c>
       <c r="M153" t="n">
-        <v>26077</v>
+        <v>26333</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1043</v>
+        <v>1053</v>
       </c>
       <c r="Q153" t="n">
         <v>25</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="K154" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L154" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M154" t="n">
-        <v>23889</v>
+        <v>26077</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11463,11 +11463,11 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>956</v>
+        <v>1043</v>
       </c>
       <c r="Q154" t="n">
         <v>25</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="K155" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L155" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M155" t="n">
-        <v>20000</v>
+        <v>23889</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="Q155" t="n">
         <v>25</v>
@@ -11589,7 +11589,7 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K156" t="n">
         <v>20000</v>
@@ -11607,7 +11607,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P156" t="n">
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K157" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L157" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M157" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>920</v>
+        <v>800</v>
       </c>
       <c r="Q157" t="n">
         <v>25</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K158" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L158" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M158" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>800</v>
+        <v>920</v>
       </c>
       <c r="Q158" t="n">
         <v>25</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K159" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L159" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="M159" t="n">
-        <v>36150</v>
+        <v>20000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1446</v>
+        <v>800</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11877,29 +11877,29 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>690</v>
+        <v>400</v>
       </c>
       <c r="K160" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L160" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M160" t="n">
-        <v>33000</v>
+        <v>36150</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1320</v>
+        <v>1446</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>790</v>
+        <v>690</v>
       </c>
       <c r="K161" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="L161" t="n">
         <v>35000</v>
       </c>
       <c r="M161" t="n">
-        <v>34063</v>
+        <v>33000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11967,11 +11967,11 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1363</v>
+        <v>1320</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>460</v>
+        <v>790</v>
       </c>
       <c r="K162" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L162" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M162" t="n">
-        <v>30000</v>
+        <v>34063</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1200</v>
+        <v>1363</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44294</v>
+        <v>44209</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="K163" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L163" t="n">
         <v>30000</v>
       </c>
       <c r="M163" t="n">
-        <v>29103</v>
+        <v>30000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1164</v>
+        <v>1200</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,29 +12165,29 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K164" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L164" t="n">
         <v>30000</v>
       </c>
-      <c r="L164" t="n">
-        <v>250000</v>
-      </c>
       <c r="M164" t="n">
-        <v>112500</v>
+        <v>29103</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>4500</v>
+        <v>1164</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12237,29 +12237,29 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K165" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L165" t="n">
-        <v>27000</v>
+        <v>250000</v>
       </c>
       <c r="M165" t="n">
-        <v>24038</v>
+        <v>112500</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>962</v>
+        <v>4500</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12305,33 +12305,33 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>100</v>
+        <v>520</v>
       </c>
       <c r="K166" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L166" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M166" t="n">
-        <v>20000</v>
+        <v>24038</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>800</v>
+        <v>962</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12377,33 +12377,33 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K167" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L167" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="M167" t="n">
-        <v>28164</v>
+        <v>20000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>1127</v>
+        <v>800</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K168" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="L168" t="n">
-        <v>40000</v>
+        <v>29000</v>
       </c>
       <c r="M168" t="n">
-        <v>39233</v>
+        <v>28164</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12471,11 +12471,11 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>1569</v>
+        <v>1127</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44319</v>
+        <v>44169</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,29 +12525,29 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="K169" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="L169" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="M169" t="n">
-        <v>23000</v>
+        <v>39233</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>920</v>
+        <v>1569</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12597,29 +12597,29 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="K170" t="n">
         <v>23000</v>
       </c>
       <c r="L170" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M170" t="n">
-        <v>24275</v>
+        <v>23000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>971</v>
+        <v>920</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12665,33 +12665,33 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="K171" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L171" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M171" t="n">
-        <v>25000</v>
+        <v>24275</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>1000</v>
+        <v>971</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44236</v>
+        <v>44319</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>550</v>
+        <v>170</v>
       </c>
       <c r="K172" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L172" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M172" t="n">
-        <v>18836</v>
+        <v>25000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>753</v>
+        <v>1000</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12813,29 +12813,29 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K173" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L173" t="n">
         <v>20000</v>
       </c>
-      <c r="L173" t="n">
-        <v>22000</v>
-      </c>
       <c r="M173" t="n">
-        <v>20800</v>
+        <v>18836</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>832</v>
+        <v>753</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K174" t="n">
         <v>20000</v>
@@ -12894,7 +12894,7 @@
         <v>22000</v>
       </c>
       <c r="M174" t="n">
-        <v>21150</v>
+        <v>20800</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K175" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L175" t="n">
         <v>22000</v>
       </c>
       <c r="M175" t="n">
-        <v>20500</v>
+        <v>21150</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13025,33 +13025,33 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>260</v>
+        <v>1600</v>
       </c>
       <c r="K176" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L176" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M176" t="n">
-        <v>15000</v>
+        <v>20500</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>600</v>
+        <v>820</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13101,29 +13101,29 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="K177" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L177" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M177" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K178" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L178" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M178" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="K179" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L179" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M179" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K180" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="L180" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M180" t="n">
-        <v>29150</v>
+        <v>15000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1166</v>
+        <v>600</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="K181" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="L181" t="n">
         <v>30000</v>
       </c>
       <c r="M181" t="n">
-        <v>27805</v>
+        <v>29150</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>1112</v>
+        <v>1166</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>600</v>
+        <v>820</v>
       </c>
       <c r="K182" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="L182" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M182" t="n">
-        <v>23833</v>
+        <v>27805</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>953</v>
+        <v>1112</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="K183" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L183" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M183" t="n">
-        <v>18523</v>
+        <v>23833</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>741</v>
+        <v>953</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="K184" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L184" t="n">
         <v>20000</v>
       </c>
       <c r="M184" t="n">
-        <v>18850</v>
+        <v>18523</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K185" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L185" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M185" t="n">
-        <v>15000</v>
+        <v>18850</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>600</v>
+        <v>754</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13749,7 +13749,7 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K186" t="n">
         <v>15000</v>
@@ -13767,7 +13767,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P186" t="n">
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44291</v>
+        <v>44203</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>1500</v>
+        <v>120</v>
       </c>
       <c r="K187" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L187" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M187" t="n">
-        <v>23600</v>
+        <v>15000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>944</v>
+        <v>600</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44168</v>
+        <v>44291</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13893,29 +13893,29 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K188" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="L188" t="n">
-        <v>37000</v>
+        <v>24000</v>
       </c>
       <c r="M188" t="n">
-        <v>36575</v>
+        <v>23600</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1463</v>
+        <v>944</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13978,12 +13978,12 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P189" t="n">
@@ -14033,33 +14033,33 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="K190" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="L190" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="M190" t="n">
-        <v>32000</v>
+        <v>36575</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>1280</v>
+        <v>1463</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,24 +14105,24 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="K191" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="L191" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="M191" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>840</v>
+        <v>1280</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="K192" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L192" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M192" t="n">
-        <v>18464</v>
+        <v>21000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>739</v>
+        <v>840</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,32 +14253,32 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K193" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L193" t="n">
-        <v>37000</v>
+        <v>19000</v>
       </c>
       <c r="M193" t="n">
-        <v>36150</v>
+        <v>18464</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2410</v>
+        <v>739</v>
       </c>
       <c r="Q193" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14328,29 +14328,29 @@
         <v>400</v>
       </c>
       <c r="K194" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L194" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M194" t="n">
-        <v>32875</v>
+        <v>36150</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1315</v>
+        <v>2410</v>
       </c>
       <c r="Q194" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,29 +14397,29 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="K195" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="L195" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M195" t="n">
-        <v>28286</v>
+        <v>32875</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1131</v>
+        <v>1315</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>510</v>
+        <v>1050</v>
       </c>
       <c r="K196" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L196" t="n">
         <v>30000</v>
       </c>
-      <c r="L196" t="n">
-        <v>32000</v>
-      </c>
       <c r="M196" t="n">
-        <v>31098</v>
+        <v>28286</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1244</v>
+        <v>1131</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>1400</v>
+        <v>510</v>
       </c>
       <c r="K197" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L197" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M197" t="n">
-        <v>29071</v>
+        <v>31098</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1163</v>
+        <v>1244</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,7 +14613,7 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="K198" t="n">
         <v>28000</v>
@@ -14622,7 +14622,7 @@
         <v>30000</v>
       </c>
       <c r="M198" t="n">
-        <v>29292</v>
+        <v>29071</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14688,13 +14688,13 @@
         <v>650</v>
       </c>
       <c r="K199" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="L199" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M199" t="n">
-        <v>27292</v>
+        <v>29292</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14703,11 +14703,11 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1092</v>
+        <v>1172</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44229</v>
+        <v>44274</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="K200" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="L200" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M200" t="n">
-        <v>33909</v>
+        <v>27292</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1356</v>
+        <v>1092</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14829,7 +14829,7 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="K201" t="n">
         <v>33000</v>
@@ -14838,7 +14838,7 @@
         <v>35000</v>
       </c>
       <c r="M201" t="n">
-        <v>33791</v>
+        <v>33909</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14847,11 +14847,11 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>270</v>
+        <v>430</v>
       </c>
       <c r="K202" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L202" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M202" t="n">
-        <v>25741</v>
+        <v>33791</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1030</v>
+        <v>1352</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44165</v>
+        <v>44344</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14976,29 +14976,29 @@
         <v>270</v>
       </c>
       <c r="K203" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="L203" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="M203" t="n">
-        <v>37444</v>
+        <v>25741</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>2496</v>
+        <v>1030</v>
       </c>
       <c r="Q203" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,32 +15045,32 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>550</v>
+        <v>270</v>
       </c>
       <c r="K204" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="L204" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="M204" t="n">
-        <v>26164</v>
+        <v>37444</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>1047</v>
+        <v>2496</v>
       </c>
       <c r="Q204" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>1400</v>
+        <v>550</v>
       </c>
       <c r="K205" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L205" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M205" t="n">
-        <v>24143</v>
+        <v>26164</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15135,11 +15135,11 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>966</v>
+        <v>1047</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15189,29 +15189,29 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>680</v>
+        <v>1400</v>
       </c>
       <c r="K206" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L206" t="n">
         <v>25000</v>
       </c>
-      <c r="L206" t="n">
-        <v>27000</v>
-      </c>
       <c r="M206" t="n">
-        <v>26324</v>
+        <v>24143</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1053</v>
+        <v>966</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15257,33 +15257,33 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>200</v>
+        <v>680</v>
       </c>
       <c r="K207" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L207" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M207" t="n">
-        <v>20000</v>
+        <v>26324</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>800</v>
+        <v>1053</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K208" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L208" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M208" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15405,29 +15405,29 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="K209" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L209" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M209" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15473,33 +15473,33 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>550</v>
+        <v>230</v>
       </c>
       <c r="K210" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L210" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M210" t="n">
-        <v>23836</v>
+        <v>20000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>953</v>
+        <v>800</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K211" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L211" t="n">
         <v>25000</v>
       </c>
-      <c r="L211" t="n">
-        <v>27000</v>
-      </c>
       <c r="M211" t="n">
-        <v>26080</v>
+        <v>23836</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>1043</v>
+        <v>953</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K212" t="n">
         <v>25000</v>
@@ -15630,7 +15630,7 @@
         <v>27000</v>
       </c>
       <c r="M212" t="n">
-        <v>25850</v>
+        <v>26080</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>1034</v>
+        <v>1043</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15693,7 +15693,7 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>1080</v>
+        <v>400</v>
       </c>
       <c r="K213" t="n">
         <v>25000</v>
@@ -15702,7 +15702,7 @@
         <v>27000</v>
       </c>
       <c r="M213" t="n">
-        <v>26167</v>
+        <v>25850</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,29 +15765,29 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>400</v>
+        <v>1080</v>
       </c>
       <c r="K214" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L214" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M214" t="n">
-        <v>29150</v>
+        <v>26167</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>1166</v>
+        <v>1047</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15837,29 +15837,29 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K215" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L215" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M215" t="n">
-        <v>23929</v>
+        <v>29150</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>957</v>
+        <v>1166</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K216" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L216" t="n">
         <v>25000</v>
       </c>
-      <c r="L216" t="n">
-        <v>27000</v>
-      </c>
       <c r="M216" t="n">
-        <v>25800</v>
+        <v>23929</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>1032</v>
+        <v>957</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15977,20 +15977,20 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="K217" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L217" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M217" t="n">
-        <v>20000</v>
+        <v>25800</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>800</v>
+        <v>1032</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16071,7 +16071,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P218" t="n">
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44300</v>
+        <v>44204</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="K219" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L219" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M219" t="n">
-        <v>24448</v>
+        <v>20000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16143,11 +16143,11 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>978</v>
+        <v>800</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,32 +16197,32 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="K220" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L220" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M220" t="n">
-        <v>20897</v>
+        <v>24448</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1393</v>
+        <v>978</v>
       </c>
       <c r="Q220" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16269,32 +16269,32 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>600</v>
+        <v>290</v>
       </c>
       <c r="K221" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L221" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M221" t="n">
-        <v>30767</v>
+        <v>20897</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1231</v>
+        <v>1393</v>
       </c>
       <c r="Q221" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44243</v>
+        <v>44186</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K222" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L222" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M222" t="n">
-        <v>26303</v>
+        <v>30767</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1052</v>
+        <v>1231</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>1150</v>
+        <v>660</v>
       </c>
       <c r="K223" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L223" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M223" t="n">
-        <v>24043</v>
+        <v>26303</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16431,11 +16431,11 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>962</v>
+        <v>1052</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,7 +16485,7 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>830</v>
+        <v>1150</v>
       </c>
       <c r="K224" t="n">
         <v>23000</v>
@@ -16494,7 +16494,7 @@
         <v>25000</v>
       </c>
       <c r="M224" t="n">
-        <v>24108</v>
+        <v>24043</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16503,11 +16503,11 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16557,7 +16557,7 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>1380</v>
+        <v>830</v>
       </c>
       <c r="K225" t="n">
         <v>23000</v>
@@ -16566,7 +16566,7 @@
         <v>25000</v>
       </c>
       <c r="M225" t="n">
-        <v>23913</v>
+        <v>24108</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16629,7 +16629,7 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>1400</v>
+        <v>1380</v>
       </c>
       <c r="K226" t="n">
         <v>23000</v>
@@ -16638,7 +16638,7 @@
         <v>25000</v>
       </c>
       <c r="M226" t="n">
-        <v>23929</v>
+        <v>23913</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P226" t="n">
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44242</v>
+        <v>44202</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,7 +16701,7 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K227" t="n">
         <v>23000</v>
@@ -16710,7 +16710,7 @@
         <v>25000</v>
       </c>
       <c r="M227" t="n">
-        <v>24150</v>
+        <v>23929</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16782,7 +16782,7 @@
         <v>25000</v>
       </c>
       <c r="M228" t="n">
-        <v>23850</v>
+        <v>24150</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44307</v>
+        <v>44242</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K229" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L229" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M229" t="n">
-        <v>28714</v>
+        <v>23850</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16863,11 +16863,11 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1149</v>
+        <v>954</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="K230" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L230" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M230" t="n">
-        <v>25807</v>
+        <v>28714</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16935,11 +16935,11 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1032</v>
+        <v>1149</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44166</v>
+        <v>44307</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,32 +16989,32 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>430</v>
+        <v>570</v>
       </c>
       <c r="K231" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="L231" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="M231" t="n">
-        <v>37209</v>
+        <v>25807</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>2481</v>
+        <v>1032</v>
       </c>
       <c r="Q231" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,32 +17061,32 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="K232" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="L232" t="n">
-        <v>80000</v>
+        <v>38000</v>
       </c>
       <c r="M232" t="n">
-        <v>77667</v>
+        <v>37209</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>3107</v>
+        <v>2481</v>
       </c>
       <c r="Q232" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,29 +17133,29 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K233" t="n">
-        <v>22000</v>
+        <v>75000</v>
       </c>
       <c r="L233" t="n">
-        <v>23000</v>
+        <v>80000</v>
       </c>
       <c r="M233" t="n">
-        <v>22536</v>
+        <v>77667</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>901</v>
+        <v>3107</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="K234" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L234" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M234" t="n">
-        <v>21400</v>
+        <v>22536</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>856</v>
+        <v>901</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="K235" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="L235" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M235" t="n">
-        <v>25905</v>
+        <v>21400</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17295,11 +17295,11 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1036</v>
+        <v>856</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44491</v>
+        <v>44306</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,29 +17349,29 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="K236" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L236" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M236" t="n">
-        <v>31974</v>
+        <v>25905</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1279</v>
+        <v>1036</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,32 +17421,32 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="K237" t="n">
         <v>30000</v>
       </c>
       <c r="L237" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M237" t="n">
-        <v>30857</v>
+        <v>31974</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>2057</v>
+        <v>1279</v>
       </c>
       <c r="Q237" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17493,32 +17493,32 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="K238" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L238" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="M238" t="n">
-        <v>37182</v>
+        <v>30857</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1487</v>
+        <v>2057</v>
       </c>
       <c r="Q238" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K239" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L239" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M239" t="n">
-        <v>24150</v>
+        <v>37182</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>966</v>
+        <v>1487</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="K240" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L240" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M240" t="n">
-        <v>23172</v>
+        <v>24150</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>927</v>
+        <v>966</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,29 +17709,29 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="K241" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="L241" t="n">
-        <v>37000</v>
+        <v>24000</v>
       </c>
       <c r="M241" t="n">
-        <v>35800</v>
+        <v>23172</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>1432</v>
+        <v>927</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17781,29 +17781,29 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K242" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L242" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M242" t="n">
-        <v>33667</v>
+        <v>35800</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>1347</v>
+        <v>1432</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K243" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L243" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M243" t="n">
-        <v>21275</v>
+        <v>33667</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>851</v>
+        <v>1347</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K244" t="n">
         <v>20000</v>
       </c>
       <c r="L244" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M244" t="n">
-        <v>21143</v>
+        <v>21275</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K245" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L245" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M245" t="n">
-        <v>18933</v>
+        <v>21143</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>757</v>
+        <v>846</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K246" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L246" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M246" t="n">
-        <v>16000</v>
+        <v>18933</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>640</v>
+        <v>757</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18141,7 +18141,7 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K247" t="n">
         <v>16000</v>
@@ -18159,7 +18159,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P247" t="n">
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18209,20 +18209,20 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J248" t="n">
         <v>500</v>
       </c>
       <c r="K248" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L248" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="M248" t="n">
-        <v>26080</v>
+        <v>16000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1043</v>
+        <v>640</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44314</v>
+        <v>44298</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,7 +18285,7 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K249" t="n">
         <v>25000</v>
@@ -18294,7 +18294,7 @@
         <v>27000</v>
       </c>
       <c r="M249" t="n">
-        <v>26150</v>
+        <v>26080</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="Q249" t="n">
         <v>25</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K250" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L250" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M250" t="n">
-        <v>24585</v>
+        <v>26150</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>983</v>
+        <v>1046</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18425,20 +18425,20 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>50</v>
+        <v>410</v>
       </c>
       <c r="K251" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L251" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M251" t="n">
-        <v>20000</v>
+        <v>24585</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18447,11 +18447,11 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>800</v>
+        <v>983</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18501,7 +18501,7 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K252" t="n">
         <v>20000</v>
@@ -18519,7 +18519,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P252" t="n">
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44187</v>
+        <v>44314</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>1680</v>
+        <v>60</v>
       </c>
       <c r="K253" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="L253" t="n">
-        <v>43000</v>
+        <v>20000</v>
       </c>
       <c r="M253" t="n">
-        <v>41780</v>
+        <v>20000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1671</v>
+        <v>800</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>550</v>
+        <v>1680</v>
       </c>
       <c r="K254" t="n">
         <v>40000</v>
       </c>
       <c r="L254" t="n">
-        <v>42000</v>
+        <v>43000</v>
       </c>
       <c r="M254" t="n">
-        <v>40836</v>
+        <v>41780</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>1633</v>
+        <v>1671</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18717,7 +18717,7 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="K255" t="n">
         <v>40000</v>
@@ -18726,7 +18726,7 @@
         <v>42000</v>
       </c>
       <c r="M255" t="n">
-        <v>41042</v>
+        <v>40836</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>1642</v>
+        <v>1633</v>
       </c>
       <c r="Q255" t="n">
         <v>25</v>
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>610</v>
+        <v>480</v>
       </c>
       <c r="K256" t="n">
-        <v>37000</v>
+        <v>40000</v>
       </c>
       <c r="L256" t="n">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="M256" t="n">
-        <v>37000</v>
+        <v>41042</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1480</v>
+        <v>1642</v>
       </c>
       <c r="Q256" t="n">
         <v>25</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>260</v>
+        <v>610</v>
       </c>
       <c r="K257" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="L257" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M257" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18879,11 +18879,11 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18933,7 +18933,7 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="K258" t="n">
         <v>35000</v>
@@ -18951,7 +18951,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P258" t="n">
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19001,20 +19001,20 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K259" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L259" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M259" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19023,11 +19023,11 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K260" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L260" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M260" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19145,20 +19145,20 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K261" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L261" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M261" t="n">
-        <v>25850</v>
+        <v>23000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19167,11 +19167,11 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>1034</v>
+        <v>920</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19230,7 +19230,7 @@
         <v>27000</v>
       </c>
       <c r="M262" t="n">
-        <v>26150</v>
+        <v>25850</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="Q262" t="n">
         <v>25</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,29 +19293,29 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K263" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L263" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M263" t="n">
-        <v>23545</v>
+        <v>26150</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="Q263" t="n">
         <v>25</v>
@@ -19365,7 +19365,7 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K264" t="n">
         <v>23000</v>
@@ -19374,20 +19374,20 @@
         <v>25000</v>
       </c>
       <c r="M264" t="n">
-        <v>23667</v>
+        <v>23545</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="Q264" t="n">
         <v>25</v>
@@ -19437,7 +19437,7 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="K265" t="n">
         <v>23000</v>
@@ -19446,7 +19446,7 @@
         <v>25000</v>
       </c>
       <c r="M265" t="n">
-        <v>23897</v>
+        <v>23667</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="Q265" t="n">
         <v>25</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="K266" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L266" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M266" t="n">
-        <v>22571</v>
+        <v>23897</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>903</v>
+        <v>956</v>
       </c>
       <c r="Q266" t="n">
         <v>25</v>
@@ -19577,33 +19577,33 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K267" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L267" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M267" t="n">
-        <v>20000</v>
+        <v>22571</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>800</v>
+        <v>903</v>
       </c>
       <c r="Q267" t="n">
         <v>25</v>
@@ -19666,12 +19666,12 @@
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P268" t="n">
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K269" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L269" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M269" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q269" t="n">
         <v>25</v>
@@ -19797,7 +19797,7 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K270" t="n">
         <v>18000</v>
@@ -19815,7 +19815,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P270" t="n">
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19865,36 +19865,36 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>610</v>
+        <v>150</v>
       </c>
       <c r="K271" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L271" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M271" t="n">
-        <v>21148</v>
+        <v>18000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>1410</v>
+        <v>720</v>
       </c>
       <c r="Q271" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19941,32 +19941,32 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K272" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L272" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M272" t="n">
-        <v>28725</v>
+        <v>21148</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>1149</v>
+        <v>1410</v>
       </c>
       <c r="Q272" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -20013,29 +20013,29 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>740</v>
+        <v>400</v>
       </c>
       <c r="K273" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L273" t="n">
         <v>30000</v>
       </c>
       <c r="M273" t="n">
-        <v>28865</v>
+        <v>28725</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="Q273" t="n">
         <v>25</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="K274" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="L274" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M274" t="n">
-        <v>22675</v>
+        <v>28865</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>907</v>
+        <v>1155</v>
       </c>
       <c r="Q274" t="n">
         <v>25</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K275" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L275" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M275" t="n">
-        <v>18308</v>
+        <v>22675</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20175,11 +20175,11 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>732</v>
+        <v>907</v>
       </c>
       <c r="Q275" t="n">
         <v>25</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K276" t="n">
         <v>15000</v>
       </c>
       <c r="L276" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M276" t="n">
-        <v>20125</v>
+        <v>18308</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20247,11 +20247,11 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>805</v>
+        <v>732</v>
       </c>
       <c r="Q276" t="n">
         <v>25</v>
@@ -20277,58 +20277,130 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E277" t="n">
+        <v>13</v>
+      </c>
+      <c r="F277" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J277" t="n">
+        <v>480</v>
+      </c>
+      <c r="K277" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L277" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M277" t="n">
+        <v>20125</v>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P277" t="n">
+        <v>805</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>25</v>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>6</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D278" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E277" t="n">
-        <v>13</v>
-      </c>
-      <c r="F277" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G277" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I277" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J277" t="n">
+      <c r="E278" t="n">
+        <v>13</v>
+      </c>
+      <c r="F278" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J278" t="n">
         <v>550</v>
       </c>
-      <c r="K277" t="n">
+      <c r="K278" t="n">
         <v>27000</v>
       </c>
-      <c r="L277" t="n">
+      <c r="L278" t="n">
         <v>30000</v>
       </c>
-      <c r="M277" t="n">
+      <c r="M278" t="n">
         <v>28745</v>
       </c>
-      <c r="N277" t="inlineStr">
+      <c r="N278" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O277" t="inlineStr">
+      <c r="O278" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P277" t="n">
+      <c r="P278" t="n">
         <v>1150</v>
       </c>
-      <c r="Q277" t="n">
-        <v>25</v>
-      </c>
-      <c r="R277" t="inlineStr">
+      <c r="Q278" t="n">
+        <v>25</v>
+      </c>
+      <c r="R278" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R278"/>
+  <dimension ref="A1:R279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,29 +17709,29 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="K241" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L241" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M241" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="K242" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L242" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M242" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,29 +17853,29 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="K243" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="L243" t="n">
-        <v>37000</v>
+        <v>22000</v>
       </c>
       <c r="M243" t="n">
-        <v>36575</v>
+        <v>22000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1463</v>
+        <v>880</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17938,12 +17938,12 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P244" t="n">
@@ -17993,33 +17993,33 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="K245" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="L245" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="M245" t="n">
-        <v>32000</v>
+        <v>36575</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1280</v>
+        <v>1463</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18065,36 +18065,36 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="K246" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L246" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M246" t="n">
-        <v>23897</v>
+        <v>32000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1593</v>
+        <v>1280</v>
       </c>
       <c r="Q246" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18141,7 +18141,7 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>1400</v>
+        <v>580</v>
       </c>
       <c r="K247" t="n">
         <v>23000</v>
@@ -18150,23 +18150,23 @@
         <v>25000</v>
       </c>
       <c r="M247" t="n">
-        <v>24071</v>
+        <v>23897</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>963</v>
+        <v>1593</v>
       </c>
       <c r="Q247" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18213,20 +18213,20 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>550</v>
+        <v>1400</v>
       </c>
       <c r="K248" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L248" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M248" t="n">
-        <v>23164</v>
+        <v>24071</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>927</v>
+        <v>963</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="K249" t="n">
         <v>22000</v>
       </c>
       <c r="L249" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="M249" t="n">
-        <v>22475</v>
+        <v>23164</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18303,11 +18303,11 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>899</v>
+        <v>927</v>
       </c>
       <c r="Q249" t="n">
         <v>25</v>
@@ -18353,33 +18353,33 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>450</v>
+        <v>610</v>
       </c>
       <c r="K250" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L250" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M250" t="n">
-        <v>20000</v>
+        <v>22475</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>800</v>
+        <v>899</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18429,29 +18429,29 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="K251" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L251" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M251" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18497,20 +18497,20 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>800</v>
+        <v>170</v>
       </c>
       <c r="K252" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L252" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M252" t="n">
-        <v>22675</v>
+        <v>18000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>907</v>
+        <v>720</v>
       </c>
       <c r="Q252" t="n">
         <v>25</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K253" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L253" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M253" t="n">
-        <v>18308</v>
+        <v>22675</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>732</v>
+        <v>907</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K254" t="n">
         <v>15000</v>
       </c>
       <c r="L254" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M254" t="n">
-        <v>20125</v>
+        <v>18308</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>805</v>
+        <v>732</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44181</v>
+        <v>44286</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,32 +18717,32 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K255" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L255" t="n">
         <v>22000</v>
       </c>
       <c r="M255" t="n">
-        <v>20850</v>
+        <v>20125</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>1390</v>
+        <v>805</v>
       </c>
       <c r="Q255" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18789,32 +18789,32 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="K256" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L256" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M256" t="n">
-        <v>28280</v>
+        <v>20850</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1131</v>
+        <v>1390</v>
       </c>
       <c r="Q256" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18861,20 +18861,20 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K257" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L257" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M257" t="n">
-        <v>24150</v>
+        <v>28280</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>966</v>
+        <v>1131</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18936,13 +18936,13 @@
         <v>400</v>
       </c>
       <c r="K258" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L258" t="n">
         <v>25000</v>
       </c>
-      <c r="L258" t="n">
-        <v>27000</v>
-      </c>
       <c r="M258" t="n">
-        <v>25850</v>
+        <v>24150</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18951,11 +18951,11 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>1034</v>
+        <v>966</v>
       </c>
       <c r="Q258" t="n">
         <v>25</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44328</v>
+        <v>44181</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,29 +19005,29 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K259" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L259" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M259" t="n">
-        <v>35800</v>
+        <v>25850</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1432</v>
+        <v>1034</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19077,29 +19077,29 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K260" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L260" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M260" t="n">
-        <v>33667</v>
+        <v>35800</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>1347</v>
+        <v>1432</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K261" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="L261" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M261" t="n">
-        <v>24150</v>
+        <v>33667</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>966</v>
+        <v>1347</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="K262" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L262" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M262" t="n">
-        <v>23172</v>
+        <v>24150</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>927</v>
+        <v>966</v>
       </c>
       <c r="Q262" t="n">
         <v>25</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,29 +19293,29 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K263" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="L263" t="n">
-        <v>38000</v>
+        <v>24000</v>
       </c>
       <c r="M263" t="n">
-        <v>36275</v>
+        <v>23172</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>1451</v>
+        <v>927</v>
       </c>
       <c r="Q263" t="n">
         <v>25</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,29 +19365,29 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K264" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L264" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M264" t="n">
-        <v>25000</v>
+        <v>36275</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>1000</v>
+        <v>1451</v>
       </c>
       <c r="Q264" t="n">
         <v>25</v>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K265" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L265" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M265" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q265" t="n">
         <v>25</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19505,20 +19505,20 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K266" t="n">
         <v>23000</v>
       </c>
       <c r="L266" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M266" t="n">
-        <v>24150</v>
+        <v>23000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>966</v>
+        <v>920</v>
       </c>
       <c r="Q266" t="n">
         <v>25</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>1460</v>
+        <v>400</v>
       </c>
       <c r="K267" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L267" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="M267" t="n">
-        <v>25137</v>
+        <v>24150</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>1005</v>
+        <v>966</v>
       </c>
       <c r="Q267" t="n">
         <v>25</v>
@@ -19653,7 +19653,7 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>610</v>
+        <v>1460</v>
       </c>
       <c r="K268" t="n">
         <v>24000</v>
@@ -19662,7 +19662,7 @@
         <v>26000</v>
       </c>
       <c r="M268" t="n">
-        <v>25049</v>
+        <v>25137</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="Q268" t="n">
         <v>25</v>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>350</v>
+        <v>610</v>
       </c>
       <c r="K269" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L269" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M269" t="n">
-        <v>22000</v>
+        <v>25049</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>880</v>
+        <v>1002</v>
       </c>
       <c r="Q269" t="n">
         <v>25</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="K270" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L270" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M270" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19815,11 +19815,11 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="Q270" t="n">
         <v>25</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="K271" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L271" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M271" t="n">
-        <v>25850</v>
+        <v>20000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>1034</v>
+        <v>800</v>
       </c>
       <c r="Q271" t="n">
         <v>25</v>
@@ -19959,7 +19959,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P272" t="n">
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K273" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L273" t="n">
         <v>27000</v>
       </c>
-      <c r="L273" t="n">
-        <v>30000</v>
-      </c>
       <c r="M273" t="n">
-        <v>28714</v>
+        <v>25850</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>1149</v>
+        <v>1034</v>
       </c>
       <c r="Q273" t="n">
         <v>25</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="K274" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L274" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M274" t="n">
-        <v>25807</v>
+        <v>28714</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,11 +20103,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>1032</v>
+        <v>1149</v>
       </c>
       <c r="Q274" t="n">
         <v>25</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>790</v>
+        <v>570</v>
       </c>
       <c r="K275" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L275" t="n">
         <v>27000</v>
       </c>
       <c r="M275" t="n">
-        <v>26532</v>
+        <v>25807</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20175,11 +20175,11 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>1061</v>
+        <v>1032</v>
       </c>
       <c r="Q275" t="n">
         <v>25</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,32 +20229,32 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>340</v>
+        <v>790</v>
       </c>
       <c r="K276" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L276" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M276" t="n">
-        <v>22000</v>
+        <v>26532</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>1467</v>
+        <v>1061</v>
       </c>
       <c r="Q276" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20301,32 +20301,32 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>1200</v>
+        <v>340</v>
       </c>
       <c r="K277" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L277" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M277" t="n">
-        <v>27500</v>
+        <v>22000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>1100</v>
+        <v>1467</v>
       </c>
       <c r="Q277" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,58 +20349,130 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E278" t="n">
+        <v>13</v>
+      </c>
+      <c r="F278" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J278" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K278" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L278" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M278" t="n">
+        <v>27500</v>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P278" t="n">
+        <v>1100</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>25</v>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>6</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D279" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E278" t="n">
-        <v>13</v>
-      </c>
-      <c r="F278" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I278" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J278" t="n">
+      <c r="E279" t="n">
+        <v>13</v>
+      </c>
+      <c r="F279" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J279" t="n">
         <v>380</v>
       </c>
-      <c r="K278" t="n">
+      <c r="K279" t="n">
         <v>30000</v>
       </c>
-      <c r="L278" t="n">
+      <c r="L279" t="n">
         <v>35000</v>
       </c>
-      <c r="M278" t="n">
+      <c r="M279" t="n">
         <v>31974</v>
       </c>
-      <c r="N278" t="inlineStr">
+      <c r="N279" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O278" t="inlineStr">
+      <c r="O279" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P278" t="n">
+      <c r="P279" t="n">
         <v>1279</v>
       </c>
-      <c r="Q278" t="n">
-        <v>25</v>
-      </c>
-      <c r="R278" t="inlineStr">
+      <c r="Q279" t="n">
+        <v>25</v>
+      </c>
+      <c r="R279" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R279"/>
+  <dimension ref="A1:R280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19944,26 +19944,26 @@
         <v>400</v>
       </c>
       <c r="K272" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L272" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M272" t="n">
-        <v>25850</v>
+        <v>32125</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>1034</v>
+        <v>1285</v>
       </c>
       <c r="Q272" t="n">
         <v>25</v>
@@ -20031,7 +20031,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P273" t="n">
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K274" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L274" t="n">
         <v>27000</v>
       </c>
-      <c r="L274" t="n">
-        <v>30000</v>
-      </c>
       <c r="M274" t="n">
-        <v>28714</v>
+        <v>25850</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,11 +20103,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>1149</v>
+        <v>1034</v>
       </c>
       <c r="Q274" t="n">
         <v>25</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="K275" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L275" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M275" t="n">
-        <v>25807</v>
+        <v>28714</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20175,11 +20175,11 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>1032</v>
+        <v>1149</v>
       </c>
       <c r="Q275" t="n">
         <v>25</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>790</v>
+        <v>570</v>
       </c>
       <c r="K276" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L276" t="n">
         <v>27000</v>
       </c>
       <c r="M276" t="n">
-        <v>26532</v>
+        <v>25807</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20247,11 +20247,11 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>1061</v>
+        <v>1032</v>
       </c>
       <c r="Q276" t="n">
         <v>25</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,32 +20301,32 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>340</v>
+        <v>790</v>
       </c>
       <c r="K277" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L277" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M277" t="n">
-        <v>22000</v>
+        <v>26532</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>1467</v>
+        <v>1061</v>
       </c>
       <c r="Q277" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20373,32 +20373,32 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>1200</v>
+        <v>340</v>
       </c>
       <c r="K278" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L278" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M278" t="n">
-        <v>27500</v>
+        <v>22000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>1100</v>
+        <v>1467</v>
       </c>
       <c r="Q278" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,58 +20421,130 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E279" t="n">
+        <v>13</v>
+      </c>
+      <c r="F279" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J279" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K279" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L279" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M279" t="n">
+        <v>27500</v>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P279" t="n">
+        <v>1100</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>25</v>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>6</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D280" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E279" t="n">
-        <v>13</v>
-      </c>
-      <c r="F279" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I279" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J279" t="n">
+      <c r="E280" t="n">
+        <v>13</v>
+      </c>
+      <c r="F280" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J280" t="n">
         <v>380</v>
       </c>
-      <c r="K279" t="n">
+      <c r="K280" t="n">
         <v>30000</v>
       </c>
-      <c r="L279" t="n">
+      <c r="L280" t="n">
         <v>35000</v>
       </c>
-      <c r="M279" t="n">
+      <c r="M280" t="n">
         <v>31974</v>
       </c>
-      <c r="N279" t="inlineStr">
+      <c r="N280" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O279" t="inlineStr">
+      <c r="O280" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P279" t="n">
+      <c r="P280" t="n">
         <v>1279</v>
       </c>
-      <c r="Q279" t="n">
-        <v>25</v>
-      </c>
-      <c r="R279" t="inlineStr">
+      <c r="Q280" t="n">
+        <v>25</v>
+      </c>
+      <c r="R280" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R280"/>
+  <dimension ref="A1:R282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14688,13 +14688,13 @@
         <v>400</v>
       </c>
       <c r="K199" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L199" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M199" t="n">
-        <v>34150</v>
+        <v>30850</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14703,11 +14703,11 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1366</v>
+        <v>1234</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44229</v>
+        <v>44510</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14753,33 +14753,33 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K200" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L200" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M200" t="n">
-        <v>33909</v>
+        <v>25000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1356</v>
+        <v>1000</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44229</v>
+        <v>44329</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,7 +14829,7 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K201" t="n">
         <v>33000</v>
@@ -14838,20 +14838,20 @@
         <v>35000</v>
       </c>
       <c r="M201" t="n">
-        <v>33791</v>
+        <v>34150</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1352</v>
+        <v>1366</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44316</v>
+        <v>44229</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14904,13 +14904,13 @@
         <v>550</v>
       </c>
       <c r="K202" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="L202" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M202" t="n">
-        <v>28164</v>
+        <v>33909</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1127</v>
+        <v>1356</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44242</v>
+        <v>44229</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K203" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="L203" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M203" t="n">
-        <v>24150</v>
+        <v>33791</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14991,11 +14991,11 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>966</v>
+        <v>1352</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44242</v>
+        <v>44316</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K204" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L204" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M204" t="n">
-        <v>23850</v>
+        <v>28164</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>954</v>
+        <v>1127</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44279</v>
+        <v>44242</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15120,13 +15120,13 @@
         <v>400</v>
       </c>
       <c r="K205" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L205" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M205" t="n">
-        <v>27425</v>
+        <v>24150</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1097</v>
+        <v>966</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44279</v>
+        <v>44242</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K206" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L206" t="n">
         <v>25000</v>
       </c>
-      <c r="L206" t="n">
-        <v>27000</v>
-      </c>
       <c r="M206" t="n">
-        <v>26125</v>
+        <v>23850</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1045</v>
+        <v>954</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>510</v>
+        <v>400</v>
       </c>
       <c r="K207" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L207" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M207" t="n">
-        <v>31098</v>
+        <v>27425</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>1244</v>
+        <v>1097</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="K208" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L208" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M208" t="n">
-        <v>29071</v>
+        <v>26125</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>1163</v>
+        <v>1045</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,29 +15405,29 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>150</v>
+        <v>510</v>
       </c>
       <c r="K209" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L209" t="n">
-        <v>80000</v>
+        <v>32000</v>
       </c>
       <c r="M209" t="n">
-        <v>77667</v>
+        <v>31098</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>3107</v>
+        <v>1244</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44201</v>
+        <v>44280</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,29 +15477,29 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>440</v>
+        <v>1400</v>
       </c>
       <c r="K210" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L210" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M210" t="n">
-        <v>23545</v>
+        <v>29071</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>942</v>
+        <v>1163</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44201</v>
+        <v>44476</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,29 +15549,29 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="K211" t="n">
-        <v>23000</v>
+        <v>75000</v>
       </c>
       <c r="L211" t="n">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="M211" t="n">
-        <v>23667</v>
+        <v>77667</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>947</v>
+        <v>3107</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>580</v>
+        <v>440</v>
       </c>
       <c r="K212" t="n">
         <v>23000</v>
@@ -15630,20 +15630,20 @@
         <v>25000</v>
       </c>
       <c r="M212" t="n">
-        <v>23897</v>
+        <v>23545</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K213" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L213" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M213" t="n">
-        <v>22571</v>
+        <v>23667</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>903</v>
+        <v>947</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15761,33 +15761,33 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="K214" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L214" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M214" t="n">
-        <v>20000</v>
+        <v>23897</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K215" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L215" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M215" t="n">
-        <v>20000</v>
+        <v>22571</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>800</v>
+        <v>903</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15909,29 +15909,29 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K216" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L216" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M216" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K217" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L217" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M217" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44293</v>
+        <v>44201</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="K218" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L218" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M218" t="n">
-        <v>22553</v>
+        <v>18000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16071,11 +16071,11 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>902</v>
+        <v>720</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44293</v>
+        <v>44201</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K219" t="n">
         <v>18000</v>
       </c>
       <c r="L219" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M219" t="n">
-        <v>18867</v>
+        <v>18000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>755</v>
+        <v>720</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44204</v>
+        <v>44293</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,29 +16197,29 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K220" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L220" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M220" t="n">
-        <v>29150</v>
+        <v>22553</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1166</v>
+        <v>902</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44204</v>
+        <v>44293</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="K221" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L221" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M221" t="n">
-        <v>23929</v>
+        <v>18867</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>957</v>
+        <v>755</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16341,29 +16341,29 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K222" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L222" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M222" t="n">
-        <v>25800</v>
+        <v>29150</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1032</v>
+        <v>1166</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>350</v>
+        <v>1400</v>
       </c>
       <c r="K223" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L223" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M223" t="n">
-        <v>20000</v>
+        <v>23929</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>800</v>
+        <v>957</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16481,20 +16481,20 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="K224" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L224" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M224" t="n">
-        <v>20000</v>
+        <v>25800</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>800</v>
+        <v>1032</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16553,20 +16553,20 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K225" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L225" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M225" t="n">
-        <v>28275</v>
+        <v>20000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1131</v>
+        <v>800</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44218</v>
+        <v>44204</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16625,20 +16625,20 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>610</v>
+        <v>350</v>
       </c>
       <c r="K226" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L226" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M226" t="n">
-        <v>25951</v>
+        <v>20000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1038</v>
+        <v>800</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K227" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L227" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M227" t="n">
-        <v>24103</v>
+        <v>28275</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>964</v>
+        <v>1131</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,7 +16773,7 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K228" t="n">
         <v>25000</v>
@@ -16782,7 +16782,7 @@
         <v>27000</v>
       </c>
       <c r="M228" t="n">
-        <v>25850</v>
+        <v>25951</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>800</v>
+        <v>580</v>
       </c>
       <c r="K229" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L229" t="n">
         <v>25000</v>
       </c>
-      <c r="L229" t="n">
-        <v>27000</v>
-      </c>
       <c r="M229" t="n">
-        <v>25875</v>
+        <v>24103</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1035</v>
+        <v>964</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44166</v>
+        <v>44221</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,32 +16917,32 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K230" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="L230" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="M230" t="n">
-        <v>37209</v>
+        <v>25850</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>2481</v>
+        <v>1034</v>
       </c>
       <c r="Q230" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44292</v>
+        <v>44221</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="K231" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L231" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="M231" t="n">
-        <v>21000</v>
+        <v>25875</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>840</v>
+        <v>1035</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44292</v>
+        <v>44166</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,32 +17061,32 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="K232" t="n">
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="L232" t="n">
-        <v>19000</v>
+        <v>38000</v>
       </c>
       <c r="M232" t="n">
-        <v>18464</v>
+        <v>37209</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>739</v>
+        <v>2481</v>
       </c>
       <c r="Q232" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44323</v>
+        <v>44292</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="K233" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="L233" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M233" t="n">
-        <v>23897</v>
+        <v>21000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17151,11 +17151,11 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>956</v>
+        <v>840</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44306</v>
+        <v>44292</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="K234" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L234" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="M234" t="n">
-        <v>25905</v>
+        <v>18464</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>1036</v>
+        <v>739</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="K235" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L235" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M235" t="n">
-        <v>28871</v>
+        <v>23897</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1155</v>
+        <v>956</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="K236" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L236" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M236" t="n">
-        <v>29587</v>
+        <v>25905</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17367,11 +17367,11 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1183</v>
+        <v>1036</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="K237" t="n">
         <v>28000</v>
@@ -17430,7 +17430,7 @@
         <v>30000</v>
       </c>
       <c r="M237" t="n">
-        <v>29150</v>
+        <v>28871</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>820</v>
+        <v>460</v>
       </c>
       <c r="K238" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="L238" t="n">
         <v>30000</v>
       </c>
       <c r="M238" t="n">
-        <v>27805</v>
+        <v>29587</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1112</v>
+        <v>1183</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,32 +17565,32 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="K239" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L239" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M239" t="n">
-        <v>20897</v>
+        <v>29150</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1393</v>
+        <v>1166</v>
       </c>
       <c r="Q239" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>600</v>
+        <v>820</v>
       </c>
       <c r="K240" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L240" t="n">
         <v>30000</v>
       </c>
-      <c r="L240" t="n">
-        <v>32000</v>
-      </c>
       <c r="M240" t="n">
-        <v>30767</v>
+        <v>27805</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1231</v>
+        <v>1112</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,32 +17709,32 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="K241" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L241" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M241" t="n">
-        <v>32000</v>
+        <v>20897</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>1280</v>
+        <v>1393</v>
       </c>
       <c r="Q241" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44246</v>
+        <v>44186</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="K242" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L242" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M242" t="n">
-        <v>25000</v>
+        <v>30767</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>1000</v>
+        <v>1231</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,29 +17853,29 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K243" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="L243" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M243" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>880</v>
+        <v>1280</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,29 +17925,29 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="K244" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="L244" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="M244" t="n">
-        <v>36575</v>
+        <v>25000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1463</v>
+        <v>1000</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="K245" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="L245" t="n">
-        <v>37000</v>
+        <v>22000</v>
       </c>
       <c r="M245" t="n">
-        <v>36575</v>
+        <v>22000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1463</v>
+        <v>880</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="K246" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="L246" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="M246" t="n">
-        <v>32000</v>
+        <v>36575</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1280</v>
+        <v>1463</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,32 +18141,32 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K247" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L247" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M247" t="n">
-        <v>23897</v>
+        <v>36575</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1593</v>
+        <v>1463</v>
       </c>
       <c r="Q247" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18209,20 +18209,20 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>1400</v>
+        <v>260</v>
       </c>
       <c r="K248" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L248" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M248" t="n">
-        <v>24071</v>
+        <v>32000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>963</v>
+        <v>1280</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18285,32 +18285,32 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="K249" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L249" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M249" t="n">
-        <v>23164</v>
+        <v>23897</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>927</v>
+        <v>1593</v>
       </c>
       <c r="Q249" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18357,29 +18357,29 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>610</v>
+        <v>1400</v>
       </c>
       <c r="K250" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L250" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M250" t="n">
-        <v>22475</v>
+        <v>24071</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>899</v>
+        <v>963</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18425,24 +18425,24 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="K251" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L251" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M251" t="n">
-        <v>20000</v>
+        <v>23164</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>800</v>
+        <v>927</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18497,20 +18497,20 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>170</v>
+        <v>610</v>
       </c>
       <c r="K252" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L252" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M252" t="n">
-        <v>18000</v>
+        <v>22475</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>720</v>
+        <v>899</v>
       </c>
       <c r="Q252" t="n">
         <v>25</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18569,33 +18569,33 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J253" t="n">
+        <v>450</v>
+      </c>
+      <c r="K253" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L253" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M253" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P253" t="n">
         <v>800</v>
-      </c>
-      <c r="K253" t="n">
-        <v>17000</v>
-      </c>
-      <c r="L253" t="n">
-        <v>25000</v>
-      </c>
-      <c r="M253" t="n">
-        <v>22675</v>
-      </c>
-      <c r="N253" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O253" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P253" t="n">
-        <v>907</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>520</v>
+        <v>170</v>
       </c>
       <c r="K254" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L254" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M254" t="n">
-        <v>18308</v>
+        <v>18000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="K255" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L255" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M255" t="n">
-        <v>20125</v>
+        <v>22675</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>805</v>
+        <v>907</v>
       </c>
       <c r="Q255" t="n">
         <v>25</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44181</v>
+        <v>44286</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,32 +18789,32 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K256" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L256" t="n">
         <v>20000</v>
       </c>
-      <c r="L256" t="n">
-        <v>22000</v>
-      </c>
       <c r="M256" t="n">
-        <v>20850</v>
+        <v>18308</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1390</v>
+        <v>732</v>
       </c>
       <c r="Q256" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44181</v>
+        <v>44286</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,29 +18861,29 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>750</v>
+        <v>480</v>
       </c>
       <c r="K257" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="L257" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M257" t="n">
-        <v>28280</v>
+        <v>20125</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1131</v>
+        <v>805</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18936,29 +18936,29 @@
         <v>400</v>
       </c>
       <c r="K258" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L258" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M258" t="n">
-        <v>24150</v>
+        <v>20850</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>966</v>
+        <v>1390</v>
       </c>
       <c r="Q258" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -19005,29 +19005,29 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K259" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L259" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M259" t="n">
-        <v>25850</v>
+        <v>28280</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1034</v>
+        <v>1131</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44328</v>
+        <v>44181</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,29 +19077,29 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K260" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L260" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="M260" t="n">
-        <v>35800</v>
+        <v>24150</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>1432</v>
+        <v>966</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44328</v>
+        <v>44181</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K261" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L261" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M261" t="n">
-        <v>33667</v>
+        <v>25850</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19167,11 +19167,11 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>1347</v>
+        <v>1034</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,29 +19221,29 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K262" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L262" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M262" t="n">
-        <v>24150</v>
+        <v>35800</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>966</v>
+        <v>1432</v>
       </c>
       <c r="Q262" t="n">
         <v>25</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K263" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L263" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M263" t="n">
-        <v>23172</v>
+        <v>33667</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19311,11 +19311,11 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>927</v>
+        <v>1347</v>
       </c>
       <c r="Q263" t="n">
         <v>25</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19368,26 +19368,26 @@
         <v>400</v>
       </c>
       <c r="K264" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L264" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="M264" t="n">
-        <v>36275</v>
+        <v>24150</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>1451</v>
+        <v>966</v>
       </c>
       <c r="Q264" t="n">
         <v>25</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="K265" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L265" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="M265" t="n">
-        <v>25000</v>
+        <v>23172</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>1000</v>
+        <v>927</v>
       </c>
       <c r="Q265" t="n">
         <v>25</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19505,33 +19505,33 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K266" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L266" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="M266" t="n">
-        <v>23000</v>
+        <v>36275</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>920</v>
+        <v>1451</v>
       </c>
       <c r="Q266" t="n">
         <v>25</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K267" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L267" t="n">
         <v>25000</v>
       </c>
       <c r="M267" t="n">
-        <v>24150</v>
+        <v>25000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>966</v>
+        <v>1000</v>
       </c>
       <c r="Q267" t="n">
         <v>25</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19649,20 +19649,20 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>1460</v>
+        <v>150</v>
       </c>
       <c r="K268" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L268" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M268" t="n">
-        <v>25137</v>
+        <v>23000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>1005</v>
+        <v>920</v>
       </c>
       <c r="Q268" t="n">
         <v>25</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K269" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L269" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="M269" t="n">
-        <v>25049</v>
+        <v>24150</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1002</v>
+        <v>966</v>
       </c>
       <c r="Q269" t="n">
         <v>25</v>
@@ -19793,20 +19793,20 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>350</v>
+        <v>1460</v>
       </c>
       <c r="K270" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L270" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M270" t="n">
-        <v>22000</v>
+        <v>25137</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>880</v>
+        <v>1005</v>
       </c>
       <c r="Q270" t="n">
         <v>25</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>230</v>
+        <v>610</v>
       </c>
       <c r="K271" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L271" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M271" t="n">
-        <v>20000</v>
+        <v>25049</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>800</v>
+        <v>1002</v>
       </c>
       <c r="Q271" t="n">
         <v>25</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19937,33 +19937,33 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K272" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L272" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M272" t="n">
-        <v>32125</v>
+        <v>22000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>1285</v>
+        <v>880</v>
       </c>
       <c r="Q272" t="n">
         <v>25</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="K273" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L273" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M273" t="n">
-        <v>25850</v>
+        <v>20000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>1034</v>
+        <v>800</v>
       </c>
       <c r="Q273" t="n">
         <v>25</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20088,26 +20088,26 @@
         <v>400</v>
       </c>
       <c r="K274" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L274" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M274" t="n">
-        <v>25850</v>
+        <v>32125</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>1034</v>
+        <v>1285</v>
       </c>
       <c r="Q274" t="n">
         <v>25</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K275" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L275" t="n">
         <v>27000</v>
       </c>
-      <c r="L275" t="n">
-        <v>30000</v>
-      </c>
       <c r="M275" t="n">
-        <v>28714</v>
+        <v>25850</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>1149</v>
+        <v>1034</v>
       </c>
       <c r="Q275" t="n">
         <v>25</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,7 +20229,7 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="K276" t="n">
         <v>25000</v>
@@ -20238,7 +20238,7 @@
         <v>27000</v>
       </c>
       <c r="M276" t="n">
-        <v>25807</v>
+        <v>25850</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="Q276" t="n">
         <v>25</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>790</v>
+        <v>280</v>
       </c>
       <c r="K277" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="L277" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M277" t="n">
-        <v>26532</v>
+        <v>28714</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>1061</v>
+        <v>1149</v>
       </c>
       <c r="Q277" t="n">
         <v>25</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44179</v>
+        <v>44307</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,32 +20373,32 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>340</v>
+        <v>570</v>
       </c>
       <c r="K278" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L278" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M278" t="n">
-        <v>22000</v>
+        <v>25807</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>1467</v>
+        <v>1032</v>
       </c>
       <c r="Q278" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>1200</v>
+        <v>790</v>
       </c>
       <c r="K279" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L279" t="n">
         <v>27000</v>
       </c>
-      <c r="L279" t="n">
-        <v>28000</v>
-      </c>
       <c r="M279" t="n">
-        <v>27500</v>
+        <v>26532</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>1100</v>
+        <v>1061</v>
       </c>
       <c r="Q279" t="n">
         <v>25</v>
@@ -20493,58 +20493,202 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E280" t="n">
+        <v>13</v>
+      </c>
+      <c r="F280" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J280" t="n">
+        <v>340</v>
+      </c>
+      <c r="K280" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L280" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M280" t="n">
+        <v>22000</v>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P280" t="n">
+        <v>1467</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>15</v>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>6</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D281" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E281" t="n">
+        <v>13</v>
+      </c>
+      <c r="F281" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J281" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K281" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L281" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M281" t="n">
+        <v>27500</v>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P281" t="n">
+        <v>1100</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>25</v>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>6</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D282" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E280" t="n">
-        <v>13</v>
-      </c>
-      <c r="F280" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I280" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J280" t="n">
+      <c r="E282" t="n">
+        <v>13</v>
+      </c>
+      <c r="F282" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J282" t="n">
         <v>380</v>
       </c>
-      <c r="K280" t="n">
+      <c r="K282" t="n">
         <v>30000</v>
       </c>
-      <c r="L280" t="n">
+      <c r="L282" t="n">
         <v>35000</v>
       </c>
-      <c r="M280" t="n">
+      <c r="M282" t="n">
         <v>31974</v>
       </c>
-      <c r="N280" t="inlineStr">
+      <c r="N282" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O280" t="inlineStr">
+      <c r="O282" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P280" t="n">
+      <c r="P282" t="n">
         <v>1279</v>
       </c>
-      <c r="Q280" t="n">
-        <v>25</v>
-      </c>
-      <c r="R280" t="inlineStr">
+      <c r="Q282" t="n">
+        <v>25</v>
+      </c>
+      <c r="R282" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R282"/>
+  <dimension ref="A1:R283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44354</v>
+        <v>44512</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11153,33 +11153,33 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="K150" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L150" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="M150" t="n">
-        <v>26133</v>
+        <v>36667</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1045</v>
+        <v>1467</v>
       </c>
       <c r="Q150" t="n">
         <v>25</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K151" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="L151" t="n">
-        <v>40000</v>
+        <v>27000</v>
       </c>
       <c r="M151" t="n">
-        <v>39233</v>
+        <v>26133</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1569</v>
+        <v>1045</v>
       </c>
       <c r="Q151" t="n">
         <v>25</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44188</v>
+        <v>44169</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11301,7 +11301,7 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>1130</v>
+        <v>600</v>
       </c>
       <c r="K152" t="n">
         <v>38000</v>
@@ -11310,7 +11310,7 @@
         <v>40000</v>
       </c>
       <c r="M152" t="n">
-        <v>38796</v>
+        <v>39233</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>1552</v>
+        <v>1569</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>850</v>
+        <v>1130</v>
       </c>
       <c r="K153" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="L153" t="n">
         <v>40000</v>
       </c>
       <c r="M153" t="n">
-        <v>39188</v>
+        <v>38796</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1568</v>
+        <v>1552</v>
       </c>
       <c r="Q153" t="n">
         <v>25</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>230</v>
+        <v>850</v>
       </c>
       <c r="K154" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="L154" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M154" t="n">
-        <v>35000</v>
+        <v>39188</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11463,11 +11463,11 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>1400</v>
+        <v>1568</v>
       </c>
       <c r="Q154" t="n">
         <v>25</v>
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K155" t="n">
         <v>35000</v>
@@ -11535,7 +11535,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P155" t="n">
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44160</v>
+        <v>44188</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11585,36 +11585,36 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="K156" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="L156" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="M156" t="n">
-        <v>37425</v>
+        <v>35000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>2495</v>
+        <v>1400</v>
       </c>
       <c r="Q156" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44274</v>
+        <v>44160</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,32 +11661,32 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K157" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="L157" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="M157" t="n">
-        <v>29292</v>
+        <v>37425</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1172</v>
+        <v>2495</v>
       </c>
       <c r="Q157" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11736,13 +11736,13 @@
         <v>650</v>
       </c>
       <c r="K158" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="L158" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M158" t="n">
-        <v>27292</v>
+        <v>29292</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1092</v>
+        <v>1172</v>
       </c>
       <c r="Q158" t="n">
         <v>25</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44216</v>
+        <v>44274</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="K159" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="L159" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M159" t="n">
-        <v>23852</v>
+        <v>27292</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>954</v>
+        <v>1092</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11877,7 +11877,7 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>720</v>
+        <v>610</v>
       </c>
       <c r="K160" t="n">
         <v>23000</v>
@@ -11886,7 +11886,7 @@
         <v>25000</v>
       </c>
       <c r="M160" t="n">
-        <v>24028</v>
+        <v>23852</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44222</v>
+        <v>44216</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,7 +11949,7 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>1300</v>
+        <v>720</v>
       </c>
       <c r="K161" t="n">
         <v>23000</v>
@@ -11958,7 +11958,7 @@
         <v>25000</v>
       </c>
       <c r="M161" t="n">
-        <v>23923</v>
+        <v>24028</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11967,11 +11967,11 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>790</v>
+        <v>1300</v>
       </c>
       <c r="K162" t="n">
         <v>23000</v>
@@ -12030,7 +12030,7 @@
         <v>25000</v>
       </c>
       <c r="M162" t="n">
-        <v>24063</v>
+        <v>23923</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12093,7 +12093,7 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>1400</v>
+        <v>790</v>
       </c>
       <c r="K163" t="n">
         <v>23000</v>
@@ -12102,7 +12102,7 @@
         <v>25000</v>
       </c>
       <c r="M163" t="n">
-        <v>23857</v>
+        <v>24063</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="K164" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L164" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M164" t="n">
-        <v>20000</v>
+        <v>23857</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12183,11 +12183,11 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>800</v>
+        <v>954</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="K165" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L165" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M165" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>700</v>
+        <v>230</v>
       </c>
       <c r="K166" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L166" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M166" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12327,11 +12327,11 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44189</v>
+        <v>44222</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K167" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L167" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M167" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>1320</v>
+        <v>720</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12453,7 +12453,7 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="K168" t="n">
         <v>30000</v>
@@ -12462,7 +12462,7 @@
         <v>35000</v>
       </c>
       <c r="M168" t="n">
-        <v>32727</v>
+        <v>33000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12471,11 +12471,11 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>1309</v>
+        <v>1320</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K169" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L169" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M169" t="n">
-        <v>25000</v>
+        <v>32727</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12543,11 +12543,11 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>1000</v>
+        <v>1309</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K170" t="n">
         <v>25000</v>
@@ -12615,7 +12615,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P170" t="n">
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44291</v>
+        <v>44189</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="K171" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L171" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M171" t="n">
-        <v>23600</v>
+        <v>25000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12687,11 +12687,11 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44172</v>
+        <v>44291</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,32 +12741,32 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>350</v>
+        <v>1500</v>
       </c>
       <c r="K172" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L172" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="M172" t="n">
-        <v>30857</v>
+        <v>23600</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>2057</v>
+        <v>944</v>
       </c>
       <c r="Q172" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12813,32 +12813,32 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="K173" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L173" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="M173" t="n">
-        <v>37182</v>
+        <v>30857</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>1487</v>
+        <v>2057</v>
       </c>
       <c r="Q173" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44314</v>
+        <v>44172</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K174" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="L174" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="M174" t="n">
-        <v>26150</v>
+        <v>37182</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1046</v>
+        <v>1487</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K175" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L175" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M175" t="n">
-        <v>24585</v>
+        <v>26150</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>983</v>
+        <v>1046</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>50</v>
+        <v>410</v>
       </c>
       <c r="K176" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L176" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M176" t="n">
-        <v>20000</v>
+        <v>24585</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>800</v>
+        <v>983</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13101,7 +13101,7 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K177" t="n">
         <v>20000</v>
@@ -13119,7 +13119,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P177" t="n">
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44278</v>
+        <v>44314</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>810</v>
+        <v>60</v>
       </c>
       <c r="K178" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L178" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M178" t="n">
-        <v>26136</v>
+        <v>20000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1045</v>
+        <v>800</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13245,7 +13245,7 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>1030</v>
+        <v>810</v>
       </c>
       <c r="K179" t="n">
         <v>25000</v>
@@ -13254,7 +13254,7 @@
         <v>27000</v>
       </c>
       <c r="M179" t="n">
-        <v>25680</v>
+        <v>26136</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44272</v>
+        <v>44278</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>600</v>
+        <v>1030</v>
       </c>
       <c r="K180" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L180" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M180" t="n">
-        <v>21233</v>
+        <v>25680</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>849</v>
+        <v>1027</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13389,7 +13389,7 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K181" t="n">
         <v>20000</v>
@@ -13398,7 +13398,7 @@
         <v>22000</v>
       </c>
       <c r="M181" t="n">
-        <v>21080</v>
+        <v>21233</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44294</v>
+        <v>44272</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="K182" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="L182" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M182" t="n">
-        <v>29103</v>
+        <v>21080</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1164</v>
+        <v>843</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44496</v>
+        <v>44294</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,29 +13533,29 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>530</v>
+        <v>580</v>
       </c>
       <c r="K183" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L183" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M183" t="n">
-        <v>37170</v>
+        <v>29103</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1487</v>
+        <v>1164</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44196</v>
+        <v>44496</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>1100</v>
+        <v>530</v>
       </c>
       <c r="K184" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L184" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="M184" t="n">
-        <v>28000</v>
+        <v>37170</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>1120</v>
+        <v>1487</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K185" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L185" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M185" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K186" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L186" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M186" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K187" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L187" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M187" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>800</v>
+        <v>1120</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13893,7 +13893,7 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K188" t="n">
         <v>20000</v>
@@ -13911,7 +13911,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P188" t="n">
@@ -13965,7 +13965,7 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K189" t="n">
         <v>20000</v>
@@ -13983,7 +13983,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P189" t="n">
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44341</v>
+        <v>44196</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,33 +14033,33 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>610</v>
+        <v>250</v>
       </c>
       <c r="K190" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L190" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M190" t="n">
-        <v>25852</v>
+        <v>20000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>1034</v>
+        <v>800</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44308</v>
+        <v>44341</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,29 +14109,29 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K191" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L191" t="n">
         <v>27000</v>
       </c>
-      <c r="L191" t="n">
-        <v>28000</v>
-      </c>
       <c r="M191" t="n">
-        <v>27575</v>
+        <v>25852</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1103</v>
+        <v>1034</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14184,26 +14184,26 @@
         <v>400</v>
       </c>
       <c r="K192" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L192" t="n">
         <v>28000</v>
       </c>
-      <c r="L192" t="n">
-        <v>30000</v>
-      </c>
       <c r="M192" t="n">
-        <v>29150</v>
+        <v>27575</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1166</v>
+        <v>1103</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14256,13 +14256,13 @@
         <v>400</v>
       </c>
       <c r="K193" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L193" t="n">
         <v>30000</v>
       </c>
-      <c r="L193" t="n">
-        <v>32000</v>
-      </c>
       <c r="M193" t="n">
-        <v>30850</v>
+        <v>29150</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1234</v>
+        <v>1166</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44315</v>
+        <v>44308</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,29 +14325,29 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K194" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L194" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M194" t="n">
-        <v>24561</v>
+        <v>30850</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>982</v>
+        <v>1234</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14397,20 +14397,20 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="K195" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L195" t="n">
         <v>25000</v>
       </c>
-      <c r="L195" t="n">
-        <v>27000</v>
-      </c>
       <c r="M195" t="n">
-        <v>25867</v>
+        <v>24561</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1035</v>
+        <v>982</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44208</v>
+        <v>44315</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K196" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L196" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M196" t="n">
-        <v>35850</v>
+        <v>25867</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1434</v>
+        <v>1035</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14541,7 +14541,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="K197" t="n">
         <v>35000</v>
@@ -14550,7 +14550,7 @@
         <v>37000</v>
       </c>
       <c r="M197" t="n">
-        <v>36061</v>
+        <v>35850</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44490</v>
+        <v>44208</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,29 +14613,29 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K198" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="L198" t="n">
-        <v>42000</v>
+        <v>37000</v>
       </c>
       <c r="M198" t="n">
-        <v>40800</v>
+        <v>36061</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1632</v>
+        <v>1442</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44510</v>
+        <v>44490</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K199" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="L199" t="n">
-        <v>32000</v>
+        <v>42000</v>
       </c>
       <c r="M199" t="n">
-        <v>30850</v>
+        <v>40800</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1234</v>
+        <v>1632</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K200" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L200" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M200" t="n">
-        <v>25000</v>
+        <v>30850</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1000</v>
+        <v>1234</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K201" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L201" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M201" t="n">
-        <v>34150</v>
+        <v>25000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14847,11 +14847,11 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1366</v>
+        <v>1000</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44229</v>
+        <v>44329</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,7 +14901,7 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K202" t="n">
         <v>33000</v>
@@ -14910,20 +14910,20 @@
         <v>35000</v>
       </c>
       <c r="M202" t="n">
-        <v>33909</v>
+        <v>34150</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1356</v>
+        <v>1366</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14973,7 +14973,7 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="K203" t="n">
         <v>33000</v>
@@ -14982,7 +14982,7 @@
         <v>35000</v>
       </c>
       <c r="M203" t="n">
-        <v>33791</v>
+        <v>33909</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14991,11 +14991,11 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44316</v>
+        <v>44229</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>550</v>
+        <v>430</v>
       </c>
       <c r="K204" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="L204" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M204" t="n">
-        <v>28164</v>
+        <v>33791</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>1127</v>
+        <v>1352</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44242</v>
+        <v>44316</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K205" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L205" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M205" t="n">
-        <v>24150</v>
+        <v>28164</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>966</v>
+        <v>1127</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15198,7 +15198,7 @@
         <v>25000</v>
       </c>
       <c r="M206" t="n">
-        <v>23850</v>
+        <v>24150</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44279</v>
+        <v>44242</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15264,13 +15264,13 @@
         <v>400</v>
       </c>
       <c r="K207" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L207" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M207" t="n">
-        <v>27425</v>
+        <v>23850</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>1097</v>
+        <v>954</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K208" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L208" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M208" t="n">
-        <v>26125</v>
+        <v>27425</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>1045</v>
+        <v>1097</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>510</v>
+        <v>800</v>
       </c>
       <c r="K209" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L209" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M209" t="n">
-        <v>31098</v>
+        <v>26125</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1244</v>
+        <v>1045</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>1400</v>
+        <v>510</v>
       </c>
       <c r="K210" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L210" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M210" t="n">
-        <v>29071</v>
+        <v>31098</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>1163</v>
+        <v>1244</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,29 +15549,29 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>150</v>
+        <v>1400</v>
       </c>
       <c r="K211" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="L211" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="M211" t="n">
-        <v>77667</v>
+        <v>29071</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>3107</v>
+        <v>1163</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44201</v>
+        <v>44476</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>440</v>
+        <v>150</v>
       </c>
       <c r="K212" t="n">
-        <v>23000</v>
+        <v>75000</v>
       </c>
       <c r="L212" t="n">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="M212" t="n">
-        <v>23545</v>
+        <v>77667</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>942</v>
+        <v>3107</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15693,7 +15693,7 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K213" t="n">
         <v>23000</v>
@@ -15702,20 +15702,20 @@
         <v>25000</v>
       </c>
       <c r="M213" t="n">
-        <v>23667</v>
+        <v>23545</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15765,7 +15765,7 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="K214" t="n">
         <v>23000</v>
@@ -15774,7 +15774,7 @@
         <v>25000</v>
       </c>
       <c r="M214" t="n">
-        <v>23897</v>
+        <v>23667</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15783,11 +15783,11 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="K215" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L215" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M215" t="n">
-        <v>22571</v>
+        <v>23897</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>903</v>
+        <v>956</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15905,33 +15905,33 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K216" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L216" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M216" t="n">
-        <v>20000</v>
+        <v>22571</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>800</v>
+        <v>903</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15994,12 +15994,12 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P217" t="n">
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K218" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L218" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M218" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16071,11 +16071,11 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16125,7 +16125,7 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K219" t="n">
         <v>18000</v>
@@ -16143,7 +16143,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P219" t="n">
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44293</v>
+        <v>44201</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16193,20 +16193,20 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="K220" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L220" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M220" t="n">
-        <v>22553</v>
+        <v>18000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16215,11 +16215,11 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>902</v>
+        <v>720</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="K221" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L221" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M221" t="n">
-        <v>18867</v>
+        <v>22553</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>755</v>
+        <v>902</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44204</v>
+        <v>44293</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,29 +16341,29 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K222" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="L222" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M222" t="n">
-        <v>29150</v>
+        <v>18867</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1166</v>
+        <v>755</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16413,29 +16413,29 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K223" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L223" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M223" t="n">
-        <v>23929</v>
+        <v>29150</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>957</v>
+        <v>1166</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K224" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L224" t="n">
         <v>25000</v>
       </c>
-      <c r="L224" t="n">
-        <v>27000</v>
-      </c>
       <c r="M224" t="n">
-        <v>25800</v>
+        <v>23929</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16503,11 +16503,11 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>1032</v>
+        <v>957</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16553,20 +16553,20 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="K225" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L225" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M225" t="n">
-        <v>20000</v>
+        <v>25800</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>800</v>
+        <v>1032</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16647,7 +16647,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P226" t="n">
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16697,20 +16697,20 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K227" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L227" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M227" t="n">
-        <v>28275</v>
+        <v>20000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1131</v>
+        <v>800</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K228" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L228" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M228" t="n">
-        <v>25951</v>
+        <v>28275</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1038</v>
+        <v>1131</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="K229" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L229" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M229" t="n">
-        <v>24103</v>
+        <v>25951</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16863,11 +16863,11 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>964</v>
+        <v>1038</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K230" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L230" t="n">
         <v>25000</v>
       </c>
-      <c r="L230" t="n">
-        <v>27000</v>
-      </c>
       <c r="M230" t="n">
-        <v>25850</v>
+        <v>24103</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16935,11 +16935,11 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1034</v>
+        <v>964</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16989,7 +16989,7 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K231" t="n">
         <v>25000</v>
@@ -16998,7 +16998,7 @@
         <v>27000</v>
       </c>
       <c r="M231" t="n">
-        <v>25875</v>
+        <v>25850</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44166</v>
+        <v>44221</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,32 +17061,32 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>430</v>
+        <v>800</v>
       </c>
       <c r="K232" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="L232" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="M232" t="n">
-        <v>37209</v>
+        <v>25875</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>2481</v>
+        <v>1035</v>
       </c>
       <c r="Q232" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44292</v>
+        <v>44166</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,32 +17133,32 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="K233" t="n">
-        <v>21000</v>
+        <v>36000</v>
       </c>
       <c r="L233" t="n">
-        <v>21000</v>
+        <v>38000</v>
       </c>
       <c r="M233" t="n">
-        <v>21000</v>
+        <v>37209</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>840</v>
+        <v>2481</v>
       </c>
       <c r="Q233" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="K234" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L234" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M234" t="n">
-        <v>18464</v>
+        <v>21000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>739</v>
+        <v>840</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44323</v>
+        <v>44292</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>580</v>
+        <v>280</v>
       </c>
       <c r="K235" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L235" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="M235" t="n">
-        <v>23897</v>
+        <v>18464</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17295,11 +17295,11 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>956</v>
+        <v>739</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="K236" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L236" t="n">
         <v>25000</v>
       </c>
-      <c r="L236" t="n">
-        <v>27000</v>
-      </c>
       <c r="M236" t="n">
-        <v>25905</v>
+        <v>23897</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1036</v>
+        <v>956</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="K237" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L237" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M237" t="n">
-        <v>28871</v>
+        <v>25905</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1155</v>
+        <v>1036</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>460</v>
+        <v>620</v>
       </c>
       <c r="K238" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L238" t="n">
         <v>30000</v>
       </c>
       <c r="M238" t="n">
-        <v>29587</v>
+        <v>28871</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1183</v>
+        <v>1155</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K239" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L239" t="n">
         <v>30000</v>
       </c>
       <c r="M239" t="n">
-        <v>29150</v>
+        <v>29587</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17583,11 +17583,11 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1166</v>
+        <v>1183</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="K240" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="L240" t="n">
         <v>30000</v>
       </c>
       <c r="M240" t="n">
-        <v>27805</v>
+        <v>29150</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1112</v>
+        <v>1166</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,32 +17709,32 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>290</v>
+        <v>820</v>
       </c>
       <c r="K241" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="L241" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M241" t="n">
-        <v>20897</v>
+        <v>27805</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>1393</v>
+        <v>1112</v>
       </c>
       <c r="Q241" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17781,32 +17781,32 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>600</v>
+        <v>290</v>
       </c>
       <c r="K242" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L242" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M242" t="n">
-        <v>30767</v>
+        <v>20897</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>1231</v>
+        <v>1393</v>
       </c>
       <c r="Q242" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,29 +17853,29 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K243" t="n">
         <v>30000</v>
       </c>
       <c r="L243" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M243" t="n">
-        <v>32000</v>
+        <v>30767</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1280</v>
+        <v>1231</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,29 +17925,29 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="K244" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L244" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M244" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="K245" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L245" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M245" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,29 +18069,29 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="K246" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="L246" t="n">
-        <v>37000</v>
+        <v>22000</v>
       </c>
       <c r="M246" t="n">
-        <v>36575</v>
+        <v>22000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1463</v>
+        <v>880</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18154,12 +18154,12 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P247" t="n">
@@ -18209,33 +18209,33 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="K248" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="L248" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="M248" t="n">
-        <v>32000</v>
+        <v>36575</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1280</v>
+        <v>1463</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18281,36 +18281,36 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="K249" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L249" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M249" t="n">
-        <v>23897</v>
+        <v>32000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1593</v>
+        <v>1280</v>
       </c>
       <c r="Q249" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>1400</v>
+        <v>580</v>
       </c>
       <c r="K250" t="n">
         <v>23000</v>
@@ -18366,23 +18366,23 @@
         <v>25000</v>
       </c>
       <c r="M250" t="n">
-        <v>24071</v>
+        <v>23897</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>963</v>
+        <v>1593</v>
       </c>
       <c r="Q250" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18429,20 +18429,20 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>550</v>
+        <v>1400</v>
       </c>
       <c r="K251" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L251" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M251" t="n">
-        <v>23164</v>
+        <v>24071</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>927</v>
+        <v>963</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="K252" t="n">
         <v>22000</v>
       </c>
       <c r="L252" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="M252" t="n">
-        <v>22475</v>
+        <v>23164</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>899</v>
+        <v>927</v>
       </c>
       <c r="Q252" t="n">
         <v>25</v>
@@ -18569,33 +18569,33 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>450</v>
+        <v>610</v>
       </c>
       <c r="K253" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L253" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M253" t="n">
-        <v>20000</v>
+        <v>22475</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>800</v>
+        <v>899</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18645,29 +18645,29 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="K254" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L254" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M254" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>800</v>
+        <v>170</v>
       </c>
       <c r="K255" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L255" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M255" t="n">
-        <v>22675</v>
+        <v>18000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>907</v>
+        <v>720</v>
       </c>
       <c r="Q255" t="n">
         <v>25</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K256" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L256" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M256" t="n">
-        <v>18308</v>
+        <v>22675</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>732</v>
+        <v>907</v>
       </c>
       <c r="Q256" t="n">
         <v>25</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K257" t="n">
         <v>15000</v>
       </c>
       <c r="L257" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M257" t="n">
-        <v>20125</v>
+        <v>18308</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18879,11 +18879,11 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>805</v>
+        <v>732</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44181</v>
+        <v>44286</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,32 +18933,32 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K258" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L258" t="n">
         <v>22000</v>
       </c>
       <c r="M258" t="n">
-        <v>20850</v>
+        <v>20125</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>1390</v>
+        <v>805</v>
       </c>
       <c r="Q258" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -19005,32 +19005,32 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="K259" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L259" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M259" t="n">
-        <v>28280</v>
+        <v>20850</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1131</v>
+        <v>1390</v>
       </c>
       <c r="Q259" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19077,20 +19077,20 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K260" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L260" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M260" t="n">
-        <v>24150</v>
+        <v>28280</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>966</v>
+        <v>1131</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19152,13 +19152,13 @@
         <v>400</v>
       </c>
       <c r="K261" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L261" t="n">
         <v>25000</v>
       </c>
-      <c r="L261" t="n">
-        <v>27000</v>
-      </c>
       <c r="M261" t="n">
-        <v>25850</v>
+        <v>24150</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19167,11 +19167,11 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>1034</v>
+        <v>966</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44328</v>
+        <v>44181</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,29 +19221,29 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K262" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L262" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M262" t="n">
-        <v>35800</v>
+        <v>25850</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>1432</v>
+        <v>1034</v>
       </c>
       <c r="Q262" t="n">
         <v>25</v>
@@ -19293,29 +19293,29 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K263" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L263" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M263" t="n">
-        <v>33667</v>
+        <v>35800</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>1347</v>
+        <v>1432</v>
       </c>
       <c r="Q263" t="n">
         <v>25</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K264" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="L264" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M264" t="n">
-        <v>24150</v>
+        <v>33667</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>966</v>
+        <v>1347</v>
       </c>
       <c r="Q264" t="n">
         <v>25</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="K265" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L265" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M265" t="n">
-        <v>23172</v>
+        <v>24150</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>927</v>
+        <v>966</v>
       </c>
       <c r="Q265" t="n">
         <v>25</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,29 +19509,29 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K266" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="L266" t="n">
-        <v>38000</v>
+        <v>24000</v>
       </c>
       <c r="M266" t="n">
-        <v>36275</v>
+        <v>23172</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>1451</v>
+        <v>927</v>
       </c>
       <c r="Q266" t="n">
         <v>25</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,29 +19581,29 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K267" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L267" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M267" t="n">
-        <v>25000</v>
+        <v>36275</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>1000</v>
+        <v>1451</v>
       </c>
       <c r="Q267" t="n">
         <v>25</v>
@@ -19649,20 +19649,20 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K268" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L268" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M268" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q268" t="n">
         <v>25</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K269" t="n">
         <v>23000</v>
       </c>
       <c r="L269" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M269" t="n">
-        <v>24150</v>
+        <v>23000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>966</v>
+        <v>920</v>
       </c>
       <c r="Q269" t="n">
         <v>25</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>1460</v>
+        <v>400</v>
       </c>
       <c r="K270" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L270" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="M270" t="n">
-        <v>25137</v>
+        <v>24150</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>1005</v>
+        <v>966</v>
       </c>
       <c r="Q270" t="n">
         <v>25</v>
@@ -19869,7 +19869,7 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>610</v>
+        <v>1460</v>
       </c>
       <c r="K271" t="n">
         <v>24000</v>
@@ -19878,7 +19878,7 @@
         <v>26000</v>
       </c>
       <c r="M271" t="n">
-        <v>25049</v>
+        <v>25137</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="Q271" t="n">
         <v>25</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>350</v>
+        <v>610</v>
       </c>
       <c r="K272" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L272" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M272" t="n">
-        <v>22000</v>
+        <v>25049</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>880</v>
+        <v>1002</v>
       </c>
       <c r="Q272" t="n">
         <v>25</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="K273" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L273" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M273" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="Q273" t="n">
         <v>25</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20081,33 +20081,33 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="K274" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L274" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M274" t="n">
-        <v>32125</v>
+        <v>20000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>1285</v>
+        <v>800</v>
       </c>
       <c r="Q274" t="n">
         <v>25</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20160,26 +20160,26 @@
         <v>400</v>
       </c>
       <c r="K275" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L275" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M275" t="n">
-        <v>25850</v>
+        <v>32125</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>1034</v>
+        <v>1285</v>
       </c>
       <c r="Q275" t="n">
         <v>25</v>
@@ -20247,7 +20247,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P276" t="n">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K277" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L277" t="n">
         <v>27000</v>
       </c>
-      <c r="L277" t="n">
-        <v>30000</v>
-      </c>
       <c r="M277" t="n">
-        <v>28714</v>
+        <v>25850</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20319,11 +20319,11 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>1149</v>
+        <v>1034</v>
       </c>
       <c r="Q277" t="n">
         <v>25</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="K278" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L278" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M278" t="n">
-        <v>25807</v>
+        <v>28714</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20391,11 +20391,11 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>1032</v>
+        <v>1149</v>
       </c>
       <c r="Q278" t="n">
         <v>25</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>790</v>
+        <v>570</v>
       </c>
       <c r="K279" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L279" t="n">
         <v>27000</v>
       </c>
       <c r="M279" t="n">
-        <v>26532</v>
+        <v>25807</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>1061</v>
+        <v>1032</v>
       </c>
       <c r="Q279" t="n">
         <v>25</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,32 +20517,32 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>340</v>
+        <v>790</v>
       </c>
       <c r="K280" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L280" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M280" t="n">
-        <v>22000</v>
+        <v>26532</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>1467</v>
+        <v>1061</v>
       </c>
       <c r="Q280" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20589,32 +20589,32 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>1200</v>
+        <v>340</v>
       </c>
       <c r="K281" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L281" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M281" t="n">
-        <v>27500</v>
+        <v>22000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>1100</v>
+        <v>1467</v>
       </c>
       <c r="Q281" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,58 +20637,130 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E282" t="n">
+        <v>13</v>
+      </c>
+      <c r="F282" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J282" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K282" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L282" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M282" t="n">
+        <v>27500</v>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P282" t="n">
+        <v>1100</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>25</v>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>6</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D283" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E282" t="n">
-        <v>13</v>
-      </c>
-      <c r="F282" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I282" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J282" t="n">
+      <c r="E283" t="n">
+        <v>13</v>
+      </c>
+      <c r="F283" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J283" t="n">
         <v>380</v>
       </c>
-      <c r="K282" t="n">
+      <c r="K283" t="n">
         <v>30000</v>
       </c>
-      <c r="L282" t="n">
+      <c r="L283" t="n">
         <v>35000</v>
       </c>
-      <c r="M282" t="n">
+      <c r="M283" t="n">
         <v>31974</v>
       </c>
-      <c r="N282" t="inlineStr">
+      <c r="N283" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O282" t="inlineStr">
+      <c r="O283" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P282" t="n">
+      <c r="P283" t="n">
         <v>1279</v>
       </c>
-      <c r="Q282" t="n">
-        <v>25</v>
-      </c>
-      <c r="R282" t="inlineStr">
+      <c r="Q283" t="n">
+        <v>25</v>
+      </c>
+      <c r="R283" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R283"/>
+  <dimension ref="A1:R284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19656,26 +19656,26 @@
         <v>200</v>
       </c>
       <c r="K268" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L268" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M268" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q268" t="n">
         <v>25</v>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K269" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L269" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M269" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q269" t="n">
         <v>25</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19793,20 +19793,20 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K270" t="n">
         <v>23000</v>
       </c>
       <c r="L270" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M270" t="n">
-        <v>24150</v>
+        <v>23000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19815,11 +19815,11 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>966</v>
+        <v>920</v>
       </c>
       <c r="Q270" t="n">
         <v>25</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>1460</v>
+        <v>400</v>
       </c>
       <c r="K271" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L271" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="M271" t="n">
-        <v>25137</v>
+        <v>24150</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>1005</v>
+        <v>966</v>
       </c>
       <c r="Q271" t="n">
         <v>25</v>
@@ -19941,7 +19941,7 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>610</v>
+        <v>1460</v>
       </c>
       <c r="K272" t="n">
         <v>24000</v>
@@ -19950,7 +19950,7 @@
         <v>26000</v>
       </c>
       <c r="M272" t="n">
-        <v>25049</v>
+        <v>25137</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="Q272" t="n">
         <v>25</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>350</v>
+        <v>610</v>
       </c>
       <c r="K273" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L273" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M273" t="n">
-        <v>22000</v>
+        <v>25049</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>880</v>
+        <v>1002</v>
       </c>
       <c r="Q273" t="n">
         <v>25</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="K274" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L274" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M274" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,11 +20103,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="Q274" t="n">
         <v>25</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20153,33 +20153,33 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="K275" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L275" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M275" t="n">
-        <v>32125</v>
+        <v>20000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>1285</v>
+        <v>800</v>
       </c>
       <c r="Q275" t="n">
         <v>25</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20232,26 +20232,26 @@
         <v>400</v>
       </c>
       <c r="K276" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L276" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M276" t="n">
-        <v>25850</v>
+        <v>32125</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>1034</v>
+        <v>1285</v>
       </c>
       <c r="Q276" t="n">
         <v>25</v>
@@ -20319,7 +20319,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P277" t="n">
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K278" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L278" t="n">
         <v>27000</v>
       </c>
-      <c r="L278" t="n">
-        <v>30000</v>
-      </c>
       <c r="M278" t="n">
-        <v>28714</v>
+        <v>25850</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20391,11 +20391,11 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>1149</v>
+        <v>1034</v>
       </c>
       <c r="Q278" t="n">
         <v>25</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="K279" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L279" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M279" t="n">
-        <v>25807</v>
+        <v>28714</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>1032</v>
+        <v>1149</v>
       </c>
       <c r="Q279" t="n">
         <v>25</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>790</v>
+        <v>570</v>
       </c>
       <c r="K280" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L280" t="n">
         <v>27000</v>
       </c>
       <c r="M280" t="n">
-        <v>26532</v>
+        <v>25807</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20535,11 +20535,11 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>1061</v>
+        <v>1032</v>
       </c>
       <c r="Q280" t="n">
         <v>25</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,32 +20589,32 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>340</v>
+        <v>790</v>
       </c>
       <c r="K281" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L281" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M281" t="n">
-        <v>22000</v>
+        <v>26532</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>1467</v>
+        <v>1061</v>
       </c>
       <c r="Q281" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20661,32 +20661,32 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1200</v>
+        <v>340</v>
       </c>
       <c r="K282" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L282" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M282" t="n">
-        <v>27500</v>
+        <v>22000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>1100</v>
+        <v>1467</v>
       </c>
       <c r="Q282" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,58 +20709,130 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E283" t="n">
+        <v>13</v>
+      </c>
+      <c r="F283" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J283" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K283" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L283" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M283" t="n">
+        <v>27500</v>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P283" t="n">
+        <v>1100</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>25</v>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>6</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D284" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E283" t="n">
-        <v>13</v>
-      </c>
-      <c r="F283" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I283" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J283" t="n">
+      <c r="E284" t="n">
+        <v>13</v>
+      </c>
+      <c r="F284" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J284" t="n">
         <v>380</v>
       </c>
-      <c r="K283" t="n">
+      <c r="K284" t="n">
         <v>30000</v>
       </c>
-      <c r="L283" t="n">
+      <c r="L284" t="n">
         <v>35000</v>
       </c>
-      <c r="M283" t="n">
+      <c r="M284" t="n">
         <v>31974</v>
       </c>
-      <c r="N283" t="inlineStr">
+      <c r="N284" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O283" t="inlineStr">
+      <c r="O284" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P283" t="n">
+      <c r="P284" t="n">
         <v>1279</v>
       </c>
-      <c r="Q283" t="n">
-        <v>25</v>
-      </c>
-      <c r="R283" t="inlineStr">
+      <c r="Q284" t="n">
+        <v>25</v>
+      </c>
+      <c r="R284" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R285"/>
+  <dimension ref="A1:R286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44245</v>
+        <v>44518</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,29 +12741,29 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>680</v>
+        <v>400</v>
       </c>
       <c r="K172" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L172" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M172" t="n">
-        <v>26691</v>
+        <v>34150</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>1068</v>
+        <v>1366</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>1350</v>
+        <v>680</v>
       </c>
       <c r="K173" t="n">
         <v>25000</v>
       </c>
       <c r="L173" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M173" t="n">
-        <v>25889</v>
+        <v>26691</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12831,11 +12831,11 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>1036</v>
+        <v>1068</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>150</v>
+        <v>1350</v>
       </c>
       <c r="K174" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L174" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M174" t="n">
-        <v>20000</v>
+        <v>25889</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>800</v>
+        <v>1036</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12960,13 +12960,13 @@
         <v>150</v>
       </c>
       <c r="K175" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L175" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M175" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44323</v>
+        <v>44245</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="K176" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L176" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M176" t="n">
-        <v>23897</v>
+        <v>22000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>956</v>
+        <v>880</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44229</v>
+        <v>44323</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="K177" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L177" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M177" t="n">
-        <v>33909</v>
+        <v>23897</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>1356</v>
+        <v>956</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13173,7 +13173,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="K178" t="n">
         <v>33000</v>
@@ -13182,7 +13182,7 @@
         <v>35000</v>
       </c>
       <c r="M178" t="n">
-        <v>33791</v>
+        <v>33909</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44249</v>
+        <v>44229</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K179" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L179" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M179" t="n">
-        <v>25850</v>
+        <v>33791</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1034</v>
+        <v>1352</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K180" t="n">
         <v>25000</v>
@@ -13326,7 +13326,7 @@
         <v>27000</v>
       </c>
       <c r="M180" t="n">
-        <v>25933</v>
+        <v>25850</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44259</v>
+        <v>44249</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="K181" t="n">
         <v>25000</v>
       </c>
       <c r="L181" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="M181" t="n">
-        <v>25514</v>
+        <v>25933</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>1021</v>
+        <v>1037</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K182" t="n">
         <v>25000</v>
       </c>
       <c r="L182" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="M182" t="n">
-        <v>25850</v>
+        <v>25514</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K183" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L183" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M183" t="n">
-        <v>23852</v>
+        <v>25850</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>954</v>
+        <v>1034</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13605,7 +13605,7 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>720</v>
+        <v>610</v>
       </c>
       <c r="K184" t="n">
         <v>23000</v>
@@ -13614,7 +13614,7 @@
         <v>25000</v>
       </c>
       <c r="M184" t="n">
-        <v>24028</v>
+        <v>23852</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44295</v>
+        <v>44216</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,7 +13677,7 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="K185" t="n">
         <v>23000</v>
@@ -13686,7 +13686,7 @@
         <v>25000</v>
       </c>
       <c r="M185" t="n">
-        <v>24150</v>
+        <v>24028</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44270</v>
+        <v>44295</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K186" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L186" t="n">
         <v>25000</v>
       </c>
       <c r="M186" t="n">
-        <v>25000</v>
+        <v>24150</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1000</v>
+        <v>966</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K187" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L187" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M187" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44299</v>
+        <v>44270</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>1080</v>
+        <v>150</v>
       </c>
       <c r="K188" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L188" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M188" t="n">
-        <v>25833</v>
+        <v>23000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1033</v>
+        <v>920</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44257</v>
+        <v>44299</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="K189" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L189" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M189" t="n">
-        <v>26833</v>
+        <v>25833</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>1073</v>
+        <v>1033</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K190" t="n">
         <v>26000</v>
       </c>
       <c r="L190" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M190" t="n">
-        <v>27636</v>
+        <v>26833</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K191" t="n">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="L191" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M191" t="n">
-        <v>39233</v>
+        <v>27636</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1569</v>
+        <v>1105</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,29 +14181,29 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="K192" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="L192" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="M192" t="n">
-        <v>25897</v>
+        <v>39233</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1036</v>
+        <v>1569</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14253,7 +14253,7 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>900</v>
+        <v>580</v>
       </c>
       <c r="K193" t="n">
         <v>25000</v>
@@ -14262,7 +14262,7 @@
         <v>27000</v>
       </c>
       <c r="M193" t="n">
-        <v>26333</v>
+        <v>25897</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14325,7 +14325,7 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="K194" t="n">
         <v>25000</v>
@@ -14334,7 +14334,7 @@
         <v>27000</v>
       </c>
       <c r="M194" t="n">
-        <v>26077</v>
+        <v>26333</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1043</v>
+        <v>1053</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="K195" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L195" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M195" t="n">
-        <v>23889</v>
+        <v>26077</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>956</v>
+        <v>1043</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="K196" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L196" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M196" t="n">
-        <v>20000</v>
+        <v>23889</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14541,7 +14541,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K197" t="n">
         <v>20000</v>
@@ -14559,7 +14559,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P197" t="n">
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K198" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L198" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M198" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>920</v>
+        <v>800</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K199" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L199" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M199" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14703,11 +14703,11 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>800</v>
+        <v>920</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14753,36 +14753,36 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K200" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L200" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="M200" t="n">
-        <v>30857</v>
+        <v>20000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>2057</v>
+        <v>800</v>
       </c>
       <c r="Q200" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14829,32 +14829,32 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="K201" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L201" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="M201" t="n">
-        <v>37182</v>
+        <v>30857</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1487</v>
+        <v>2057</v>
       </c>
       <c r="Q201" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K202" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L202" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M202" t="n">
-        <v>24150</v>
+        <v>37182</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>966</v>
+        <v>1487</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14982,7 +14982,7 @@
         <v>25000</v>
       </c>
       <c r="M203" t="n">
-        <v>23850</v>
+        <v>24150</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14991,11 +14991,11 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K204" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L204" t="n">
         <v>25000</v>
       </c>
-      <c r="L204" t="n">
-        <v>27000</v>
-      </c>
       <c r="M204" t="n">
-        <v>26292</v>
+        <v>23850</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>1052</v>
+        <v>954</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="K205" t="n">
         <v>25000</v>
       </c>
       <c r="L205" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="M205" t="n">
-        <v>25582</v>
+        <v>26292</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15135,11 +15135,11 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1023</v>
+        <v>1052</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>1300</v>
+        <v>550</v>
       </c>
       <c r="K206" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L206" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M206" t="n">
-        <v>23923</v>
+        <v>25582</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>957</v>
+        <v>1023</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15261,7 +15261,7 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>790</v>
+        <v>1300</v>
       </c>
       <c r="K207" t="n">
         <v>23000</v>
@@ -15270,7 +15270,7 @@
         <v>25000</v>
       </c>
       <c r="M207" t="n">
-        <v>24063</v>
+        <v>23923</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15333,7 +15333,7 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>1400</v>
+        <v>790</v>
       </c>
       <c r="K208" t="n">
         <v>23000</v>
@@ -15342,7 +15342,7 @@
         <v>25000</v>
       </c>
       <c r="M208" t="n">
-        <v>23857</v>
+        <v>24063</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="K209" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L209" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M209" t="n">
-        <v>20000</v>
+        <v>23857</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>800</v>
+        <v>954</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="K210" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L210" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M210" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>700</v>
+        <v>230</v>
       </c>
       <c r="K211" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L211" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M211" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J212" t="n">
         <v>700</v>
       </c>
       <c r="K212" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="L212" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="M212" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>1320</v>
+        <v>720</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>880</v>
+        <v>700</v>
       </c>
       <c r="K213" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L213" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="M213" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1240</v>
+        <v>1320</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,32 +15765,32 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>810</v>
+        <v>880</v>
       </c>
       <c r="K214" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L214" t="n">
         <v>32000</v>
       </c>
-      <c r="L214" t="n">
-        <v>34000</v>
-      </c>
       <c r="M214" t="n">
-        <v>33136</v>
+        <v>31000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>2209</v>
+        <v>1240</v>
       </c>
       <c r="Q214" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15837,32 +15837,32 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>660</v>
+        <v>810</v>
       </c>
       <c r="K215" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="L215" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="M215" t="n">
-        <v>36348</v>
+        <v>33136</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>1454</v>
+        <v>2209</v>
       </c>
       <c r="Q215" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>490</v>
+        <v>660</v>
       </c>
       <c r="K216" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="L216" t="n">
         <v>37000</v>
       </c>
       <c r="M216" t="n">
-        <v>36061</v>
+        <v>36348</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>1442</v>
+        <v>1454</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44301</v>
+        <v>44176</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="K217" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L217" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M217" t="n">
-        <v>24150</v>
+        <v>36061</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>966</v>
+        <v>1442</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="K218" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L218" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M218" t="n">
-        <v>23172</v>
+        <v>24150</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16071,11 +16071,11 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>927</v>
+        <v>966</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44284</v>
+        <v>44301</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="K219" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L219" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M219" t="n">
-        <v>27600</v>
+        <v>23172</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16143,11 +16143,11 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1104</v>
+        <v>927</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,7 +16197,7 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K220" t="n">
         <v>27000</v>
@@ -16206,7 +16206,7 @@
         <v>28000</v>
       </c>
       <c r="M220" t="n">
-        <v>27425</v>
+        <v>27600</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K221" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L221" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M221" t="n">
-        <v>26125</v>
+        <v>27425</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1045</v>
+        <v>1097</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,7 +16341,7 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>610</v>
+        <v>800</v>
       </c>
       <c r="K222" t="n">
         <v>25000</v>
@@ -16350,7 +16350,7 @@
         <v>27000</v>
       </c>
       <c r="M222" t="n">
-        <v>25852</v>
+        <v>26125</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16359,11 +16359,11 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1034</v>
+        <v>1045</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,29 +16413,29 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>200</v>
+        <v>610</v>
       </c>
       <c r="K223" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L223" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M223" t="n">
-        <v>32000</v>
+        <v>25852</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>1280</v>
+        <v>1034</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44312</v>
+        <v>44504</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,29 +16485,29 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K224" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L224" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M224" t="n">
-        <v>28745</v>
+        <v>32000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>1150</v>
+        <v>1280</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44329</v>
+        <v>44312</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,29 +16557,29 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K225" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L225" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M225" t="n">
-        <v>34150</v>
+        <v>28745</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1366</v>
+        <v>1150</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44246</v>
+        <v>44329</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,29 +16629,29 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="K226" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L226" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M226" t="n">
-        <v>25000</v>
+        <v>34150</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1000</v>
+        <v>1366</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="K227" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L227" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M227" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,29 +16773,29 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="K228" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L228" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M228" t="n">
-        <v>31974</v>
+        <v>22000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1279</v>
+        <v>880</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,29 +16845,29 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="K229" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L229" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M229" t="n">
-        <v>21233</v>
+        <v>31974</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>849</v>
+        <v>1279</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16917,7 +16917,7 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K230" t="n">
         <v>20000</v>
@@ -16926,7 +16926,7 @@
         <v>22000</v>
       </c>
       <c r="M230" t="n">
-        <v>21080</v>
+        <v>21233</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16935,11 +16935,11 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,32 +16989,32 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="K231" t="n">
-        <v>36000</v>
+        <v>20000</v>
       </c>
       <c r="L231" t="n">
-        <v>38000</v>
+        <v>22000</v>
       </c>
       <c r="M231" t="n">
-        <v>37209</v>
+        <v>21080</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>2481</v>
+        <v>843</v>
       </c>
       <c r="Q231" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,32 +17061,32 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>1600</v>
+        <v>430</v>
       </c>
       <c r="K232" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="L232" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="M232" t="n">
-        <v>27969</v>
+        <v>37209</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1119</v>
+        <v>2481</v>
       </c>
       <c r="Q232" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K233" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L233" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M233" t="n">
-        <v>24150</v>
+        <v>27969</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17151,11 +17151,11 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>966</v>
+        <v>1119</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17201,20 +17201,20 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K234" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L234" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M234" t="n">
-        <v>20000</v>
+        <v>24150</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>800</v>
+        <v>966</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="K235" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L235" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M235" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17295,11 +17295,11 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44315</v>
+        <v>44225</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17345,33 +17345,33 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="K236" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L236" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M236" t="n">
-        <v>24561</v>
+        <v>18000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>982</v>
+        <v>720</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17421,20 +17421,20 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="K237" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L237" t="n">
         <v>25000</v>
       </c>
-      <c r="L237" t="n">
-        <v>27000</v>
-      </c>
       <c r="M237" t="n">
-        <v>25867</v>
+        <v>24561</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1035</v>
+        <v>982</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17489,11 +17489,11 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>95</v>
+        <v>600</v>
       </c>
       <c r="K238" t="n">
         <v>25000</v>
@@ -17502,7 +17502,7 @@
         <v>27000</v>
       </c>
       <c r="M238" t="n">
-        <v>25947</v>
+        <v>25867</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44495</v>
+        <v>44348</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17561,33 +17561,33 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>600</v>
+        <v>95</v>
       </c>
       <c r="K239" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L239" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M239" t="n">
-        <v>34167</v>
+        <v>25947</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1367</v>
+        <v>1038</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K240" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L240" t="n">
-        <v>250000</v>
+        <v>35000</v>
       </c>
       <c r="M240" t="n">
-        <v>112500</v>
+        <v>34167</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>4500</v>
+        <v>1367</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17709,29 +17709,29 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K241" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L241" t="n">
-        <v>27000</v>
+        <v>250000</v>
       </c>
       <c r="M241" t="n">
-        <v>24038</v>
+        <v>112500</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>962</v>
+        <v>4500</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17777,33 +17777,33 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>100</v>
+        <v>520</v>
       </c>
       <c r="K242" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L242" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M242" t="n">
-        <v>20000</v>
+        <v>24038</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>800</v>
+        <v>962</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17849,20 +17849,20 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K243" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L243" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M243" t="n">
-        <v>34200</v>
+        <v>20000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17871,11 +17871,11 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1368</v>
+        <v>800</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17925,29 +17925,29 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K244" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L244" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M244" t="n">
-        <v>30850</v>
+        <v>34200</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1234</v>
+        <v>1368</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -18010,12 +18010,12 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P245" t="n">
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K246" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L246" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M246" t="n">
-        <v>25000</v>
+        <v>30850</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1000</v>
+        <v>1234</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18137,36 +18137,36 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K247" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L247" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="M247" t="n">
-        <v>36150</v>
+        <v>25000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>2410</v>
+        <v>1000</v>
       </c>
       <c r="Q247" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18216,29 +18216,29 @@
         <v>400</v>
       </c>
       <c r="K248" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L248" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M248" t="n">
-        <v>32875</v>
+        <v>36150</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1315</v>
+        <v>2410</v>
       </c>
       <c r="Q248" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K249" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L249" t="n">
         <v>35000</v>
       </c>
-      <c r="L249" t="n">
-        <v>37000</v>
-      </c>
       <c r="M249" t="n">
-        <v>36143</v>
+        <v>32875</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1446</v>
+        <v>1315</v>
       </c>
       <c r="Q249" t="n">
         <v>25</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>950</v>
+        <v>280</v>
       </c>
       <c r="K250" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L250" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="M250" t="n">
-        <v>26053</v>
+        <v>36143</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1042</v>
+        <v>1446</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18429,7 +18429,7 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>490</v>
+        <v>950</v>
       </c>
       <c r="K251" t="n">
         <v>25000</v>
@@ -18438,16 +18438,16 @@
         <v>27000</v>
       </c>
       <c r="M251" t="n">
-        <v>26061</v>
+        <v>26053</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P251" t="n">
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="K252" t="n">
         <v>25000</v>
       </c>
       <c r="L252" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="M252" t="n">
-        <v>25400</v>
+        <v>26061</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1016</v>
+        <v>1042</v>
       </c>
       <c r="Q252" t="n">
         <v>25</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,29 +18573,29 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="K253" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L253" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M253" t="n">
-        <v>18836</v>
+        <v>25400</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>753</v>
+        <v>1016</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18645,29 +18645,29 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K254" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L254" t="n">
         <v>20000</v>
       </c>
-      <c r="L254" t="n">
-        <v>22000</v>
-      </c>
       <c r="M254" t="n">
-        <v>20800</v>
+        <v>18836</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>832</v>
+        <v>753</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18717,7 +18717,7 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K255" t="n">
         <v>20000</v>
@@ -18726,7 +18726,7 @@
         <v>22000</v>
       </c>
       <c r="M255" t="n">
-        <v>21150</v>
+        <v>20800</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="Q255" t="n">
         <v>25</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K256" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L256" t="n">
         <v>22000</v>
       </c>
       <c r="M256" t="n">
-        <v>20500</v>
+        <v>21150</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="Q256" t="n">
         <v>25</v>
@@ -18857,33 +18857,33 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>260</v>
+        <v>1600</v>
       </c>
       <c r="K257" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L257" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M257" t="n">
-        <v>15000</v>
+        <v>20500</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>600</v>
+        <v>820</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18933,29 +18933,29 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="K258" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L258" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M258" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="Q258" t="n">
         <v>25</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K259" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L259" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M259" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19023,11 +19023,11 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="K260" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L260" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M260" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19095,11 +19095,11 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19145,20 +19145,20 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K261" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L261" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="M261" t="n">
-        <v>25850</v>
+        <v>15000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19167,11 +19167,11 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>1034</v>
+        <v>600</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19224,13 +19224,13 @@
         <v>400</v>
       </c>
       <c r="K262" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L262" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M262" t="n">
-        <v>26850</v>
+        <v>25850</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>1074</v>
+        <v>1034</v>
       </c>
       <c r="Q262" t="n">
         <v>25</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44330</v>
+        <v>44251</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19296,26 +19296,26 @@
         <v>400</v>
       </c>
       <c r="K263" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="L263" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="M263" t="n">
-        <v>36275</v>
+        <v>26850</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>1451</v>
+        <v>1074</v>
       </c>
       <c r="Q263" t="n">
         <v>25</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44181</v>
+        <v>44330</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19368,17 +19368,17 @@
         <v>400</v>
       </c>
       <c r="K264" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L264" t="n">
-        <v>22000</v>
+        <v>38000</v>
       </c>
       <c r="M264" t="n">
-        <v>20850</v>
+        <v>36275</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>1390</v>
+        <v>1451</v>
       </c>
       <c r="Q264" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19437,32 +19437,32 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="K265" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L265" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M265" t="n">
-        <v>28280</v>
+        <v>20850</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>1131</v>
+        <v>1390</v>
       </c>
       <c r="Q265" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19509,20 +19509,20 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K266" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L266" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M266" t="n">
-        <v>24150</v>
+        <v>28280</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>966</v>
+        <v>1131</v>
       </c>
       <c r="Q266" t="n">
         <v>25</v>
@@ -19584,13 +19584,13 @@
         <v>400</v>
       </c>
       <c r="K267" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L267" t="n">
         <v>25000</v>
       </c>
-      <c r="L267" t="n">
-        <v>27000</v>
-      </c>
       <c r="M267" t="n">
-        <v>25850</v>
+        <v>24150</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>1034</v>
+        <v>966</v>
       </c>
       <c r="Q267" t="n">
         <v>25</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,29 +19653,29 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K268" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L268" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M268" t="n">
-        <v>28400</v>
+        <v>25850</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>1136</v>
+        <v>1034</v>
       </c>
       <c r="Q268" t="n">
         <v>25</v>
@@ -19725,7 +19725,7 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K269" t="n">
         <v>26000</v>
@@ -19734,7 +19734,7 @@
         <v>30000</v>
       </c>
       <c r="M269" t="n">
-        <v>28333</v>
+        <v>28400</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="Q269" t="n">
         <v>25</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K270" t="n">
         <v>26000</v>
       </c>
       <c r="L270" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M270" t="n">
-        <v>27143</v>
+        <v>28333</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19815,11 +19815,11 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>1086</v>
+        <v>1133</v>
       </c>
       <c r="Q270" t="n">
         <v>25</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K271" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L271" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M271" t="n">
-        <v>24000</v>
+        <v>27143</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>960</v>
+        <v>1086</v>
       </c>
       <c r="Q271" t="n">
         <v>25</v>
@@ -19941,7 +19941,7 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K272" t="n">
         <v>24000</v>
@@ -19959,7 +19959,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P272" t="n">
@@ -20013,7 +20013,7 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K273" t="n">
         <v>24000</v>
@@ -20031,7 +20031,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P273" t="n">
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20081,24 +20081,24 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>630</v>
+        <v>400</v>
       </c>
       <c r="K274" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L274" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M274" t="n">
-        <v>21143</v>
+        <v>24000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>846</v>
+        <v>960</v>
       </c>
       <c r="Q274" t="n">
         <v>25</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="K275" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L275" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M275" t="n">
-        <v>28714</v>
+        <v>21143</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20175,11 +20175,11 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>1149</v>
+        <v>846</v>
       </c>
       <c r="Q275" t="n">
         <v>25</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="K276" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L276" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M276" t="n">
-        <v>25807</v>
+        <v>28714</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20247,11 +20247,11 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>1032</v>
+        <v>1149</v>
       </c>
       <c r="Q276" t="n">
         <v>25</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="K277" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L277" t="n">
         <v>27000</v>
       </c>
-      <c r="L277" t="n">
-        <v>30000</v>
-      </c>
       <c r="M277" t="n">
-        <v>28275</v>
+        <v>25807</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20319,11 +20319,11 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>1131</v>
+        <v>1032</v>
       </c>
       <c r="Q277" t="n">
         <v>25</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,29 +20373,29 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K278" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L278" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M278" t="n">
-        <v>23545</v>
+        <v>28275</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>942</v>
+        <v>1131</v>
       </c>
       <c r="Q278" t="n">
         <v>25</v>
@@ -20445,7 +20445,7 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K279" t="n">
         <v>23000</v>
@@ -20454,20 +20454,20 @@
         <v>25000</v>
       </c>
       <c r="M279" t="n">
-        <v>23667</v>
+        <v>23545</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="Q279" t="n">
         <v>25</v>
@@ -20517,7 +20517,7 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="K280" t="n">
         <v>23000</v>
@@ -20526,7 +20526,7 @@
         <v>25000</v>
       </c>
       <c r="M280" t="n">
-        <v>23897</v>
+        <v>23667</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20535,11 +20535,11 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="Q280" t="n">
         <v>25</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="K281" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L281" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M281" t="n">
-        <v>22571</v>
+        <v>23897</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20607,11 +20607,11 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>903</v>
+        <v>956</v>
       </c>
       <c r="Q281" t="n">
         <v>25</v>
@@ -20657,33 +20657,33 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K282" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L282" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M282" t="n">
-        <v>20000</v>
+        <v>22571</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>800</v>
+        <v>903</v>
       </c>
       <c r="Q282" t="n">
         <v>25</v>
@@ -20746,12 +20746,12 @@
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P283" t="n">
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K284" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L284" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M284" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20823,11 +20823,11 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q284" t="n">
         <v>25</v>
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K285" t="n">
         <v>18000</v>
@@ -20895,7 +20895,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P285" t="n">
@@ -20905,6 +20905,78 @@
         <v>25</v>
       </c>
       <c r="R285" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>6</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D286" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E286" t="n">
+        <v>13</v>
+      </c>
+      <c r="F286" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J286" t="n">
+        <v>150</v>
+      </c>
+      <c r="K286" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L286" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M286" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P286" t="n">
+        <v>720</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>25</v>
+      </c>
+      <c r="R286" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R286"/>
+  <dimension ref="A1:R287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,32 +16701,32 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="K227" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L227" t="n">
         <v>25000</v>
       </c>
       <c r="M227" t="n">
-        <v>25000</v>
+        <v>24053</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1000</v>
+        <v>1604</v>
       </c>
       <c r="Q227" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="K228" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L228" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M228" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,29 +16845,29 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="K229" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L229" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M229" t="n">
-        <v>31974</v>
+        <v>22000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1279</v>
+        <v>880</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,29 +16917,29 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="K230" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L230" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M230" t="n">
-        <v>21233</v>
+        <v>31974</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>849</v>
+        <v>1279</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16989,7 +16989,7 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K231" t="n">
         <v>20000</v>
@@ -16998,7 +16998,7 @@
         <v>22000</v>
       </c>
       <c r="M231" t="n">
-        <v>21080</v>
+        <v>21233</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,32 +17061,32 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="K232" t="n">
-        <v>36000</v>
+        <v>20000</v>
       </c>
       <c r="L232" t="n">
-        <v>38000</v>
+        <v>22000</v>
       </c>
       <c r="M232" t="n">
-        <v>37209</v>
+        <v>21080</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>2481</v>
+        <v>843</v>
       </c>
       <c r="Q232" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,32 +17133,32 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>1600</v>
+        <v>430</v>
       </c>
       <c r="K233" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="L233" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="M233" t="n">
-        <v>27969</v>
+        <v>37209</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1119</v>
+        <v>2481</v>
       </c>
       <c r="Q233" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K234" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L234" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M234" t="n">
-        <v>24150</v>
+        <v>27969</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>966</v>
+        <v>1119</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K235" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L235" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M235" t="n">
-        <v>20000</v>
+        <v>24150</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17295,11 +17295,11 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>800</v>
+        <v>966</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="K236" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L236" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M236" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17367,11 +17367,11 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44315</v>
+        <v>44225</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17417,33 +17417,33 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="K237" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L237" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M237" t="n">
-        <v>24561</v>
+        <v>18000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>982</v>
+        <v>720</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17493,20 +17493,20 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="K238" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L238" t="n">
         <v>25000</v>
       </c>
-      <c r="L238" t="n">
-        <v>27000</v>
-      </c>
       <c r="M238" t="n">
-        <v>25867</v>
+        <v>24561</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1035</v>
+        <v>982</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17561,11 +17561,11 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>95</v>
+        <v>600</v>
       </c>
       <c r="K239" t="n">
         <v>25000</v>
@@ -17574,7 +17574,7 @@
         <v>27000</v>
       </c>
       <c r="M239" t="n">
-        <v>25947</v>
+        <v>25867</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44495</v>
+        <v>44348</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17633,33 +17633,33 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>600</v>
+        <v>95</v>
       </c>
       <c r="K240" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L240" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M240" t="n">
-        <v>34167</v>
+        <v>25947</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1367</v>
+        <v>1038</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K241" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L241" t="n">
-        <v>250000</v>
+        <v>35000</v>
       </c>
       <c r="M241" t="n">
-        <v>112500</v>
+        <v>34167</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>4500</v>
+        <v>1367</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17781,29 +17781,29 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K242" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L242" t="n">
-        <v>27000</v>
+        <v>250000</v>
       </c>
       <c r="M242" t="n">
-        <v>24038</v>
+        <v>112500</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>962</v>
+        <v>4500</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17849,33 +17849,33 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>100</v>
+        <v>520</v>
       </c>
       <c r="K243" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L243" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M243" t="n">
-        <v>20000</v>
+        <v>24038</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>800</v>
+        <v>962</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K244" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L244" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M244" t="n">
-        <v>34200</v>
+        <v>20000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1368</v>
+        <v>800</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17997,29 +17997,29 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K245" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L245" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M245" t="n">
-        <v>30850</v>
+        <v>34200</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1234</v>
+        <v>1368</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18082,12 +18082,12 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P246" t="n">
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K247" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L247" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M247" t="n">
-        <v>25000</v>
+        <v>30850</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1000</v>
+        <v>1234</v>
       </c>
       <c r="Q247" t="n">
         <v>25</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18209,36 +18209,36 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K248" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L248" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="M248" t="n">
-        <v>36150</v>
+        <v>25000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>2410</v>
+        <v>1000</v>
       </c>
       <c r="Q248" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18288,29 +18288,29 @@
         <v>400</v>
       </c>
       <c r="K249" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L249" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M249" t="n">
-        <v>32875</v>
+        <v>36150</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1315</v>
+        <v>2410</v>
       </c>
       <c r="Q249" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K250" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L250" t="n">
         <v>35000</v>
       </c>
-      <c r="L250" t="n">
-        <v>37000</v>
-      </c>
       <c r="M250" t="n">
-        <v>36143</v>
+        <v>32875</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1446</v>
+        <v>1315</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>950</v>
+        <v>280</v>
       </c>
       <c r="K251" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L251" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="M251" t="n">
-        <v>26053</v>
+        <v>36143</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18447,11 +18447,11 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1042</v>
+        <v>1446</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18501,7 +18501,7 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>490</v>
+        <v>950</v>
       </c>
       <c r="K252" t="n">
         <v>25000</v>
@@ -18510,16 +18510,16 @@
         <v>27000</v>
       </c>
       <c r="M252" t="n">
-        <v>26061</v>
+        <v>26053</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P252" t="n">
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="K253" t="n">
         <v>25000</v>
       </c>
       <c r="L253" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="M253" t="n">
-        <v>25400</v>
+        <v>26061</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1016</v>
+        <v>1042</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,29 +18645,29 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="K254" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L254" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M254" t="n">
-        <v>18836</v>
+        <v>25400</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>753</v>
+        <v>1016</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18717,29 +18717,29 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K255" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L255" t="n">
         <v>20000</v>
       </c>
-      <c r="L255" t="n">
-        <v>22000</v>
-      </c>
       <c r="M255" t="n">
-        <v>20800</v>
+        <v>18836</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>832</v>
+        <v>753</v>
       </c>
       <c r="Q255" t="n">
         <v>25</v>
@@ -18789,7 +18789,7 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K256" t="n">
         <v>20000</v>
@@ -18798,7 +18798,7 @@
         <v>22000</v>
       </c>
       <c r="M256" t="n">
-        <v>21150</v>
+        <v>20800</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="Q256" t="n">
         <v>25</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K257" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L257" t="n">
         <v>22000</v>
       </c>
       <c r="M257" t="n">
-        <v>20500</v>
+        <v>21150</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18879,11 +18879,11 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18929,33 +18929,33 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>260</v>
+        <v>1600</v>
       </c>
       <c r="K258" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L258" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M258" t="n">
-        <v>15000</v>
+        <v>20500</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>600</v>
+        <v>820</v>
       </c>
       <c r="Q258" t="n">
         <v>25</v>
@@ -19005,29 +19005,29 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="K259" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L259" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M259" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K260" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L260" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M260" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19095,11 +19095,11 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="K261" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L261" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M261" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19167,11 +19167,11 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K262" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L262" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="M262" t="n">
-        <v>25850</v>
+        <v>15000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>1034</v>
+        <v>600</v>
       </c>
       <c r="Q262" t="n">
         <v>25</v>
@@ -19296,13 +19296,13 @@
         <v>400</v>
       </c>
       <c r="K263" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L263" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M263" t="n">
-        <v>26850</v>
+        <v>25850</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19311,11 +19311,11 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>1074</v>
+        <v>1034</v>
       </c>
       <c r="Q263" t="n">
         <v>25</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44330</v>
+        <v>44251</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19368,26 +19368,26 @@
         <v>400</v>
       </c>
       <c r="K264" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="L264" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="M264" t="n">
-        <v>36275</v>
+        <v>26850</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>1451</v>
+        <v>1074</v>
       </c>
       <c r="Q264" t="n">
         <v>25</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44181</v>
+        <v>44330</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19440,17 +19440,17 @@
         <v>400</v>
       </c>
       <c r="K265" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L265" t="n">
-        <v>22000</v>
+        <v>38000</v>
       </c>
       <c r="M265" t="n">
-        <v>20850</v>
+        <v>36275</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>1390</v>
+        <v>1451</v>
       </c>
       <c r="Q265" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19509,32 +19509,32 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="K266" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L266" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M266" t="n">
-        <v>28280</v>
+        <v>20850</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>1131</v>
+        <v>1390</v>
       </c>
       <c r="Q266" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19581,20 +19581,20 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K267" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L267" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M267" t="n">
-        <v>24150</v>
+        <v>28280</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>966</v>
+        <v>1131</v>
       </c>
       <c r="Q267" t="n">
         <v>25</v>
@@ -19656,13 +19656,13 @@
         <v>400</v>
       </c>
       <c r="K268" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L268" t="n">
         <v>25000</v>
       </c>
-      <c r="L268" t="n">
-        <v>27000</v>
-      </c>
       <c r="M268" t="n">
-        <v>25850</v>
+        <v>24150</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>1034</v>
+        <v>966</v>
       </c>
       <c r="Q268" t="n">
         <v>25</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,29 +19725,29 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K269" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L269" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M269" t="n">
-        <v>28400</v>
+        <v>25850</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1136</v>
+        <v>1034</v>
       </c>
       <c r="Q269" t="n">
         <v>25</v>
@@ -19797,7 +19797,7 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K270" t="n">
         <v>26000</v>
@@ -19806,7 +19806,7 @@
         <v>30000</v>
       </c>
       <c r="M270" t="n">
-        <v>28333</v>
+        <v>28400</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19815,11 +19815,11 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="Q270" t="n">
         <v>25</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K271" t="n">
         <v>26000</v>
       </c>
       <c r="L271" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M271" t="n">
-        <v>27143</v>
+        <v>28333</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>1086</v>
+        <v>1133</v>
       </c>
       <c r="Q271" t="n">
         <v>25</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K272" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L272" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M272" t="n">
-        <v>24000</v>
+        <v>27143</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>960</v>
+        <v>1086</v>
       </c>
       <c r="Q272" t="n">
         <v>25</v>
@@ -20013,7 +20013,7 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K273" t="n">
         <v>24000</v>
@@ -20031,7 +20031,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P273" t="n">
@@ -20085,7 +20085,7 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K274" t="n">
         <v>24000</v>
@@ -20103,7 +20103,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P274" t="n">
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20153,24 +20153,24 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>630</v>
+        <v>400</v>
       </c>
       <c r="K275" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L275" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M275" t="n">
-        <v>21143</v>
+        <v>24000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>846</v>
+        <v>960</v>
       </c>
       <c r="Q275" t="n">
         <v>25</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="K276" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L276" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M276" t="n">
-        <v>28714</v>
+        <v>21143</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20247,11 +20247,11 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>1149</v>
+        <v>846</v>
       </c>
       <c r="Q276" t="n">
         <v>25</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="K277" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L277" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M277" t="n">
-        <v>25807</v>
+        <v>28714</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20319,11 +20319,11 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>1032</v>
+        <v>1149</v>
       </c>
       <c r="Q277" t="n">
         <v>25</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="K278" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L278" t="n">
         <v>27000</v>
       </c>
-      <c r="L278" t="n">
-        <v>30000</v>
-      </c>
       <c r="M278" t="n">
-        <v>28275</v>
+        <v>25807</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20391,11 +20391,11 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>1131</v>
+        <v>1032</v>
       </c>
       <c r="Q278" t="n">
         <v>25</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,29 +20445,29 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K279" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L279" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M279" t="n">
-        <v>23545</v>
+        <v>28275</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>942</v>
+        <v>1131</v>
       </c>
       <c r="Q279" t="n">
         <v>25</v>
@@ -20517,7 +20517,7 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K280" t="n">
         <v>23000</v>
@@ -20526,20 +20526,20 @@
         <v>25000</v>
       </c>
       <c r="M280" t="n">
-        <v>23667</v>
+        <v>23545</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="Q280" t="n">
         <v>25</v>
@@ -20589,7 +20589,7 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="K281" t="n">
         <v>23000</v>
@@ -20598,7 +20598,7 @@
         <v>25000</v>
       </c>
       <c r="M281" t="n">
-        <v>23897</v>
+        <v>23667</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20607,11 +20607,11 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="Q281" t="n">
         <v>25</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="K282" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L282" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M282" t="n">
-        <v>22571</v>
+        <v>23897</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20679,11 +20679,11 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>903</v>
+        <v>956</v>
       </c>
       <c r="Q282" t="n">
         <v>25</v>
@@ -20729,33 +20729,33 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K283" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L283" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M283" t="n">
-        <v>20000</v>
+        <v>22571</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>800</v>
+        <v>903</v>
       </c>
       <c r="Q283" t="n">
         <v>25</v>
@@ -20818,12 +20818,12 @@
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P284" t="n">
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K285" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L285" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M285" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20895,11 +20895,11 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q285" t="n">
         <v>25</v>
@@ -20949,7 +20949,7 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K286" t="n">
         <v>18000</v>
@@ -20967,7 +20967,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P286" t="n">
@@ -20977,6 +20977,78 @@
         <v>25</v>
       </c>
       <c r="R286" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>6</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D287" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E287" t="n">
+        <v>13</v>
+      </c>
+      <c r="F287" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J287" t="n">
+        <v>150</v>
+      </c>
+      <c r="K287" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L287" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M287" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P287" t="n">
+        <v>720</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>25</v>
+      </c>
+      <c r="R287" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R287"/>
+  <dimension ref="A1:R289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44259</v>
+        <v>44523</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,20 +13461,20 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>350</v>
+        <v>95</v>
       </c>
       <c r="K182" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L182" t="n">
-        <v>26000</v>
+        <v>37000</v>
       </c>
       <c r="M182" t="n">
-        <v>25514</v>
+        <v>35947</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1021</v>
+        <v>2396</v>
       </c>
       <c r="Q182" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44259</v>
+        <v>44523</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,29 +13533,29 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K183" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="L183" t="n">
-        <v>27000</v>
+        <v>50000</v>
       </c>
       <c r="M183" t="n">
-        <v>25850</v>
+        <v>48000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1034</v>
+        <v>1920</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>610</v>
+        <v>350</v>
       </c>
       <c r="K184" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L184" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M184" t="n">
-        <v>23852</v>
+        <v>25514</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>954</v>
+        <v>1021</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="K185" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L185" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M185" t="n">
-        <v>24028</v>
+        <v>25850</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>961</v>
+        <v>1034</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44295</v>
+        <v>44216</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,7 +13749,7 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K186" t="n">
         <v>23000</v>
@@ -13758,7 +13758,7 @@
         <v>25000</v>
       </c>
       <c r="M186" t="n">
-        <v>24150</v>
+        <v>23852</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="K187" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L187" t="n">
         <v>25000</v>
       </c>
       <c r="M187" t="n">
-        <v>25000</v>
+        <v>24028</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1000</v>
+        <v>961</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44270</v>
+        <v>44295</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K188" t="n">
         <v>23000</v>
       </c>
       <c r="L188" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M188" t="n">
-        <v>23000</v>
+        <v>24150</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>920</v>
+        <v>966</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44299</v>
+        <v>44270</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>1080</v>
+        <v>200</v>
       </c>
       <c r="K189" t="n">
         <v>25000</v>
       </c>
       <c r="L189" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M189" t="n">
-        <v>25833</v>
+        <v>25000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>1033</v>
+        <v>1000</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="K190" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L190" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M190" t="n">
-        <v>26833</v>
+        <v>23000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>1073</v>
+        <v>920</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44257</v>
+        <v>44299</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="K191" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L191" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M191" t="n">
-        <v>27636</v>
+        <v>25833</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1105</v>
+        <v>1033</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14184,13 +14184,13 @@
         <v>600</v>
       </c>
       <c r="K192" t="n">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="L192" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="M192" t="n">
-        <v>39233</v>
+        <v>26833</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1569</v>
+        <v>1073</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44195</v>
+        <v>44257</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,29 +14253,29 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>580</v>
+        <v>1100</v>
       </c>
       <c r="K193" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="L193" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M193" t="n">
-        <v>25897</v>
+        <v>27636</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1036</v>
+        <v>1105</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,29 +14325,29 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K194" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="L194" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="M194" t="n">
-        <v>26333</v>
+        <v>39233</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1053</v>
+        <v>1569</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14397,7 +14397,7 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>1300</v>
+        <v>580</v>
       </c>
       <c r="K195" t="n">
         <v>25000</v>
@@ -14406,7 +14406,7 @@
         <v>27000</v>
       </c>
       <c r="M195" t="n">
-        <v>26077</v>
+        <v>25897</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14472,13 +14472,13 @@
         <v>900</v>
       </c>
       <c r="K196" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L196" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M196" t="n">
-        <v>23889</v>
+        <v>26333</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>956</v>
+        <v>1053</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>120</v>
+        <v>1300</v>
       </c>
       <c r="K197" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L197" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M197" t="n">
-        <v>20000</v>
+        <v>26077</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>800</v>
+        <v>1043</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K198" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L198" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M198" t="n">
-        <v>20000</v>
+        <v>23889</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K199" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L199" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M199" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14703,11 +14703,11 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>920</v>
+        <v>800</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14775,7 +14775,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P200" t="n">
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14825,36 +14825,36 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K201" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L201" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M201" t="n">
-        <v>30857</v>
+        <v>23000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>2057</v>
+        <v>920</v>
       </c>
       <c r="Q201" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14897,33 +14897,33 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K202" t="n">
-        <v>36000</v>
+        <v>20000</v>
       </c>
       <c r="L202" t="n">
-        <v>38000</v>
+        <v>20000</v>
       </c>
       <c r="M202" t="n">
-        <v>37182</v>
+        <v>20000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1487</v>
+        <v>800</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,32 +14973,32 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K203" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L203" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M203" t="n">
-        <v>24150</v>
+        <v>30857</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>966</v>
+        <v>2057</v>
       </c>
       <c r="Q203" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K204" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L204" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M204" t="n">
-        <v>23850</v>
+        <v>37182</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>954</v>
+        <v>1487</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K205" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L205" t="n">
         <v>25000</v>
       </c>
-      <c r="L205" t="n">
-        <v>27000</v>
-      </c>
       <c r="M205" t="n">
-        <v>26292</v>
+        <v>24150</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1052</v>
+        <v>966</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K206" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L206" t="n">
         <v>25000</v>
       </c>
-      <c r="L206" t="n">
-        <v>26000</v>
-      </c>
       <c r="M206" t="n">
-        <v>25582</v>
+        <v>23850</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1023</v>
+        <v>954</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="K207" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L207" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M207" t="n">
-        <v>23923</v>
+        <v>26292</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>957</v>
+        <v>1052</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>790</v>
+        <v>550</v>
       </c>
       <c r="K208" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L208" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M208" t="n">
-        <v>24063</v>
+        <v>25582</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>963</v>
+        <v>1023</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15405,7 +15405,7 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K209" t="n">
         <v>23000</v>
@@ -15414,7 +15414,7 @@
         <v>25000</v>
       </c>
       <c r="M209" t="n">
-        <v>23857</v>
+        <v>23923</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>500</v>
+        <v>790</v>
       </c>
       <c r="K210" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L210" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M210" t="n">
-        <v>20000</v>
+        <v>24063</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>800</v>
+        <v>963</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15545,20 +15545,20 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>230</v>
+        <v>1400</v>
       </c>
       <c r="K211" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L211" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="M211" t="n">
-        <v>19000</v>
+        <v>23857</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>760</v>
+        <v>954</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K212" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L212" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M212" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15689,20 +15689,20 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>700</v>
+        <v>230</v>
       </c>
       <c r="K213" t="n">
-        <v>32000</v>
+        <v>19000</v>
       </c>
       <c r="L213" t="n">
-        <v>34000</v>
+        <v>19000</v>
       </c>
       <c r="M213" t="n">
-        <v>33000</v>
+        <v>19000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1320</v>
+        <v>760</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>880</v>
+        <v>700</v>
       </c>
       <c r="K214" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L214" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="M214" t="n">
-        <v>31000</v>
+        <v>18000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>1240</v>
+        <v>720</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,7 +15837,7 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>810</v>
+        <v>700</v>
       </c>
       <c r="K215" t="n">
         <v>32000</v>
@@ -15846,23 +15846,23 @@
         <v>34000</v>
       </c>
       <c r="M215" t="n">
-        <v>33136</v>
+        <v>33000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>2209</v>
+        <v>1320</v>
       </c>
       <c r="Q215" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>660</v>
+        <v>880</v>
       </c>
       <c r="K216" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L216" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="M216" t="n">
-        <v>36348</v>
+        <v>31000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>1454</v>
+        <v>1240</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15981,32 +15981,32 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>490</v>
+        <v>810</v>
       </c>
       <c r="K217" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L217" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="M217" t="n">
-        <v>36061</v>
+        <v>33136</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>1442</v>
+        <v>2209</v>
       </c>
       <c r="Q217" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44301</v>
+        <v>44176</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>400</v>
+        <v>660</v>
       </c>
       <c r="K218" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L218" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M218" t="n">
-        <v>24150</v>
+        <v>36348</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>966</v>
+        <v>1454</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44301</v>
+        <v>44176</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="K219" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="L219" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="M219" t="n">
-        <v>23172</v>
+        <v>36061</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16143,11 +16143,11 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>927</v>
+        <v>1442</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44284</v>
+        <v>44301</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K220" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L220" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M220" t="n">
-        <v>27600</v>
+        <v>24150</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1104</v>
+        <v>966</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44279</v>
+        <v>44301</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K221" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L221" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M221" t="n">
-        <v>27425</v>
+        <v>23172</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1097</v>
+        <v>927</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="K222" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L222" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M222" t="n">
-        <v>26125</v>
+        <v>27600</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16359,11 +16359,11 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1045</v>
+        <v>1104</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K223" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L223" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M223" t="n">
-        <v>25852</v>
+        <v>27425</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>1034</v>
+        <v>1097</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,29 +16485,29 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K224" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L224" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M224" t="n">
-        <v>32000</v>
+        <v>26125</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>1280</v>
+        <v>1045</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44312</v>
+        <v>44341</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="K225" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L225" t="n">
         <v>27000</v>
       </c>
-      <c r="L225" t="n">
-        <v>30000</v>
-      </c>
       <c r="M225" t="n">
-        <v>28745</v>
+        <v>25852</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1150</v>
+        <v>1034</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44329</v>
+        <v>44504</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K226" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L226" t="n">
         <v>35000</v>
       </c>
       <c r="M226" t="n">
-        <v>34150</v>
+        <v>32000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1366</v>
+        <v>1280</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44522</v>
+        <v>44312</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,32 +16701,32 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>95</v>
+        <v>550</v>
       </c>
       <c r="K227" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L227" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M227" t="n">
-        <v>24053</v>
+        <v>28745</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1604</v>
+        <v>1150</v>
       </c>
       <c r="Q227" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44246</v>
+        <v>44329</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,29 +16773,29 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="K228" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L228" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M228" t="n">
-        <v>25000</v>
+        <v>34150</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1000</v>
+        <v>1366</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,32 +16845,32 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="K229" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L229" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M229" t="n">
-        <v>22000</v>
+        <v>24053</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>880</v>
+        <v>1604</v>
       </c>
       <c r="Q229" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,29 +16917,29 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="K230" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L230" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M230" t="n">
-        <v>31974</v>
+        <v>25000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1279</v>
+        <v>1000</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>600</v>
+        <v>140</v>
       </c>
       <c r="K231" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L231" t="n">
         <v>22000</v>
       </c>
       <c r="M231" t="n">
-        <v>21233</v>
+        <v>22000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>849</v>
+        <v>880</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,29 +17061,29 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="K232" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L232" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M232" t="n">
-        <v>21080</v>
+        <v>31974</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>843</v>
+        <v>1279</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,32 +17133,32 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="K233" t="n">
-        <v>36000</v>
+        <v>20000</v>
       </c>
       <c r="L233" t="n">
-        <v>38000</v>
+        <v>22000</v>
       </c>
       <c r="M233" t="n">
-        <v>37209</v>
+        <v>21233</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>2481</v>
+        <v>849</v>
       </c>
       <c r="Q233" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44225</v>
+        <v>44272</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K234" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L234" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M234" t="n">
-        <v>27969</v>
+        <v>21080</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>1119</v>
+        <v>843</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,32 +17277,32 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K235" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L235" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M235" t="n">
-        <v>24150</v>
+        <v>37209</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>966</v>
+        <v>2481</v>
       </c>
       <c r="Q235" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17345,20 +17345,20 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>430</v>
+        <v>1600</v>
       </c>
       <c r="K236" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L236" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M236" t="n">
-        <v>20000</v>
+        <v>27969</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>800</v>
+        <v>1119</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K237" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L237" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M237" t="n">
-        <v>18000</v>
+        <v>24150</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>720</v>
+        <v>966</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44315</v>
+        <v>44225</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17489,24 +17489,24 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="K238" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L238" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M238" t="n">
-        <v>24561</v>
+        <v>20000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>982</v>
+        <v>800</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44315</v>
+        <v>44225</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="K239" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L239" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="M239" t="n">
-        <v>25867</v>
+        <v>18000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17583,11 +17583,11 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1035</v>
+        <v>720</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17633,24 +17633,24 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>95</v>
+        <v>410</v>
       </c>
       <c r="K240" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L240" t="n">
         <v>25000</v>
       </c>
-      <c r="L240" t="n">
-        <v>27000</v>
-      </c>
       <c r="M240" t="n">
-        <v>25947</v>
+        <v>24561</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1038</v>
+        <v>982</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44495</v>
+        <v>44315</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17712,26 +17712,26 @@
         <v>600</v>
       </c>
       <c r="K241" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L241" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M241" t="n">
-        <v>34167</v>
+        <v>25867</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>1367</v>
+        <v>1035</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44232</v>
+        <v>44348</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17777,33 +17777,33 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>400</v>
+        <v>95</v>
       </c>
       <c r="K242" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L242" t="n">
-        <v>250000</v>
+        <v>27000</v>
       </c>
       <c r="M242" t="n">
-        <v>112500</v>
+        <v>25947</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>4500</v>
+        <v>1038</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,29 +17853,29 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K243" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L243" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M243" t="n">
-        <v>24038</v>
+        <v>34167</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>962</v>
+        <v>1367</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K244" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L244" t="n">
-        <v>20000</v>
+        <v>250000</v>
       </c>
       <c r="M244" t="n">
-        <v>20000</v>
+        <v>112500</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,29 +17997,29 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="K245" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="L245" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M245" t="n">
-        <v>34200</v>
+        <v>24038</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1368</v>
+        <v>962</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18065,33 +18065,33 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K246" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L246" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="M246" t="n">
-        <v>30850</v>
+        <v>20000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1234</v>
+        <v>800</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K247" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L247" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M247" t="n">
-        <v>30850</v>
+        <v>34200</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18159,11 +18159,11 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1234</v>
+        <v>1368</v>
       </c>
       <c r="Q247" t="n">
         <v>25</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18209,33 +18209,33 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K248" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L248" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M248" t="n">
-        <v>25000</v>
+        <v>30850</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1000</v>
+        <v>1234</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18288,29 +18288,29 @@
         <v>400</v>
       </c>
       <c r="K249" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L249" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="M249" t="n">
-        <v>36150</v>
+        <v>30850</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>2410</v>
+        <v>1234</v>
       </c>
       <c r="Q249" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18353,20 +18353,20 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K250" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L250" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M250" t="n">
-        <v>32875</v>
+        <v>25000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1315</v>
+        <v>1000</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,7 +18429,7 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K251" t="n">
         <v>35000</v>
@@ -18438,23 +18438,23 @@
         <v>37000</v>
       </c>
       <c r="M251" t="n">
-        <v>36143</v>
+        <v>36150</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1446</v>
+        <v>2410</v>
       </c>
       <c r="Q251" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="K252" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L252" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M252" t="n">
-        <v>26053</v>
+        <v>32875</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1042</v>
+        <v>1315</v>
       </c>
       <c r="Q252" t="n">
         <v>25</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,29 +18573,29 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>490</v>
+        <v>280</v>
       </c>
       <c r="K253" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L253" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="M253" t="n">
-        <v>26061</v>
+        <v>36143</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1042</v>
+        <v>1446</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18645,29 +18645,29 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="K254" t="n">
         <v>25000</v>
       </c>
       <c r="L254" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="M254" t="n">
-        <v>25400</v>
+        <v>26053</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>1016</v>
+        <v>1042</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,29 +18717,29 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="K255" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L255" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M255" t="n">
-        <v>18836</v>
+        <v>26061</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>753</v>
+        <v>1042</v>
       </c>
       <c r="Q255" t="n">
         <v>25</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K256" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L256" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M256" t="n">
-        <v>20800</v>
+        <v>25400</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>832</v>
+        <v>1016</v>
       </c>
       <c r="Q256" t="n">
         <v>25</v>
@@ -18861,29 +18861,29 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K257" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L257" t="n">
         <v>20000</v>
       </c>
-      <c r="L257" t="n">
-        <v>22000</v>
-      </c>
       <c r="M257" t="n">
-        <v>21150</v>
+        <v>18836</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>846</v>
+        <v>753</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K258" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L258" t="n">
         <v>22000</v>
       </c>
       <c r="M258" t="n">
-        <v>20500</v>
+        <v>20800</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18951,11 +18951,11 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="Q258" t="n">
         <v>25</v>
@@ -19001,33 +19001,33 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="K259" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L259" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M259" t="n">
-        <v>15000</v>
+        <v>21150</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>600</v>
+        <v>846</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="K260" t="n">
         <v>18000</v>
       </c>
       <c r="L260" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M260" t="n">
-        <v>18000</v>
+        <v>20500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19095,11 +19095,11 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19149,29 +19149,29 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K261" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L261" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M261" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="K262" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L262" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M262" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="Q262" t="n">
         <v>25</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K263" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L263" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="M263" t="n">
-        <v>25850</v>
+        <v>17000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19311,11 +19311,11 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>1034</v>
+        <v>680</v>
       </c>
       <c r="Q263" t="n">
         <v>25</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19361,20 +19361,20 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K264" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="L264" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="M264" t="n">
-        <v>26850</v>
+        <v>15000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>1074</v>
+        <v>600</v>
       </c>
       <c r="Q264" t="n">
         <v>25</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44330</v>
+        <v>44251</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19440,26 +19440,26 @@
         <v>400</v>
       </c>
       <c r="K265" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L265" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="M265" t="n">
-        <v>36275</v>
+        <v>25850</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>1451</v>
+        <v>1034</v>
       </c>
       <c r="Q265" t="n">
         <v>25</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19512,29 +19512,29 @@
         <v>400</v>
       </c>
       <c r="K266" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="L266" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M266" t="n">
-        <v>20850</v>
+        <v>26850</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>1390</v>
+        <v>1074</v>
       </c>
       <c r="Q266" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44181</v>
+        <v>44330</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="K267" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L267" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="M267" t="n">
-        <v>28280</v>
+        <v>36275</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>1131</v>
+        <v>1451</v>
       </c>
       <c r="Q267" t="n">
         <v>25</v>
@@ -19656,29 +19656,29 @@
         <v>400</v>
       </c>
       <c r="K268" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L268" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M268" t="n">
-        <v>24150</v>
+        <v>20850</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>966</v>
+        <v>1390</v>
       </c>
       <c r="Q268" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19725,29 +19725,29 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K269" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L269" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M269" t="n">
-        <v>25850</v>
+        <v>28280</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1034</v>
+        <v>1131</v>
       </c>
       <c r="Q269" t="n">
         <v>25</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,20 +19797,20 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K270" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L270" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M270" t="n">
-        <v>28400</v>
+        <v>24150</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>1136</v>
+        <v>966</v>
       </c>
       <c r="Q270" t="n">
         <v>25</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,20 +19869,20 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K271" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L271" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M271" t="n">
-        <v>28333</v>
+        <v>25850</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>1133</v>
+        <v>1034</v>
       </c>
       <c r="Q271" t="n">
         <v>25</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="K272" t="n">
         <v>26000</v>
       </c>
       <c r="L272" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M272" t="n">
-        <v>27143</v>
+        <v>28400</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>1086</v>
+        <v>1136</v>
       </c>
       <c r="Q272" t="n">
         <v>25</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K273" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L273" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="M273" t="n">
-        <v>24000</v>
+        <v>28333</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>960</v>
+        <v>1133</v>
       </c>
       <c r="Q273" t="n">
         <v>25</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>150</v>
+        <v>1400</v>
       </c>
       <c r="K274" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L274" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M274" t="n">
-        <v>24000</v>
+        <v>27143</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,11 +20103,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>960</v>
+        <v>1086</v>
       </c>
       <c r="Q274" t="n">
         <v>25</v>
@@ -20157,7 +20157,7 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K275" t="n">
         <v>24000</v>
@@ -20175,7 +20175,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P275" t="n">
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20225,33 +20225,33 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>630</v>
+        <v>150</v>
       </c>
       <c r="K276" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L276" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M276" t="n">
-        <v>21143</v>
+        <v>24000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>846</v>
+        <v>960</v>
       </c>
       <c r="Q276" t="n">
         <v>25</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44307</v>
+        <v>44194</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20297,33 +20297,33 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K277" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L277" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M277" t="n">
-        <v>28714</v>
+        <v>24000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>1149</v>
+        <v>960</v>
       </c>
       <c r="Q277" t="n">
         <v>25</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="K278" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L278" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M278" t="n">
-        <v>25807</v>
+        <v>21143</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>1032</v>
+        <v>846</v>
       </c>
       <c r="Q278" t="n">
         <v>25</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,7 +20445,7 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K279" t="n">
         <v>27000</v>
@@ -20454,7 +20454,7 @@
         <v>30000</v>
       </c>
       <c r="M279" t="n">
-        <v>28275</v>
+        <v>28714</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>1131</v>
+        <v>1149</v>
       </c>
       <c r="Q279" t="n">
         <v>25</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44201</v>
+        <v>44307</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,29 +20517,29 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>440</v>
+        <v>570</v>
       </c>
       <c r="K280" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L280" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M280" t="n">
-        <v>23545</v>
+        <v>25807</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>942</v>
+        <v>1032</v>
       </c>
       <c r="Q280" t="n">
         <v>25</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K281" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L281" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M281" t="n">
-        <v>23667</v>
+        <v>28275</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>947</v>
+        <v>1131</v>
       </c>
       <c r="Q281" t="n">
         <v>25</v>
@@ -20661,7 +20661,7 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>580</v>
+        <v>440</v>
       </c>
       <c r="K282" t="n">
         <v>23000</v>
@@ -20670,20 +20670,20 @@
         <v>25000</v>
       </c>
       <c r="M282" t="n">
-        <v>23897</v>
+        <v>23545</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="Q282" t="n">
         <v>25</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K283" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L283" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M283" t="n">
-        <v>22571</v>
+        <v>23667</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20751,11 +20751,11 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>903</v>
+        <v>947</v>
       </c>
       <c r="Q283" t="n">
         <v>25</v>
@@ -20801,33 +20801,33 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="K284" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L284" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M284" t="n">
-        <v>20000</v>
+        <v>23897</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="Q284" t="n">
         <v>25</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K285" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L285" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M285" t="n">
-        <v>20000</v>
+        <v>22571</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20895,11 +20895,11 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>800</v>
+        <v>903</v>
       </c>
       <c r="Q285" t="n">
         <v>25</v>
@@ -20949,29 +20949,29 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K286" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L286" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M286" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q286" t="n">
         <v>25</v>
@@ -21021,34 +21021,178 @@
         </is>
       </c>
       <c r="J287" t="n">
+        <v>100</v>
+      </c>
+      <c r="K287" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L287" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M287" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P287" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>25</v>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>6</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D288" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E288" t="n">
+        <v>13</v>
+      </c>
+      <c r="F288" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J288" t="n">
+        <v>180</v>
+      </c>
+      <c r="K288" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L288" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M288" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P288" t="n">
+        <v>720</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>25</v>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>6</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D289" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E289" t="n">
+        <v>13</v>
+      </c>
+      <c r="F289" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J289" t="n">
         <v>150</v>
       </c>
-      <c r="K287" t="n">
+      <c r="K289" t="n">
         <v>18000</v>
       </c>
-      <c r="L287" t="n">
+      <c r="L289" t="n">
         <v>18000</v>
       </c>
-      <c r="M287" t="n">
+      <c r="M289" t="n">
         <v>18000</v>
       </c>
-      <c r="N287" t="inlineStr">
+      <c r="N289" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O287" t="inlineStr">
+      <c r="O289" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P287" t="n">
+      <c r="P289" t="n">
         <v>720</v>
       </c>
-      <c r="Q287" t="n">
-        <v>25</v>
-      </c>
-      <c r="R287" t="inlineStr">
+      <c r="Q289" t="n">
+        <v>25</v>
+      </c>
+      <c r="R289" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R289"/>
+  <dimension ref="A1:R290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K203" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L203" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M203" t="n">
-        <v>30857</v>
+        <v>34333</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14991,11 +14991,11 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>2057</v>
+        <v>2289</v>
       </c>
       <c r="Q203" t="n">
         <v>15</v>
@@ -15045,32 +15045,32 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="K204" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L204" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="M204" t="n">
-        <v>37182</v>
+        <v>30857</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>1487</v>
+        <v>2057</v>
       </c>
       <c r="Q204" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K205" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L205" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M205" t="n">
-        <v>24150</v>
+        <v>37182</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>966</v>
+        <v>1487</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15198,7 +15198,7 @@
         <v>25000</v>
       </c>
       <c r="M206" t="n">
-        <v>23850</v>
+        <v>24150</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K207" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L207" t="n">
         <v>25000</v>
       </c>
-      <c r="L207" t="n">
-        <v>27000</v>
-      </c>
       <c r="M207" t="n">
-        <v>26292</v>
+        <v>23850</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>1052</v>
+        <v>954</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="K208" t="n">
         <v>25000</v>
       </c>
       <c r="L208" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="M208" t="n">
-        <v>25582</v>
+        <v>26292</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>1023</v>
+        <v>1052</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>1300</v>
+        <v>550</v>
       </c>
       <c r="K209" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L209" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M209" t="n">
-        <v>23923</v>
+        <v>25582</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>957</v>
+        <v>1023</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15477,7 +15477,7 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>790</v>
+        <v>1300</v>
       </c>
       <c r="K210" t="n">
         <v>23000</v>
@@ -15486,7 +15486,7 @@
         <v>25000</v>
       </c>
       <c r="M210" t="n">
-        <v>24063</v>
+        <v>23923</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15549,7 +15549,7 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>1400</v>
+        <v>790</v>
       </c>
       <c r="K211" t="n">
         <v>23000</v>
@@ -15558,7 +15558,7 @@
         <v>25000</v>
       </c>
       <c r="M211" t="n">
-        <v>23857</v>
+        <v>24063</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="K212" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L212" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M212" t="n">
-        <v>20000</v>
+        <v>23857</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>800</v>
+        <v>954</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="K213" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L213" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M213" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>700</v>
+        <v>230</v>
       </c>
       <c r="K214" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L214" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M214" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15783,11 +15783,11 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J215" t="n">
         <v>700</v>
       </c>
       <c r="K215" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="L215" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="M215" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>1320</v>
+        <v>720</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>880</v>
+        <v>700</v>
       </c>
       <c r="K216" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L216" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="M216" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>1240</v>
+        <v>1320</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,32 +15981,32 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>810</v>
+        <v>880</v>
       </c>
       <c r="K217" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L217" t="n">
         <v>32000</v>
       </c>
-      <c r="L217" t="n">
-        <v>34000</v>
-      </c>
       <c r="M217" t="n">
-        <v>33136</v>
+        <v>31000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>2209</v>
+        <v>1240</v>
       </c>
       <c r="Q217" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16053,32 +16053,32 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>660</v>
+        <v>810</v>
       </c>
       <c r="K218" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="L218" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="M218" t="n">
-        <v>36348</v>
+        <v>33136</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1454</v>
+        <v>2209</v>
       </c>
       <c r="Q218" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>490</v>
+        <v>660</v>
       </c>
       <c r="K219" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="L219" t="n">
         <v>37000</v>
       </c>
       <c r="M219" t="n">
-        <v>36061</v>
+        <v>36348</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16143,11 +16143,11 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1442</v>
+        <v>1454</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44301</v>
+        <v>44176</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="K220" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L220" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M220" t="n">
-        <v>24150</v>
+        <v>36061</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16215,11 +16215,11 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>966</v>
+        <v>1442</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="K221" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L221" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M221" t="n">
-        <v>23172</v>
+        <v>24150</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>927</v>
+        <v>966</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44284</v>
+        <v>44301</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="K222" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L222" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M222" t="n">
-        <v>27600</v>
+        <v>23172</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16359,11 +16359,11 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1104</v>
+        <v>927</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,7 +16413,7 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K223" t="n">
         <v>27000</v>
@@ -16422,7 +16422,7 @@
         <v>28000</v>
       </c>
       <c r="M223" t="n">
-        <v>27425</v>
+        <v>27600</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K224" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L224" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M224" t="n">
-        <v>26125</v>
+        <v>27425</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16503,11 +16503,11 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>1045</v>
+        <v>1097</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,7 +16557,7 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>610</v>
+        <v>800</v>
       </c>
       <c r="K225" t="n">
         <v>25000</v>
@@ -16566,7 +16566,7 @@
         <v>27000</v>
       </c>
       <c r="M225" t="n">
-        <v>25852</v>
+        <v>26125</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1034</v>
+        <v>1045</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,29 +16629,29 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>200</v>
+        <v>610</v>
       </c>
       <c r="K226" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L226" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M226" t="n">
-        <v>32000</v>
+        <v>25852</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1280</v>
+        <v>1034</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44312</v>
+        <v>44504</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,29 +16701,29 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K227" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L227" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M227" t="n">
-        <v>28745</v>
+        <v>32000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1150</v>
+        <v>1280</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44329</v>
+        <v>44312</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,29 +16773,29 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K228" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L228" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M228" t="n">
-        <v>34150</v>
+        <v>28745</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1366</v>
+        <v>1150</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44522</v>
+        <v>44329</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,32 +16845,32 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="K229" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="L229" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M229" t="n">
-        <v>24053</v>
+        <v>34150</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1604</v>
+        <v>1366</v>
       </c>
       <c r="Q229" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,32 +16917,32 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="K230" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L230" t="n">
         <v>25000</v>
       </c>
       <c r="M230" t="n">
-        <v>25000</v>
+        <v>24053</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1000</v>
+        <v>1604</v>
       </c>
       <c r="Q230" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="K231" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L231" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M231" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,29 +17061,29 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="K232" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L232" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M232" t="n">
-        <v>31974</v>
+        <v>22000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1279</v>
+        <v>880</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,29 +17133,29 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="K233" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L233" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M233" t="n">
-        <v>21233</v>
+        <v>31974</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>849</v>
+        <v>1279</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K234" t="n">
         <v>20000</v>
@@ -17214,7 +17214,7 @@
         <v>22000</v>
       </c>
       <c r="M234" t="n">
-        <v>21080</v>
+        <v>21233</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,32 +17277,32 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="K235" t="n">
-        <v>36000</v>
+        <v>20000</v>
       </c>
       <c r="L235" t="n">
-        <v>38000</v>
+        <v>22000</v>
       </c>
       <c r="M235" t="n">
-        <v>37209</v>
+        <v>21080</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>2481</v>
+        <v>843</v>
       </c>
       <c r="Q235" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,32 +17349,32 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>1600</v>
+        <v>430</v>
       </c>
       <c r="K236" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="L236" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="M236" t="n">
-        <v>27969</v>
+        <v>37209</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1119</v>
+        <v>2481</v>
       </c>
       <c r="Q236" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K237" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L237" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M237" t="n">
-        <v>24150</v>
+        <v>27969</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>966</v>
+        <v>1119</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K238" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L238" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M238" t="n">
-        <v>20000</v>
+        <v>24150</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>800</v>
+        <v>966</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="K239" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L239" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M239" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17583,11 +17583,11 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44315</v>
+        <v>44225</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17633,33 +17633,33 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="K240" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L240" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M240" t="n">
-        <v>24561</v>
+        <v>18000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>982</v>
+        <v>720</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17709,20 +17709,20 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="K241" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L241" t="n">
         <v>25000</v>
       </c>
-      <c r="L241" t="n">
-        <v>27000</v>
-      </c>
       <c r="M241" t="n">
-        <v>25867</v>
+        <v>24561</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>1035</v>
+        <v>982</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17777,11 +17777,11 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>95</v>
+        <v>600</v>
       </c>
       <c r="K242" t="n">
         <v>25000</v>
@@ -17790,7 +17790,7 @@
         <v>27000</v>
       </c>
       <c r="M242" t="n">
-        <v>25947</v>
+        <v>25867</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44495</v>
+        <v>44348</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17849,33 +17849,33 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>600</v>
+        <v>95</v>
       </c>
       <c r="K243" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L243" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M243" t="n">
-        <v>34167</v>
+        <v>25947</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1367</v>
+        <v>1038</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K244" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L244" t="n">
-        <v>250000</v>
+        <v>35000</v>
       </c>
       <c r="M244" t="n">
-        <v>112500</v>
+        <v>34167</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>4500</v>
+        <v>1367</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17997,29 +17997,29 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K245" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L245" t="n">
-        <v>27000</v>
+        <v>250000</v>
       </c>
       <c r="M245" t="n">
-        <v>24038</v>
+        <v>112500</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>962</v>
+        <v>4500</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18065,33 +18065,33 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>100</v>
+        <v>520</v>
       </c>
       <c r="K246" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L246" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M246" t="n">
-        <v>20000</v>
+        <v>24038</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>800</v>
+        <v>962</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K247" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L247" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M247" t="n">
-        <v>34200</v>
+        <v>20000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18159,11 +18159,11 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1368</v>
+        <v>800</v>
       </c>
       <c r="Q247" t="n">
         <v>25</v>
@@ -18213,29 +18213,29 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K248" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L248" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M248" t="n">
-        <v>30850</v>
+        <v>34200</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1234</v>
+        <v>1368</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18298,12 +18298,12 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P249" t="n">
@@ -18353,20 +18353,20 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K250" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L250" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M250" t="n">
-        <v>25000</v>
+        <v>30850</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1000</v>
+        <v>1234</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18425,36 +18425,36 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K251" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L251" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="M251" t="n">
-        <v>36150</v>
+        <v>25000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>2410</v>
+        <v>1000</v>
       </c>
       <c r="Q251" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18504,29 +18504,29 @@
         <v>400</v>
       </c>
       <c r="K252" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L252" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M252" t="n">
-        <v>32875</v>
+        <v>36150</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1315</v>
+        <v>2410</v>
       </c>
       <c r="Q252" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K253" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L253" t="n">
         <v>35000</v>
       </c>
-      <c r="L253" t="n">
-        <v>37000</v>
-      </c>
       <c r="M253" t="n">
-        <v>36143</v>
+        <v>32875</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1446</v>
+        <v>1315</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>950</v>
+        <v>280</v>
       </c>
       <c r="K254" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L254" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="M254" t="n">
-        <v>26053</v>
+        <v>36143</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>1042</v>
+        <v>1446</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18717,7 +18717,7 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>490</v>
+        <v>950</v>
       </c>
       <c r="K255" t="n">
         <v>25000</v>
@@ -18726,16 +18726,16 @@
         <v>27000</v>
       </c>
       <c r="M255" t="n">
-        <v>26061</v>
+        <v>26053</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P255" t="n">
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="K256" t="n">
         <v>25000</v>
       </c>
       <c r="L256" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="M256" t="n">
-        <v>25400</v>
+        <v>26061</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1016</v>
+        <v>1042</v>
       </c>
       <c r="Q256" t="n">
         <v>25</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,29 +18861,29 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="K257" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L257" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M257" t="n">
-        <v>18836</v>
+        <v>25400</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>753</v>
+        <v>1016</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18933,29 +18933,29 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K258" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L258" t="n">
         <v>20000</v>
       </c>
-      <c r="L258" t="n">
-        <v>22000</v>
-      </c>
       <c r="M258" t="n">
-        <v>20800</v>
+        <v>18836</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>832</v>
+        <v>753</v>
       </c>
       <c r="Q258" t="n">
         <v>25</v>
@@ -19005,7 +19005,7 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K259" t="n">
         <v>20000</v>
@@ -19014,7 +19014,7 @@
         <v>22000</v>
       </c>
       <c r="M259" t="n">
-        <v>21150</v>
+        <v>20800</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19023,11 +19023,11 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K260" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L260" t="n">
         <v>22000</v>
       </c>
       <c r="M260" t="n">
-        <v>20500</v>
+        <v>21150</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19095,11 +19095,11 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19145,33 +19145,33 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>260</v>
+        <v>1600</v>
       </c>
       <c r="K261" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L261" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M261" t="n">
-        <v>15000</v>
+        <v>20500</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>600</v>
+        <v>820</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19221,29 +19221,29 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="K262" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L262" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M262" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="Q262" t="n">
         <v>25</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K263" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L263" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M263" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19311,11 +19311,11 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="Q263" t="n">
         <v>25</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="K264" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L264" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M264" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="Q264" t="n">
         <v>25</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K265" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L265" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="M265" t="n">
-        <v>25850</v>
+        <v>15000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>1034</v>
+        <v>600</v>
       </c>
       <c r="Q265" t="n">
         <v>25</v>
@@ -19512,13 +19512,13 @@
         <v>400</v>
       </c>
       <c r="K266" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L266" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M266" t="n">
-        <v>26850</v>
+        <v>25850</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>1074</v>
+        <v>1034</v>
       </c>
       <c r="Q266" t="n">
         <v>25</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44330</v>
+        <v>44251</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19584,26 +19584,26 @@
         <v>400</v>
       </c>
       <c r="K267" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="L267" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="M267" t="n">
-        <v>36275</v>
+        <v>26850</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>1451</v>
+        <v>1074</v>
       </c>
       <c r="Q267" t="n">
         <v>25</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44181</v>
+        <v>44330</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19656,17 +19656,17 @@
         <v>400</v>
       </c>
       <c r="K268" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L268" t="n">
-        <v>22000</v>
+        <v>38000</v>
       </c>
       <c r="M268" t="n">
-        <v>20850</v>
+        <v>36275</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>1390</v>
+        <v>1451</v>
       </c>
       <c r="Q268" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19725,32 +19725,32 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="K269" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L269" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M269" t="n">
-        <v>28280</v>
+        <v>20850</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1131</v>
+        <v>1390</v>
       </c>
       <c r="Q269" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19797,20 +19797,20 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K270" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L270" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M270" t="n">
-        <v>24150</v>
+        <v>28280</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>966</v>
+        <v>1131</v>
       </c>
       <c r="Q270" t="n">
         <v>25</v>
@@ -19872,13 +19872,13 @@
         <v>400</v>
       </c>
       <c r="K271" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L271" t="n">
         <v>25000</v>
       </c>
-      <c r="L271" t="n">
-        <v>27000</v>
-      </c>
       <c r="M271" t="n">
-        <v>25850</v>
+        <v>24150</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>1034</v>
+        <v>966</v>
       </c>
       <c r="Q271" t="n">
         <v>25</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,29 +19941,29 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K272" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L272" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M272" t="n">
-        <v>28400</v>
+        <v>25850</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>1136</v>
+        <v>1034</v>
       </c>
       <c r="Q272" t="n">
         <v>25</v>
@@ -20013,7 +20013,7 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K273" t="n">
         <v>26000</v>
@@ -20022,7 +20022,7 @@
         <v>30000</v>
       </c>
       <c r="M273" t="n">
-        <v>28333</v>
+        <v>28400</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="Q273" t="n">
         <v>25</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K274" t="n">
         <v>26000</v>
       </c>
       <c r="L274" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M274" t="n">
-        <v>27143</v>
+        <v>28333</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,11 +20103,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>1086</v>
+        <v>1133</v>
       </c>
       <c r="Q274" t="n">
         <v>25</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K275" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L275" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M275" t="n">
-        <v>24000</v>
+        <v>27143</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20175,11 +20175,11 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>960</v>
+        <v>1086</v>
       </c>
       <c r="Q275" t="n">
         <v>25</v>
@@ -20229,7 +20229,7 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K276" t="n">
         <v>24000</v>
@@ -20247,7 +20247,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P276" t="n">
@@ -20301,7 +20301,7 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K277" t="n">
         <v>24000</v>
@@ -20319,7 +20319,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P277" t="n">
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20369,24 +20369,24 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>630</v>
+        <v>400</v>
       </c>
       <c r="K278" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L278" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M278" t="n">
-        <v>21143</v>
+        <v>24000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>846</v>
+        <v>960</v>
       </c>
       <c r="Q278" t="n">
         <v>25</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="K279" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L279" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M279" t="n">
-        <v>28714</v>
+        <v>21143</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>1149</v>
+        <v>846</v>
       </c>
       <c r="Q279" t="n">
         <v>25</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="K280" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L280" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M280" t="n">
-        <v>25807</v>
+        <v>28714</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20535,11 +20535,11 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>1032</v>
+        <v>1149</v>
       </c>
       <c r="Q280" t="n">
         <v>25</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="K281" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L281" t="n">
         <v>27000</v>
       </c>
-      <c r="L281" t="n">
-        <v>30000</v>
-      </c>
       <c r="M281" t="n">
-        <v>28275</v>
+        <v>25807</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20607,11 +20607,11 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>1131</v>
+        <v>1032</v>
       </c>
       <c r="Q281" t="n">
         <v>25</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,29 +20661,29 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K282" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L282" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M282" t="n">
-        <v>23545</v>
+        <v>28275</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>942</v>
+        <v>1131</v>
       </c>
       <c r="Q282" t="n">
         <v>25</v>
@@ -20733,7 +20733,7 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K283" t="n">
         <v>23000</v>
@@ -20742,20 +20742,20 @@
         <v>25000</v>
       </c>
       <c r="M283" t="n">
-        <v>23667</v>
+        <v>23545</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="Q283" t="n">
         <v>25</v>
@@ -20805,7 +20805,7 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="K284" t="n">
         <v>23000</v>
@@ -20814,7 +20814,7 @@
         <v>25000</v>
       </c>
       <c r="M284" t="n">
-        <v>23897</v>
+        <v>23667</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20823,11 +20823,11 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="Q284" t="n">
         <v>25</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="K285" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L285" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M285" t="n">
-        <v>22571</v>
+        <v>23897</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20895,11 +20895,11 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>903</v>
+        <v>956</v>
       </c>
       <c r="Q285" t="n">
         <v>25</v>
@@ -20945,33 +20945,33 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K286" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L286" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M286" t="n">
-        <v>20000</v>
+        <v>22571</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>800</v>
+        <v>903</v>
       </c>
       <c r="Q286" t="n">
         <v>25</v>
@@ -21034,12 +21034,12 @@
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P287" t="n">
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K288" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L288" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M288" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21111,11 +21111,11 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q288" t="n">
         <v>25</v>
@@ -21165,7 +21165,7 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K289" t="n">
         <v>18000</v>
@@ -21183,7 +21183,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P289" t="n">
@@ -21193,6 +21193,78 @@
         <v>25</v>
       </c>
       <c r="R289" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>6</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D290" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E290" t="n">
+        <v>13</v>
+      </c>
+      <c r="F290" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J290" t="n">
+        <v>150</v>
+      </c>
+      <c r="K290" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L290" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M290" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P290" t="n">
+        <v>720</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>25</v>
+      </c>
+      <c r="R290" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R290"/>
+  <dimension ref="A1:R292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44266</v>
+        <v>44525</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -5685,32 +5685,32 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>460</v>
+        <v>95</v>
       </c>
       <c r="K74" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L74" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M74" t="n">
-        <v>20783</v>
+        <v>28579</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>831</v>
+        <v>1905</v>
       </c>
       <c r="Q74" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44266</v>
+        <v>44525</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -5757,29 +5757,29 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>490</v>
+        <v>200</v>
       </c>
       <c r="K75" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L75" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M75" t="n">
-        <v>19061</v>
+        <v>33000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>762</v>
+        <v>1320</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44224</v>
+        <v>44266</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>810</v>
+        <v>460</v>
       </c>
       <c r="K76" t="n">
         <v>20000</v>
       </c>
       <c r="L76" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="M76" t="n">
-        <v>22222</v>
+        <v>20783</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>889</v>
+        <v>831</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44224</v>
+        <v>44266</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1100</v>
+        <v>490</v>
       </c>
       <c r="K77" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L77" t="n">
         <v>20000</v>
       </c>
-      <c r="L77" t="n">
-        <v>23000</v>
-      </c>
       <c r="M77" t="n">
-        <v>21773</v>
+        <v>19061</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>871</v>
+        <v>762</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>350</v>
+        <v>810</v>
       </c>
       <c r="K78" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L78" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M78" t="n">
-        <v>17000</v>
+        <v>22222</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>680</v>
+        <v>889</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44512</v>
+        <v>44224</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6045,29 +6045,29 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>180</v>
+        <v>1100</v>
       </c>
       <c r="K79" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L79" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="M79" t="n">
-        <v>36667</v>
+        <v>21773</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1467</v>
+        <v>871</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44286</v>
+        <v>44224</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="K80" t="n">
         <v>17000</v>
       </c>
       <c r="L80" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M80" t="n">
-        <v>22675</v>
+        <v>17000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>907</v>
+        <v>680</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44286</v>
+        <v>44512</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6189,29 +6189,29 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>520</v>
+        <v>180</v>
       </c>
       <c r="K81" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="L81" t="n">
-        <v>20000</v>
+        <v>38000</v>
       </c>
       <c r="M81" t="n">
-        <v>18308</v>
+        <v>36667</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>732</v>
+        <v>1467</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="K82" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L82" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M82" t="n">
-        <v>20125</v>
+        <v>22675</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>805</v>
+        <v>907</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44186</v>
+        <v>44286</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6333,32 +6333,32 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>290</v>
+        <v>520</v>
       </c>
       <c r="K83" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L83" t="n">
         <v>20000</v>
       </c>
-      <c r="L83" t="n">
-        <v>22000</v>
-      </c>
       <c r="M83" t="n">
-        <v>20897</v>
+        <v>18308</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1393</v>
+        <v>732</v>
       </c>
       <c r="Q83" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44186</v>
+        <v>44286</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K84" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L84" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M84" t="n">
-        <v>30767</v>
+        <v>20125</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1231</v>
+        <v>805</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44497</v>
+        <v>44186</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6477,32 +6477,32 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>520</v>
+        <v>290</v>
       </c>
       <c r="K85" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L85" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M85" t="n">
-        <v>34038</v>
+        <v>20897</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1362</v>
+        <v>1393</v>
       </c>
       <c r="Q85" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44298</v>
+        <v>44186</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K86" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L86" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M86" t="n">
-        <v>26080</v>
+        <v>30767</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1043</v>
+        <v>1231</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44250</v>
+        <v>44497</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6621,29 +6621,29 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K87" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L87" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M87" t="n">
-        <v>25850</v>
+        <v>34038</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1034</v>
+        <v>1362</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44250</v>
+        <v>44298</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6693,7 +6693,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K88" t="n">
         <v>25000</v>
@@ -6702,7 +6702,7 @@
         <v>27000</v>
       </c>
       <c r="M88" t="n">
-        <v>26150</v>
+        <v>26080</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44218</v>
+        <v>44250</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -6765,7 +6765,7 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K89" t="n">
         <v>25000</v>
@@ -6774,7 +6774,7 @@
         <v>27000</v>
       </c>
       <c r="M89" t="n">
-        <v>25951</v>
+        <v>25850</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44218</v>
+        <v>44250</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K90" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L90" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M90" t="n">
-        <v>24103</v>
+        <v>26150</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>964</v>
+        <v>1046</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44328</v>
+        <v>44218</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6909,29 +6909,29 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>200</v>
+        <v>610</v>
       </c>
       <c r="K91" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L91" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M91" t="n">
-        <v>35800</v>
+        <v>25951</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1432</v>
+        <v>1038</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44328</v>
+        <v>44218</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="K92" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L92" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M92" t="n">
-        <v>33667</v>
+        <v>24103</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1347</v>
+        <v>964</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44277</v>
+        <v>44328</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7053,29 +7053,29 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K93" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L93" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M93" t="n">
-        <v>28275</v>
+        <v>35800</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1131</v>
+        <v>1432</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44516</v>
+        <v>44328</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7125,29 +7125,29 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K94" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L94" t="n">
         <v>35000</v>
       </c>
       <c r="M94" t="n">
-        <v>32000</v>
+        <v>33667</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1280</v>
+        <v>1347</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44175</v>
+        <v>44277</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7197,32 +7197,32 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K95" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L95" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M95" t="n">
-        <v>23897</v>
+        <v>28275</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1593</v>
+        <v>1131</v>
       </c>
       <c r="Q95" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44175</v>
+        <v>44516</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="K96" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L96" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M96" t="n">
-        <v>24071</v>
+        <v>32000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7287,11 +7287,11 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>963</v>
+        <v>1280</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7341,32 +7341,32 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="K97" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L97" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M97" t="n">
-        <v>23164</v>
+        <v>23897</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>927</v>
+        <v>1593</v>
       </c>
       <c r="Q97" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7413,29 +7413,29 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>610</v>
+        <v>1400</v>
       </c>
       <c r="K98" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L98" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M98" t="n">
-        <v>22475</v>
+        <v>24071</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>899</v>
+        <v>963</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7481,24 +7481,24 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="K99" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L99" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M99" t="n">
-        <v>20000</v>
+        <v>23164</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>800</v>
+        <v>927</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>170</v>
+        <v>610</v>
       </c>
       <c r="K100" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L100" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M100" t="n">
-        <v>18000</v>
+        <v>22475</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>720</v>
+        <v>899</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44168</v>
+        <v>44175</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K101" t="n">
-        <v>36000</v>
+        <v>20000</v>
       </c>
       <c r="L101" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="M101" t="n">
-        <v>36575</v>
+        <v>20000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1463</v>
+        <v>800</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44168</v>
+        <v>44175</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="K102" t="n">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="L102" t="n">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="M102" t="n">
-        <v>36575</v>
+        <v>18000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>1463</v>
+        <v>720</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="K103" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="L103" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="M103" t="n">
-        <v>32000</v>
+        <v>36575</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1280</v>
+        <v>1463</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44203</v>
+        <v>44168</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K104" t="n">
-        <v>17000</v>
+        <v>36000</v>
       </c>
       <c r="L104" t="n">
-        <v>20000</v>
+        <v>37000</v>
       </c>
       <c r="M104" t="n">
-        <v>18523</v>
+        <v>36575</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>741</v>
+        <v>1463</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44203</v>
+        <v>44168</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7913,33 +7913,33 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="K105" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="L105" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="M105" t="n">
-        <v>18850</v>
+        <v>32000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>754</v>
+        <v>1280</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="K106" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L106" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M106" t="n">
-        <v>15000</v>
+        <v>18523</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>600</v>
+        <v>741</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K107" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L107" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M107" t="n">
-        <v>15000</v>
+        <v>18850</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>600</v>
+        <v>754</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44217</v>
+        <v>44203</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1460</v>
+        <v>150</v>
       </c>
       <c r="K108" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L108" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="M108" t="n">
-        <v>25137</v>
+        <v>15000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1005</v>
+        <v>600</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44217</v>
+        <v>44203</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>610</v>
+        <v>120</v>
       </c>
       <c r="K109" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L109" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="M109" t="n">
-        <v>25049</v>
+        <v>15000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1002</v>
+        <v>600</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>350</v>
+        <v>1460</v>
       </c>
       <c r="K110" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L110" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M110" t="n">
-        <v>22000</v>
+        <v>25137</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>880</v>
+        <v>1005</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>230</v>
+        <v>610</v>
       </c>
       <c r="K111" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L111" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M111" t="n">
-        <v>20000</v>
+        <v>25049</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>800</v>
+        <v>1002</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44235</v>
+        <v>44217</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="K112" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L112" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M112" t="n">
-        <v>23833</v>
+        <v>22000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>953</v>
+        <v>880</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44200</v>
+        <v>44217</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8489,33 +8489,33 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="K113" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L113" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M113" t="n">
-        <v>24150</v>
+        <v>20000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>966</v>
+        <v>800</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44200</v>
+        <v>44235</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8565,7 +8565,7 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="K114" t="n">
         <v>23000</v>
@@ -8574,20 +8574,20 @@
         <v>25000</v>
       </c>
       <c r="M114" t="n">
-        <v>24103</v>
+        <v>23833</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8637,20 +8637,20 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K115" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L115" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M115" t="n">
-        <v>21769</v>
+        <v>24150</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>871</v>
+        <v>966</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8709,29 +8709,29 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1350</v>
+        <v>580</v>
       </c>
       <c r="K116" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L116" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M116" t="n">
-        <v>21444</v>
+        <v>24103</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>858</v>
+        <v>964</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44244</v>
+        <v>44200</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="K117" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L117" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M117" t="n">
-        <v>25850</v>
+        <v>21769</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1034</v>
+        <v>871</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44244</v>
+        <v>44200</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>400</v>
+        <v>1350</v>
       </c>
       <c r="K118" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L118" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M118" t="n">
-        <v>25850</v>
+        <v>21444</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1034</v>
+        <v>858</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44202</v>
+        <v>44244</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>830</v>
+        <v>400</v>
       </c>
       <c r="K119" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L119" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M119" t="n">
-        <v>24108</v>
+        <v>25850</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>964</v>
+        <v>1034</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44202</v>
+        <v>44244</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1380</v>
+        <v>400</v>
       </c>
       <c r="K120" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L120" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M120" t="n">
-        <v>23913</v>
+        <v>25850</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>957</v>
+        <v>1034</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9069,7 +9069,7 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1400</v>
+        <v>830</v>
       </c>
       <c r="K121" t="n">
         <v>23000</v>
@@ -9078,7 +9078,7 @@
         <v>25000</v>
       </c>
       <c r="M121" t="n">
-        <v>23929</v>
+        <v>24108</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44320</v>
+        <v>44202</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9141,7 +9141,7 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>550</v>
+        <v>1380</v>
       </c>
       <c r="K122" t="n">
         <v>23000</v>
@@ -9150,7 +9150,7 @@
         <v>25000</v>
       </c>
       <c r="M122" t="n">
-        <v>23836</v>
+        <v>23913</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44252</v>
+        <v>44202</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K123" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L123" t="n">
         <v>25000</v>
       </c>
-      <c r="L123" t="n">
-        <v>27000</v>
-      </c>
       <c r="M123" t="n">
-        <v>25850</v>
+        <v>23929</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1034</v>
+        <v>957</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44252</v>
+        <v>44320</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1080</v>
+        <v>550</v>
       </c>
       <c r="K124" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L124" t="n">
         <v>25000</v>
       </c>
-      <c r="L124" t="n">
-        <v>27000</v>
-      </c>
       <c r="M124" t="n">
-        <v>26167</v>
+        <v>23836</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1047</v>
+        <v>953</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44264</v>
+        <v>44252</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="K125" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L125" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M125" t="n">
-        <v>20000</v>
+        <v>25850</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>800</v>
+        <v>1034</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44264</v>
+        <v>44252</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>650</v>
+        <v>1080</v>
       </c>
       <c r="K126" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L126" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="M126" t="n">
-        <v>17431</v>
+        <v>26167</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>697</v>
+        <v>1047</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44214</v>
+        <v>44264</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1050</v>
+        <v>570</v>
       </c>
       <c r="K127" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L127" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M127" t="n">
-        <v>28286</v>
+        <v>20000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>1131</v>
+        <v>800</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44167</v>
+        <v>44264</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="K128" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="L128" t="n">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="M128" t="n">
-        <v>35897</v>
+        <v>17431</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>1436</v>
+        <v>697</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44167</v>
+        <v>44214</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>610</v>
+        <v>1050</v>
       </c>
       <c r="K129" t="n">
-        <v>43000</v>
+        <v>26000</v>
       </c>
       <c r="L129" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M129" t="n">
-        <v>44148</v>
+        <v>28286</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1766</v>
+        <v>1131</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44291</v>
+        <v>44167</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1500</v>
+        <v>580</v>
       </c>
       <c r="K130" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L130" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="M130" t="n">
-        <v>23600</v>
+        <v>35897</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>944</v>
+        <v>1436</v>
       </c>
       <c r="Q130" t="n">
         <v>25</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44174</v>
+        <v>44167</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9789,32 +9789,32 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>710</v>
+        <v>610</v>
       </c>
       <c r="K131" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="L131" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="M131" t="n">
-        <v>26211</v>
+        <v>44148</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1747</v>
+        <v>1766</v>
       </c>
       <c r="Q131" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44174</v>
+        <v>44291</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K132" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L132" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M132" t="n">
-        <v>29150</v>
+        <v>23600</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1166</v>
+        <v>944</v>
       </c>
       <c r="Q132" t="n">
         <v>25</v>
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>120</v>
+        <v>710</v>
       </c>
       <c r="K133" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L133" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M133" t="n">
-        <v>23000</v>
+        <v>26211</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>1533</v>
+        <v>1747</v>
       </c>
       <c r="Q133" t="n">
         <v>15</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K134" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L134" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M134" t="n">
-        <v>25000</v>
+        <v>29150</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1000</v>
+        <v>1166</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44293</v>
+        <v>44174</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10073,36 +10073,36 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="K135" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L135" t="n">
         <v>23000</v>
       </c>
       <c r="M135" t="n">
-        <v>22553</v>
+        <v>23000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>902</v>
+        <v>1533</v>
       </c>
       <c r="Q135" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44293</v>
+        <v>44174</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K136" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L136" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M136" t="n">
-        <v>18867</v>
+        <v>25000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10167,11 +10167,11 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>755</v>
+        <v>1000</v>
       </c>
       <c r="Q136" t="n">
         <v>25</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44496</v>
+        <v>44293</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,29 +10221,29 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>530</v>
+        <v>380</v>
       </c>
       <c r="K137" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="L137" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="M137" t="n">
-        <v>37170</v>
+        <v>22553</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1487</v>
+        <v>902</v>
       </c>
       <c r="Q137" t="n">
         <v>25</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44302</v>
+        <v>44293</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>790</v>
+        <v>300</v>
       </c>
       <c r="K138" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="L138" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M138" t="n">
-        <v>26532</v>
+        <v>18867</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>1061</v>
+        <v>755</v>
       </c>
       <c r="Q138" t="n">
         <v>25</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44292</v>
+        <v>44496</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10365,29 +10365,29 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="K139" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="L139" t="n">
-        <v>21000</v>
+        <v>40000</v>
       </c>
       <c r="M139" t="n">
-        <v>21000</v>
+        <v>37170</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>840</v>
+        <v>1487</v>
       </c>
       <c r="Q139" t="n">
         <v>25</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44292</v>
+        <v>44302</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>280</v>
+        <v>790</v>
       </c>
       <c r="K140" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L140" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="M140" t="n">
-        <v>18464</v>
+        <v>26532</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10455,11 +10455,11 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>739</v>
+        <v>1061</v>
       </c>
       <c r="Q140" t="n">
         <v>25</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44308</v>
+        <v>44292</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,29 +10509,29 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K141" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="L141" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="M141" t="n">
-        <v>27575</v>
+        <v>21000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>1103</v>
+        <v>840</v>
       </c>
       <c r="Q141" t="n">
         <v>25</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44308</v>
+        <v>44292</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K142" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="L142" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="M142" t="n">
-        <v>29150</v>
+        <v>18464</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10599,11 +10599,11 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>1166</v>
+        <v>739</v>
       </c>
       <c r="Q142" t="n">
         <v>25</v>
@@ -10656,26 +10656,26 @@
         <v>400</v>
       </c>
       <c r="K143" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L143" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M143" t="n">
-        <v>30850</v>
+        <v>27575</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>1234</v>
+        <v>1103</v>
       </c>
       <c r="Q143" t="n">
         <v>25</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44321</v>
+        <v>44308</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10728,13 +10728,13 @@
         <v>400</v>
       </c>
       <c r="K144" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L144" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M144" t="n">
-        <v>21275</v>
+        <v>29150</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>851</v>
+        <v>1166</v>
       </c>
       <c r="Q144" t="n">
         <v>25</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44208</v>
+        <v>44308</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10800,13 +10800,13 @@
         <v>400</v>
       </c>
       <c r="K145" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L145" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="M145" t="n">
-        <v>35850</v>
+        <v>30850</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>1434</v>
+        <v>1234</v>
       </c>
       <c r="Q145" t="n">
         <v>25</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44208</v>
+        <v>44321</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="K146" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L146" t="n">
-        <v>37000</v>
+        <v>23000</v>
       </c>
       <c r="M146" t="n">
-        <v>36061</v>
+        <v>21275</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10887,11 +10887,11 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>1442</v>
+        <v>851</v>
       </c>
       <c r="Q146" t="n">
         <v>25</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="K147" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L147" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M147" t="n">
-        <v>28871</v>
+        <v>35850</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>1155</v>
+        <v>1434</v>
       </c>
       <c r="Q147" t="n">
         <v>25</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="K148" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L148" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M148" t="n">
-        <v>29587</v>
+        <v>36061</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>1183</v>
+        <v>1442</v>
       </c>
       <c r="Q148" t="n">
         <v>25</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44204</v>
+        <v>44211</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,7 +11085,7 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="K149" t="n">
         <v>28000</v>
@@ -11094,20 +11094,20 @@
         <v>30000</v>
       </c>
       <c r="M149" t="n">
-        <v>29150</v>
+        <v>28871</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="Q149" t="n">
         <v>25</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44204</v>
+        <v>44211</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>1400</v>
+        <v>460</v>
       </c>
       <c r="K150" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L150" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M150" t="n">
-        <v>23929</v>
+        <v>29587</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>957</v>
+        <v>1183</v>
       </c>
       <c r="Q150" t="n">
         <v>25</v>
@@ -11229,29 +11229,29 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K151" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L151" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M151" t="n">
-        <v>25800</v>
+        <v>29150</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1032</v>
+        <v>1166</v>
       </c>
       <c r="Q151" t="n">
         <v>25</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>350</v>
+        <v>1400</v>
       </c>
       <c r="K152" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L152" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M152" t="n">
-        <v>20000</v>
+        <v>23929</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>800</v>
+        <v>957</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="K153" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L153" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M153" t="n">
-        <v>20000</v>
+        <v>25800</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>800</v>
+        <v>1032</v>
       </c>
       <c r="Q153" t="n">
         <v>25</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44260</v>
+        <v>44204</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="K154" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L154" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M154" t="n">
-        <v>25897</v>
+        <v>20000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>1036</v>
+        <v>800</v>
       </c>
       <c r="Q154" t="n">
         <v>25</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44260</v>
+        <v>44204</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>810</v>
+        <v>350</v>
       </c>
       <c r="K155" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L155" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M155" t="n">
-        <v>25938</v>
+        <v>20000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1038</v>
+        <v>800</v>
       </c>
       <c r="Q155" t="n">
         <v>25</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44306</v>
+        <v>44260</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,7 +11589,7 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="K156" t="n">
         <v>25000</v>
@@ -11598,7 +11598,7 @@
         <v>27000</v>
       </c>
       <c r="M156" t="n">
-        <v>25905</v>
+        <v>25897</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44509</v>
+        <v>44260</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,29 +11661,29 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>400</v>
+        <v>810</v>
       </c>
       <c r="K157" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L157" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M157" t="n">
-        <v>32125</v>
+        <v>25938</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1285</v>
+        <v>1038</v>
       </c>
       <c r="Q157" t="n">
         <v>25</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="K158" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L158" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M158" t="n">
-        <v>33000</v>
+        <v>25905</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1320</v>
+        <v>1036</v>
       </c>
       <c r="Q158" t="n">
         <v>25</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44189</v>
+        <v>44509</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,7 +11805,7 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K159" t="n">
         <v>30000</v>
@@ -11814,20 +11814,20 @@
         <v>35000</v>
       </c>
       <c r="M159" t="n">
-        <v>32727</v>
+        <v>32125</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1309</v>
+        <v>1285</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K160" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L160" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M160" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1000</v>
+        <v>1320</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="K161" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L161" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M161" t="n">
-        <v>25000</v>
+        <v>32727</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1000</v>
+        <v>1309</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44278</v>
+        <v>44189</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>810</v>
+        <v>200</v>
       </c>
       <c r="K162" t="n">
         <v>25000</v>
       </c>
       <c r="L162" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M162" t="n">
-        <v>26136</v>
+        <v>25000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1045</v>
+        <v>1000</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44278</v>
+        <v>44189</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>1030</v>
+        <v>150</v>
       </c>
       <c r="K163" t="n">
         <v>25000</v>
       </c>
       <c r="L163" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M163" t="n">
-        <v>25680</v>
+        <v>25000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1027</v>
+        <v>1000</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44265</v>
+        <v>44278</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="K164" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L164" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M164" t="n">
-        <v>21333</v>
+        <v>26136</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12183,11 +12183,11 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>853</v>
+        <v>1045</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44300</v>
+        <v>44278</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>580</v>
+        <v>1030</v>
       </c>
       <c r="K165" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L165" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M165" t="n">
-        <v>24448</v>
+        <v>25680</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>978</v>
+        <v>1027</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44209</v>
+        <v>44265</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,29 +12309,29 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="K166" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L166" t="n">
-        <v>37000</v>
+        <v>22000</v>
       </c>
       <c r="M166" t="n">
-        <v>36150</v>
+        <v>21333</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>1446</v>
+        <v>853</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44209</v>
+        <v>44300</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>690</v>
+        <v>580</v>
       </c>
       <c r="K167" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="L167" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M167" t="n">
-        <v>33000</v>
+        <v>24448</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>1320</v>
+        <v>978</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12453,29 +12453,29 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>790</v>
+        <v>400</v>
       </c>
       <c r="K168" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L168" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M168" t="n">
-        <v>34063</v>
+        <v>36150</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>1363</v>
+        <v>1446</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>460</v>
+        <v>690</v>
       </c>
       <c r="K169" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L169" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M169" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12543,11 +12543,11 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44237</v>
+        <v>44209</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="K170" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="L170" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M170" t="n">
-        <v>23875</v>
+        <v>34063</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>955</v>
+        <v>1363</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44237</v>
+        <v>44209</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>550</v>
+        <v>460</v>
       </c>
       <c r="K171" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L171" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M171" t="n">
-        <v>23945</v>
+        <v>30000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>958</v>
+        <v>1200</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44518</v>
+        <v>44237</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,29 +12741,29 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K172" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L172" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M172" t="n">
-        <v>34150</v>
+        <v>23875</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>1366</v>
+        <v>955</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44245</v>
+        <v>44237</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>680</v>
+        <v>550</v>
       </c>
       <c r="K173" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L173" t="n">
         <v>25000</v>
       </c>
-      <c r="L173" t="n">
-        <v>30000</v>
-      </c>
       <c r="M173" t="n">
-        <v>26691</v>
+        <v>23945</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12831,11 +12831,11 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>1068</v>
+        <v>958</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44245</v>
+        <v>44518</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,29 +12885,29 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>1350</v>
+        <v>400</v>
       </c>
       <c r="K174" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L174" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M174" t="n">
-        <v>25889</v>
+        <v>34150</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1036</v>
+        <v>1366</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>150</v>
+        <v>680</v>
       </c>
       <c r="K175" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L175" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M175" t="n">
-        <v>20000</v>
+        <v>26691</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>800</v>
+        <v>1068</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>150</v>
+        <v>1350</v>
       </c>
       <c r="K176" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L176" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M176" t="n">
-        <v>22000</v>
+        <v>25889</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>880</v>
+        <v>1036</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44323</v>
+        <v>44245</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="K177" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L177" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M177" t="n">
-        <v>23897</v>
+        <v>20000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>956</v>
+        <v>800</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44229</v>
+        <v>44245</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="K178" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="L178" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M178" t="n">
-        <v>33909</v>
+        <v>22000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1356</v>
+        <v>880</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44229</v>
+        <v>44323</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="K179" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L179" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M179" t="n">
-        <v>33791</v>
+        <v>23897</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1352</v>
+        <v>956</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44249</v>
+        <v>44229</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K180" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L180" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M180" t="n">
-        <v>25850</v>
+        <v>33909</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1034</v>
+        <v>1356</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44249</v>
+        <v>44229</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>600</v>
+        <v>430</v>
       </c>
       <c r="K181" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L181" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M181" t="n">
-        <v>25933</v>
+        <v>33791</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>1037</v>
+        <v>1352</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44523</v>
+        <v>44249</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,32 +13461,32 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="K182" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L182" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M182" t="n">
-        <v>35947</v>
+        <v>25850</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>2396</v>
+        <v>1034</v>
       </c>
       <c r="Q182" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44523</v>
+        <v>44249</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,29 +13533,29 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K183" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L183" t="n">
-        <v>50000</v>
+        <v>27000</v>
       </c>
       <c r="M183" t="n">
-        <v>48000</v>
+        <v>25933</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1920</v>
+        <v>1037</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44259</v>
+        <v>44523</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,20 +13605,20 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>350</v>
+        <v>95</v>
       </c>
       <c r="K184" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L184" t="n">
-        <v>26000</v>
+        <v>37000</v>
       </c>
       <c r="M184" t="n">
-        <v>25514</v>
+        <v>35947</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>1021</v>
+        <v>2396</v>
       </c>
       <c r="Q184" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44259</v>
+        <v>44523</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,29 +13677,29 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K185" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="L185" t="n">
-        <v>27000</v>
+        <v>50000</v>
       </c>
       <c r="M185" t="n">
-        <v>25850</v>
+        <v>48000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1034</v>
+        <v>1920</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>610</v>
+        <v>350</v>
       </c>
       <c r="K186" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L186" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M186" t="n">
-        <v>23852</v>
+        <v>25514</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>954</v>
+        <v>1021</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="K187" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L187" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M187" t="n">
-        <v>24028</v>
+        <v>25850</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>961</v>
+        <v>1034</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44295</v>
+        <v>44216</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13893,7 +13893,7 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K188" t="n">
         <v>23000</v>
@@ -13902,7 +13902,7 @@
         <v>25000</v>
       </c>
       <c r="M188" t="n">
-        <v>24150</v>
+        <v>23852</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="K189" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L189" t="n">
         <v>25000</v>
       </c>
       <c r="M189" t="n">
-        <v>25000</v>
+        <v>24028</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>1000</v>
+        <v>961</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44270</v>
+        <v>44295</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K190" t="n">
         <v>23000</v>
       </c>
       <c r="L190" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M190" t="n">
-        <v>23000</v>
+        <v>24150</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>920</v>
+        <v>966</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44299</v>
+        <v>44270</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>1080</v>
+        <v>200</v>
       </c>
       <c r="K191" t="n">
         <v>25000</v>
       </c>
       <c r="L191" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M191" t="n">
-        <v>25833</v>
+        <v>25000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1033</v>
+        <v>1000</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="K192" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L192" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M192" t="n">
-        <v>26833</v>
+        <v>23000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1073</v>
+        <v>920</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44257</v>
+        <v>44299</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="K193" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L193" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M193" t="n">
-        <v>27636</v>
+        <v>25833</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1105</v>
+        <v>1033</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14328,13 +14328,13 @@
         <v>600</v>
       </c>
       <c r="K194" t="n">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="L194" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="M194" t="n">
-        <v>39233</v>
+        <v>26833</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1569</v>
+        <v>1073</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44195</v>
+        <v>44257</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,29 +14397,29 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>580</v>
+        <v>1100</v>
       </c>
       <c r="K195" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="L195" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M195" t="n">
-        <v>25897</v>
+        <v>27636</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1036</v>
+        <v>1105</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,29 +14469,29 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K196" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="L196" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="M196" t="n">
-        <v>26333</v>
+        <v>39233</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1053</v>
+        <v>1569</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14541,7 +14541,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>1300</v>
+        <v>580</v>
       </c>
       <c r="K197" t="n">
         <v>25000</v>
@@ -14550,7 +14550,7 @@
         <v>27000</v>
       </c>
       <c r="M197" t="n">
-        <v>26077</v>
+        <v>25897</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14616,13 +14616,13 @@
         <v>900</v>
       </c>
       <c r="K198" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L198" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M198" t="n">
-        <v>23889</v>
+        <v>26333</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>956</v>
+        <v>1053</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>120</v>
+        <v>1300</v>
       </c>
       <c r="K199" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L199" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M199" t="n">
-        <v>20000</v>
+        <v>26077</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14703,11 +14703,11 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>800</v>
+        <v>1043</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K200" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L200" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M200" t="n">
-        <v>20000</v>
+        <v>23889</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K201" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L201" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M201" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14847,11 +14847,11 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>920</v>
+        <v>800</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14919,7 +14919,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P202" t="n">
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44524</v>
+        <v>44195</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14969,24 +14969,24 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="K203" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L203" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M203" t="n">
-        <v>34333</v>
+        <v>23000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14995,10 +14995,10 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>2289</v>
+        <v>920</v>
       </c>
       <c r="Q203" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15041,36 +15041,36 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K204" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L204" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="M204" t="n">
-        <v>30857</v>
+        <v>20000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>2057</v>
+        <v>800</v>
       </c>
       <c r="Q204" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,32 +15117,32 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="K205" t="n">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="L205" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="M205" t="n">
-        <v>37182</v>
+        <v>34333</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1487</v>
+        <v>2289</v>
       </c>
       <c r="Q205" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,32 +15189,32 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K206" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L206" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M206" t="n">
-        <v>24150</v>
+        <v>30857</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>966</v>
+        <v>2057</v>
       </c>
       <c r="Q206" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K207" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L207" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M207" t="n">
-        <v>23850</v>
+        <v>37182</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>954</v>
+        <v>1487</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K208" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L208" t="n">
         <v>25000</v>
       </c>
-      <c r="L208" t="n">
-        <v>27000</v>
-      </c>
       <c r="M208" t="n">
-        <v>26292</v>
+        <v>24150</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>1052</v>
+        <v>966</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K209" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L209" t="n">
         <v>25000</v>
       </c>
-      <c r="L209" t="n">
-        <v>26000</v>
-      </c>
       <c r="M209" t="n">
-        <v>25582</v>
+        <v>23850</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1023</v>
+        <v>954</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="K210" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L210" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M210" t="n">
-        <v>23923</v>
+        <v>26292</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>957</v>
+        <v>1052</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>790</v>
+        <v>550</v>
       </c>
       <c r="K211" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L211" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M211" t="n">
-        <v>24063</v>
+        <v>25582</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>963</v>
+        <v>1023</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K212" t="n">
         <v>23000</v>
@@ -15630,7 +15630,7 @@
         <v>25000</v>
       </c>
       <c r="M212" t="n">
-        <v>23857</v>
+        <v>23923</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15689,20 +15689,20 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>500</v>
+        <v>790</v>
       </c>
       <c r="K213" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L213" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M213" t="n">
-        <v>20000</v>
+        <v>24063</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>800</v>
+        <v>963</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>230</v>
+        <v>1400</v>
       </c>
       <c r="K214" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L214" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="M214" t="n">
-        <v>19000</v>
+        <v>23857</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15783,11 +15783,11 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>760</v>
+        <v>954</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K215" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L215" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M215" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>700</v>
+        <v>230</v>
       </c>
       <c r="K216" t="n">
-        <v>32000</v>
+        <v>19000</v>
       </c>
       <c r="L216" t="n">
-        <v>34000</v>
+        <v>19000</v>
       </c>
       <c r="M216" t="n">
-        <v>33000</v>
+        <v>19000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>1320</v>
+        <v>760</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15977,20 +15977,20 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>880</v>
+        <v>700</v>
       </c>
       <c r="K217" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L217" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="M217" t="n">
-        <v>31000</v>
+        <v>18000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>1240</v>
+        <v>720</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,7 +16053,7 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>810</v>
+        <v>700</v>
       </c>
       <c r="K218" t="n">
         <v>32000</v>
@@ -16062,23 +16062,23 @@
         <v>34000</v>
       </c>
       <c r="M218" t="n">
-        <v>33136</v>
+        <v>33000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>2209</v>
+        <v>1320</v>
       </c>
       <c r="Q218" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>660</v>
+        <v>880</v>
       </c>
       <c r="K219" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L219" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="M219" t="n">
-        <v>36348</v>
+        <v>31000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16143,11 +16143,11 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1454</v>
+        <v>1240</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16197,32 +16197,32 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>490</v>
+        <v>810</v>
       </c>
       <c r="K220" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L220" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="M220" t="n">
-        <v>36061</v>
+        <v>33136</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1442</v>
+        <v>2209</v>
       </c>
       <c r="Q220" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44301</v>
+        <v>44176</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>400</v>
+        <v>660</v>
       </c>
       <c r="K221" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L221" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M221" t="n">
-        <v>24150</v>
+        <v>36348</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>966</v>
+        <v>1454</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44301</v>
+        <v>44176</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="K222" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="L222" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="M222" t="n">
-        <v>23172</v>
+        <v>36061</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16359,11 +16359,11 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>927</v>
+        <v>1442</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44284</v>
+        <v>44301</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K223" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L223" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M223" t="n">
-        <v>27600</v>
+        <v>24150</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>1104</v>
+        <v>966</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44279</v>
+        <v>44301</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K224" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L224" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M224" t="n">
-        <v>27425</v>
+        <v>23172</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16503,11 +16503,11 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>1097</v>
+        <v>927</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="K225" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L225" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M225" t="n">
-        <v>26125</v>
+        <v>27600</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1045</v>
+        <v>1104</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K226" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L226" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M226" t="n">
-        <v>25852</v>
+        <v>27425</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1034</v>
+        <v>1097</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,29 +16701,29 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K227" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L227" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M227" t="n">
-        <v>32000</v>
+        <v>26125</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1280</v>
+        <v>1045</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44312</v>
+        <v>44341</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="K228" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L228" t="n">
         <v>27000</v>
       </c>
-      <c r="L228" t="n">
-        <v>30000</v>
-      </c>
       <c r="M228" t="n">
-        <v>28745</v>
+        <v>25852</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1150</v>
+        <v>1034</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44329</v>
+        <v>44504</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K229" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L229" t="n">
         <v>35000</v>
       </c>
       <c r="M229" t="n">
-        <v>34150</v>
+        <v>32000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16863,11 +16863,11 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1366</v>
+        <v>1280</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44522</v>
+        <v>44312</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,32 +16917,32 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>95</v>
+        <v>550</v>
       </c>
       <c r="K230" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L230" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M230" t="n">
-        <v>24053</v>
+        <v>28745</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1604</v>
+        <v>1150</v>
       </c>
       <c r="Q230" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44246</v>
+        <v>44329</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,29 +16989,29 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="K231" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L231" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M231" t="n">
-        <v>25000</v>
+        <v>34150</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1000</v>
+        <v>1366</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,32 +17061,32 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="K232" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L232" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M232" t="n">
-        <v>22000</v>
+        <v>24053</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>880</v>
+        <v>1604</v>
       </c>
       <c r="Q232" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,29 +17133,29 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="K233" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L233" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M233" t="n">
-        <v>31974</v>
+        <v>25000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1279</v>
+        <v>1000</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>600</v>
+        <v>140</v>
       </c>
       <c r="K234" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L234" t="n">
         <v>22000</v>
       </c>
       <c r="M234" t="n">
-        <v>21233</v>
+        <v>22000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>849</v>
+        <v>880</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,29 +17277,29 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="K235" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L235" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M235" t="n">
-        <v>21080</v>
+        <v>31974</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>843</v>
+        <v>1279</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,32 +17349,32 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="K236" t="n">
-        <v>36000</v>
+        <v>20000</v>
       </c>
       <c r="L236" t="n">
-        <v>38000</v>
+        <v>22000</v>
       </c>
       <c r="M236" t="n">
-        <v>37209</v>
+        <v>21233</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>2481</v>
+        <v>849</v>
       </c>
       <c r="Q236" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44225</v>
+        <v>44272</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K237" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L237" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M237" t="n">
-        <v>27969</v>
+        <v>21080</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1119</v>
+        <v>843</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,32 +17493,32 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K238" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L238" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M238" t="n">
-        <v>24150</v>
+        <v>37209</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>966</v>
+        <v>2481</v>
       </c>
       <c r="Q238" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>430</v>
+        <v>1600</v>
       </c>
       <c r="K239" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L239" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M239" t="n">
-        <v>20000</v>
+        <v>27969</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>800</v>
+        <v>1119</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17633,20 +17633,20 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K240" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L240" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M240" t="n">
-        <v>18000</v>
+        <v>24150</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>720</v>
+        <v>966</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44315</v>
+        <v>44225</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17705,24 +17705,24 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="K241" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L241" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M241" t="n">
-        <v>24561</v>
+        <v>20000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>982</v>
+        <v>800</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44315</v>
+        <v>44225</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="K242" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L242" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="M242" t="n">
-        <v>25867</v>
+        <v>18000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>1035</v>
+        <v>720</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17849,24 +17849,24 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>95</v>
+        <v>410</v>
       </c>
       <c r="K243" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L243" t="n">
         <v>25000</v>
       </c>
-      <c r="L243" t="n">
-        <v>27000</v>
-      </c>
       <c r="M243" t="n">
-        <v>25947</v>
+        <v>24561</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1038</v>
+        <v>982</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44495</v>
+        <v>44315</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17928,26 +17928,26 @@
         <v>600</v>
       </c>
       <c r="K244" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L244" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M244" t="n">
-        <v>34167</v>
+        <v>25867</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1367</v>
+        <v>1035</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44232</v>
+        <v>44348</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17993,33 +17993,33 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>400</v>
+        <v>95</v>
       </c>
       <c r="K245" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L245" t="n">
-        <v>250000</v>
+        <v>27000</v>
       </c>
       <c r="M245" t="n">
-        <v>112500</v>
+        <v>25947</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>4500</v>
+        <v>1038</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,29 +18069,29 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K246" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L246" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M246" t="n">
-        <v>24038</v>
+        <v>34167</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>962</v>
+        <v>1367</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K247" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L247" t="n">
-        <v>20000</v>
+        <v>250000</v>
       </c>
       <c r="M247" t="n">
-        <v>20000</v>
+        <v>112500</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="Q247" t="n">
         <v>25</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,29 +18213,29 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="K248" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="L248" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M248" t="n">
-        <v>34200</v>
+        <v>24038</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1368</v>
+        <v>962</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18281,33 +18281,33 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K249" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L249" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="M249" t="n">
-        <v>30850</v>
+        <v>20000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1234</v>
+        <v>800</v>
       </c>
       <c r="Q249" t="n">
         <v>25</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K250" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L250" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M250" t="n">
-        <v>30850</v>
+        <v>34200</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1234</v>
+        <v>1368</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18425,33 +18425,33 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K251" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L251" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M251" t="n">
-        <v>25000</v>
+        <v>30850</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1000</v>
+        <v>1234</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18504,29 +18504,29 @@
         <v>400</v>
       </c>
       <c r="K252" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L252" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="M252" t="n">
-        <v>36150</v>
+        <v>30850</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>2410</v>
+        <v>1234</v>
       </c>
       <c r="Q252" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K253" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L253" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M253" t="n">
-        <v>32875</v>
+        <v>25000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1315</v>
+        <v>1000</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,7 +18645,7 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K254" t="n">
         <v>35000</v>
@@ -18654,23 +18654,23 @@
         <v>37000</v>
       </c>
       <c r="M254" t="n">
-        <v>36143</v>
+        <v>36150</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>1446</v>
+        <v>2410</v>
       </c>
       <c r="Q254" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="K255" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L255" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M255" t="n">
-        <v>26053</v>
+        <v>32875</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>1042</v>
+        <v>1315</v>
       </c>
       <c r="Q255" t="n">
         <v>25</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,29 +18789,29 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>490</v>
+        <v>280</v>
       </c>
       <c r="K256" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L256" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="M256" t="n">
-        <v>26061</v>
+        <v>36143</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1042</v>
+        <v>1446</v>
       </c>
       <c r="Q256" t="n">
         <v>25</v>
@@ -18861,29 +18861,29 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="K257" t="n">
         <v>25000</v>
       </c>
       <c r="L257" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="M257" t="n">
-        <v>25400</v>
+        <v>26053</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1016</v>
+        <v>1042</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,29 +18933,29 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="K258" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L258" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M258" t="n">
-        <v>18836</v>
+        <v>26061</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>753</v>
+        <v>1042</v>
       </c>
       <c r="Q258" t="n">
         <v>25</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K259" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L259" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M259" t="n">
-        <v>20800</v>
+        <v>25400</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19023,11 +19023,11 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>832</v>
+        <v>1016</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19077,29 +19077,29 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K260" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L260" t="n">
         <v>20000</v>
       </c>
-      <c r="L260" t="n">
-        <v>22000</v>
-      </c>
       <c r="M260" t="n">
-        <v>21150</v>
+        <v>18836</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>846</v>
+        <v>753</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K261" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L261" t="n">
         <v>22000</v>
       </c>
       <c r="M261" t="n">
-        <v>20500</v>
+        <v>20800</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19167,11 +19167,11 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19217,33 +19217,33 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="K262" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L262" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M262" t="n">
-        <v>15000</v>
+        <v>21150</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>600</v>
+        <v>846</v>
       </c>
       <c r="Q262" t="n">
         <v>25</v>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="K263" t="n">
         <v>18000</v>
       </c>
       <c r="L263" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M263" t="n">
-        <v>18000</v>
+        <v>20500</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19311,11 +19311,11 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Q263" t="n">
         <v>25</v>
@@ -19365,29 +19365,29 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K264" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L264" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M264" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="Q264" t="n">
         <v>25</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="K265" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L265" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M265" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="Q265" t="n">
         <v>25</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19505,20 +19505,20 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K266" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L266" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="M266" t="n">
-        <v>25850</v>
+        <v>17000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>1034</v>
+        <v>680</v>
       </c>
       <c r="Q266" t="n">
         <v>25</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19577,20 +19577,20 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K267" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="L267" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="M267" t="n">
-        <v>26850</v>
+        <v>15000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>1074</v>
+        <v>600</v>
       </c>
       <c r="Q267" t="n">
         <v>25</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44330</v>
+        <v>44251</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19656,26 +19656,26 @@
         <v>400</v>
       </c>
       <c r="K268" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L268" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="M268" t="n">
-        <v>36275</v>
+        <v>25850</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>1451</v>
+        <v>1034</v>
       </c>
       <c r="Q268" t="n">
         <v>25</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19728,29 +19728,29 @@
         <v>400</v>
       </c>
       <c r="K269" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="L269" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M269" t="n">
-        <v>20850</v>
+        <v>26850</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1390</v>
+        <v>1074</v>
       </c>
       <c r="Q269" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44181</v>
+        <v>44330</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="K270" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L270" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="M270" t="n">
-        <v>28280</v>
+        <v>36275</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19815,11 +19815,11 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>1131</v>
+        <v>1451</v>
       </c>
       <c r="Q270" t="n">
         <v>25</v>
@@ -19872,29 +19872,29 @@
         <v>400</v>
       </c>
       <c r="K271" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L271" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M271" t="n">
-        <v>24150</v>
+        <v>20850</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>966</v>
+        <v>1390</v>
       </c>
       <c r="Q271" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19941,29 +19941,29 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K272" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L272" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M272" t="n">
-        <v>25850</v>
+        <v>28280</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>1034</v>
+        <v>1131</v>
       </c>
       <c r="Q272" t="n">
         <v>25</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,20 +20013,20 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K273" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L273" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M273" t="n">
-        <v>28400</v>
+        <v>24150</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>1136</v>
+        <v>966</v>
       </c>
       <c r="Q273" t="n">
         <v>25</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,20 +20085,20 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K274" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L274" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M274" t="n">
-        <v>28333</v>
+        <v>25850</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>1133</v>
+        <v>1034</v>
       </c>
       <c r="Q274" t="n">
         <v>25</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="K275" t="n">
         <v>26000</v>
       </c>
       <c r="L275" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M275" t="n">
-        <v>27143</v>
+        <v>28400</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20175,11 +20175,11 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>1086</v>
+        <v>1136</v>
       </c>
       <c r="Q275" t="n">
         <v>25</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K276" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L276" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="M276" t="n">
-        <v>24000</v>
+        <v>28333</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20247,11 +20247,11 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>960</v>
+        <v>1133</v>
       </c>
       <c r="Q276" t="n">
         <v>25</v>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>150</v>
+        <v>1400</v>
       </c>
       <c r="K277" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L277" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M277" t="n">
-        <v>24000</v>
+        <v>27143</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20319,11 +20319,11 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>960</v>
+        <v>1086</v>
       </c>
       <c r="Q277" t="n">
         <v>25</v>
@@ -20373,7 +20373,7 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K278" t="n">
         <v>24000</v>
@@ -20391,7 +20391,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P278" t="n">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20441,33 +20441,33 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>630</v>
+        <v>150</v>
       </c>
       <c r="K279" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L279" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M279" t="n">
-        <v>21143</v>
+        <v>24000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>846</v>
+        <v>960</v>
       </c>
       <c r="Q279" t="n">
         <v>25</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44307</v>
+        <v>44194</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20513,33 +20513,33 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K280" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L280" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M280" t="n">
-        <v>28714</v>
+        <v>24000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>1149</v>
+        <v>960</v>
       </c>
       <c r="Q280" t="n">
         <v>25</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="K281" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L281" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M281" t="n">
-        <v>25807</v>
+        <v>21143</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>1032</v>
+        <v>846</v>
       </c>
       <c r="Q281" t="n">
         <v>25</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,7 +20661,7 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K282" t="n">
         <v>27000</v>
@@ -20670,7 +20670,7 @@
         <v>30000</v>
       </c>
       <c r="M282" t="n">
-        <v>28275</v>
+        <v>28714</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>1131</v>
+        <v>1149</v>
       </c>
       <c r="Q282" t="n">
         <v>25</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44201</v>
+        <v>44307</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,29 +20733,29 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>440</v>
+        <v>570</v>
       </c>
       <c r="K283" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L283" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M283" t="n">
-        <v>23545</v>
+        <v>25807</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>942</v>
+        <v>1032</v>
       </c>
       <c r="Q283" t="n">
         <v>25</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K284" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L284" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M284" t="n">
-        <v>23667</v>
+        <v>28275</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>947</v>
+        <v>1131</v>
       </c>
       <c r="Q284" t="n">
         <v>25</v>
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>580</v>
+        <v>440</v>
       </c>
       <c r="K285" t="n">
         <v>23000</v>
@@ -20886,20 +20886,20 @@
         <v>25000</v>
       </c>
       <c r="M285" t="n">
-        <v>23897</v>
+        <v>23545</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="Q285" t="n">
         <v>25</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K286" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L286" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M286" t="n">
-        <v>22571</v>
+        <v>23667</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20967,11 +20967,11 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>903</v>
+        <v>947</v>
       </c>
       <c r="Q286" t="n">
         <v>25</v>
@@ -21017,33 +21017,33 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="K287" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L287" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M287" t="n">
-        <v>20000</v>
+        <v>23897</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="Q287" t="n">
         <v>25</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K288" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L288" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M288" t="n">
-        <v>20000</v>
+        <v>22571</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21111,11 +21111,11 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>800</v>
+        <v>903</v>
       </c>
       <c r="Q288" t="n">
         <v>25</v>
@@ -21165,29 +21165,29 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K289" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L289" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M289" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q289" t="n">
         <v>25</v>
@@ -21237,34 +21237,178 @@
         </is>
       </c>
       <c r="J290" t="n">
+        <v>100</v>
+      </c>
+      <c r="K290" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L290" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M290" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P290" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>25</v>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>6</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D291" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E291" t="n">
+        <v>13</v>
+      </c>
+      <c r="F291" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J291" t="n">
+        <v>180</v>
+      </c>
+      <c r="K291" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L291" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M291" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P291" t="n">
+        <v>720</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>25</v>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>6</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D292" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E292" t="n">
+        <v>13</v>
+      </c>
+      <c r="F292" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J292" t="n">
         <v>150</v>
       </c>
-      <c r="K290" t="n">
+      <c r="K292" t="n">
         <v>18000</v>
       </c>
-      <c r="L290" t="n">
+      <c r="L292" t="n">
         <v>18000</v>
       </c>
-      <c r="M290" t="n">
+      <c r="M292" t="n">
         <v>18000</v>
       </c>
-      <c r="N290" t="inlineStr">
+      <c r="N292" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O290" t="inlineStr">
+      <c r="O292" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P290" t="n">
+      <c r="P292" t="n">
         <v>720</v>
       </c>
-      <c r="Q290" t="n">
-        <v>25</v>
-      </c>
-      <c r="R290" t="inlineStr">
+      <c r="Q292" t="n">
+        <v>25</v>
+      </c>
+      <c r="R292" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R292"/>
+  <dimension ref="A1:R294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44286</v>
+        <v>44526</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6261,29 +6261,29 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="K82" t="n">
-        <v>17000</v>
+        <v>45000</v>
       </c>
       <c r="L82" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M82" t="n">
-        <v>22675</v>
+        <v>47917</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>907</v>
+        <v>1917</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44286</v>
+        <v>44526</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6333,29 +6333,29 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K83" t="n">
-        <v>15000</v>
+        <v>55000</v>
       </c>
       <c r="L83" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="M83" t="n">
-        <v>18308</v>
+        <v>57125</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>732</v>
+        <v>2285</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="K84" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L84" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M84" t="n">
-        <v>20125</v>
+        <v>22675</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>805</v>
+        <v>907</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44186</v>
+        <v>44286</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6477,32 +6477,32 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>290</v>
+        <v>520</v>
       </c>
       <c r="K85" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L85" t="n">
         <v>20000</v>
       </c>
-      <c r="L85" t="n">
-        <v>22000</v>
-      </c>
       <c r="M85" t="n">
-        <v>20897</v>
+        <v>18308</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1393</v>
+        <v>732</v>
       </c>
       <c r="Q85" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44186</v>
+        <v>44286</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K86" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L86" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M86" t="n">
-        <v>30767</v>
+        <v>20125</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1231</v>
+        <v>805</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44497</v>
+        <v>44186</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6621,32 +6621,32 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>520</v>
+        <v>290</v>
       </c>
       <c r="K87" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L87" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M87" t="n">
-        <v>34038</v>
+        <v>20897</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1362</v>
+        <v>1393</v>
       </c>
       <c r="Q87" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44298</v>
+        <v>44186</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K88" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L88" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M88" t="n">
-        <v>26080</v>
+        <v>30767</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1043</v>
+        <v>1231</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44250</v>
+        <v>44497</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -6765,29 +6765,29 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K89" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L89" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M89" t="n">
-        <v>25850</v>
+        <v>34038</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1034</v>
+        <v>1362</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44250</v>
+        <v>44298</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6837,7 +6837,7 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K90" t="n">
         <v>25000</v>
@@ -6846,7 +6846,7 @@
         <v>27000</v>
       </c>
       <c r="M90" t="n">
-        <v>26150</v>
+        <v>26080</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6855,11 +6855,11 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44218</v>
+        <v>44250</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6909,7 +6909,7 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K91" t="n">
         <v>25000</v>
@@ -6918,7 +6918,7 @@
         <v>27000</v>
       </c>
       <c r="M91" t="n">
-        <v>25951</v>
+        <v>25850</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44218</v>
+        <v>44250</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K92" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L92" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M92" t="n">
-        <v>24103</v>
+        <v>26150</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>964</v>
+        <v>1046</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44328</v>
+        <v>44218</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7053,29 +7053,29 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>200</v>
+        <v>610</v>
       </c>
       <c r="K93" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L93" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M93" t="n">
-        <v>35800</v>
+        <v>25951</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1432</v>
+        <v>1038</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44328</v>
+        <v>44218</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="K94" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L94" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M94" t="n">
-        <v>33667</v>
+        <v>24103</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7143,11 +7143,11 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1347</v>
+        <v>964</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44277</v>
+        <v>44328</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7197,29 +7197,29 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K95" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L95" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M95" t="n">
-        <v>28275</v>
+        <v>35800</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1131</v>
+        <v>1432</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44516</v>
+        <v>44328</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7269,29 +7269,29 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K96" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L96" t="n">
         <v>35000</v>
       </c>
       <c r="M96" t="n">
-        <v>32000</v>
+        <v>33667</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1280</v>
+        <v>1347</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44175</v>
+        <v>44277</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7341,32 +7341,32 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K97" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L97" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M97" t="n">
-        <v>23897</v>
+        <v>28275</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1593</v>
+        <v>1131</v>
       </c>
       <c r="Q97" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44175</v>
+        <v>44516</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="K98" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L98" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M98" t="n">
-        <v>24071</v>
+        <v>32000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>963</v>
+        <v>1280</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7485,32 +7485,32 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="K99" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L99" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M99" t="n">
-        <v>23164</v>
+        <v>23897</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>927</v>
+        <v>1593</v>
       </c>
       <c r="Q99" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7557,29 +7557,29 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>610</v>
+        <v>1400</v>
       </c>
       <c r="K100" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L100" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M100" t="n">
-        <v>22475</v>
+        <v>24071</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>899</v>
+        <v>963</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7625,24 +7625,24 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="K101" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L101" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M101" t="n">
-        <v>20000</v>
+        <v>23164</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>800</v>
+        <v>927</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>170</v>
+        <v>610</v>
       </c>
       <c r="K102" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L102" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M102" t="n">
-        <v>18000</v>
+        <v>22475</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>720</v>
+        <v>899</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44168</v>
+        <v>44175</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K103" t="n">
-        <v>36000</v>
+        <v>20000</v>
       </c>
       <c r="L103" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="M103" t="n">
-        <v>36575</v>
+        <v>20000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1463</v>
+        <v>800</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44168</v>
+        <v>44175</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="K104" t="n">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="L104" t="n">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="M104" t="n">
-        <v>36575</v>
+        <v>18000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7863,11 +7863,11 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1463</v>
+        <v>720</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="K105" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="L105" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="M105" t="n">
-        <v>32000</v>
+        <v>36575</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1280</v>
+        <v>1463</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44203</v>
+        <v>44168</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K106" t="n">
-        <v>17000</v>
+        <v>36000</v>
       </c>
       <c r="L106" t="n">
-        <v>20000</v>
+        <v>37000</v>
       </c>
       <c r="M106" t="n">
-        <v>18523</v>
+        <v>36575</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>741</v>
+        <v>1463</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44203</v>
+        <v>44168</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8057,33 +8057,33 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="K107" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="L107" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="M107" t="n">
-        <v>18850</v>
+        <v>32000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>754</v>
+        <v>1280</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="K108" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L108" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M108" t="n">
-        <v>15000</v>
+        <v>18523</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>600</v>
+        <v>741</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K109" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L109" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M109" t="n">
-        <v>15000</v>
+        <v>18850</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>600</v>
+        <v>754</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44217</v>
+        <v>44203</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1460</v>
+        <v>150</v>
       </c>
       <c r="K110" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L110" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="M110" t="n">
-        <v>25137</v>
+        <v>15000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1005</v>
+        <v>600</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44217</v>
+        <v>44203</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>610</v>
+        <v>120</v>
       </c>
       <c r="K111" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L111" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="M111" t="n">
-        <v>25049</v>
+        <v>15000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1002</v>
+        <v>600</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>350</v>
+        <v>1460</v>
       </c>
       <c r="K112" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L112" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M112" t="n">
-        <v>22000</v>
+        <v>25137</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>880</v>
+        <v>1005</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>230</v>
+        <v>610</v>
       </c>
       <c r="K113" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L113" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M113" t="n">
-        <v>20000</v>
+        <v>25049</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>800</v>
+        <v>1002</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44235</v>
+        <v>44217</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="K114" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L114" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M114" t="n">
-        <v>23833</v>
+        <v>22000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>953</v>
+        <v>880</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44200</v>
+        <v>44217</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8633,33 +8633,33 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="K115" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L115" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M115" t="n">
-        <v>24150</v>
+        <v>20000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>966</v>
+        <v>800</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44200</v>
+        <v>44235</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8709,7 +8709,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="K116" t="n">
         <v>23000</v>
@@ -8718,20 +8718,20 @@
         <v>25000</v>
       </c>
       <c r="M116" t="n">
-        <v>24103</v>
+        <v>23833</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8781,20 +8781,20 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K117" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L117" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M117" t="n">
-        <v>21769</v>
+        <v>24150</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>871</v>
+        <v>966</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8853,29 +8853,29 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1350</v>
+        <v>580</v>
       </c>
       <c r="K118" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L118" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M118" t="n">
-        <v>21444</v>
+        <v>24103</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>858</v>
+        <v>964</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44244</v>
+        <v>44200</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="K119" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L119" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M119" t="n">
-        <v>25850</v>
+        <v>21769</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1034</v>
+        <v>871</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44244</v>
+        <v>44200</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>400</v>
+        <v>1350</v>
       </c>
       <c r="K120" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L120" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M120" t="n">
-        <v>25850</v>
+        <v>21444</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1034</v>
+        <v>858</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44202</v>
+        <v>44244</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>830</v>
+        <v>400</v>
       </c>
       <c r="K121" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L121" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M121" t="n">
-        <v>24108</v>
+        <v>25850</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>964</v>
+        <v>1034</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44202</v>
+        <v>44244</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1380</v>
+        <v>400</v>
       </c>
       <c r="K122" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L122" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M122" t="n">
-        <v>23913</v>
+        <v>25850</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>957</v>
+        <v>1034</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9213,7 +9213,7 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1400</v>
+        <v>830</v>
       </c>
       <c r="K123" t="n">
         <v>23000</v>
@@ -9222,7 +9222,7 @@
         <v>25000</v>
       </c>
       <c r="M123" t="n">
-        <v>23929</v>
+        <v>24108</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44320</v>
+        <v>44202</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9285,7 +9285,7 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>550</v>
+        <v>1380</v>
       </c>
       <c r="K124" t="n">
         <v>23000</v>
@@ -9294,7 +9294,7 @@
         <v>25000</v>
       </c>
       <c r="M124" t="n">
-        <v>23836</v>
+        <v>23913</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44252</v>
+        <v>44202</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K125" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L125" t="n">
         <v>25000</v>
       </c>
-      <c r="L125" t="n">
-        <v>27000</v>
-      </c>
       <c r="M125" t="n">
-        <v>25850</v>
+        <v>23929</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1034</v>
+        <v>957</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44252</v>
+        <v>44320</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1080</v>
+        <v>550</v>
       </c>
       <c r="K126" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L126" t="n">
         <v>25000</v>
       </c>
-      <c r="L126" t="n">
-        <v>27000</v>
-      </c>
       <c r="M126" t="n">
-        <v>26167</v>
+        <v>23836</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1047</v>
+        <v>953</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44264</v>
+        <v>44252</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="K127" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L127" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M127" t="n">
-        <v>20000</v>
+        <v>25850</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>800</v>
+        <v>1034</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44264</v>
+        <v>44252</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>650</v>
+        <v>1080</v>
       </c>
       <c r="K128" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L128" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="M128" t="n">
-        <v>17431</v>
+        <v>26167</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>697</v>
+        <v>1047</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44214</v>
+        <v>44264</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1050</v>
+        <v>570</v>
       </c>
       <c r="K129" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L129" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M129" t="n">
-        <v>28286</v>
+        <v>20000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1131</v>
+        <v>800</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44167</v>
+        <v>44264</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="K130" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="L130" t="n">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="M130" t="n">
-        <v>35897</v>
+        <v>17431</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1436</v>
+        <v>697</v>
       </c>
       <c r="Q130" t="n">
         <v>25</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44167</v>
+        <v>44214</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>610</v>
+        <v>1050</v>
       </c>
       <c r="K131" t="n">
-        <v>43000</v>
+        <v>26000</v>
       </c>
       <c r="L131" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M131" t="n">
-        <v>44148</v>
+        <v>28286</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1766</v>
+        <v>1131</v>
       </c>
       <c r="Q131" t="n">
         <v>25</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44291</v>
+        <v>44167</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1500</v>
+        <v>580</v>
       </c>
       <c r="K132" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L132" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="M132" t="n">
-        <v>23600</v>
+        <v>35897</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>944</v>
+        <v>1436</v>
       </c>
       <c r="Q132" t="n">
         <v>25</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44174</v>
+        <v>44167</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9933,32 +9933,32 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>710</v>
+        <v>610</v>
       </c>
       <c r="K133" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="L133" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="M133" t="n">
-        <v>26211</v>
+        <v>44148</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>1747</v>
+        <v>1766</v>
       </c>
       <c r="Q133" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44174</v>
+        <v>44291</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K134" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L134" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M134" t="n">
-        <v>29150</v>
+        <v>23600</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1166</v>
+        <v>944</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>120</v>
+        <v>710</v>
       </c>
       <c r="K135" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L135" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M135" t="n">
-        <v>23000</v>
+        <v>26211</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>1533</v>
+        <v>1747</v>
       </c>
       <c r="Q135" t="n">
         <v>15</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K136" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L136" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M136" t="n">
-        <v>25000</v>
+        <v>29150</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1000</v>
+        <v>1166</v>
       </c>
       <c r="Q136" t="n">
         <v>25</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44293</v>
+        <v>44174</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10217,36 +10217,36 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="K137" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L137" t="n">
         <v>23000</v>
       </c>
       <c r="M137" t="n">
-        <v>22553</v>
+        <v>23000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>902</v>
+        <v>1533</v>
       </c>
       <c r="Q137" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44293</v>
+        <v>44174</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K138" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L138" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M138" t="n">
-        <v>18867</v>
+        <v>25000</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>755</v>
+        <v>1000</v>
       </c>
       <c r="Q138" t="n">
         <v>25</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44496</v>
+        <v>44293</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10365,29 +10365,29 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>530</v>
+        <v>380</v>
       </c>
       <c r="K139" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="L139" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="M139" t="n">
-        <v>37170</v>
+        <v>22553</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>1487</v>
+        <v>902</v>
       </c>
       <c r="Q139" t="n">
         <v>25</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44302</v>
+        <v>44293</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>790</v>
+        <v>300</v>
       </c>
       <c r="K140" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="L140" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M140" t="n">
-        <v>26532</v>
+        <v>18867</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10455,11 +10455,11 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>1061</v>
+        <v>755</v>
       </c>
       <c r="Q140" t="n">
         <v>25</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44292</v>
+        <v>44496</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,29 +10509,29 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="K141" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="L141" t="n">
-        <v>21000</v>
+        <v>40000</v>
       </c>
       <c r="M141" t="n">
-        <v>21000</v>
+        <v>37170</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>840</v>
+        <v>1487</v>
       </c>
       <c r="Q141" t="n">
         <v>25</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44292</v>
+        <v>44302</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>280</v>
+        <v>790</v>
       </c>
       <c r="K142" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L142" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="M142" t="n">
-        <v>18464</v>
+        <v>26532</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10599,11 +10599,11 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>739</v>
+        <v>1061</v>
       </c>
       <c r="Q142" t="n">
         <v>25</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44308</v>
+        <v>44292</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,29 +10653,29 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K143" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="L143" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="M143" t="n">
-        <v>27575</v>
+        <v>21000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>1103</v>
+        <v>840</v>
       </c>
       <c r="Q143" t="n">
         <v>25</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44308</v>
+        <v>44292</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K144" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="L144" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="M144" t="n">
-        <v>29150</v>
+        <v>18464</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>1166</v>
+        <v>739</v>
       </c>
       <c r="Q144" t="n">
         <v>25</v>
@@ -10800,26 +10800,26 @@
         <v>400</v>
       </c>
       <c r="K145" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L145" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M145" t="n">
-        <v>30850</v>
+        <v>27575</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>1234</v>
+        <v>1103</v>
       </c>
       <c r="Q145" t="n">
         <v>25</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44321</v>
+        <v>44308</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10872,13 +10872,13 @@
         <v>400</v>
       </c>
       <c r="K146" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L146" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M146" t="n">
-        <v>21275</v>
+        <v>29150</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>851</v>
+        <v>1166</v>
       </c>
       <c r="Q146" t="n">
         <v>25</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44208</v>
+        <v>44308</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10944,13 +10944,13 @@
         <v>400</v>
       </c>
       <c r="K147" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L147" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="M147" t="n">
-        <v>35850</v>
+        <v>30850</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>1434</v>
+        <v>1234</v>
       </c>
       <c r="Q147" t="n">
         <v>25</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44208</v>
+        <v>44321</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="K148" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L148" t="n">
-        <v>37000</v>
+        <v>23000</v>
       </c>
       <c r="M148" t="n">
-        <v>36061</v>
+        <v>21275</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>1442</v>
+        <v>851</v>
       </c>
       <c r="Q148" t="n">
         <v>25</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="K149" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L149" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M149" t="n">
-        <v>28871</v>
+        <v>35850</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1155</v>
+        <v>1434</v>
       </c>
       <c r="Q149" t="n">
         <v>25</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="K150" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L150" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M150" t="n">
-        <v>29587</v>
+        <v>36061</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1183</v>
+        <v>1442</v>
       </c>
       <c r="Q150" t="n">
         <v>25</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44204</v>
+        <v>44211</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,7 +11229,7 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="K151" t="n">
         <v>28000</v>
@@ -11238,20 +11238,20 @@
         <v>30000</v>
       </c>
       <c r="M151" t="n">
-        <v>29150</v>
+        <v>28871</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="Q151" t="n">
         <v>25</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44204</v>
+        <v>44211</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>1400</v>
+        <v>460</v>
       </c>
       <c r="K152" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L152" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M152" t="n">
-        <v>23929</v>
+        <v>29587</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>957</v>
+        <v>1183</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11373,29 +11373,29 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K153" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L153" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M153" t="n">
-        <v>25800</v>
+        <v>29150</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1032</v>
+        <v>1166</v>
       </c>
       <c r="Q153" t="n">
         <v>25</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>350</v>
+        <v>1400</v>
       </c>
       <c r="K154" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L154" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M154" t="n">
-        <v>20000</v>
+        <v>23929</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>800</v>
+        <v>957</v>
       </c>
       <c r="Q154" t="n">
         <v>25</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="K155" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L155" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M155" t="n">
-        <v>20000</v>
+        <v>25800</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>800</v>
+        <v>1032</v>
       </c>
       <c r="Q155" t="n">
         <v>25</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44260</v>
+        <v>44204</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="K156" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L156" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M156" t="n">
-        <v>25897</v>
+        <v>20000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1036</v>
+        <v>800</v>
       </c>
       <c r="Q156" t="n">
         <v>25</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44260</v>
+        <v>44204</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>810</v>
+        <v>350</v>
       </c>
       <c r="K157" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L157" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M157" t="n">
-        <v>25938</v>
+        <v>20000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1038</v>
+        <v>800</v>
       </c>
       <c r="Q157" t="n">
         <v>25</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44306</v>
+        <v>44260</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,7 +11733,7 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="K158" t="n">
         <v>25000</v>
@@ -11742,7 +11742,7 @@
         <v>27000</v>
       </c>
       <c r="M158" t="n">
-        <v>25905</v>
+        <v>25897</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44509</v>
+        <v>44260</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,29 +11805,29 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>400</v>
+        <v>810</v>
       </c>
       <c r="K159" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L159" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M159" t="n">
-        <v>32125</v>
+        <v>25938</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1285</v>
+        <v>1038</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="K160" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L160" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M160" t="n">
-        <v>33000</v>
+        <v>25905</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1320</v>
+        <v>1036</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44189</v>
+        <v>44509</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,7 +11949,7 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K161" t="n">
         <v>30000</v>
@@ -11958,20 +11958,20 @@
         <v>35000</v>
       </c>
       <c r="M161" t="n">
-        <v>32727</v>
+        <v>32125</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1309</v>
+        <v>1285</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K162" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L162" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M162" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1000</v>
+        <v>1320</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="K163" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L163" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M163" t="n">
-        <v>25000</v>
+        <v>32727</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1000</v>
+        <v>1309</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44278</v>
+        <v>44189</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>810</v>
+        <v>200</v>
       </c>
       <c r="K164" t="n">
         <v>25000</v>
       </c>
       <c r="L164" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M164" t="n">
-        <v>26136</v>
+        <v>25000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12183,11 +12183,11 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>1045</v>
+        <v>1000</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44278</v>
+        <v>44189</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>1030</v>
+        <v>150</v>
       </c>
       <c r="K165" t="n">
         <v>25000</v>
       </c>
       <c r="L165" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M165" t="n">
-        <v>25680</v>
+        <v>25000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>1027</v>
+        <v>1000</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44265</v>
+        <v>44278</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="K166" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L166" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M166" t="n">
-        <v>21333</v>
+        <v>26136</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12327,11 +12327,11 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>853</v>
+        <v>1045</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44300</v>
+        <v>44278</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>580</v>
+        <v>1030</v>
       </c>
       <c r="K167" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L167" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M167" t="n">
-        <v>24448</v>
+        <v>25680</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>978</v>
+        <v>1027</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44209</v>
+        <v>44265</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,29 +12453,29 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="K168" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L168" t="n">
-        <v>37000</v>
+        <v>22000</v>
       </c>
       <c r="M168" t="n">
-        <v>36150</v>
+        <v>21333</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>1446</v>
+        <v>853</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44209</v>
+        <v>44300</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>690</v>
+        <v>580</v>
       </c>
       <c r="K169" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="L169" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M169" t="n">
-        <v>33000</v>
+        <v>24448</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>1320</v>
+        <v>978</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12597,29 +12597,29 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>790</v>
+        <v>400</v>
       </c>
       <c r="K170" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L170" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M170" t="n">
-        <v>34063</v>
+        <v>36150</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>1363</v>
+        <v>1446</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>460</v>
+        <v>690</v>
       </c>
       <c r="K171" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L171" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M171" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12687,11 +12687,11 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44237</v>
+        <v>44209</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="K172" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="L172" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M172" t="n">
-        <v>23875</v>
+        <v>34063</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>955</v>
+        <v>1363</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44237</v>
+        <v>44209</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>550</v>
+        <v>460</v>
       </c>
       <c r="K173" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L173" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M173" t="n">
-        <v>23945</v>
+        <v>30000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>958</v>
+        <v>1200</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44518</v>
+        <v>44237</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,29 +12885,29 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K174" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L174" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M174" t="n">
-        <v>34150</v>
+        <v>23875</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1366</v>
+        <v>955</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44245</v>
+        <v>44237</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>680</v>
+        <v>550</v>
       </c>
       <c r="K175" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L175" t="n">
         <v>25000</v>
       </c>
-      <c r="L175" t="n">
-        <v>30000</v>
-      </c>
       <c r="M175" t="n">
-        <v>26691</v>
+        <v>23945</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>1068</v>
+        <v>958</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44245</v>
+        <v>44518</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,29 +13029,29 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>1350</v>
+        <v>400</v>
       </c>
       <c r="K176" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L176" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M176" t="n">
-        <v>25889</v>
+        <v>34150</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>1036</v>
+        <v>1366</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>150</v>
+        <v>680</v>
       </c>
       <c r="K177" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L177" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M177" t="n">
-        <v>20000</v>
+        <v>26691</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>800</v>
+        <v>1068</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>150</v>
+        <v>1350</v>
       </c>
       <c r="K178" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L178" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M178" t="n">
-        <v>22000</v>
+        <v>25889</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>880</v>
+        <v>1036</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44323</v>
+        <v>44245</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="K179" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L179" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M179" t="n">
-        <v>23897</v>
+        <v>20000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>956</v>
+        <v>800</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44229</v>
+        <v>44245</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="K180" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="L180" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M180" t="n">
-        <v>33909</v>
+        <v>22000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1356</v>
+        <v>880</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44229</v>
+        <v>44323</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="K181" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L181" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M181" t="n">
-        <v>33791</v>
+        <v>23897</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>1352</v>
+        <v>956</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44249</v>
+        <v>44229</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K182" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L182" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M182" t="n">
-        <v>25850</v>
+        <v>33909</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1034</v>
+        <v>1356</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44249</v>
+        <v>44229</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>600</v>
+        <v>430</v>
       </c>
       <c r="K183" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L183" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M183" t="n">
-        <v>25933</v>
+        <v>33791</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1037</v>
+        <v>1352</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44523</v>
+        <v>44249</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,32 +13605,32 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="K184" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L184" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M184" t="n">
-        <v>35947</v>
+        <v>25850</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>2396</v>
+        <v>1034</v>
       </c>
       <c r="Q184" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44523</v>
+        <v>44249</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,29 +13677,29 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K185" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L185" t="n">
-        <v>50000</v>
+        <v>27000</v>
       </c>
       <c r="M185" t="n">
-        <v>48000</v>
+        <v>25933</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1920</v>
+        <v>1037</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44259</v>
+        <v>44523</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,20 +13749,20 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>350</v>
+        <v>95</v>
       </c>
       <c r="K186" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L186" t="n">
-        <v>26000</v>
+        <v>37000</v>
       </c>
       <c r="M186" t="n">
-        <v>25514</v>
+        <v>35947</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -13771,10 +13771,10 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1021</v>
+        <v>2396</v>
       </c>
       <c r="Q186" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44259</v>
+        <v>44523</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,29 +13821,29 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K187" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="L187" t="n">
-        <v>27000</v>
+        <v>50000</v>
       </c>
       <c r="M187" t="n">
-        <v>25850</v>
+        <v>48000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1034</v>
+        <v>1920</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>610</v>
+        <v>350</v>
       </c>
       <c r="K188" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L188" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M188" t="n">
-        <v>23852</v>
+        <v>25514</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>954</v>
+        <v>1021</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="K189" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L189" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M189" t="n">
-        <v>24028</v>
+        <v>25850</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>961</v>
+        <v>1034</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44295</v>
+        <v>44216</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,7 +14037,7 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K190" t="n">
         <v>23000</v>
@@ -14046,7 +14046,7 @@
         <v>25000</v>
       </c>
       <c r="M190" t="n">
-        <v>24150</v>
+        <v>23852</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="K191" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L191" t="n">
         <v>25000</v>
       </c>
       <c r="M191" t="n">
-        <v>25000</v>
+        <v>24028</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1000</v>
+        <v>961</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44270</v>
+        <v>44295</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K192" t="n">
         <v>23000</v>
       </c>
       <c r="L192" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M192" t="n">
-        <v>23000</v>
+        <v>24150</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>920</v>
+        <v>966</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44299</v>
+        <v>44270</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>1080</v>
+        <v>200</v>
       </c>
       <c r="K193" t="n">
         <v>25000</v>
       </c>
       <c r="L193" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M193" t="n">
-        <v>25833</v>
+        <v>25000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1033</v>
+        <v>1000</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="K194" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L194" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M194" t="n">
-        <v>26833</v>
+        <v>23000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1073</v>
+        <v>920</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44257</v>
+        <v>44299</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="K195" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L195" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M195" t="n">
-        <v>27636</v>
+        <v>25833</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1105</v>
+        <v>1033</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14472,13 +14472,13 @@
         <v>600</v>
       </c>
       <c r="K196" t="n">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="L196" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="M196" t="n">
-        <v>39233</v>
+        <v>26833</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1569</v>
+        <v>1073</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44195</v>
+        <v>44257</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,29 +14541,29 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>580</v>
+        <v>1100</v>
       </c>
       <c r="K197" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="L197" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M197" t="n">
-        <v>25897</v>
+        <v>27636</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1036</v>
+        <v>1105</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,29 +14613,29 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K198" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="L198" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="M198" t="n">
-        <v>26333</v>
+        <v>39233</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1053</v>
+        <v>1569</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>1300</v>
+        <v>580</v>
       </c>
       <c r="K199" t="n">
         <v>25000</v>
@@ -14694,7 +14694,7 @@
         <v>27000</v>
       </c>
       <c r="M199" t="n">
-        <v>26077</v>
+        <v>25897</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14703,11 +14703,11 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14760,13 +14760,13 @@
         <v>900</v>
       </c>
       <c r="K200" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L200" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M200" t="n">
-        <v>23889</v>
+        <v>26333</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>956</v>
+        <v>1053</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>120</v>
+        <v>1300</v>
       </c>
       <c r="K201" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L201" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M201" t="n">
-        <v>20000</v>
+        <v>26077</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14847,11 +14847,11 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>800</v>
+        <v>1043</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K202" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L202" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M202" t="n">
-        <v>20000</v>
+        <v>23889</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K203" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L203" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M203" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14991,11 +14991,11 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>920</v>
+        <v>800</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15063,7 +15063,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P204" t="n">
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44524</v>
+        <v>44195</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15113,24 +15113,24 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="K205" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L205" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M205" t="n">
-        <v>34333</v>
+        <v>23000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -15139,10 +15139,10 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2289</v>
+        <v>920</v>
       </c>
       <c r="Q205" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15185,36 +15185,36 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K206" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L206" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="M206" t="n">
-        <v>30857</v>
+        <v>20000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>2057</v>
+        <v>800</v>
       </c>
       <c r="Q206" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,32 +15261,32 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="K207" t="n">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="L207" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="M207" t="n">
-        <v>37182</v>
+        <v>34333</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>1487</v>
+        <v>2289</v>
       </c>
       <c r="Q207" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,32 +15333,32 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K208" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L208" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M208" t="n">
-        <v>24150</v>
+        <v>30857</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>966</v>
+        <v>2057</v>
       </c>
       <c r="Q208" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K209" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L209" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M209" t="n">
-        <v>23850</v>
+        <v>37182</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>954</v>
+        <v>1487</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K210" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L210" t="n">
         <v>25000</v>
       </c>
-      <c r="L210" t="n">
-        <v>27000</v>
-      </c>
       <c r="M210" t="n">
-        <v>26292</v>
+        <v>24150</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>1052</v>
+        <v>966</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K211" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L211" t="n">
         <v>25000</v>
       </c>
-      <c r="L211" t="n">
-        <v>26000</v>
-      </c>
       <c r="M211" t="n">
-        <v>25582</v>
+        <v>23850</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>1023</v>
+        <v>954</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="K212" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L212" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M212" t="n">
-        <v>23923</v>
+        <v>26292</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>957</v>
+        <v>1052</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>790</v>
+        <v>550</v>
       </c>
       <c r="K213" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L213" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M213" t="n">
-        <v>24063</v>
+        <v>25582</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>963</v>
+        <v>1023</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15765,7 +15765,7 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K214" t="n">
         <v>23000</v>
@@ -15774,7 +15774,7 @@
         <v>25000</v>
       </c>
       <c r="M214" t="n">
-        <v>23857</v>
+        <v>23923</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15783,11 +15783,11 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>500</v>
+        <v>790</v>
       </c>
       <c r="K215" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L215" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M215" t="n">
-        <v>20000</v>
+        <v>24063</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>800</v>
+        <v>963</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>230</v>
+        <v>1400</v>
       </c>
       <c r="K216" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L216" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="M216" t="n">
-        <v>19000</v>
+        <v>23857</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>760</v>
+        <v>954</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K217" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L217" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M217" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>700</v>
+        <v>230</v>
       </c>
       <c r="K218" t="n">
-        <v>32000</v>
+        <v>19000</v>
       </c>
       <c r="L218" t="n">
-        <v>34000</v>
+        <v>19000</v>
       </c>
       <c r="M218" t="n">
-        <v>33000</v>
+        <v>19000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16071,11 +16071,11 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1320</v>
+        <v>760</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>880</v>
+        <v>700</v>
       </c>
       <c r="K219" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L219" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="M219" t="n">
-        <v>31000</v>
+        <v>18000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1240</v>
+        <v>720</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,7 +16197,7 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>810</v>
+        <v>700</v>
       </c>
       <c r="K220" t="n">
         <v>32000</v>
@@ -16206,23 +16206,23 @@
         <v>34000</v>
       </c>
       <c r="M220" t="n">
-        <v>33136</v>
+        <v>33000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>2209</v>
+        <v>1320</v>
       </c>
       <c r="Q220" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>660</v>
+        <v>880</v>
       </c>
       <c r="K221" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L221" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="M221" t="n">
-        <v>36348</v>
+        <v>31000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1454</v>
+        <v>1240</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16341,32 +16341,32 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>490</v>
+        <v>810</v>
       </c>
       <c r="K222" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L222" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="M222" t="n">
-        <v>36061</v>
+        <v>33136</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1442</v>
+        <v>2209</v>
       </c>
       <c r="Q222" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44301</v>
+        <v>44176</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>400</v>
+        <v>660</v>
       </c>
       <c r="K223" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L223" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M223" t="n">
-        <v>24150</v>
+        <v>36348</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>966</v>
+        <v>1454</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44301</v>
+        <v>44176</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="K224" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="L224" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="M224" t="n">
-        <v>23172</v>
+        <v>36061</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16503,11 +16503,11 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>927</v>
+        <v>1442</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44284</v>
+        <v>44301</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K225" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L225" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M225" t="n">
-        <v>27600</v>
+        <v>24150</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1104</v>
+        <v>966</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44279</v>
+        <v>44301</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K226" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L226" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M226" t="n">
-        <v>27425</v>
+        <v>23172</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1097</v>
+        <v>927</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="K227" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L227" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M227" t="n">
-        <v>26125</v>
+        <v>27600</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1045</v>
+        <v>1104</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>610</v>
+        <v>400</v>
       </c>
       <c r="K228" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L228" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M228" t="n">
-        <v>25852</v>
+        <v>27425</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1034</v>
+        <v>1097</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,29 +16845,29 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K229" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L229" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M229" t="n">
-        <v>32000</v>
+        <v>26125</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1280</v>
+        <v>1045</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44312</v>
+        <v>44341</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="K230" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L230" t="n">
         <v>27000</v>
       </c>
-      <c r="L230" t="n">
-        <v>30000</v>
-      </c>
       <c r="M230" t="n">
-        <v>28745</v>
+        <v>25852</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1150</v>
+        <v>1034</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44329</v>
+        <v>44504</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K231" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L231" t="n">
         <v>35000</v>
       </c>
       <c r="M231" t="n">
-        <v>34150</v>
+        <v>32000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1366</v>
+        <v>1280</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44522</v>
+        <v>44312</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,32 +17061,32 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>95</v>
+        <v>550</v>
       </c>
       <c r="K232" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L232" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M232" t="n">
-        <v>24053</v>
+        <v>28745</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1604</v>
+        <v>1150</v>
       </c>
       <c r="Q232" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44246</v>
+        <v>44329</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,29 +17133,29 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="K233" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L233" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M233" t="n">
-        <v>25000</v>
+        <v>34150</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1000</v>
+        <v>1366</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,32 +17205,32 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="K234" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L234" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M234" t="n">
-        <v>22000</v>
+        <v>24053</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>880</v>
+        <v>1604</v>
       </c>
       <c r="Q234" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,29 +17277,29 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="K235" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L235" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M235" t="n">
-        <v>31974</v>
+        <v>25000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1279</v>
+        <v>1000</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>600</v>
+        <v>140</v>
       </c>
       <c r="K236" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L236" t="n">
         <v>22000</v>
       </c>
       <c r="M236" t="n">
-        <v>21233</v>
+        <v>22000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17367,11 +17367,11 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>849</v>
+        <v>880</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,29 +17421,29 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="K237" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L237" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M237" t="n">
-        <v>21080</v>
+        <v>31974</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>843</v>
+        <v>1279</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,32 +17493,32 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="K238" t="n">
-        <v>36000</v>
+        <v>20000</v>
       </c>
       <c r="L238" t="n">
-        <v>38000</v>
+        <v>22000</v>
       </c>
       <c r="M238" t="n">
-        <v>37209</v>
+        <v>21233</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>2481</v>
+        <v>849</v>
       </c>
       <c r="Q238" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44225</v>
+        <v>44272</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K239" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L239" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M239" t="n">
-        <v>27969</v>
+        <v>21080</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17583,11 +17583,11 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1119</v>
+        <v>843</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,32 +17637,32 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K240" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L240" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M240" t="n">
-        <v>24150</v>
+        <v>37209</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>966</v>
+        <v>2481</v>
       </c>
       <c r="Q240" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17705,20 +17705,20 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>430</v>
+        <v>1600</v>
       </c>
       <c r="K241" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L241" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M241" t="n">
-        <v>20000</v>
+        <v>27969</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>800</v>
+        <v>1119</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K242" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L242" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M242" t="n">
-        <v>18000</v>
+        <v>24150</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>720</v>
+        <v>966</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44315</v>
+        <v>44225</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17849,24 +17849,24 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="K243" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L243" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M243" t="n">
-        <v>24561</v>
+        <v>20000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>982</v>
+        <v>800</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44315</v>
+        <v>44225</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="K244" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L244" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="M244" t="n">
-        <v>25867</v>
+        <v>18000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1035</v>
+        <v>720</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17993,24 +17993,24 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>95</v>
+        <v>410</v>
       </c>
       <c r="K245" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L245" t="n">
         <v>25000</v>
       </c>
-      <c r="L245" t="n">
-        <v>27000</v>
-      </c>
       <c r="M245" t="n">
-        <v>25947</v>
+        <v>24561</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1038</v>
+        <v>982</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44495</v>
+        <v>44315</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18072,26 +18072,26 @@
         <v>600</v>
       </c>
       <c r="K246" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L246" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M246" t="n">
-        <v>34167</v>
+        <v>25867</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1367</v>
+        <v>1035</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44232</v>
+        <v>44348</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18137,33 +18137,33 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>400</v>
+        <v>95</v>
       </c>
       <c r="K247" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L247" t="n">
-        <v>250000</v>
+        <v>27000</v>
       </c>
       <c r="M247" t="n">
-        <v>112500</v>
+        <v>25947</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>4500</v>
+        <v>1038</v>
       </c>
       <c r="Q247" t="n">
         <v>25</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,29 +18213,29 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K248" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L248" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M248" t="n">
-        <v>24038</v>
+        <v>34167</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>962</v>
+        <v>1367</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K249" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L249" t="n">
-        <v>20000</v>
+        <v>250000</v>
       </c>
       <c r="M249" t="n">
-        <v>20000</v>
+        <v>112500</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="Q249" t="n">
         <v>25</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,29 +18357,29 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="K250" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="L250" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M250" t="n">
-        <v>34200</v>
+        <v>24038</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1368</v>
+        <v>962</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18425,33 +18425,33 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K251" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L251" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="M251" t="n">
-        <v>30850</v>
+        <v>20000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1234</v>
+        <v>800</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K252" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L252" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M252" t="n">
-        <v>30850</v>
+        <v>34200</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1234</v>
+        <v>1368</v>
       </c>
       <c r="Q252" t="n">
         <v>25</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18569,33 +18569,33 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K253" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L253" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M253" t="n">
-        <v>25000</v>
+        <v>30850</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1000</v>
+        <v>1234</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18648,29 +18648,29 @@
         <v>400</v>
       </c>
       <c r="K254" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L254" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="M254" t="n">
-        <v>36150</v>
+        <v>30850</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>2410</v>
+        <v>1234</v>
       </c>
       <c r="Q254" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K255" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L255" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M255" t="n">
-        <v>32875</v>
+        <v>25000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>1315</v>
+        <v>1000</v>
       </c>
       <c r="Q255" t="n">
         <v>25</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,7 +18789,7 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K256" t="n">
         <v>35000</v>
@@ -18798,23 +18798,23 @@
         <v>37000</v>
       </c>
       <c r="M256" t="n">
-        <v>36143</v>
+        <v>36150</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1446</v>
+        <v>2410</v>
       </c>
       <c r="Q256" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="K257" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L257" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M257" t="n">
-        <v>26053</v>
+        <v>32875</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18879,11 +18879,11 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1042</v>
+        <v>1315</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,29 +18933,29 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>490</v>
+        <v>280</v>
       </c>
       <c r="K258" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L258" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="M258" t="n">
-        <v>26061</v>
+        <v>36143</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>1042</v>
+        <v>1446</v>
       </c>
       <c r="Q258" t="n">
         <v>25</v>
@@ -19005,29 +19005,29 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="K259" t="n">
         <v>25000</v>
       </c>
       <c r="L259" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="M259" t="n">
-        <v>25400</v>
+        <v>26053</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1016</v>
+        <v>1042</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,29 +19077,29 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="K260" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L260" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M260" t="n">
-        <v>18836</v>
+        <v>26061</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>753</v>
+        <v>1042</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K261" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L261" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M261" t="n">
-        <v>20800</v>
+        <v>25400</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19167,11 +19167,11 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>832</v>
+        <v>1016</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19221,29 +19221,29 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K262" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L262" t="n">
         <v>20000</v>
       </c>
-      <c r="L262" t="n">
-        <v>22000</v>
-      </c>
       <c r="M262" t="n">
-        <v>21150</v>
+        <v>18836</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>846</v>
+        <v>753</v>
       </c>
       <c r="Q262" t="n">
         <v>25</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K263" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L263" t="n">
         <v>22000</v>
       </c>
       <c r="M263" t="n">
-        <v>20500</v>
+        <v>20800</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19311,11 +19311,11 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="Q263" t="n">
         <v>25</v>
@@ -19361,33 +19361,33 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="K264" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L264" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M264" t="n">
-        <v>15000</v>
+        <v>21150</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>600</v>
+        <v>846</v>
       </c>
       <c r="Q264" t="n">
         <v>25</v>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="K265" t="n">
         <v>18000</v>
       </c>
       <c r="L265" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M265" t="n">
-        <v>18000</v>
+        <v>20500</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Q265" t="n">
         <v>25</v>
@@ -19509,29 +19509,29 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K266" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L266" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M266" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="Q266" t="n">
         <v>25</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="K267" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L267" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M267" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="Q267" t="n">
         <v>25</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19649,20 +19649,20 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K268" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L268" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="M268" t="n">
-        <v>25850</v>
+        <v>17000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>1034</v>
+        <v>680</v>
       </c>
       <c r="Q268" t="n">
         <v>25</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K269" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="L269" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="M269" t="n">
-        <v>26850</v>
+        <v>15000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1074</v>
+        <v>600</v>
       </c>
       <c r="Q269" t="n">
         <v>25</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44330</v>
+        <v>44251</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19800,26 +19800,26 @@
         <v>400</v>
       </c>
       <c r="K270" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L270" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="M270" t="n">
-        <v>36275</v>
+        <v>25850</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>1451</v>
+        <v>1034</v>
       </c>
       <c r="Q270" t="n">
         <v>25</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19872,29 +19872,29 @@
         <v>400</v>
       </c>
       <c r="K271" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="L271" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M271" t="n">
-        <v>20850</v>
+        <v>26850</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>1390</v>
+        <v>1074</v>
       </c>
       <c r="Q271" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44181</v>
+        <v>44330</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="K272" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L272" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="M272" t="n">
-        <v>28280</v>
+        <v>36275</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>1131</v>
+        <v>1451</v>
       </c>
       <c r="Q272" t="n">
         <v>25</v>
@@ -20016,29 +20016,29 @@
         <v>400</v>
       </c>
       <c r="K273" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L273" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M273" t="n">
-        <v>24150</v>
+        <v>20850</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>966</v>
+        <v>1390</v>
       </c>
       <c r="Q273" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20085,29 +20085,29 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K274" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L274" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M274" t="n">
-        <v>25850</v>
+        <v>28280</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>1034</v>
+        <v>1131</v>
       </c>
       <c r="Q274" t="n">
         <v>25</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,20 +20157,20 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K275" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L275" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M275" t="n">
-        <v>28400</v>
+        <v>24150</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>1136</v>
+        <v>966</v>
       </c>
       <c r="Q275" t="n">
         <v>25</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,20 +20229,20 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K276" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L276" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M276" t="n">
-        <v>28333</v>
+        <v>25850</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>1133</v>
+        <v>1034</v>
       </c>
       <c r="Q276" t="n">
         <v>25</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="K277" t="n">
         <v>26000</v>
       </c>
       <c r="L277" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M277" t="n">
-        <v>27143</v>
+        <v>28400</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20319,11 +20319,11 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>1086</v>
+        <v>1136</v>
       </c>
       <c r="Q277" t="n">
         <v>25</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K278" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L278" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="M278" t="n">
-        <v>24000</v>
+        <v>28333</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20391,11 +20391,11 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>960</v>
+        <v>1133</v>
       </c>
       <c r="Q278" t="n">
         <v>25</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>150</v>
+        <v>1400</v>
       </c>
       <c r="K279" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L279" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M279" t="n">
-        <v>24000</v>
+        <v>27143</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>960</v>
+        <v>1086</v>
       </c>
       <c r="Q279" t="n">
         <v>25</v>
@@ -20517,7 +20517,7 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K280" t="n">
         <v>24000</v>
@@ -20535,7 +20535,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P280" t="n">
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20585,33 +20585,33 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>630</v>
+        <v>150</v>
       </c>
       <c r="K281" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L281" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M281" t="n">
-        <v>21143</v>
+        <v>24000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>846</v>
+        <v>960</v>
       </c>
       <c r="Q281" t="n">
         <v>25</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44307</v>
+        <v>44194</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20657,33 +20657,33 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K282" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L282" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M282" t="n">
-        <v>28714</v>
+        <v>24000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>1149</v>
+        <v>960</v>
       </c>
       <c r="Q282" t="n">
         <v>25</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="K283" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L283" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M283" t="n">
-        <v>25807</v>
+        <v>21143</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>1032</v>
+        <v>846</v>
       </c>
       <c r="Q283" t="n">
         <v>25</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,7 +20805,7 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K284" t="n">
         <v>27000</v>
@@ -20814,7 +20814,7 @@
         <v>30000</v>
       </c>
       <c r="M284" t="n">
-        <v>28275</v>
+        <v>28714</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>1131</v>
+        <v>1149</v>
       </c>
       <c r="Q284" t="n">
         <v>25</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44201</v>
+        <v>44307</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,29 +20877,29 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>440</v>
+        <v>570</v>
       </c>
       <c r="K285" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L285" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M285" t="n">
-        <v>23545</v>
+        <v>25807</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>942</v>
+        <v>1032</v>
       </c>
       <c r="Q285" t="n">
         <v>25</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K286" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L286" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M286" t="n">
-        <v>23667</v>
+        <v>28275</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>947</v>
+        <v>1131</v>
       </c>
       <c r="Q286" t="n">
         <v>25</v>
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>580</v>
+        <v>440</v>
       </c>
       <c r="K287" t="n">
         <v>23000</v>
@@ -21030,20 +21030,20 @@
         <v>25000</v>
       </c>
       <c r="M287" t="n">
-        <v>23897</v>
+        <v>23545</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="Q287" t="n">
         <v>25</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K288" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L288" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M288" t="n">
-        <v>22571</v>
+        <v>23667</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21111,11 +21111,11 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>903</v>
+        <v>947</v>
       </c>
       <c r="Q288" t="n">
         <v>25</v>
@@ -21161,33 +21161,33 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="K289" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L289" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M289" t="n">
-        <v>20000</v>
+        <v>23897</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="Q289" t="n">
         <v>25</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K290" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L290" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M290" t="n">
-        <v>20000</v>
+        <v>22571</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21255,11 +21255,11 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>800</v>
+        <v>903</v>
       </c>
       <c r="Q290" t="n">
         <v>25</v>
@@ -21309,29 +21309,29 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K291" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L291" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M291" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q291" t="n">
         <v>25</v>
@@ -21381,34 +21381,178 @@
         </is>
       </c>
       <c r="J292" t="n">
+        <v>100</v>
+      </c>
+      <c r="K292" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L292" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M292" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P292" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>25</v>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>6</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D293" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E293" t="n">
+        <v>13</v>
+      </c>
+      <c r="F293" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J293" t="n">
+        <v>180</v>
+      </c>
+      <c r="K293" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L293" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M293" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P293" t="n">
+        <v>720</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>25</v>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>6</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D294" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E294" t="n">
+        <v>13</v>
+      </c>
+      <c r="F294" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J294" t="n">
         <v>150</v>
       </c>
-      <c r="K292" t="n">
+      <c r="K294" t="n">
         <v>18000</v>
       </c>
-      <c r="L292" t="n">
+      <c r="L294" t="n">
         <v>18000</v>
       </c>
-      <c r="M292" t="n">
+      <c r="M294" t="n">
         <v>18000</v>
       </c>
-      <c r="N292" t="inlineStr">
+      <c r="N294" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O292" t="inlineStr">
+      <c r="O294" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P292" t="n">
+      <c r="P294" t="n">
         <v>720</v>
       </c>
-      <c r="Q292" t="n">
-        <v>25</v>
-      </c>
-      <c r="R292" t="inlineStr">
+      <c r="Q294" t="n">
+        <v>25</v>
+      </c>
+      <c r="R294" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R297"/>
+  <dimension ref="A1:R300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44193</v>
+        <v>44533</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>610</v>
+        <v>230</v>
       </c>
       <c r="K97" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="L97" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="M97" t="n">
-        <v>21148</v>
+        <v>42174</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1410</v>
+        <v>2812</v>
       </c>
       <c r="Q97" t="n">
         <v>15</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44193</v>
+        <v>44533</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K98" t="n">
-        <v>27000</v>
+        <v>50000</v>
       </c>
       <c r="L98" t="n">
-        <v>30000</v>
+        <v>55000</v>
       </c>
       <c r="M98" t="n">
-        <v>28725</v>
+        <v>53000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1149</v>
+        <v>2120</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44193</v>
+        <v>44533</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>740</v>
+        <v>250</v>
       </c>
       <c r="K99" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="L99" t="n">
-        <v>30000</v>
+        <v>65000</v>
       </c>
       <c r="M99" t="n">
-        <v>28865</v>
+        <v>62400</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1155</v>
+        <v>2496</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44517</v>
+        <v>44193</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7557,32 +7557,32 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>280</v>
+        <v>610</v>
       </c>
       <c r="K100" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L100" t="n">
-        <v>37000</v>
+        <v>22000</v>
       </c>
       <c r="M100" t="n">
-        <v>36143</v>
+        <v>21148</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1446</v>
+        <v>1410</v>
       </c>
       <c r="Q100" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44312</v>
+        <v>44193</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7629,7 +7629,7 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K101" t="n">
         <v>27000</v>
@@ -7638,20 +7638,20 @@
         <v>30000</v>
       </c>
       <c r="M101" t="n">
-        <v>28745</v>
+        <v>28725</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44265</v>
+        <v>44193</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="K102" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L102" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M102" t="n">
-        <v>21333</v>
+        <v>28865</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>853</v>
+        <v>1155</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44309</v>
+        <v>44517</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7773,29 +7773,29 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K103" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L103" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M103" t="n">
-        <v>28275</v>
+        <v>36143</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1131</v>
+        <v>1446</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44323</v>
+        <v>44312</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="K104" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L104" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M104" t="n">
-        <v>23897</v>
+        <v>28745</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>956</v>
+        <v>1150</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44328</v>
+        <v>44265</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7917,29 +7917,29 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="K105" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L105" t="n">
-        <v>37000</v>
+        <v>22000</v>
       </c>
       <c r="M105" t="n">
-        <v>35800</v>
+        <v>21333</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1432</v>
+        <v>853</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44328</v>
+        <v>44309</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K106" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L106" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M106" t="n">
-        <v>33667</v>
+        <v>28275</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1347</v>
+        <v>1131</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44295</v>
+        <v>44323</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8061,7 +8061,7 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K107" t="n">
         <v>23000</v>
@@ -8070,7 +8070,7 @@
         <v>25000</v>
       </c>
       <c r="M107" t="n">
-        <v>24150</v>
+        <v>23897</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44246</v>
+        <v>44328</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8133,29 +8133,29 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="K108" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L108" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M108" t="n">
-        <v>25000</v>
+        <v>35800</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1000</v>
+        <v>1432</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44246</v>
+        <v>44328</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="K109" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L109" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M109" t="n">
-        <v>22000</v>
+        <v>33667</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8223,11 +8223,11 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>880</v>
+        <v>1347</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44249</v>
+        <v>44295</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8280,13 +8280,13 @@
         <v>400</v>
       </c>
       <c r="K110" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L110" t="n">
         <v>25000</v>
       </c>
-      <c r="L110" t="n">
-        <v>27000</v>
-      </c>
       <c r="M110" t="n">
-        <v>25850</v>
+        <v>24150</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1034</v>
+        <v>966</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44249</v>
+        <v>44246</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>600</v>
+        <v>230</v>
       </c>
       <c r="K111" t="n">
         <v>25000</v>
       </c>
       <c r="L111" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M111" t="n">
-        <v>25933</v>
+        <v>25000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8367,11 +8367,11 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1037</v>
+        <v>1000</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44225</v>
+        <v>44246</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1600</v>
+        <v>140</v>
       </c>
       <c r="K112" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L112" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M112" t="n">
-        <v>27969</v>
+        <v>22000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1119</v>
+        <v>880</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8496,13 +8496,13 @@
         <v>400</v>
       </c>
       <c r="K113" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L113" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M113" t="n">
-        <v>24150</v>
+        <v>25850</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>966</v>
+        <v>1034</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="K114" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L114" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M114" t="n">
-        <v>20000</v>
+        <v>25933</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>800</v>
+        <v>1037</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>120</v>
+        <v>1600</v>
       </c>
       <c r="K115" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L115" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M115" t="n">
-        <v>18000</v>
+        <v>27969</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>720</v>
+        <v>1119</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44172</v>
+        <v>44225</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8709,32 +8709,32 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K116" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L116" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M116" t="n">
-        <v>30857</v>
+        <v>24150</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>2057</v>
+        <v>966</v>
       </c>
       <c r="Q116" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44172</v>
+        <v>44225</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1100</v>
+        <v>430</v>
       </c>
       <c r="K117" t="n">
-        <v>36000</v>
+        <v>20000</v>
       </c>
       <c r="L117" t="n">
-        <v>38000</v>
+        <v>20000</v>
       </c>
       <c r="M117" t="n">
-        <v>37182</v>
+        <v>20000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1487</v>
+        <v>800</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44186</v>
+        <v>44225</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8849,36 +8849,36 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="K118" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L118" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M118" t="n">
-        <v>20897</v>
+        <v>18000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1393</v>
+        <v>720</v>
       </c>
       <c r="Q118" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44186</v>
+        <v>44172</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="K119" t="n">
         <v>30000</v>
@@ -8934,23 +8934,23 @@
         <v>32000</v>
       </c>
       <c r="M119" t="n">
-        <v>30767</v>
+        <v>30857</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1231</v>
+        <v>2057</v>
       </c>
       <c r="Q119" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44327</v>
+        <v>44172</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8997,29 +8997,29 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="K120" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="L120" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="M120" t="n">
-        <v>34200</v>
+        <v>37182</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1368</v>
+        <v>1487</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44327</v>
+        <v>44186</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9069,32 +9069,32 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K121" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L121" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M121" t="n">
-        <v>30850</v>
+        <v>20897</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1234</v>
+        <v>1393</v>
       </c>
       <c r="Q121" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9141,32 +9141,32 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K122" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="L122" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="M122" t="n">
-        <v>22000</v>
+        <v>30767</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1467</v>
+        <v>1231</v>
       </c>
       <c r="Q122" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44179</v>
+        <v>44327</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9213,29 +9213,29 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="K123" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="L123" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M123" t="n">
-        <v>27500</v>
+        <v>34200</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1100</v>
+        <v>1368</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44195</v>
+        <v>44327</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9285,29 +9285,29 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K124" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L124" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M124" t="n">
-        <v>25897</v>
+        <v>30850</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1036</v>
+        <v>1234</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44195</v>
+        <v>44179</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,32 +9357,32 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>900</v>
+        <v>340</v>
       </c>
       <c r="K125" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L125" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M125" t="n">
-        <v>26333</v>
+        <v>22000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1053</v>
+        <v>1467</v>
       </c>
       <c r="Q125" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44195</v>
+        <v>44179</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9429,29 +9429,29 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K126" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L126" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M126" t="n">
-        <v>26077</v>
+        <v>27500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1043</v>
+        <v>1100</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>900</v>
+        <v>580</v>
       </c>
       <c r="K127" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L127" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M127" t="n">
-        <v>23889</v>
+        <v>25897</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>956</v>
+        <v>1036</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="K128" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L128" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M128" t="n">
-        <v>20000</v>
+        <v>26333</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>800</v>
+        <v>1053</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K129" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L129" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M129" t="n">
-        <v>20000</v>
+        <v>26077</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>800</v>
+        <v>1043</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K130" t="n">
         <v>23000</v>
       </c>
       <c r="L130" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M130" t="n">
-        <v>23000</v>
+        <v>23889</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>920</v>
+        <v>956</v>
       </c>
       <c r="Q130" t="n">
         <v>25</v>
@@ -9789,7 +9789,7 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K131" t="n">
         <v>20000</v>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P131" t="n">
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9857,24 +9857,24 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>610</v>
+        <v>300</v>
       </c>
       <c r="K132" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L132" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M132" t="n">
-        <v>23852</v>
+        <v>20000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>954</v>
+        <v>800</v>
       </c>
       <c r="Q132" t="n">
         <v>25</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9929,33 +9929,33 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>720</v>
+        <v>500</v>
       </c>
       <c r="K133" t="n">
         <v>23000</v>
       </c>
       <c r="L133" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M133" t="n">
-        <v>24028</v>
+        <v>23000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>961</v>
+        <v>920</v>
       </c>
       <c r="Q133" t="n">
         <v>25</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44272</v>
+        <v>44195</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10001,33 +10001,33 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K134" t="n">
         <v>20000</v>
       </c>
       <c r="L134" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M134" t="n">
-        <v>21233</v>
+        <v>20000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>849</v>
+        <v>800</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44272</v>
+        <v>44216</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>500</v>
+        <v>610</v>
       </c>
       <c r="K135" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L135" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M135" t="n">
-        <v>21080</v>
+        <v>23852</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10095,11 +10095,11 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>843</v>
+        <v>954</v>
       </c>
       <c r="Q135" t="n">
         <v>25</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44308</v>
+        <v>44216</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10149,29 +10149,29 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="K136" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L136" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M136" t="n">
-        <v>27575</v>
+        <v>24028</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1103</v>
+        <v>961</v>
       </c>
       <c r="Q136" t="n">
         <v>25</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44308</v>
+        <v>44272</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K137" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="L137" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M137" t="n">
-        <v>29150</v>
+        <v>21233</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1166</v>
+        <v>849</v>
       </c>
       <c r="Q137" t="n">
         <v>25</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44308</v>
+        <v>44272</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K138" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L138" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M138" t="n">
-        <v>30850</v>
+        <v>21080</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>1234</v>
+        <v>843</v>
       </c>
       <c r="Q138" t="n">
         <v>25</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44232</v>
+        <v>44308</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10368,13 +10368,13 @@
         <v>400</v>
       </c>
       <c r="K139" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L139" t="n">
-        <v>250000</v>
+        <v>28000</v>
       </c>
       <c r="M139" t="n">
-        <v>112500</v>
+        <v>27575</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>4500</v>
+        <v>1103</v>
       </c>
       <c r="Q139" t="n">
         <v>25</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44232</v>
+        <v>44308</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K140" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="L140" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M140" t="n">
-        <v>24038</v>
+        <v>29150</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10455,11 +10455,11 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>962</v>
+        <v>1166</v>
       </c>
       <c r="Q140" t="n">
         <v>25</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44232</v>
+        <v>44308</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10505,33 +10505,33 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K141" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L141" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="M141" t="n">
-        <v>20000</v>
+        <v>30850</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>800</v>
+        <v>1234</v>
       </c>
       <c r="Q141" t="n">
         <v>25</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44176</v>
+        <v>44232</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,32 +10581,32 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>810</v>
+        <v>400</v>
       </c>
       <c r="K142" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L142" t="n">
-        <v>34000</v>
+        <v>250000</v>
       </c>
       <c r="M142" t="n">
-        <v>33136</v>
+        <v>112500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>2209</v>
+        <v>4500</v>
       </c>
       <c r="Q142" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44176</v>
+        <v>44232</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>660</v>
+        <v>520</v>
       </c>
       <c r="K143" t="n">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="L143" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M143" t="n">
-        <v>36348</v>
+        <v>24038</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>1454</v>
+        <v>962</v>
       </c>
       <c r="Q143" t="n">
         <v>25</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44176</v>
+        <v>44232</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10721,33 +10721,33 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>490</v>
+        <v>100</v>
       </c>
       <c r="K144" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L144" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="M144" t="n">
-        <v>36061</v>
+        <v>20000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>1442</v>
+        <v>800</v>
       </c>
       <c r="Q144" t="n">
         <v>25</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44165</v>
+        <v>44176</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="K145" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="L145" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="M145" t="n">
-        <v>37444</v>
+        <v>33136</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>2496</v>
+        <v>2209</v>
       </c>
       <c r="Q145" t="n">
         <v>15</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44530</v>
+        <v>44176</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,32 +10869,32 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>200</v>
+        <v>660</v>
       </c>
       <c r="K146" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="L146" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M146" t="n">
-        <v>34200</v>
+        <v>36348</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>2280</v>
+        <v>1454</v>
       </c>
       <c r="Q146" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44293</v>
+        <v>44176</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>380</v>
+        <v>490</v>
       </c>
       <c r="K147" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="L147" t="n">
-        <v>23000</v>
+        <v>37000</v>
       </c>
       <c r="M147" t="n">
-        <v>22553</v>
+        <v>36061</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>902</v>
+        <v>1442</v>
       </c>
       <c r="Q147" t="n">
         <v>25</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44293</v>
+        <v>44165</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,32 +11013,32 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K148" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="L148" t="n">
-        <v>20000</v>
+        <v>38000</v>
       </c>
       <c r="M148" t="n">
-        <v>18867</v>
+        <v>37444</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>755</v>
+        <v>2496</v>
       </c>
       <c r="Q148" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44292</v>
+        <v>44530</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,32 +11085,32 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="K149" t="n">
-        <v>21000</v>
+        <v>33000</v>
       </c>
       <c r="L149" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="M149" t="n">
-        <v>21000</v>
+        <v>34200</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>840</v>
+        <v>2280</v>
       </c>
       <c r="Q149" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="K150" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L150" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="M150" t="n">
-        <v>18464</v>
+        <v>22553</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>739</v>
+        <v>902</v>
       </c>
       <c r="Q150" t="n">
         <v>25</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44252</v>
+        <v>44293</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K151" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L151" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M151" t="n">
-        <v>25850</v>
+        <v>18867</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1034</v>
+        <v>755</v>
       </c>
       <c r="Q151" t="n">
         <v>25</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44252</v>
+        <v>44292</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>1080</v>
+        <v>380</v>
       </c>
       <c r="K152" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="L152" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="M152" t="n">
-        <v>26167</v>
+        <v>21000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>1047</v>
+        <v>840</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44510</v>
+        <v>44292</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,29 +11373,29 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K153" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L153" t="n">
-        <v>32000</v>
+        <v>19000</v>
       </c>
       <c r="M153" t="n">
-        <v>30850</v>
+        <v>18464</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1234</v>
+        <v>739</v>
       </c>
       <c r="Q153" t="n">
         <v>25</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44510</v>
+        <v>44252</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11441,33 +11441,33 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K154" t="n">
         <v>25000</v>
       </c>
       <c r="L154" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M154" t="n">
-        <v>25000</v>
+        <v>25850</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>1000</v>
+        <v>1034</v>
       </c>
       <c r="Q154" t="n">
         <v>25</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44245</v>
+        <v>44252</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>680</v>
+        <v>1080</v>
       </c>
       <c r="K155" t="n">
         <v>25000</v>
       </c>
       <c r="L155" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M155" t="n">
-        <v>26691</v>
+        <v>26167</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="Q155" t="n">
         <v>25</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44245</v>
+        <v>44510</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,29 +11589,29 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>1350</v>
+        <v>400</v>
       </c>
       <c r="K156" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L156" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M156" t="n">
-        <v>25889</v>
+        <v>30850</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1036</v>
+        <v>1234</v>
       </c>
       <c r="Q156" t="n">
         <v>25</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44245</v>
+        <v>44510</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,29 +11661,29 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K157" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L157" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M157" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q157" t="n">
         <v>25</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>150</v>
+        <v>680</v>
       </c>
       <c r="K158" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L158" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M158" t="n">
-        <v>22000</v>
+        <v>26691</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>880</v>
+        <v>1068</v>
       </c>
       <c r="Q158" t="n">
         <v>25</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44243</v>
+        <v>44245</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,7 +11805,7 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>660</v>
+        <v>1350</v>
       </c>
       <c r="K159" t="n">
         <v>25000</v>
@@ -11814,7 +11814,7 @@
         <v>27000</v>
       </c>
       <c r="M159" t="n">
-        <v>26303</v>
+        <v>25889</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1052</v>
+        <v>1036</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44243</v>
+        <v>44245</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>1150</v>
+        <v>150</v>
       </c>
       <c r="K160" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L160" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M160" t="n">
-        <v>24043</v>
+        <v>20000</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>962</v>
+        <v>800</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44250</v>
+        <v>44245</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K161" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L161" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M161" t="n">
-        <v>25850</v>
+        <v>22000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11967,11 +11967,11 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1034</v>
+        <v>880</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44250</v>
+        <v>44243</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>400</v>
+        <v>660</v>
       </c>
       <c r="K162" t="n">
         <v>25000</v>
@@ -12030,7 +12030,7 @@
         <v>27000</v>
       </c>
       <c r="M162" t="n">
-        <v>26150</v>
+        <v>26303</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44476</v>
+        <v>44243</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,29 +12093,29 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>150</v>
+        <v>1150</v>
       </c>
       <c r="K163" t="n">
-        <v>75000</v>
+        <v>23000</v>
       </c>
       <c r="L163" t="n">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="M163" t="n">
-        <v>77667</v>
+        <v>24043</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3107</v>
+        <v>962</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44236</v>
+        <v>44250</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,29 +12165,29 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K164" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L164" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M164" t="n">
-        <v>18836</v>
+        <v>25850</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>753</v>
+        <v>1034</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44236</v>
+        <v>44250</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K165" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L165" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M165" t="n">
-        <v>20800</v>
+        <v>26150</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>832</v>
+        <v>1046</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44236</v>
+        <v>44476</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,29 +12309,29 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K166" t="n">
-        <v>20000</v>
+        <v>75000</v>
       </c>
       <c r="L166" t="n">
-        <v>22000</v>
+        <v>80000</v>
       </c>
       <c r="M166" t="n">
-        <v>21150</v>
+        <v>77667</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>846</v>
+        <v>3107</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12381,29 +12381,29 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>1600</v>
+        <v>550</v>
       </c>
       <c r="K167" t="n">
         <v>18000</v>
       </c>
       <c r="L167" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M167" t="n">
-        <v>20500</v>
+        <v>18836</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>820</v>
+        <v>753</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12449,33 +12449,33 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="K168" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L168" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M168" t="n">
-        <v>15000</v>
+        <v>20800</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>600</v>
+        <v>832</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K169" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L169" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M169" t="n">
-        <v>18000</v>
+        <v>21150</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12543,11 +12543,11 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>720</v>
+        <v>846</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>120</v>
+        <v>1600</v>
       </c>
       <c r="K170" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L170" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M170" t="n">
-        <v>17000</v>
+        <v>20500</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>680</v>
+        <v>820</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12669,7 +12669,7 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>800</v>
+        <v>260</v>
       </c>
       <c r="K171" t="n">
         <v>15000</v>
@@ -12682,12 +12682,12 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P171" t="n">
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44354</v>
+        <v>44236</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K172" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L172" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="M172" t="n">
-        <v>26133</v>
+        <v>18000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>1045</v>
+        <v>720</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44196</v>
+        <v>44236</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12809,33 +12809,33 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>1100</v>
+        <v>120</v>
       </c>
       <c r="K173" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="L173" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="M173" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>1120</v>
+        <v>680</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44196</v>
+        <v>44236</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12881,33 +12881,33 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J174" t="n">
         <v>800</v>
       </c>
       <c r="K174" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="L174" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="M174" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1080</v>
+        <v>600</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44196</v>
+        <v>44354</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12953,33 +12953,33 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K175" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L175" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M175" t="n">
-        <v>28000</v>
+        <v>26133</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>1120</v>
+        <v>1045</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K176" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L176" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M176" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>800</v>
+        <v>1120</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K177" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L177" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M177" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>800</v>
+        <v>1080</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K178" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L178" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M178" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>800</v>
+        <v>1120</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44306</v>
+        <v>44196</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13241,24 +13241,24 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="K179" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L179" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M179" t="n">
-        <v>25905</v>
+        <v>20000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1036</v>
+        <v>800</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13313,33 +13313,33 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>1130</v>
+        <v>300</v>
       </c>
       <c r="K180" t="n">
-        <v>38000</v>
+        <v>20000</v>
       </c>
       <c r="L180" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M180" t="n">
-        <v>38796</v>
+        <v>20000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1552</v>
+        <v>800</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,33 +13385,33 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="K181" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="L181" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M181" t="n">
-        <v>39188</v>
+        <v>20000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>1568</v>
+        <v>800</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44188</v>
+        <v>44306</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>230</v>
+        <v>420</v>
       </c>
       <c r="K182" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L182" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M182" t="n">
-        <v>35000</v>
+        <v>25905</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1400</v>
+        <v>1036</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>170</v>
+        <v>1130</v>
       </c>
       <c r="K183" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="L183" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M183" t="n">
-        <v>35000</v>
+        <v>38796</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1400</v>
+        <v>1552</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44281</v>
+        <v>44188</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>1010</v>
+        <v>850</v>
       </c>
       <c r="K184" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="L184" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M184" t="n">
-        <v>19109</v>
+        <v>39188</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>764</v>
+        <v>1568</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44281</v>
+        <v>44188</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>580</v>
+        <v>230</v>
       </c>
       <c r="K185" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L185" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M185" t="n">
-        <v>17448</v>
+        <v>35000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>698</v>
+        <v>1400</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44281</v>
+        <v>44188</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>600</v>
+        <v>170</v>
       </c>
       <c r="K186" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L186" t="n">
-        <v>19000</v>
+        <v>35000</v>
       </c>
       <c r="M186" t="n">
-        <v>18233</v>
+        <v>35000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>729</v>
+        <v>1400</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>320</v>
+        <v>1010</v>
       </c>
       <c r="K187" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L187" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M187" t="n">
-        <v>15000</v>
+        <v>19109</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>600</v>
+        <v>764</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44285</v>
+        <v>44281</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>730</v>
+        <v>580</v>
       </c>
       <c r="K188" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L188" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M188" t="n">
-        <v>28014</v>
+        <v>17448</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1121</v>
+        <v>698</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44285</v>
+        <v>44281</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K189" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L189" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="M189" t="n">
-        <v>26540</v>
+        <v>18233</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>1062</v>
+        <v>729</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44263</v>
+        <v>44281</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="K190" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L190" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M190" t="n">
-        <v>22536</v>
+        <v>15000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>901</v>
+        <v>600</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44263</v>
+        <v>44285</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>450</v>
+        <v>730</v>
       </c>
       <c r="K191" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L191" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M191" t="n">
-        <v>21400</v>
+        <v>28014</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>856</v>
+        <v>1121</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44277</v>
+        <v>44285</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K192" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L192" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M192" t="n">
-        <v>28275</v>
+        <v>26540</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1131</v>
+        <v>1062</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44237</v>
+        <v>44263</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>800</v>
+        <v>280</v>
       </c>
       <c r="K193" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L193" t="n">
         <v>23000</v>
       </c>
-      <c r="L193" t="n">
-        <v>25000</v>
-      </c>
       <c r="M193" t="n">
-        <v>23875</v>
+        <v>22536</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>955</v>
+        <v>901</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44237</v>
+        <v>44263</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="K194" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="L194" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M194" t="n">
-        <v>23945</v>
+        <v>21400</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>958</v>
+        <v>856</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44221</v>
+        <v>44277</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14400,13 +14400,13 @@
         <v>400</v>
       </c>
       <c r="K195" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L195" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M195" t="n">
-        <v>25850</v>
+        <v>28275</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1034</v>
+        <v>1131</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44221</v>
+        <v>44237</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14472,13 +14472,13 @@
         <v>800</v>
       </c>
       <c r="K196" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L196" t="n">
         <v>25000</v>
       </c>
-      <c r="L196" t="n">
-        <v>27000</v>
-      </c>
       <c r="M196" t="n">
-        <v>25875</v>
+        <v>23875</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1035</v>
+        <v>955</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44201</v>
+        <v>44237</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,7 +14541,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>440</v>
+        <v>550</v>
       </c>
       <c r="K197" t="n">
         <v>23000</v>
@@ -14550,20 +14550,20 @@
         <v>25000</v>
       </c>
       <c r="M197" t="n">
-        <v>23545</v>
+        <v>23945</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>942</v>
+        <v>958</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44201</v>
+        <v>44221</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K198" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L198" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M198" t="n">
-        <v>23667</v>
+        <v>25850</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>947</v>
+        <v>1034</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44201</v>
+        <v>44221</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>580</v>
+        <v>800</v>
       </c>
       <c r="K199" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L199" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M199" t="n">
-        <v>23897</v>
+        <v>25875</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14703,11 +14703,11 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>956</v>
+        <v>1035</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14757,29 +14757,29 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>700</v>
+        <v>440</v>
       </c>
       <c r="K200" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L200" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M200" t="n">
-        <v>22571</v>
+        <v>23545</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>903</v>
+        <v>942</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14825,33 +14825,33 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K201" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L201" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M201" t="n">
-        <v>20000</v>
+        <v>23667</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>800</v>
+        <v>947</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="K202" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L202" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M202" t="n">
-        <v>20000</v>
+        <v>23897</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>180</v>
+        <v>700</v>
       </c>
       <c r="K203" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L203" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M203" t="n">
-        <v>18000</v>
+        <v>22571</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14991,11 +14991,11 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>720</v>
+        <v>903</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15045,29 +15045,29 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K204" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L204" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M204" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44208</v>
+        <v>44201</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K205" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L205" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="M205" t="n">
-        <v>35850</v>
+        <v>20000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1434</v>
+        <v>800</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44208</v>
+        <v>44201</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>490</v>
+        <v>180</v>
       </c>
       <c r="K206" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L206" t="n">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="M206" t="n">
-        <v>36061</v>
+        <v>18000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1442</v>
+        <v>720</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44284</v>
+        <v>44201</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K207" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L207" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="M207" t="n">
-        <v>27600</v>
+        <v>18000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>1104</v>
+        <v>720</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K208" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L208" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="M208" t="n">
-        <v>33000</v>
+        <v>35850</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>1320</v>
+        <v>1434</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>880</v>
+        <v>490</v>
       </c>
       <c r="K209" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L209" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="M209" t="n">
-        <v>31000</v>
+        <v>36061</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1240</v>
+        <v>1442</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44496</v>
+        <v>44284</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,29 +15477,29 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="K210" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L210" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="M210" t="n">
-        <v>37170</v>
+        <v>27600</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>1487</v>
+        <v>1104</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44242</v>
+        <v>44210</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K211" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L211" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M211" t="n">
-        <v>24150</v>
+        <v>33000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>966</v>
+        <v>1320</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44242</v>
+        <v>44210</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>400</v>
+        <v>880</v>
       </c>
       <c r="K212" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L212" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M212" t="n">
-        <v>23850</v>
+        <v>31000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>954</v>
+        <v>1240</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44518</v>
+        <v>44496</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="K213" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L213" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M213" t="n">
-        <v>34150</v>
+        <v>37170</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1366</v>
+        <v>1487</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44315</v>
+        <v>44242</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,20 +15765,20 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K214" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L214" t="n">
         <v>25000</v>
       </c>
       <c r="M214" t="n">
-        <v>24561</v>
+        <v>24150</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44315</v>
+        <v>44242</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K215" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L215" t="n">
         <v>25000</v>
       </c>
-      <c r="L215" t="n">
-        <v>27000</v>
-      </c>
       <c r="M215" t="n">
-        <v>25867</v>
+        <v>23850</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>1035</v>
+        <v>954</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44168</v>
+        <v>44518</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15912,13 +15912,13 @@
         <v>400</v>
       </c>
       <c r="K216" t="n">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="L216" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="M216" t="n">
-        <v>36575</v>
+        <v>34150</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>1463</v>
+        <v>1366</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44168</v>
+        <v>44315</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,20 +15981,20 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="K217" t="n">
-        <v>36000</v>
+        <v>24000</v>
       </c>
       <c r="L217" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="M217" t="n">
-        <v>36575</v>
+        <v>24561</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>1463</v>
+        <v>982</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44168</v>
+        <v>44315</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16049,33 +16049,33 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="K218" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L218" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M218" t="n">
-        <v>32000</v>
+        <v>25867</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1280</v>
+        <v>1035</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44231</v>
+        <v>44168</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,29 +16125,29 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K219" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="L219" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="M219" t="n">
-        <v>26164</v>
+        <v>36575</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1047</v>
+        <v>1463</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44231</v>
+        <v>44168</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,29 +16197,29 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K220" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L220" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M220" t="n">
-        <v>24143</v>
+        <v>36575</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>966</v>
+        <v>1463</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44231</v>
+        <v>44168</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>680</v>
+        <v>260</v>
       </c>
       <c r="K221" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L221" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M221" t="n">
-        <v>26324</v>
+        <v>32000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1053</v>
+        <v>1280</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16337,20 +16337,20 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K222" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L222" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M222" t="n">
-        <v>20000</v>
+        <v>26164</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>800</v>
+        <v>1047</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K223" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L223" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M223" t="n">
-        <v>18000</v>
+        <v>24143</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>720</v>
+        <v>966</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16481,20 +16481,20 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>230</v>
+        <v>680</v>
       </c>
       <c r="K224" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L224" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M224" t="n">
-        <v>20000</v>
+        <v>26324</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>800</v>
+        <v>1053</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44298</v>
+        <v>44231</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16553,24 +16553,24 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K225" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L225" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M225" t="n">
-        <v>26080</v>
+        <v>20000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1043</v>
+        <v>800</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44215</v>
+        <v>44231</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16625,33 +16625,33 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J226" t="n">
         <v>400</v>
       </c>
       <c r="K226" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="L226" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M226" t="n">
-        <v>29150</v>
+        <v>18000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1166</v>
+        <v>720</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44215</v>
+        <v>44231</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16697,33 +16697,33 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>820</v>
+        <v>230</v>
       </c>
       <c r="K227" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L227" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M227" t="n">
-        <v>27805</v>
+        <v>20000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1112</v>
+        <v>800</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44204</v>
+        <v>44298</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,29 +16773,29 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K228" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L228" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M228" t="n">
-        <v>29150</v>
+        <v>26080</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1166</v>
+        <v>1043</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K229" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L229" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M229" t="n">
-        <v>23929</v>
+        <v>29150</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>957</v>
+        <v>1166</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>1000</v>
+        <v>820</v>
       </c>
       <c r="K230" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="L230" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M230" t="n">
-        <v>25800</v>
+        <v>27805</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1032</v>
+        <v>1112</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16985,33 +16985,33 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K231" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L231" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M231" t="n">
-        <v>20000</v>
+        <v>29150</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>800</v>
+        <v>1166</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17057,20 +17057,20 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>350</v>
+        <v>1400</v>
       </c>
       <c r="K232" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L232" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M232" t="n">
-        <v>20000</v>
+        <v>23929</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17079,11 +17079,11 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>800</v>
+        <v>957</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44244</v>
+        <v>44204</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,7 +17133,7 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K233" t="n">
         <v>25000</v>
@@ -17142,7 +17142,7 @@
         <v>27000</v>
       </c>
       <c r="M233" t="n">
-        <v>25850</v>
+        <v>25800</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17151,11 +17151,11 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44244</v>
+        <v>44204</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17201,20 +17201,20 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K234" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L234" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M234" t="n">
-        <v>25850</v>
+        <v>20000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>1034</v>
+        <v>800</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44200</v>
+        <v>44204</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17273,33 +17273,33 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K235" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L235" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M235" t="n">
-        <v>24150</v>
+        <v>20000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>966</v>
+        <v>800</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44200</v>
+        <v>44244</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,29 +17349,29 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K236" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L236" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M236" t="n">
-        <v>24103</v>
+        <v>25850</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>964</v>
+        <v>1034</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44200</v>
+        <v>44244</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K237" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L237" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M237" t="n">
-        <v>21769</v>
+        <v>25850</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>871</v>
+        <v>1034</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17493,29 +17493,29 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>1350</v>
+        <v>400</v>
       </c>
       <c r="K238" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L238" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M238" t="n">
-        <v>21444</v>
+        <v>24150</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>858</v>
+        <v>966</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44166</v>
+        <v>44200</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,32 +17565,32 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="K239" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="L239" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="M239" t="n">
-        <v>37209</v>
+        <v>24103</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>2481</v>
+        <v>964</v>
       </c>
       <c r="Q239" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44259</v>
+        <v>44200</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="K240" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L240" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M240" t="n">
-        <v>25514</v>
+        <v>21769</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1021</v>
+        <v>871</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44259</v>
+        <v>44200</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>400</v>
+        <v>1350</v>
       </c>
       <c r="K241" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L241" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M241" t="n">
-        <v>25850</v>
+        <v>21444</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>1034</v>
+        <v>858</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44278</v>
+        <v>44166</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,32 +17781,32 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>810</v>
+        <v>430</v>
       </c>
       <c r="K242" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="L242" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="M242" t="n">
-        <v>26136</v>
+        <v>37209</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>1045</v>
+        <v>2481</v>
       </c>
       <c r="Q242" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44278</v>
+        <v>44259</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>1030</v>
+        <v>350</v>
       </c>
       <c r="K243" t="n">
         <v>25000</v>
       </c>
       <c r="L243" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="M243" t="n">
-        <v>25680</v>
+        <v>25514</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17871,11 +17871,11 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44522</v>
+        <v>44259</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,32 +17925,32 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="K244" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L244" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M244" t="n">
-        <v>24053</v>
+        <v>25850</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1604</v>
+        <v>1034</v>
       </c>
       <c r="Q244" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44218</v>
+        <v>44278</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,7 +17997,7 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>610</v>
+        <v>810</v>
       </c>
       <c r="K245" t="n">
         <v>25000</v>
@@ -18006,7 +18006,7 @@
         <v>27000</v>
       </c>
       <c r="M245" t="n">
-        <v>25951</v>
+        <v>26136</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44218</v>
+        <v>44278</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>580</v>
+        <v>1030</v>
       </c>
       <c r="K246" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L246" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M246" t="n">
-        <v>24103</v>
+        <v>25680</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>964</v>
+        <v>1027</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44280</v>
+        <v>44522</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,32 +18141,32 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>510</v>
+        <v>95</v>
       </c>
       <c r="K247" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L247" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M247" t="n">
-        <v>31098</v>
+        <v>24053</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1244</v>
+        <v>1604</v>
       </c>
       <c r="Q247" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44280</v>
+        <v>44218</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>1400</v>
+        <v>610</v>
       </c>
       <c r="K248" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L248" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M248" t="n">
-        <v>29071</v>
+        <v>25951</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1163</v>
+        <v>1038</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44300</v>
+        <v>44218</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18288,13 +18288,13 @@
         <v>580</v>
       </c>
       <c r="K249" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L249" t="n">
         <v>25000</v>
       </c>
       <c r="M249" t="n">
-        <v>24448</v>
+        <v>24103</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18303,11 +18303,11 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="Q249" t="n">
         <v>25</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44497</v>
+        <v>44280</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,29 +18357,29 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="K250" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L250" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M250" t="n">
-        <v>34038</v>
+        <v>31098</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1362</v>
+        <v>1244</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44267</v>
+        <v>44280</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>520</v>
+        <v>1400</v>
       </c>
       <c r="K251" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L251" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M251" t="n">
-        <v>21038</v>
+        <v>29071</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18447,11 +18447,11 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>842</v>
+        <v>1163</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44267</v>
+        <v>44300</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="K252" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L252" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M252" t="n">
-        <v>18979</v>
+        <v>24448</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>759</v>
+        <v>978</v>
       </c>
       <c r="Q252" t="n">
         <v>25</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44270</v>
+        <v>44497</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,29 +18573,29 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="K253" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L253" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M253" t="n">
-        <v>25000</v>
+        <v>34038</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1000</v>
+        <v>1362</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44270</v>
+        <v>44267</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>150</v>
+        <v>520</v>
       </c>
       <c r="K254" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L254" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="M254" t="n">
-        <v>23000</v>
+        <v>21038</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>920</v>
+        <v>842</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44525</v>
+        <v>44267</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,32 +18717,32 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>95</v>
+        <v>470</v>
       </c>
       <c r="K255" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L255" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M255" t="n">
-        <v>28579</v>
+        <v>18979</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>1905</v>
+        <v>759</v>
       </c>
       <c r="Q255" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44525</v>
+        <v>44270</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18792,26 +18792,26 @@
         <v>200</v>
       </c>
       <c r="K256" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L256" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M256" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1320</v>
+        <v>1000</v>
       </c>
       <c r="Q256" t="n">
         <v>25</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44286</v>
+        <v>44270</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="K257" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L257" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M257" t="n">
-        <v>22675</v>
+        <v>23000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18879,11 +18879,11 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>907</v>
+        <v>920</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44286</v>
+        <v>44525</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,32 +18933,32 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>520</v>
+        <v>95</v>
       </c>
       <c r="K258" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="L258" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M258" t="n">
-        <v>18308</v>
+        <v>28579</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>732</v>
+        <v>1905</v>
       </c>
       <c r="Q258" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44286</v>
+        <v>44525</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,29 +19005,29 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="K259" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L259" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M259" t="n">
-        <v>20125</v>
+        <v>33000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>805</v>
+        <v>1320</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44307</v>
+        <v>44286</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>280</v>
+        <v>800</v>
       </c>
       <c r="K260" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="L260" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M260" t="n">
-        <v>28714</v>
+        <v>22675</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>1149</v>
+        <v>907</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44307</v>
+        <v>44286</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="K261" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L261" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M261" t="n">
-        <v>25807</v>
+        <v>18308</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19167,11 +19167,11 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>1032</v>
+        <v>732</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44299</v>
+        <v>44286</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>1080</v>
+        <v>480</v>
       </c>
       <c r="K262" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L262" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M262" t="n">
-        <v>25833</v>
+        <v>20125</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>1033</v>
+        <v>805</v>
       </c>
       <c r="Q262" t="n">
         <v>25</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44316</v>
+        <v>44307</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="K263" t="n">
         <v>27000</v>
       </c>
       <c r="L263" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M263" t="n">
-        <v>28164</v>
+        <v>28714</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>1127</v>
+        <v>1149</v>
       </c>
       <c r="Q263" t="n">
         <v>25</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44229</v>
+        <v>44307</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="K264" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L264" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M264" t="n">
-        <v>33909</v>
+        <v>25807</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>1356</v>
+        <v>1032</v>
       </c>
       <c r="Q264" t="n">
         <v>25</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44229</v>
+        <v>44299</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>430</v>
+        <v>1080</v>
       </c>
       <c r="K265" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L265" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M265" t="n">
-        <v>33791</v>
+        <v>25833</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>1352</v>
+        <v>1033</v>
       </c>
       <c r="Q265" t="n">
         <v>25</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44239</v>
+        <v>44316</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="K266" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L266" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M266" t="n">
-        <v>26292</v>
+        <v>28164</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>1052</v>
+        <v>1127</v>
       </c>
       <c r="Q266" t="n">
         <v>25</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44239</v>
+        <v>44229</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19584,13 +19584,13 @@
         <v>550</v>
       </c>
       <c r="K267" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L267" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M267" t="n">
-        <v>25582</v>
+        <v>33909</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>1023</v>
+        <v>1356</v>
       </c>
       <c r="Q267" t="n">
         <v>25</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44512</v>
+        <v>44229</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,29 +19653,29 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="K268" t="n">
+        <v>33000</v>
+      </c>
+      <c r="L268" t="n">
         <v>35000</v>
       </c>
-      <c r="L268" t="n">
-        <v>38000</v>
-      </c>
       <c r="M268" t="n">
-        <v>36667</v>
+        <v>33791</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>1467</v>
+        <v>1352</v>
       </c>
       <c r="Q268" t="n">
         <v>25</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44230</v>
+        <v>44239</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,29 +19725,29 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="K269" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L269" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M269" t="n">
-        <v>29150</v>
+        <v>26292</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1166</v>
+        <v>1052</v>
       </c>
       <c r="Q269" t="n">
         <v>25</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44230</v>
+        <v>44239</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K270" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L270" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="M270" t="n">
-        <v>28380</v>
+        <v>25582</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19815,11 +19815,11 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>1135</v>
+        <v>1023</v>
       </c>
       <c r="Q270" t="n">
         <v>25</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44230</v>
+        <v>44512</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,29 +19869,29 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K271" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L271" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="M271" t="n">
-        <v>25850</v>
+        <v>36667</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>1034</v>
+        <v>1467</v>
       </c>
       <c r="Q271" t="n">
         <v>25</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44160</v>
+        <v>44230</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19944,29 +19944,29 @@
         <v>400</v>
       </c>
       <c r="K272" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="L272" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="M272" t="n">
-        <v>37425</v>
+        <v>29150</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>2495</v>
+        <v>1166</v>
       </c>
       <c r="Q272" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44211</v>
+        <v>44230</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>620</v>
+        <v>500</v>
       </c>
       <c r="K273" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L273" t="n">
         <v>30000</v>
       </c>
       <c r="M273" t="n">
-        <v>28871</v>
+        <v>28380</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>1155</v>
+        <v>1135</v>
       </c>
       <c r="Q273" t="n">
         <v>25</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44211</v>
+        <v>44230</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K274" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L274" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M274" t="n">
-        <v>29587</v>
+        <v>25850</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>1183</v>
+        <v>1034</v>
       </c>
       <c r="Q274" t="n">
         <v>25</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,32 +20157,32 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K275" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="L275" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="M275" t="n">
-        <v>35897</v>
+        <v>37425</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>1436</v>
+        <v>2495</v>
       </c>
       <c r="Q275" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44167</v>
+        <v>44211</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="K276" t="n">
-        <v>43000</v>
+        <v>28000</v>
       </c>
       <c r="L276" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M276" t="n">
-        <v>44148</v>
+        <v>28871</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20247,11 +20247,11 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>1766</v>
+        <v>1155</v>
       </c>
       <c r="Q276" t="n">
         <v>25</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44181</v>
+        <v>44211</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,32 +20301,32 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K277" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L277" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M277" t="n">
-        <v>20850</v>
+        <v>29587</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>1390</v>
+        <v>1183</v>
       </c>
       <c r="Q277" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44181</v>
+        <v>44167</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,29 +20373,29 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="K278" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L278" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M278" t="n">
-        <v>28280</v>
+        <v>35897</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>1131</v>
+        <v>1436</v>
       </c>
       <c r="Q278" t="n">
         <v>25</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44181</v>
+        <v>44167</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K279" t="n">
-        <v>23000</v>
+        <v>43000</v>
       </c>
       <c r="L279" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M279" t="n">
-        <v>24150</v>
+        <v>44148</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>966</v>
+        <v>1766</v>
       </c>
       <c r="Q279" t="n">
         <v>25</v>
@@ -20520,29 +20520,29 @@
         <v>400</v>
       </c>
       <c r="K280" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L280" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M280" t="n">
-        <v>25850</v>
+        <v>20850</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>1034</v>
+        <v>1390</v>
       </c>
       <c r="Q280" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44189</v>
+        <v>44181</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,20 +20589,20 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="K281" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L281" t="n">
         <v>30000</v>
       </c>
-      <c r="L281" t="n">
-        <v>35000</v>
-      </c>
       <c r="M281" t="n">
-        <v>33000</v>
+        <v>28280</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>1320</v>
+        <v>1131</v>
       </c>
       <c r="Q281" t="n">
         <v>25</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44189</v>
+        <v>44181</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K282" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L282" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M282" t="n">
-        <v>32727</v>
+        <v>24150</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20679,11 +20679,11 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>1309</v>
+        <v>966</v>
       </c>
       <c r="Q282" t="n">
         <v>25</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44189</v>
+        <v>44181</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K283" t="n">
         <v>25000</v>
       </c>
       <c r="L283" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M283" t="n">
-        <v>25000</v>
+        <v>25850</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20751,11 +20751,11 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>1000</v>
+        <v>1034</v>
       </c>
       <c r="Q283" t="n">
         <v>25</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="K284" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L284" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M284" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20823,11 +20823,11 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>1000</v>
+        <v>1320</v>
       </c>
       <c r="Q284" t="n">
         <v>25</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44314</v>
+        <v>44189</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K285" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L285" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M285" t="n">
-        <v>26150</v>
+        <v>32727</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20895,11 +20895,11 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>1046</v>
+        <v>1309</v>
       </c>
       <c r="Q285" t="n">
         <v>25</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44314</v>
+        <v>44189</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>410</v>
+        <v>200</v>
       </c>
       <c r="K286" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L286" t="n">
         <v>25000</v>
       </c>
       <c r="M286" t="n">
-        <v>24585</v>
+        <v>25000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20967,11 +20967,11 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>983</v>
+        <v>1000</v>
       </c>
       <c r="Q286" t="n">
         <v>25</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44314</v>
+        <v>44189</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K287" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L287" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M287" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21039,11 +21039,11 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q287" t="n">
         <v>25</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="K288" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L288" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M288" t="n">
-        <v>20000</v>
+        <v>26150</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21111,11 +21111,11 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>800</v>
+        <v>1046</v>
       </c>
       <c r="Q288" t="n">
         <v>25</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44509</v>
+        <v>44314</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,29 +21165,29 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="K289" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L289" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M289" t="n">
-        <v>32125</v>
+        <v>24585</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>1285</v>
+        <v>983</v>
       </c>
       <c r="Q289" t="n">
         <v>25</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44491</v>
+        <v>44314</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21233,33 +21233,33 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="K290" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L290" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M290" t="n">
-        <v>31974</v>
+        <v>20000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>1279</v>
+        <v>800</v>
       </c>
       <c r="Q290" t="n">
         <v>25</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44344</v>
+        <v>44314</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21305,20 +21305,20 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="K291" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L291" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M291" t="n">
-        <v>25741</v>
+        <v>20000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21327,11 +21327,11 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>1030</v>
+        <v>800</v>
       </c>
       <c r="Q291" t="n">
         <v>25</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44224</v>
+        <v>44509</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,29 +21381,29 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>810</v>
+        <v>400</v>
       </c>
       <c r="K292" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L292" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M292" t="n">
-        <v>22222</v>
+        <v>32125</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>889</v>
+        <v>1285</v>
       </c>
       <c r="Q292" t="n">
         <v>25</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44224</v>
+        <v>44491</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,29 +21453,29 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>1100</v>
+        <v>380</v>
       </c>
       <c r="K293" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L293" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M293" t="n">
-        <v>21773</v>
+        <v>31974</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>871</v>
+        <v>1279</v>
       </c>
       <c r="Q293" t="n">
         <v>25</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44224</v>
+        <v>44344</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="K294" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L294" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="M294" t="n">
-        <v>17000</v>
+        <v>25741</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21543,11 +21543,11 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>680</v>
+        <v>1030</v>
       </c>
       <c r="Q294" t="n">
         <v>25</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44274</v>
+        <v>44224</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>650</v>
+        <v>810</v>
       </c>
       <c r="K295" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="L295" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M295" t="n">
-        <v>29292</v>
+        <v>22222</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>1172</v>
+        <v>889</v>
       </c>
       <c r="Q295" t="n">
         <v>25</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44274</v>
+        <v>44224</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="K296" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L296" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M296" t="n">
-        <v>27292</v>
+        <v>21773</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>1092</v>
+        <v>871</v>
       </c>
       <c r="Q296" t="n">
         <v>25</v>
@@ -21717,58 +21717,274 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
+        <v>44224</v>
+      </c>
+      <c r="E297" t="n">
+        <v>13</v>
+      </c>
+      <c r="F297" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J297" t="n">
+        <v>350</v>
+      </c>
+      <c r="K297" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L297" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M297" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P297" t="n">
+        <v>680</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>25</v>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>6</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D298" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E298" t="n">
+        <v>13</v>
+      </c>
+      <c r="F298" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J298" t="n">
+        <v>650</v>
+      </c>
+      <c r="K298" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L298" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M298" t="n">
+        <v>29292</v>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P298" t="n">
+        <v>1172</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>25</v>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>6</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D299" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E299" t="n">
+        <v>13</v>
+      </c>
+      <c r="F299" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J299" t="n">
+        <v>650</v>
+      </c>
+      <c r="K299" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L299" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M299" t="n">
+        <v>27292</v>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P299" t="n">
+        <v>1092</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>25</v>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>6</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D300" s="2" t="n">
         <v>44490</v>
       </c>
-      <c r="E297" t="n">
-        <v>13</v>
-      </c>
-      <c r="F297" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I297" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J297" t="n">
+      <c r="E300" t="n">
+        <v>13</v>
+      </c>
+      <c r="F300" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J300" t="n">
         <v>200</v>
       </c>
-      <c r="K297" t="n">
+      <c r="K300" t="n">
         <v>40000</v>
       </c>
-      <c r="L297" t="n">
+      <c r="L300" t="n">
         <v>42000</v>
       </c>
-      <c r="M297" t="n">
+      <c r="M300" t="n">
         <v>40800</v>
       </c>
-      <c r="N297" t="inlineStr">
+      <c r="N300" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O297" t="inlineStr">
+      <c r="O300" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P297" t="n">
+      <c r="P300" t="n">
         <v>1632</v>
       </c>
-      <c r="Q297" t="n">
-        <v>25</v>
-      </c>
-      <c r="R297" t="inlineStr">
+      <c r="Q300" t="n">
+        <v>25</v>
+      </c>
+      <c r="R300" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R300"/>
+  <dimension ref="A1:R301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44321</v>
+        <v>44536</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K86" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="L86" t="n">
-        <v>23000</v>
+        <v>50000</v>
       </c>
       <c r="M86" t="n">
-        <v>21275</v>
+        <v>50000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>851</v>
+        <v>2000</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44202</v>
+        <v>44321</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>830</v>
+        <v>400</v>
       </c>
       <c r="K87" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L87" t="n">
         <v>23000</v>
       </c>
-      <c r="L87" t="n">
-        <v>25000</v>
-      </c>
       <c r="M87" t="n">
-        <v>24108</v>
+        <v>21275</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>964</v>
+        <v>851</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6693,7 +6693,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1380</v>
+        <v>830</v>
       </c>
       <c r="K88" t="n">
         <v>23000</v>
@@ -6702,7 +6702,7 @@
         <v>25000</v>
       </c>
       <c r="M88" t="n">
-        <v>23913</v>
+        <v>24108</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6765,7 +6765,7 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1400</v>
+        <v>1380</v>
       </c>
       <c r="K89" t="n">
         <v>23000</v>
@@ -6774,7 +6774,7 @@
         <v>25000</v>
       </c>
       <c r="M89" t="n">
-        <v>23929</v>
+        <v>23913</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P89" t="n">
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44495</v>
+        <v>44202</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6837,29 +6837,29 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="K90" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L90" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M90" t="n">
-        <v>34167</v>
+        <v>23929</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1367</v>
+        <v>957</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44348</v>
+        <v>44495</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6905,33 +6905,33 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>95</v>
+        <v>600</v>
       </c>
       <c r="K91" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L91" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M91" t="n">
-        <v>25947</v>
+        <v>34167</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1038</v>
+        <v>1367</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44174</v>
+        <v>44348</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6977,11 +6977,11 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>710</v>
+        <v>95</v>
       </c>
       <c r="K92" t="n">
         <v>25000</v>
@@ -6990,23 +6990,23 @@
         <v>27000</v>
       </c>
       <c r="M92" t="n">
-        <v>26211</v>
+        <v>25947</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1747</v>
+        <v>1038</v>
       </c>
       <c r="Q92" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7053,32 +7053,32 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>400</v>
+        <v>710</v>
       </c>
       <c r="K93" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L93" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M93" t="n">
-        <v>29150</v>
+        <v>26211</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1166</v>
+        <v>1747</v>
       </c>
       <c r="Q93" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7121,36 +7121,36 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K94" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L94" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M94" t="n">
-        <v>23000</v>
+        <v>29150</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1533</v>
+        <v>1166</v>
       </c>
       <c r="Q94" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7197,32 +7197,32 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K95" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L95" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M95" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1000</v>
+        <v>1533</v>
       </c>
       <c r="Q95" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44291</v>
+        <v>44174</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="K96" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L96" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M96" t="n">
-        <v>23600</v>
+        <v>25000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44533</v>
+        <v>44291</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7341,32 +7341,32 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>230</v>
+        <v>1500</v>
       </c>
       <c r="K97" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="L97" t="n">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="M97" t="n">
-        <v>42174</v>
+        <v>23600</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2812</v>
+        <v>944</v>
       </c>
       <c r="Q97" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7413,32 +7413,32 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="K98" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="L98" t="n">
-        <v>55000</v>
+        <v>45000</v>
       </c>
       <c r="M98" t="n">
-        <v>53000</v>
+        <v>42174</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>2120</v>
+        <v>2812</v>
       </c>
       <c r="Q98" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7488,26 +7488,26 @@
         <v>250</v>
       </c>
       <c r="K99" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="L99" t="n">
-        <v>65000</v>
+        <v>55000</v>
       </c>
       <c r="M99" t="n">
-        <v>62400</v>
+        <v>53000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>2496</v>
+        <v>2120</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44193</v>
+        <v>44533</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7557,32 +7557,32 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>610</v>
+        <v>250</v>
       </c>
       <c r="K100" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="L100" t="n">
-        <v>22000</v>
+        <v>65000</v>
       </c>
       <c r="M100" t="n">
-        <v>21148</v>
+        <v>62400</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1410</v>
+        <v>2496</v>
       </c>
       <c r="Q100" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7629,32 +7629,32 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K101" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L101" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M101" t="n">
-        <v>28725</v>
+        <v>21148</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1149</v>
+        <v>1410</v>
       </c>
       <c r="Q101" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7701,29 +7701,29 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>740</v>
+        <v>400</v>
       </c>
       <c r="K102" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L102" t="n">
         <v>30000</v>
       </c>
       <c r="M102" t="n">
-        <v>28865</v>
+        <v>28725</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44517</v>
+        <v>44193</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7773,29 +7773,29 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>280</v>
+        <v>740</v>
       </c>
       <c r="K103" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L103" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="M103" t="n">
-        <v>36143</v>
+        <v>28865</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1446</v>
+        <v>1155</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44312</v>
+        <v>44517</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7845,29 +7845,29 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="K104" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L104" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M104" t="n">
-        <v>28745</v>
+        <v>36143</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1150</v>
+        <v>1446</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44265</v>
+        <v>44312</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>720</v>
+        <v>550</v>
       </c>
       <c r="K105" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L105" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M105" t="n">
-        <v>21333</v>
+        <v>28745</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>853</v>
+        <v>1150</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44309</v>
+        <v>44265</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="K106" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L106" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M106" t="n">
-        <v>28275</v>
+        <v>21333</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1131</v>
+        <v>853</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44323</v>
+        <v>44309</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K107" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L107" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M107" t="n">
-        <v>23897</v>
+        <v>28275</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>956</v>
+        <v>1131</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44328</v>
+        <v>44323</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8133,29 +8133,29 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="K108" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L108" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="M108" t="n">
-        <v>35800</v>
+        <v>23897</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1432</v>
+        <v>956</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8205,29 +8205,29 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K109" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L109" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M109" t="n">
-        <v>33667</v>
+        <v>35800</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1347</v>
+        <v>1432</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44295</v>
+        <v>44328</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K110" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="L110" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M110" t="n">
-        <v>24150</v>
+        <v>33667</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>966</v>
+        <v>1347</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44246</v>
+        <v>44295</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="K111" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L111" t="n">
         <v>25000</v>
       </c>
       <c r="M111" t="n">
-        <v>25000</v>
+        <v>24150</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1000</v>
+        <v>966</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="K112" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L112" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M112" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44249</v>
+        <v>44246</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="K113" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L113" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M113" t="n">
-        <v>25850</v>
+        <v>22000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1034</v>
+        <v>880</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8565,7 +8565,7 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K114" t="n">
         <v>25000</v>
@@ -8574,7 +8574,7 @@
         <v>27000</v>
       </c>
       <c r="M114" t="n">
-        <v>25933</v>
+        <v>25850</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K115" t="n">
         <v>25000</v>
       </c>
       <c r="L115" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M115" t="n">
-        <v>27969</v>
+        <v>25933</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1119</v>
+        <v>1037</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K116" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L116" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M116" t="n">
-        <v>24150</v>
+        <v>27969</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>966</v>
+        <v>1119</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K117" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L117" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M117" t="n">
-        <v>20000</v>
+        <v>24150</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8799,11 +8799,11 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>800</v>
+        <v>966</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="K118" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L118" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M118" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44172</v>
+        <v>44225</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8921,36 +8921,36 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K119" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L119" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="M119" t="n">
-        <v>30857</v>
+        <v>18000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2057</v>
+        <v>720</v>
       </c>
       <c r="Q119" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8997,32 +8997,32 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="K120" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L120" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="M120" t="n">
-        <v>37182</v>
+        <v>30857</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1487</v>
+        <v>2057</v>
       </c>
       <c r="Q120" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44186</v>
+        <v>44172</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9069,32 +9069,32 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>290</v>
+        <v>1100</v>
       </c>
       <c r="K121" t="n">
-        <v>20000</v>
+        <v>36000</v>
       </c>
       <c r="L121" t="n">
-        <v>22000</v>
+        <v>38000</v>
       </c>
       <c r="M121" t="n">
-        <v>20897</v>
+        <v>37182</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1393</v>
+        <v>1487</v>
       </c>
       <c r="Q121" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9141,32 +9141,32 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>600</v>
+        <v>290</v>
       </c>
       <c r="K122" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L122" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M122" t="n">
-        <v>30767</v>
+        <v>20897</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1231</v>
+        <v>1393</v>
       </c>
       <c r="Q122" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44327</v>
+        <v>44186</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9213,29 +9213,29 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K123" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L123" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M123" t="n">
-        <v>34200</v>
+        <v>30767</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1368</v>
+        <v>1231</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9285,29 +9285,29 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K124" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L124" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M124" t="n">
-        <v>30850</v>
+        <v>34200</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1234</v>
+        <v>1368</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44179</v>
+        <v>44327</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,32 +9357,32 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K125" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="L125" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="M125" t="n">
-        <v>22000</v>
+        <v>30850</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1467</v>
+        <v>1234</v>
       </c>
       <c r="Q125" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9429,32 +9429,32 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1200</v>
+        <v>340</v>
       </c>
       <c r="K126" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L126" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M126" t="n">
-        <v>27500</v>
+        <v>22000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1100</v>
+        <v>1467</v>
       </c>
       <c r="Q126" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44195</v>
+        <v>44179</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9501,29 +9501,29 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>580</v>
+        <v>1200</v>
       </c>
       <c r="K127" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L127" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M127" t="n">
-        <v>25897</v>
+        <v>27500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>1036</v>
+        <v>1100</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9573,7 +9573,7 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>900</v>
+        <v>580</v>
       </c>
       <c r="K128" t="n">
         <v>25000</v>
@@ -9582,7 +9582,7 @@
         <v>27000</v>
       </c>
       <c r="M128" t="n">
-        <v>26333</v>
+        <v>25897</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9645,7 +9645,7 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="K129" t="n">
         <v>25000</v>
@@ -9654,7 +9654,7 @@
         <v>27000</v>
       </c>
       <c r="M129" t="n">
-        <v>26077</v>
+        <v>26333</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1043</v>
+        <v>1053</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="K130" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L130" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M130" t="n">
-        <v>23889</v>
+        <v>26077</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>956</v>
+        <v>1043</v>
       </c>
       <c r="Q130" t="n">
         <v>25</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="K131" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L131" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M131" t="n">
-        <v>20000</v>
+        <v>23889</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="Q131" t="n">
         <v>25</v>
@@ -9861,7 +9861,7 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K132" t="n">
         <v>20000</v>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P132" t="n">
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K133" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L133" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M133" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9951,11 +9951,11 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>920</v>
+        <v>800</v>
       </c>
       <c r="Q133" t="n">
         <v>25</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K134" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L134" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M134" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>800</v>
+        <v>920</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10073,33 +10073,33 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>610</v>
+        <v>300</v>
       </c>
       <c r="K135" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L135" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M135" t="n">
-        <v>23852</v>
+        <v>20000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>954</v>
+        <v>800</v>
       </c>
       <c r="Q135" t="n">
         <v>25</v>
@@ -10149,7 +10149,7 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>720</v>
+        <v>610</v>
       </c>
       <c r="K136" t="n">
         <v>23000</v>
@@ -10158,7 +10158,7 @@
         <v>25000</v>
       </c>
       <c r="M136" t="n">
-        <v>24028</v>
+        <v>23852</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10167,11 +10167,11 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="Q136" t="n">
         <v>25</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44272</v>
+        <v>44216</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="K137" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L137" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M137" t="n">
-        <v>21233</v>
+        <v>24028</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10239,11 +10239,11 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>849</v>
+        <v>961</v>
       </c>
       <c r="Q137" t="n">
         <v>25</v>
@@ -10293,7 +10293,7 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K138" t="n">
         <v>20000</v>
@@ -10302,7 +10302,7 @@
         <v>22000</v>
       </c>
       <c r="M138" t="n">
-        <v>21080</v>
+        <v>21233</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="Q138" t="n">
         <v>25</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44308</v>
+        <v>44272</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10365,29 +10365,29 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K139" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L139" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M139" t="n">
-        <v>27575</v>
+        <v>21080</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>1103</v>
+        <v>843</v>
       </c>
       <c r="Q139" t="n">
         <v>25</v>
@@ -10440,26 +10440,26 @@
         <v>400</v>
       </c>
       <c r="K140" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L140" t="n">
         <v>28000</v>
       </c>
-      <c r="L140" t="n">
-        <v>30000</v>
-      </c>
       <c r="M140" t="n">
-        <v>29150</v>
+        <v>27575</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>1166</v>
+        <v>1103</v>
       </c>
       <c r="Q140" t="n">
         <v>25</v>
@@ -10512,13 +10512,13 @@
         <v>400</v>
       </c>
       <c r="K141" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L141" t="n">
         <v>30000</v>
       </c>
-      <c r="L141" t="n">
-        <v>32000</v>
-      </c>
       <c r="M141" t="n">
-        <v>30850</v>
+        <v>29150</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10527,11 +10527,11 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>1234</v>
+        <v>1166</v>
       </c>
       <c r="Q141" t="n">
         <v>25</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44232</v>
+        <v>44308</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10587,23 +10587,23 @@
         <v>30000</v>
       </c>
       <c r="L142" t="n">
-        <v>250000</v>
+        <v>32000</v>
       </c>
       <c r="M142" t="n">
-        <v>112500</v>
+        <v>30850</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>4500</v>
+        <v>1234</v>
       </c>
       <c r="Q142" t="n">
         <v>25</v>
@@ -10653,29 +10653,29 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K143" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L143" t="n">
-        <v>27000</v>
+        <v>250000</v>
       </c>
       <c r="M143" t="n">
-        <v>24038</v>
+        <v>112500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>962</v>
+        <v>4500</v>
       </c>
       <c r="Q143" t="n">
         <v>25</v>
@@ -10721,33 +10721,33 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>100</v>
+        <v>520</v>
       </c>
       <c r="K144" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L144" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M144" t="n">
-        <v>20000</v>
+        <v>24038</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>800</v>
+        <v>962</v>
       </c>
       <c r="Q144" t="n">
         <v>25</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44176</v>
+        <v>44232</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10793,36 +10793,36 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>810</v>
+        <v>100</v>
       </c>
       <c r="K145" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="L145" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="M145" t="n">
-        <v>33136</v>
+        <v>20000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>2209</v>
+        <v>800</v>
       </c>
       <c r="Q145" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10869,32 +10869,32 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>660</v>
+        <v>810</v>
       </c>
       <c r="K146" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="L146" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="M146" t="n">
-        <v>36348</v>
+        <v>33136</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>1454</v>
+        <v>2209</v>
       </c>
       <c r="Q146" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>490</v>
+        <v>660</v>
       </c>
       <c r="K147" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="L147" t="n">
         <v>37000</v>
       </c>
       <c r="M147" t="n">
-        <v>36061</v>
+        <v>36348</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>1442</v>
+        <v>1454</v>
       </c>
       <c r="Q147" t="n">
         <v>25</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44165</v>
+        <v>44176</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,32 +11013,32 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>270</v>
+        <v>490</v>
       </c>
       <c r="K148" t="n">
+        <v>35000</v>
+      </c>
+      <c r="L148" t="n">
         <v>37000</v>
       </c>
-      <c r="L148" t="n">
-        <v>38000</v>
-      </c>
       <c r="M148" t="n">
-        <v>37444</v>
+        <v>36061</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>2496</v>
+        <v>1442</v>
       </c>
       <c r="Q148" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44530</v>
+        <v>44165</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K149" t="n">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="L149" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="M149" t="n">
-        <v>34200</v>
+        <v>37444</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>2280</v>
+        <v>2496</v>
       </c>
       <c r="Q149" t="n">
         <v>15</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44293</v>
+        <v>44530</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,32 +11157,32 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="K150" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L150" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M150" t="n">
-        <v>22553</v>
+        <v>34200</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>902</v>
+        <v>2280</v>
       </c>
       <c r="Q150" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="K151" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L151" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M151" t="n">
-        <v>18867</v>
+        <v>22553</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>755</v>
+        <v>902</v>
       </c>
       <c r="Q151" t="n">
         <v>25</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="K152" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L152" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="M152" t="n">
-        <v>21000</v>
+        <v>18867</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>840</v>
+        <v>755</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="K153" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L153" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M153" t="n">
-        <v>18464</v>
+        <v>21000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>739</v>
+        <v>840</v>
       </c>
       <c r="Q153" t="n">
         <v>25</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44252</v>
+        <v>44292</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K154" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L154" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="M154" t="n">
-        <v>25850</v>
+        <v>18464</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11463,11 +11463,11 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>1034</v>
+        <v>739</v>
       </c>
       <c r="Q154" t="n">
         <v>25</v>
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>1080</v>
+        <v>400</v>
       </c>
       <c r="K155" t="n">
         <v>25000</v>
@@ -11526,7 +11526,7 @@
         <v>27000</v>
       </c>
       <c r="M155" t="n">
-        <v>26167</v>
+        <v>25850</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="Q155" t="n">
         <v>25</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44510</v>
+        <v>44252</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,29 +11589,29 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>400</v>
+        <v>1080</v>
       </c>
       <c r="K156" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L156" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M156" t="n">
-        <v>30850</v>
+        <v>26167</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1234</v>
+        <v>1047</v>
       </c>
       <c r="Q156" t="n">
         <v>25</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K157" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L157" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M157" t="n">
-        <v>25000</v>
+        <v>30850</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1000</v>
+        <v>1234</v>
       </c>
       <c r="Q157" t="n">
         <v>25</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44245</v>
+        <v>44510</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11729,33 +11729,33 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>680</v>
+        <v>100</v>
       </c>
       <c r="K158" t="n">
         <v>25000</v>
       </c>
       <c r="L158" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M158" t="n">
-        <v>26691</v>
+        <v>25000</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1068</v>
+        <v>1000</v>
       </c>
       <c r="Q158" t="n">
         <v>25</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>1350</v>
+        <v>680</v>
       </c>
       <c r="K159" t="n">
         <v>25000</v>
       </c>
       <c r="L159" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M159" t="n">
-        <v>25889</v>
+        <v>26691</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1036</v>
+        <v>1068</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>150</v>
+        <v>1350</v>
       </c>
       <c r="K160" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L160" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M160" t="n">
-        <v>20000</v>
+        <v>25889</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>800</v>
+        <v>1036</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11952,13 +11952,13 @@
         <v>150</v>
       </c>
       <c r="K161" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L161" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M161" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11967,11 +11967,11 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44243</v>
+        <v>44245</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>660</v>
+        <v>150</v>
       </c>
       <c r="K162" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L162" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M162" t="n">
-        <v>26303</v>
+        <v>22000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1052</v>
+        <v>880</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>1150</v>
+        <v>660</v>
       </c>
       <c r="K163" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L163" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M163" t="n">
-        <v>24043</v>
+        <v>26303</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>962</v>
+        <v>1052</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44250</v>
+        <v>44243</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>400</v>
+        <v>1150</v>
       </c>
       <c r="K164" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L164" t="n">
         <v>25000</v>
       </c>
-      <c r="L164" t="n">
-        <v>27000</v>
-      </c>
       <c r="M164" t="n">
-        <v>25850</v>
+        <v>24043</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12183,11 +12183,11 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>1034</v>
+        <v>962</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12246,7 +12246,7 @@
         <v>27000</v>
       </c>
       <c r="M165" t="n">
-        <v>26150</v>
+        <v>25850</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44476</v>
+        <v>44250</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,29 +12309,29 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K166" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="L166" t="n">
-        <v>80000</v>
+        <v>27000</v>
       </c>
       <c r="M166" t="n">
-        <v>77667</v>
+        <v>26150</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3107</v>
+        <v>1046</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44236</v>
+        <v>44476</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="K167" t="n">
-        <v>18000</v>
+        <v>75000</v>
       </c>
       <c r="L167" t="n">
-        <v>20000</v>
+        <v>80000</v>
       </c>
       <c r="M167" t="n">
-        <v>18836</v>
+        <v>77667</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>753</v>
+        <v>3107</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12453,29 +12453,29 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K168" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L168" t="n">
         <v>20000</v>
       </c>
-      <c r="L168" t="n">
-        <v>22000</v>
-      </c>
       <c r="M168" t="n">
-        <v>20800</v>
+        <v>18836</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>832</v>
+        <v>753</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12525,7 +12525,7 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K169" t="n">
         <v>20000</v>
@@ -12534,7 +12534,7 @@
         <v>22000</v>
       </c>
       <c r="M169" t="n">
-        <v>21150</v>
+        <v>20800</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12543,11 +12543,11 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K170" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L170" t="n">
         <v>22000</v>
       </c>
       <c r="M170" t="n">
-        <v>20500</v>
+        <v>21150</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12665,33 +12665,33 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>260</v>
+        <v>1600</v>
       </c>
       <c r="K171" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L171" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M171" t="n">
-        <v>15000</v>
+        <v>20500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>600</v>
+        <v>820</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12741,29 +12741,29 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="K172" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L172" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M172" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K173" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L173" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M173" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12831,11 +12831,11 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="K174" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L174" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M174" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44354</v>
+        <v>44236</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K175" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L175" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="M175" t="n">
-        <v>26133</v>
+        <v>15000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>1045</v>
+        <v>600</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44196</v>
+        <v>44354</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13025,24 +13025,24 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K176" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L176" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M176" t="n">
-        <v>28000</v>
+        <v>26133</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>1120</v>
+        <v>1045</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K177" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L177" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M177" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K178" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L178" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M178" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K179" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L179" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M179" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>800</v>
+        <v>1120</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K180" t="n">
         <v>20000</v>
@@ -13335,7 +13335,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P180" t="n">
@@ -13389,7 +13389,7 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K181" t="n">
         <v>20000</v>
@@ -13407,7 +13407,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P181" t="n">
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44306</v>
+        <v>44196</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,33 +13457,33 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="K182" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L182" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M182" t="n">
-        <v>25905</v>
+        <v>20000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1036</v>
+        <v>800</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44188</v>
+        <v>44306</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>1130</v>
+        <v>420</v>
       </c>
       <c r="K183" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="L183" t="n">
-        <v>40000</v>
+        <v>27000</v>
       </c>
       <c r="M183" t="n">
-        <v>38796</v>
+        <v>25905</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1552</v>
+        <v>1036</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>850</v>
+        <v>1130</v>
       </c>
       <c r="K184" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="L184" t="n">
         <v>40000</v>
       </c>
       <c r="M184" t="n">
-        <v>39188</v>
+        <v>38796</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>1568</v>
+        <v>1552</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>230</v>
+        <v>850</v>
       </c>
       <c r="K185" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="L185" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M185" t="n">
-        <v>35000</v>
+        <v>39188</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1400</v>
+        <v>1568</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13749,7 +13749,7 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K186" t="n">
         <v>35000</v>
@@ -13767,7 +13767,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P186" t="n">
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44281</v>
+        <v>44188</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>1010</v>
+        <v>170</v>
       </c>
       <c r="K187" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L187" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M187" t="n">
-        <v>19109</v>
+        <v>35000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>764</v>
+        <v>1400</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>580</v>
+        <v>1010</v>
       </c>
       <c r="K188" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L188" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M188" t="n">
-        <v>17448</v>
+        <v>19109</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>698</v>
+        <v>764</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="K189" t="n">
         <v>17000</v>
       </c>
       <c r="L189" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M189" t="n">
-        <v>18233</v>
+        <v>17448</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>729</v>
+        <v>698</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="K190" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L190" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M190" t="n">
-        <v>15000</v>
+        <v>18233</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>600</v>
+        <v>729</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44285</v>
+        <v>44281</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>730</v>
+        <v>320</v>
       </c>
       <c r="K191" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L191" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M191" t="n">
-        <v>28014</v>
+        <v>15000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1121</v>
+        <v>600</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>500</v>
+        <v>730</v>
       </c>
       <c r="K192" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L192" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M192" t="n">
-        <v>26540</v>
+        <v>28014</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1062</v>
+        <v>1121</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44263</v>
+        <v>44285</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="K193" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L193" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M193" t="n">
-        <v>22536</v>
+        <v>26540</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>901</v>
+        <v>1062</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="K194" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L194" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M194" t="n">
-        <v>21400</v>
+        <v>22536</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>856</v>
+        <v>901</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44277</v>
+        <v>44263</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K195" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="L195" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M195" t="n">
-        <v>28275</v>
+        <v>21400</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1131</v>
+        <v>856</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44237</v>
+        <v>44277</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K196" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L196" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M196" t="n">
-        <v>23875</v>
+        <v>28275</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>955</v>
+        <v>1131</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14541,7 +14541,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="K197" t="n">
         <v>23000</v>
@@ -14550,7 +14550,7 @@
         <v>25000</v>
       </c>
       <c r="M197" t="n">
-        <v>23945</v>
+        <v>23875</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44221</v>
+        <v>44237</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K198" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L198" t="n">
         <v>25000</v>
       </c>
-      <c r="L198" t="n">
-        <v>27000</v>
-      </c>
       <c r="M198" t="n">
-        <v>25850</v>
+        <v>23945</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1034</v>
+        <v>958</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K199" t="n">
         <v>25000</v>
@@ -14694,7 +14694,7 @@
         <v>27000</v>
       </c>
       <c r="M199" t="n">
-        <v>25875</v>
+        <v>25850</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14703,11 +14703,11 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44201</v>
+        <v>44221</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,29 +14757,29 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="K200" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L200" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M200" t="n">
-        <v>23545</v>
+        <v>25875</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>942</v>
+        <v>1035</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14829,7 +14829,7 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K201" t="n">
         <v>23000</v>
@@ -14838,20 +14838,20 @@
         <v>25000</v>
       </c>
       <c r="M201" t="n">
-        <v>23667</v>
+        <v>23545</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14901,7 +14901,7 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="K202" t="n">
         <v>23000</v>
@@ -14910,7 +14910,7 @@
         <v>25000</v>
       </c>
       <c r="M202" t="n">
-        <v>23897</v>
+        <v>23667</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="K203" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L203" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M203" t="n">
-        <v>22571</v>
+        <v>23897</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14991,11 +14991,11 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>903</v>
+        <v>956</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15041,33 +15041,33 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K204" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L204" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M204" t="n">
-        <v>20000</v>
+        <v>22571</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>800</v>
+        <v>903</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15130,12 +15130,12 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P205" t="n">
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K206" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L206" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M206" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15261,7 +15261,7 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K207" t="n">
         <v>18000</v>
@@ -15279,7 +15279,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P207" t="n">
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44208</v>
+        <v>44201</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K208" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L208" t="n">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="M208" t="n">
-        <v>35850</v>
+        <v>18000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>1434</v>
+        <v>720</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15405,7 +15405,7 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="K209" t="n">
         <v>35000</v>
@@ -15414,7 +15414,7 @@
         <v>37000</v>
       </c>
       <c r="M209" t="n">
-        <v>36061</v>
+        <v>35850</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44284</v>
+        <v>44208</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="K210" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L210" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="M210" t="n">
-        <v>27600</v>
+        <v>36061</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>1104</v>
+        <v>1442</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44210</v>
+        <v>44284</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="K211" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L211" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="M211" t="n">
-        <v>33000</v>
+        <v>27600</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>1320</v>
+        <v>1104</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>880</v>
+        <v>700</v>
       </c>
       <c r="K212" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L212" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="M212" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>1240</v>
+        <v>1320</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44496</v>
+        <v>44210</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,29 +15693,29 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>530</v>
+        <v>880</v>
       </c>
       <c r="K213" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L213" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="M213" t="n">
-        <v>37170</v>
+        <v>31000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1487</v>
+        <v>1240</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44242</v>
+        <v>44496</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,29 +15765,29 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="K214" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L214" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M214" t="n">
-        <v>24150</v>
+        <v>37170</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>966</v>
+        <v>1487</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15846,7 +15846,7 @@
         <v>25000</v>
       </c>
       <c r="M215" t="n">
-        <v>23850</v>
+        <v>24150</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44518</v>
+        <v>44242</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15912,26 +15912,26 @@
         <v>400</v>
       </c>
       <c r="K216" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L216" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M216" t="n">
-        <v>34150</v>
+        <v>23850</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>1366</v>
+        <v>954</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44315</v>
+        <v>44518</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K217" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L217" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M217" t="n">
-        <v>24561</v>
+        <v>34150</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>982</v>
+        <v>1366</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16053,20 +16053,20 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="K218" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L218" t="n">
         <v>25000</v>
       </c>
-      <c r="L218" t="n">
-        <v>27000</v>
-      </c>
       <c r="M218" t="n">
-        <v>25867</v>
+        <v>24561</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1035</v>
+        <v>982</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44168</v>
+        <v>44315</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,29 +16125,29 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K219" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="L219" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M219" t="n">
-        <v>36575</v>
+        <v>25867</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1463</v>
+        <v>1035</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16210,12 +16210,12 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P220" t="n">
@@ -16265,33 +16265,33 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="K221" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="L221" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="M221" t="n">
-        <v>32000</v>
+        <v>36575</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1280</v>
+        <v>1463</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44231</v>
+        <v>44168</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16337,33 +16337,33 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>550</v>
+        <v>260</v>
       </c>
       <c r="K222" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L222" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M222" t="n">
-        <v>26164</v>
+        <v>32000</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1047</v>
+        <v>1280</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>1400</v>
+        <v>550</v>
       </c>
       <c r="K223" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L223" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M223" t="n">
-        <v>24143</v>
+        <v>26164</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16431,11 +16431,11 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>966</v>
+        <v>1047</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16485,29 +16485,29 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>680</v>
+        <v>1400</v>
       </c>
       <c r="K224" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L224" t="n">
         <v>25000</v>
       </c>
-      <c r="L224" t="n">
-        <v>27000</v>
-      </c>
       <c r="M224" t="n">
-        <v>26324</v>
+        <v>24143</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>1053</v>
+        <v>966</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16553,33 +16553,33 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>200</v>
+        <v>680</v>
       </c>
       <c r="K225" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L225" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M225" t="n">
-        <v>20000</v>
+        <v>26324</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>800</v>
+        <v>1053</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K226" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L226" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M226" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16701,29 +16701,29 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="K227" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L227" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M227" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44298</v>
+        <v>44231</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16769,33 +16769,33 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="K228" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L228" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M228" t="n">
-        <v>26080</v>
+        <v>20000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1043</v>
+        <v>800</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44215</v>
+        <v>44298</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K229" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L229" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M229" t="n">
-        <v>29150</v>
+        <v>26080</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1166</v>
+        <v>1043</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="K230" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="L230" t="n">
         <v>30000</v>
       </c>
       <c r="M230" t="n">
-        <v>27805</v>
+        <v>29150</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16935,11 +16935,11 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1112</v>
+        <v>1166</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,29 +16989,29 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>400</v>
+        <v>820</v>
       </c>
       <c r="K231" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="L231" t="n">
         <v>30000</v>
       </c>
       <c r="M231" t="n">
-        <v>29150</v>
+        <v>27805</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1166</v>
+        <v>1112</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17061,29 +17061,29 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K232" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L232" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M232" t="n">
-        <v>23929</v>
+        <v>29150</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>957</v>
+        <v>1166</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K233" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L233" t="n">
         <v>25000</v>
       </c>
-      <c r="L233" t="n">
-        <v>27000</v>
-      </c>
       <c r="M233" t="n">
-        <v>25800</v>
+        <v>23929</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17151,11 +17151,11 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1032</v>
+        <v>957</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17201,20 +17201,20 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="K234" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L234" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M234" t="n">
-        <v>20000</v>
+        <v>25800</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>800</v>
+        <v>1032</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17295,7 +17295,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P235" t="n">
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44244</v>
+        <v>44204</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17345,20 +17345,20 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K236" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L236" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M236" t="n">
-        <v>25850</v>
+        <v>20000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17367,11 +17367,11 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1034</v>
+        <v>800</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17439,7 +17439,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P237" t="n">
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44200</v>
+        <v>44244</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17496,26 +17496,26 @@
         <v>400</v>
       </c>
       <c r="K238" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L238" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M238" t="n">
-        <v>24150</v>
+        <v>25850</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>966</v>
+        <v>1034</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17565,7 +17565,7 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K239" t="n">
         <v>23000</v>
@@ -17574,7 +17574,7 @@
         <v>25000</v>
       </c>
       <c r="M239" t="n">
-        <v>24103</v>
+        <v>24150</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17583,11 +17583,11 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17637,29 +17637,29 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="K240" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L240" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M240" t="n">
-        <v>21769</v>
+        <v>24103</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>871</v>
+        <v>964</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17709,7 +17709,7 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>1350</v>
+        <v>390</v>
       </c>
       <c r="K241" t="n">
         <v>20000</v>
@@ -17718,7 +17718,7 @@
         <v>23000</v>
       </c>
       <c r="M241" t="n">
-        <v>21444</v>
+        <v>21769</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44166</v>
+        <v>44200</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,32 +17781,32 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>430</v>
+        <v>1350</v>
       </c>
       <c r="K242" t="n">
-        <v>36000</v>
+        <v>20000</v>
       </c>
       <c r="L242" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="M242" t="n">
-        <v>37209</v>
+        <v>21444</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>2481</v>
+        <v>858</v>
       </c>
       <c r="Q242" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44259</v>
+        <v>44166</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,32 +17853,32 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="K243" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="L243" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="M243" t="n">
-        <v>25514</v>
+        <v>37209</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1021</v>
+        <v>2481</v>
       </c>
       <c r="Q243" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K244" t="n">
         <v>25000</v>
       </c>
       <c r="L244" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="M244" t="n">
-        <v>25850</v>
+        <v>25514</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44278</v>
+        <v>44259</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,7 +17997,7 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>810</v>
+        <v>400</v>
       </c>
       <c r="K245" t="n">
         <v>25000</v>
@@ -18006,7 +18006,7 @@
         <v>27000</v>
       </c>
       <c r="M245" t="n">
-        <v>26136</v>
+        <v>25850</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18069,7 +18069,7 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>1030</v>
+        <v>810</v>
       </c>
       <c r="K246" t="n">
         <v>25000</v>
@@ -18078,7 +18078,7 @@
         <v>27000</v>
       </c>
       <c r="M246" t="n">
-        <v>25680</v>
+        <v>26136</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44522</v>
+        <v>44278</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,32 +18141,32 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>95</v>
+        <v>1030</v>
       </c>
       <c r="K247" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L247" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M247" t="n">
-        <v>24053</v>
+        <v>25680</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1604</v>
+        <v>1027</v>
       </c>
       <c r="Q247" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44218</v>
+        <v>44522</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,32 +18213,32 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>610</v>
+        <v>95</v>
       </c>
       <c r="K248" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L248" t="n">
         <v>25000</v>
       </c>
-      <c r="L248" t="n">
-        <v>27000</v>
-      </c>
       <c r="M248" t="n">
-        <v>25951</v>
+        <v>24053</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1038</v>
+        <v>1604</v>
       </c>
       <c r="Q248" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="K249" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L249" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M249" t="n">
-        <v>24103</v>
+        <v>25951</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18303,11 +18303,11 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>964</v>
+        <v>1038</v>
       </c>
       <c r="Q249" t="n">
         <v>25</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44280</v>
+        <v>44218</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="K250" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L250" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M250" t="n">
-        <v>31098</v>
+        <v>24103</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1244</v>
+        <v>964</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>1400</v>
+        <v>510</v>
       </c>
       <c r="K251" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L251" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M251" t="n">
-        <v>29071</v>
+        <v>31098</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18447,11 +18447,11 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1163</v>
+        <v>1244</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44300</v>
+        <v>44280</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>580</v>
+        <v>1400</v>
       </c>
       <c r="K252" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L252" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M252" t="n">
-        <v>24448</v>
+        <v>29071</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>978</v>
+        <v>1163</v>
       </c>
       <c r="Q252" t="n">
         <v>25</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44497</v>
+        <v>44300</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,29 +18573,29 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="K253" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="L253" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M253" t="n">
-        <v>34038</v>
+        <v>24448</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1362</v>
+        <v>978</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44267</v>
+        <v>44497</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18648,26 +18648,26 @@
         <v>520</v>
       </c>
       <c r="K254" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L254" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M254" t="n">
-        <v>21038</v>
+        <v>34038</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>842</v>
+        <v>1362</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="K255" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L255" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M255" t="n">
-        <v>18979</v>
+        <v>21038</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>759</v>
+        <v>842</v>
       </c>
       <c r="Q255" t="n">
         <v>25</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44270</v>
+        <v>44267</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>200</v>
+        <v>470</v>
       </c>
       <c r="K256" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L256" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M256" t="n">
-        <v>25000</v>
+        <v>18979</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1000</v>
+        <v>759</v>
       </c>
       <c r="Q256" t="n">
         <v>25</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K257" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L257" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M257" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44525</v>
+        <v>44270</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18929,24 +18929,24 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K258" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L258" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M258" t="n">
-        <v>28579</v>
+        <v>23000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>1905</v>
+        <v>920</v>
       </c>
       <c r="Q258" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -19005,32 +19005,32 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="K259" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L259" t="n">
         <v>30000</v>
       </c>
-      <c r="L259" t="n">
-        <v>35000</v>
-      </c>
       <c r="M259" t="n">
-        <v>33000</v>
+        <v>28579</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1320</v>
+        <v>1905</v>
       </c>
       <c r="Q259" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44286</v>
+        <v>44525</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,29 +19077,29 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K260" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L260" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M260" t="n">
-        <v>22675</v>
+        <v>33000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>907</v>
+        <v>1320</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K261" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L261" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M261" t="n">
-        <v>18308</v>
+        <v>22675</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19167,11 +19167,11 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>732</v>
+        <v>907</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K262" t="n">
         <v>15000</v>
       </c>
       <c r="L262" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M262" t="n">
-        <v>20125</v>
+        <v>18308</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>805</v>
+        <v>732</v>
       </c>
       <c r="Q262" t="n">
         <v>25</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44307</v>
+        <v>44286</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="K263" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="L263" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M263" t="n">
-        <v>28714</v>
+        <v>20125</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19311,11 +19311,11 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>1149</v>
+        <v>805</v>
       </c>
       <c r="Q263" t="n">
         <v>25</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="K264" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L264" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M264" t="n">
-        <v>25807</v>
+        <v>28714</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>1032</v>
+        <v>1149</v>
       </c>
       <c r="Q264" t="n">
         <v>25</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44299</v>
+        <v>44307</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,7 +19437,7 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>1080</v>
+        <v>570</v>
       </c>
       <c r="K265" t="n">
         <v>25000</v>
@@ -19446,7 +19446,7 @@
         <v>27000</v>
       </c>
       <c r="M265" t="n">
-        <v>25833</v>
+        <v>25807</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="Q265" t="n">
         <v>25</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44316</v>
+        <v>44299</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>550</v>
+        <v>1080</v>
       </c>
       <c r="K266" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L266" t="n">
         <v>27000</v>
       </c>
-      <c r="L266" t="n">
-        <v>29000</v>
-      </c>
       <c r="M266" t="n">
-        <v>28164</v>
+        <v>25833</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>1127</v>
+        <v>1033</v>
       </c>
       <c r="Q266" t="n">
         <v>25</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44229</v>
+        <v>44316</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19584,13 +19584,13 @@
         <v>550</v>
       </c>
       <c r="K267" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L267" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M267" t="n">
-        <v>33909</v>
+        <v>28164</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>1356</v>
+        <v>1127</v>
       </c>
       <c r="Q267" t="n">
         <v>25</v>
@@ -19653,7 +19653,7 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="K268" t="n">
         <v>33000</v>
@@ -19662,7 +19662,7 @@
         <v>35000</v>
       </c>
       <c r="M268" t="n">
-        <v>33791</v>
+        <v>33909</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="Q268" t="n">
         <v>25</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44239</v>
+        <v>44229</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>650</v>
+        <v>430</v>
       </c>
       <c r="K269" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L269" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M269" t="n">
-        <v>26292</v>
+        <v>33791</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1052</v>
+        <v>1352</v>
       </c>
       <c r="Q269" t="n">
         <v>25</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="K270" t="n">
         <v>25000</v>
       </c>
       <c r="L270" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="M270" t="n">
-        <v>25582</v>
+        <v>26292</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19815,11 +19815,11 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>1023</v>
+        <v>1052</v>
       </c>
       <c r="Q270" t="n">
         <v>25</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44512</v>
+        <v>44239</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,29 +19869,29 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>180</v>
+        <v>550</v>
       </c>
       <c r="K271" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L271" t="n">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="M271" t="n">
-        <v>36667</v>
+        <v>25582</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>1467</v>
+        <v>1023</v>
       </c>
       <c r="Q271" t="n">
         <v>25</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44230</v>
+        <v>44512</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K272" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L272" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="M272" t="n">
-        <v>29150</v>
+        <v>36667</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>1166</v>
+        <v>1467</v>
       </c>
       <c r="Q272" t="n">
         <v>25</v>
@@ -20013,29 +20013,29 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K273" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L273" t="n">
         <v>30000</v>
       </c>
       <c r="M273" t="n">
-        <v>28380</v>
+        <v>29150</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>1135</v>
+        <v>1166</v>
       </c>
       <c r="Q273" t="n">
         <v>25</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K274" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L274" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M274" t="n">
-        <v>25850</v>
+        <v>28380</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,11 +20103,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>1034</v>
+        <v>1135</v>
       </c>
       <c r="Q274" t="n">
         <v>25</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44160</v>
+        <v>44230</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20160,29 +20160,29 @@
         <v>400</v>
       </c>
       <c r="K275" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="L275" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="M275" t="n">
-        <v>37425</v>
+        <v>25850</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>2495</v>
+        <v>1034</v>
       </c>
       <c r="Q275" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,32 +20229,32 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="K276" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="L276" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="M276" t="n">
-        <v>28871</v>
+        <v>37425</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>1155</v>
+        <v>2495</v>
       </c>
       <c r="Q276" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>460</v>
+        <v>620</v>
       </c>
       <c r="K277" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L277" t="n">
         <v>30000</v>
       </c>
       <c r="M277" t="n">
-        <v>29587</v>
+        <v>28871</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20319,11 +20319,11 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>1183</v>
+        <v>1155</v>
       </c>
       <c r="Q277" t="n">
         <v>25</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44167</v>
+        <v>44211</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="K278" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L278" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="M278" t="n">
-        <v>35897</v>
+        <v>29587</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20391,11 +20391,11 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>1436</v>
+        <v>1183</v>
       </c>
       <c r="Q278" t="n">
         <v>25</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>610</v>
+        <v>580</v>
       </c>
       <c r="K279" t="n">
-        <v>43000</v>
+        <v>35000</v>
       </c>
       <c r="L279" t="n">
-        <v>45000</v>
+        <v>37000</v>
       </c>
       <c r="M279" t="n">
-        <v>44148</v>
+        <v>35897</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>1766</v>
+        <v>1436</v>
       </c>
       <c r="Q279" t="n">
         <v>25</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44181</v>
+        <v>44167</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,32 +20517,32 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K280" t="n">
-        <v>20000</v>
+        <v>43000</v>
       </c>
       <c r="L280" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="M280" t="n">
-        <v>20850</v>
+        <v>44148</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>1390</v>
+        <v>1766</v>
       </c>
       <c r="Q280" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20589,32 +20589,32 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="K281" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L281" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M281" t="n">
-        <v>28280</v>
+        <v>20850</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>1131</v>
+        <v>1390</v>
       </c>
       <c r="Q281" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20661,20 +20661,20 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K282" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L282" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M282" t="n">
-        <v>24150</v>
+        <v>28280</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>966</v>
+        <v>1131</v>
       </c>
       <c r="Q282" t="n">
         <v>25</v>
@@ -20736,13 +20736,13 @@
         <v>400</v>
       </c>
       <c r="K283" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L283" t="n">
         <v>25000</v>
       </c>
-      <c r="L283" t="n">
-        <v>27000</v>
-      </c>
       <c r="M283" t="n">
-        <v>25850</v>
+        <v>24150</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20751,11 +20751,11 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>1034</v>
+        <v>966</v>
       </c>
       <c r="Q283" t="n">
         <v>25</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44189</v>
+        <v>44181</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K284" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L284" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M284" t="n">
-        <v>33000</v>
+        <v>25850</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20823,11 +20823,11 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>1320</v>
+        <v>1034</v>
       </c>
       <c r="Q284" t="n">
         <v>25</v>
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="K285" t="n">
         <v>30000</v>
@@ -20886,7 +20886,7 @@
         <v>35000</v>
       </c>
       <c r="M285" t="n">
-        <v>32727</v>
+        <v>33000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20895,11 +20895,11 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>1309</v>
+        <v>1320</v>
       </c>
       <c r="Q285" t="n">
         <v>25</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K286" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L286" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M286" t="n">
-        <v>25000</v>
+        <v>32727</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20967,11 +20967,11 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>1000</v>
+        <v>1309</v>
       </c>
       <c r="Q286" t="n">
         <v>25</v>
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K287" t="n">
         <v>25000</v>
@@ -21039,7 +21039,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P287" t="n">
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44314</v>
+        <v>44189</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K288" t="n">
         <v>25000</v>
       </c>
       <c r="L288" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M288" t="n">
-        <v>26150</v>
+        <v>25000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21111,11 +21111,11 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>1046</v>
+        <v>1000</v>
       </c>
       <c r="Q288" t="n">
         <v>25</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K289" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L289" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M289" t="n">
-        <v>24585</v>
+        <v>26150</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21183,11 +21183,11 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>983</v>
+        <v>1046</v>
       </c>
       <c r="Q289" t="n">
         <v>25</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>50</v>
+        <v>410</v>
       </c>
       <c r="K290" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L290" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M290" t="n">
-        <v>20000</v>
+        <v>24585</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21255,11 +21255,11 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>800</v>
+        <v>983</v>
       </c>
       <c r="Q290" t="n">
         <v>25</v>
@@ -21309,7 +21309,7 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K291" t="n">
         <v>20000</v>
@@ -21327,7 +21327,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P291" t="n">
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44509</v>
+        <v>44314</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21377,33 +21377,33 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="K292" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L292" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M292" t="n">
-        <v>32125</v>
+        <v>20000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>1285</v>
+        <v>800</v>
       </c>
       <c r="Q292" t="n">
         <v>25</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44491</v>
+        <v>44509</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,7 +21453,7 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="K293" t="n">
         <v>30000</v>
@@ -21462,7 +21462,7 @@
         <v>35000</v>
       </c>
       <c r="M293" t="n">
-        <v>31974</v>
+        <v>32125</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21471,11 +21471,11 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="Q293" t="n">
         <v>25</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44344</v>
+        <v>44491</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,29 +21525,29 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="K294" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L294" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M294" t="n">
-        <v>25741</v>
+        <v>31974</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>1030</v>
+        <v>1279</v>
       </c>
       <c r="Q294" t="n">
         <v>25</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44224</v>
+        <v>44344</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>810</v>
+        <v>270</v>
       </c>
       <c r="K295" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L295" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="M295" t="n">
-        <v>22222</v>
+        <v>25741</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>889</v>
+        <v>1030</v>
       </c>
       <c r="Q295" t="n">
         <v>25</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>1100</v>
+        <v>810</v>
       </c>
       <c r="K296" t="n">
         <v>20000</v>
       </c>
       <c r="L296" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="M296" t="n">
-        <v>21773</v>
+        <v>22222</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21687,11 +21687,11 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="Q296" t="n">
         <v>25</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="K297" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L297" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M297" t="n">
-        <v>17000</v>
+        <v>21773</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>680</v>
+        <v>871</v>
       </c>
       <c r="Q297" t="n">
         <v>25</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44274</v>
+        <v>44224</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="K298" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="L298" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M298" t="n">
-        <v>29292</v>
+        <v>17000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21831,11 +21831,11 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>1172</v>
+        <v>680</v>
       </c>
       <c r="Q298" t="n">
         <v>25</v>
@@ -21888,13 +21888,13 @@
         <v>650</v>
       </c>
       <c r="K299" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="L299" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M299" t="n">
-        <v>27292</v>
+        <v>29292</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21903,11 +21903,11 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>1092</v>
+        <v>1172</v>
       </c>
       <c r="Q299" t="n">
         <v>25</v>
@@ -21933,58 +21933,130 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E300" t="n">
+        <v>13</v>
+      </c>
+      <c r="F300" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J300" t="n">
+        <v>650</v>
+      </c>
+      <c r="K300" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L300" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M300" t="n">
+        <v>27292</v>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P300" t="n">
+        <v>1092</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>25</v>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>6</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D301" s="2" t="n">
         <v>44490</v>
       </c>
-      <c r="E300" t="n">
-        <v>13</v>
-      </c>
-      <c r="F300" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I300" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J300" t="n">
+      <c r="E301" t="n">
+        <v>13</v>
+      </c>
+      <c r="F301" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J301" t="n">
         <v>200</v>
       </c>
-      <c r="K300" t="n">
+      <c r="K301" t="n">
         <v>40000</v>
       </c>
-      <c r="L300" t="n">
+      <c r="L301" t="n">
         <v>42000</v>
       </c>
-      <c r="M300" t="n">
+      <c r="M301" t="n">
         <v>40800</v>
       </c>
-      <c r="N300" t="inlineStr">
+      <c r="N301" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O300" t="inlineStr">
+      <c r="O301" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P300" t="n">
+      <c r="P301" t="n">
         <v>1632</v>
       </c>
-      <c r="Q300" t="n">
-        <v>25</v>
-      </c>
-      <c r="R300" t="inlineStr">
+      <c r="Q301" t="n">
+        <v>25</v>
+      </c>
+      <c r="R301" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R302"/>
+  <dimension ref="A1:R305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44232</v>
+        <v>44539</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,32 +10725,32 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K144" t="n">
         <v>30000</v>
       </c>
       <c r="L144" t="n">
-        <v>250000</v>
+        <v>35000</v>
       </c>
       <c r="M144" t="n">
-        <v>112500</v>
+        <v>33000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>4500</v>
+        <v>2200</v>
       </c>
       <c r="Q144" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44232</v>
+        <v>44539</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K145" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="L145" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="M145" t="n">
-        <v>24038</v>
+        <v>38800</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Talagante</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>962</v>
+        <v>1552</v>
       </c>
       <c r="Q145" t="n">
         <v>25</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44232</v>
+        <v>44539</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10865,33 +10865,33 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K146" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L146" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M146" t="n">
-        <v>20000</v>
+        <v>37667</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>800</v>
+        <v>1507</v>
       </c>
       <c r="Q146" t="n">
         <v>25</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44176</v>
+        <v>44232</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,32 +10941,32 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>810</v>
+        <v>400</v>
       </c>
       <c r="K147" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L147" t="n">
-        <v>34000</v>
+        <v>250000</v>
       </c>
       <c r="M147" t="n">
-        <v>33136</v>
+        <v>112500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>2209</v>
+        <v>4500</v>
       </c>
       <c r="Q147" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44176</v>
+        <v>44232</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>660</v>
+        <v>520</v>
       </c>
       <c r="K148" t="n">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="L148" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M148" t="n">
-        <v>36348</v>
+        <v>24038</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>1454</v>
+        <v>962</v>
       </c>
       <c r="Q148" t="n">
         <v>25</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44176</v>
+        <v>44232</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11081,33 +11081,33 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>490</v>
+        <v>100</v>
       </c>
       <c r="K149" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L149" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="M149" t="n">
-        <v>36061</v>
+        <v>20000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1442</v>
+        <v>800</v>
       </c>
       <c r="Q149" t="n">
         <v>25</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44165</v>
+        <v>44176</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="K150" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="L150" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="M150" t="n">
-        <v>37444</v>
+        <v>33136</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>2496</v>
+        <v>2209</v>
       </c>
       <c r="Q150" t="n">
         <v>15</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44530</v>
+        <v>44176</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,32 +11229,32 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>200</v>
+        <v>660</v>
       </c>
       <c r="K151" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="L151" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M151" t="n">
-        <v>34200</v>
+        <v>36348</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>2280</v>
+        <v>1454</v>
       </c>
       <c r="Q151" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44293</v>
+        <v>44176</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>380</v>
+        <v>490</v>
       </c>
       <c r="K152" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="L152" t="n">
-        <v>23000</v>
+        <v>37000</v>
       </c>
       <c r="M152" t="n">
-        <v>22553</v>
+        <v>36061</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>902</v>
+        <v>1442</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44293</v>
+        <v>44165</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,32 +11373,32 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K153" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="L153" t="n">
-        <v>20000</v>
+        <v>38000</v>
       </c>
       <c r="M153" t="n">
-        <v>18867</v>
+        <v>37444</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>755</v>
+        <v>2496</v>
       </c>
       <c r="Q153" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44292</v>
+        <v>44530</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11445,32 +11445,32 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="K154" t="n">
-        <v>21000</v>
+        <v>33000</v>
       </c>
       <c r="L154" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="M154" t="n">
-        <v>21000</v>
+        <v>34200</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>840</v>
+        <v>2280</v>
       </c>
       <c r="Q154" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="K155" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L155" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="M155" t="n">
-        <v>18464</v>
+        <v>22553</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>739</v>
+        <v>902</v>
       </c>
       <c r="Q155" t="n">
         <v>25</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44252</v>
+        <v>44293</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K156" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L156" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M156" t="n">
-        <v>25850</v>
+        <v>18867</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1034</v>
+        <v>755</v>
       </c>
       <c r="Q156" t="n">
         <v>25</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44252</v>
+        <v>44292</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1080</v>
+        <v>380</v>
       </c>
       <c r="K157" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="L157" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="M157" t="n">
-        <v>26167</v>
+        <v>21000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1047</v>
+        <v>840</v>
       </c>
       <c r="Q157" t="n">
         <v>25</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44510</v>
+        <v>44292</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,29 +11733,29 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K158" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L158" t="n">
-        <v>32000</v>
+        <v>19000</v>
       </c>
       <c r="M158" t="n">
-        <v>30850</v>
+        <v>18464</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1234</v>
+        <v>739</v>
       </c>
       <c r="Q158" t="n">
         <v>25</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44510</v>
+        <v>44252</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11801,33 +11801,33 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K159" t="n">
         <v>25000</v>
       </c>
       <c r="L159" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M159" t="n">
-        <v>25000</v>
+        <v>25850</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1000</v>
+        <v>1034</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44245</v>
+        <v>44252</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>680</v>
+        <v>1080</v>
       </c>
       <c r="K160" t="n">
         <v>25000</v>
       </c>
       <c r="L160" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M160" t="n">
-        <v>26691</v>
+        <v>26167</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44245</v>
+        <v>44510</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,29 +11949,29 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>1350</v>
+        <v>400</v>
       </c>
       <c r="K161" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L161" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M161" t="n">
-        <v>25889</v>
+        <v>30850</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1036</v>
+        <v>1234</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44245</v>
+        <v>44510</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,29 +12021,29 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K162" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L162" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M162" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>150</v>
+        <v>680</v>
       </c>
       <c r="K163" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L163" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M163" t="n">
-        <v>22000</v>
+        <v>26691</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>880</v>
+        <v>1068</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44243</v>
+        <v>44245</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,7 +12165,7 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>660</v>
+        <v>1350</v>
       </c>
       <c r="K164" t="n">
         <v>25000</v>
@@ -12174,7 +12174,7 @@
         <v>27000</v>
       </c>
       <c r="M164" t="n">
-        <v>26303</v>
+        <v>25889</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12183,11 +12183,11 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>1052</v>
+        <v>1036</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44243</v>
+        <v>44245</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>1150</v>
+        <v>150</v>
       </c>
       <c r="K165" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L165" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M165" t="n">
-        <v>24043</v>
+        <v>20000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>962</v>
+        <v>800</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44250</v>
+        <v>44245</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K166" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L166" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M166" t="n">
-        <v>25850</v>
+        <v>22000</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12327,11 +12327,11 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>1034</v>
+        <v>880</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44250</v>
+        <v>44243</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,7 +12381,7 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>400</v>
+        <v>660</v>
       </c>
       <c r="K167" t="n">
         <v>25000</v>
@@ -12390,7 +12390,7 @@
         <v>27000</v>
       </c>
       <c r="M167" t="n">
-        <v>26150</v>
+        <v>26303</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44476</v>
+        <v>44243</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,29 +12453,29 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>150</v>
+        <v>1150</v>
       </c>
       <c r="K168" t="n">
-        <v>75000</v>
+        <v>23000</v>
       </c>
       <c r="L168" t="n">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="M168" t="n">
-        <v>77667</v>
+        <v>24043</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3107</v>
+        <v>962</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44236</v>
+        <v>44250</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,29 +12525,29 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K169" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L169" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M169" t="n">
-        <v>18836</v>
+        <v>25850</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>753</v>
+        <v>1034</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44236</v>
+        <v>44250</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K170" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L170" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M170" t="n">
-        <v>20800</v>
+        <v>26150</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>832</v>
+        <v>1046</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44236</v>
+        <v>44476</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,29 +12669,29 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K171" t="n">
-        <v>20000</v>
+        <v>75000</v>
       </c>
       <c r="L171" t="n">
-        <v>22000</v>
+        <v>80000</v>
       </c>
       <c r="M171" t="n">
-        <v>21150</v>
+        <v>77667</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>846</v>
+        <v>3107</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12741,29 +12741,29 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>1600</v>
+        <v>550</v>
       </c>
       <c r="K172" t="n">
         <v>18000</v>
       </c>
       <c r="L172" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M172" t="n">
-        <v>20500</v>
+        <v>18836</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>820</v>
+        <v>753</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12809,33 +12809,33 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="K173" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L173" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M173" t="n">
-        <v>15000</v>
+        <v>20800</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>600</v>
+        <v>832</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K174" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L174" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M174" t="n">
-        <v>18000</v>
+        <v>21150</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>720</v>
+        <v>846</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>120</v>
+        <v>1600</v>
       </c>
       <c r="K175" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L175" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M175" t="n">
-        <v>17000</v>
+        <v>20500</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>680</v>
+        <v>820</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13029,7 +13029,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>800</v>
+        <v>260</v>
       </c>
       <c r="K176" t="n">
         <v>15000</v>
@@ -13042,12 +13042,12 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P176" t="n">
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44354</v>
+        <v>44236</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K177" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L177" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="M177" t="n">
-        <v>26133</v>
+        <v>18000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>1045</v>
+        <v>720</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44196</v>
+        <v>44236</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13169,33 +13169,33 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>1100</v>
+        <v>120</v>
       </c>
       <c r="K178" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="L178" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="M178" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1120</v>
+        <v>680</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44196</v>
+        <v>44236</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13241,33 +13241,33 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J179" t="n">
         <v>800</v>
       </c>
       <c r="K179" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="L179" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="M179" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1080</v>
+        <v>600</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44196</v>
+        <v>44354</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13313,33 +13313,33 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K180" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L180" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M180" t="n">
-        <v>28000</v>
+        <v>26133</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1120</v>
+        <v>1045</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K181" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L181" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M181" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>800</v>
+        <v>1120</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K182" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L182" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M182" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>800</v>
+        <v>1080</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K183" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L183" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M183" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>800</v>
+        <v>1120</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44306</v>
+        <v>44196</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,24 +13601,24 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="K184" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L184" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M184" t="n">
-        <v>25905</v>
+        <v>20000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>1036</v>
+        <v>800</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,33 +13673,33 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>1130</v>
+        <v>300</v>
       </c>
       <c r="K185" t="n">
-        <v>38000</v>
+        <v>20000</v>
       </c>
       <c r="L185" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M185" t="n">
-        <v>38796</v>
+        <v>20000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1552</v>
+        <v>800</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13745,33 +13745,33 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="K186" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="L186" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M186" t="n">
-        <v>39188</v>
+        <v>20000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1568</v>
+        <v>800</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44188</v>
+        <v>44306</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>230</v>
+        <v>420</v>
       </c>
       <c r="K187" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L187" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M187" t="n">
-        <v>35000</v>
+        <v>25905</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1400</v>
+        <v>1036</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>170</v>
+        <v>1130</v>
       </c>
       <c r="K188" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="L188" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M188" t="n">
-        <v>35000</v>
+        <v>38796</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1400</v>
+        <v>1552</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44281</v>
+        <v>44188</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>1010</v>
+        <v>850</v>
       </c>
       <c r="K189" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="L189" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M189" t="n">
-        <v>19109</v>
+        <v>39188</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>764</v>
+        <v>1568</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44281</v>
+        <v>44188</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>580</v>
+        <v>230</v>
       </c>
       <c r="K190" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L190" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M190" t="n">
-        <v>17448</v>
+        <v>35000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>698</v>
+        <v>1400</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44281</v>
+        <v>44188</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>600</v>
+        <v>170</v>
       </c>
       <c r="K191" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L191" t="n">
-        <v>19000</v>
+        <v>35000</v>
       </c>
       <c r="M191" t="n">
-        <v>18233</v>
+        <v>35000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>729</v>
+        <v>1400</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>320</v>
+        <v>1010</v>
       </c>
       <c r="K192" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L192" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M192" t="n">
-        <v>15000</v>
+        <v>19109</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>600</v>
+        <v>764</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44285</v>
+        <v>44281</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>730</v>
+        <v>580</v>
       </c>
       <c r="K193" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L193" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M193" t="n">
-        <v>28014</v>
+        <v>17448</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1121</v>
+        <v>698</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44285</v>
+        <v>44281</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K194" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L194" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="M194" t="n">
-        <v>26540</v>
+        <v>18233</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1062</v>
+        <v>729</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44263</v>
+        <v>44281</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="K195" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L195" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M195" t="n">
-        <v>22536</v>
+        <v>15000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>901</v>
+        <v>600</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44263</v>
+        <v>44285</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>450</v>
+        <v>730</v>
       </c>
       <c r="K196" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L196" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M196" t="n">
-        <v>21400</v>
+        <v>28014</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>856</v>
+        <v>1121</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44277</v>
+        <v>44285</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K197" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L197" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M197" t="n">
-        <v>28275</v>
+        <v>26540</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1131</v>
+        <v>1062</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44237</v>
+        <v>44263</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>800</v>
+        <v>280</v>
       </c>
       <c r="K198" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L198" t="n">
         <v>23000</v>
       </c>
-      <c r="L198" t="n">
-        <v>25000</v>
-      </c>
       <c r="M198" t="n">
-        <v>23875</v>
+        <v>22536</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>955</v>
+        <v>901</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44237</v>
+        <v>44263</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="K199" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="L199" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M199" t="n">
-        <v>23945</v>
+        <v>21400</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>958</v>
+        <v>856</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44221</v>
+        <v>44277</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14760,13 +14760,13 @@
         <v>400</v>
       </c>
       <c r="K200" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L200" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M200" t="n">
-        <v>25850</v>
+        <v>28275</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1034</v>
+        <v>1131</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44221</v>
+        <v>44237</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14832,13 +14832,13 @@
         <v>800</v>
       </c>
       <c r="K201" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L201" t="n">
         <v>25000</v>
       </c>
-      <c r="L201" t="n">
-        <v>27000</v>
-      </c>
       <c r="M201" t="n">
-        <v>25875</v>
+        <v>23875</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14847,11 +14847,11 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1035</v>
+        <v>955</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44201</v>
+        <v>44237</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,7 +14901,7 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>440</v>
+        <v>550</v>
       </c>
       <c r="K202" t="n">
         <v>23000</v>
@@ -14910,20 +14910,20 @@
         <v>25000</v>
       </c>
       <c r="M202" t="n">
-        <v>23545</v>
+        <v>23945</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>942</v>
+        <v>958</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44201</v>
+        <v>44221</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K203" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L203" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M203" t="n">
-        <v>23667</v>
+        <v>25850</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>947</v>
+        <v>1034</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44201</v>
+        <v>44221</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>580</v>
+        <v>800</v>
       </c>
       <c r="K204" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L204" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M204" t="n">
-        <v>23897</v>
+        <v>25875</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>956</v>
+        <v>1035</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15117,29 +15117,29 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>700</v>
+        <v>440</v>
       </c>
       <c r="K205" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L205" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M205" t="n">
-        <v>22571</v>
+        <v>23545</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>903</v>
+        <v>942</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15185,33 +15185,33 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K206" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L206" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M206" t="n">
-        <v>20000</v>
+        <v>23667</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>800</v>
+        <v>947</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="K207" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L207" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M207" t="n">
-        <v>20000</v>
+        <v>23897</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>180</v>
+        <v>700</v>
       </c>
       <c r="K208" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L208" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M208" t="n">
-        <v>18000</v>
+        <v>22571</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>720</v>
+        <v>903</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15405,29 +15405,29 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K209" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L209" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M209" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44208</v>
+        <v>44201</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K210" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L210" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="M210" t="n">
-        <v>35850</v>
+        <v>20000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>1434</v>
+        <v>800</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44208</v>
+        <v>44201</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15545,20 +15545,20 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>490</v>
+        <v>180</v>
       </c>
       <c r="K211" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L211" t="n">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="M211" t="n">
-        <v>36061</v>
+        <v>18000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>1442</v>
+        <v>720</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44284</v>
+        <v>44201</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K212" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L212" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="M212" t="n">
-        <v>27600</v>
+        <v>18000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>1104</v>
+        <v>720</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K213" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L213" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="M213" t="n">
-        <v>33000</v>
+        <v>35850</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1320</v>
+        <v>1434</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>880</v>
+        <v>490</v>
       </c>
       <c r="K214" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L214" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="M214" t="n">
-        <v>31000</v>
+        <v>36061</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>1240</v>
+        <v>1442</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44496</v>
+        <v>44284</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,29 +15837,29 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="K215" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L215" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="M215" t="n">
-        <v>37170</v>
+        <v>27600</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>1487</v>
+        <v>1104</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44242</v>
+        <v>44210</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K216" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L216" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M216" t="n">
-        <v>24150</v>
+        <v>33000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>966</v>
+        <v>1320</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44242</v>
+        <v>44210</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>400</v>
+        <v>880</v>
       </c>
       <c r="K217" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L217" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M217" t="n">
-        <v>23850</v>
+        <v>31000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>954</v>
+        <v>1240</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44518</v>
+        <v>44496</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="K218" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L218" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M218" t="n">
-        <v>34150</v>
+        <v>37170</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16071,11 +16071,11 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1366</v>
+        <v>1487</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44315</v>
+        <v>44242</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,20 +16125,20 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K219" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L219" t="n">
         <v>25000</v>
       </c>
       <c r="M219" t="n">
-        <v>24561</v>
+        <v>24150</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44315</v>
+        <v>44242</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K220" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L220" t="n">
         <v>25000</v>
       </c>
-      <c r="L220" t="n">
-        <v>27000</v>
-      </c>
       <c r="M220" t="n">
-        <v>25867</v>
+        <v>23850</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16215,11 +16215,11 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1035</v>
+        <v>954</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44168</v>
+        <v>44518</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16272,13 +16272,13 @@
         <v>400</v>
       </c>
       <c r="K221" t="n">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="L221" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="M221" t="n">
-        <v>36575</v>
+        <v>34150</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1463</v>
+        <v>1366</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44168</v>
+        <v>44315</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,20 +16341,20 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="K222" t="n">
-        <v>36000</v>
+        <v>24000</v>
       </c>
       <c r="L222" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="M222" t="n">
-        <v>36575</v>
+        <v>24561</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1463</v>
+        <v>982</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44168</v>
+        <v>44315</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16409,33 +16409,33 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="K223" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L223" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M223" t="n">
-        <v>32000</v>
+        <v>25867</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>1280</v>
+        <v>1035</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44231</v>
+        <v>44168</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,29 +16485,29 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K224" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="L224" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="M224" t="n">
-        <v>26164</v>
+        <v>36575</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>1047</v>
+        <v>1463</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44231</v>
+        <v>44168</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,29 +16557,29 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K225" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="L225" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M225" t="n">
-        <v>24143</v>
+        <v>36575</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>966</v>
+        <v>1463</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44231</v>
+        <v>44168</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16625,20 +16625,20 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>680</v>
+        <v>260</v>
       </c>
       <c r="K226" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L226" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M226" t="n">
-        <v>26324</v>
+        <v>32000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1053</v>
+        <v>1280</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16697,20 +16697,20 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K227" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L227" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M227" t="n">
-        <v>20000</v>
+        <v>26164</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>800</v>
+        <v>1047</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K228" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L228" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M228" t="n">
-        <v>18000</v>
+        <v>24143</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>720</v>
+        <v>966</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>230</v>
+        <v>680</v>
       </c>
       <c r="K229" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L229" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M229" t="n">
-        <v>20000</v>
+        <v>26324</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>800</v>
+        <v>1053</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44298</v>
+        <v>44231</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16913,24 +16913,24 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K230" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L230" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M230" t="n">
-        <v>26080</v>
+        <v>20000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1043</v>
+        <v>800</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44215</v>
+        <v>44231</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16985,33 +16985,33 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J231" t="n">
         <v>400</v>
       </c>
       <c r="K231" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="L231" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M231" t="n">
-        <v>29150</v>
+        <v>18000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1166</v>
+        <v>720</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44215</v>
+        <v>44231</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17057,33 +17057,33 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>820</v>
+        <v>230</v>
       </c>
       <c r="K232" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L232" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M232" t="n">
-        <v>27805</v>
+        <v>20000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1112</v>
+        <v>800</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44204</v>
+        <v>44298</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,29 +17133,29 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K233" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L233" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M233" t="n">
-        <v>29150</v>
+        <v>26080</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1166</v>
+        <v>1043</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K234" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L234" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M234" t="n">
-        <v>23929</v>
+        <v>29150</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>957</v>
+        <v>1166</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>1000</v>
+        <v>820</v>
       </c>
       <c r="K235" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="L235" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M235" t="n">
-        <v>25800</v>
+        <v>27805</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1032</v>
+        <v>1112</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17345,33 +17345,33 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K236" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L236" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M236" t="n">
-        <v>20000</v>
+        <v>29150</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>800</v>
+        <v>1166</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>350</v>
+        <v>1400</v>
       </c>
       <c r="K237" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L237" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M237" t="n">
-        <v>20000</v>
+        <v>23929</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>800</v>
+        <v>957</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44244</v>
+        <v>44204</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,7 +17493,7 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K238" t="n">
         <v>25000</v>
@@ -17502,7 +17502,7 @@
         <v>27000</v>
       </c>
       <c r="M238" t="n">
-        <v>25850</v>
+        <v>25800</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44244</v>
+        <v>44204</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K239" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L239" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M239" t="n">
-        <v>25850</v>
+        <v>20000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17583,11 +17583,11 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1034</v>
+        <v>800</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44200</v>
+        <v>44204</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17633,33 +17633,33 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K240" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L240" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M240" t="n">
-        <v>24150</v>
+        <v>20000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>966</v>
+        <v>800</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44200</v>
+        <v>44244</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,29 +17709,29 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K241" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L241" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M241" t="n">
-        <v>24103</v>
+        <v>25850</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>964</v>
+        <v>1034</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44200</v>
+        <v>44244</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K242" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L242" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M242" t="n">
-        <v>21769</v>
+        <v>25850</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>871</v>
+        <v>1034</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17853,29 +17853,29 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>1350</v>
+        <v>400</v>
       </c>
       <c r="K243" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L243" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M243" t="n">
-        <v>21444</v>
+        <v>24150</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>858</v>
+        <v>966</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44166</v>
+        <v>44200</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,32 +17925,32 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="K244" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="L244" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="M244" t="n">
-        <v>37209</v>
+        <v>24103</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>2481</v>
+        <v>964</v>
       </c>
       <c r="Q244" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44259</v>
+        <v>44200</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="K245" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L245" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M245" t="n">
-        <v>25514</v>
+        <v>21769</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1021</v>
+        <v>871</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44259</v>
+        <v>44200</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>400</v>
+        <v>1350</v>
       </c>
       <c r="K246" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L246" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M246" t="n">
-        <v>25850</v>
+        <v>21444</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1034</v>
+        <v>858</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44278</v>
+        <v>44166</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,32 +18141,32 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>810</v>
+        <v>430</v>
       </c>
       <c r="K247" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="L247" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="M247" t="n">
-        <v>26136</v>
+        <v>37209</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1045</v>
+        <v>2481</v>
       </c>
       <c r="Q247" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44278</v>
+        <v>44259</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>1030</v>
+        <v>350</v>
       </c>
       <c r="K248" t="n">
         <v>25000</v>
       </c>
       <c r="L248" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="M248" t="n">
-        <v>25680</v>
+        <v>25514</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44522</v>
+        <v>44259</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,32 +18285,32 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="K249" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L249" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M249" t="n">
-        <v>24053</v>
+        <v>25850</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1604</v>
+        <v>1034</v>
       </c>
       <c r="Q249" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44218</v>
+        <v>44278</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,7 +18357,7 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>610</v>
+        <v>810</v>
       </c>
       <c r="K250" t="n">
         <v>25000</v>
@@ -18366,7 +18366,7 @@
         <v>27000</v>
       </c>
       <c r="M250" t="n">
-        <v>25951</v>
+        <v>26136</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44218</v>
+        <v>44278</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>580</v>
+        <v>1030</v>
       </c>
       <c r="K251" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L251" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M251" t="n">
-        <v>24103</v>
+        <v>25680</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>964</v>
+        <v>1027</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44280</v>
+        <v>44522</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,32 +18501,32 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>510</v>
+        <v>95</v>
       </c>
       <c r="K252" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L252" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M252" t="n">
-        <v>31098</v>
+        <v>24053</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1244</v>
+        <v>1604</v>
       </c>
       <c r="Q252" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44280</v>
+        <v>44218</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>1400</v>
+        <v>610</v>
       </c>
       <c r="K253" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L253" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M253" t="n">
-        <v>29071</v>
+        <v>25951</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1163</v>
+        <v>1038</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44300</v>
+        <v>44218</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18648,13 +18648,13 @@
         <v>580</v>
       </c>
       <c r="K254" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L254" t="n">
         <v>25000</v>
       </c>
       <c r="M254" t="n">
-        <v>24448</v>
+        <v>24103</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44497</v>
+        <v>44280</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,29 +18717,29 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="K255" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L255" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M255" t="n">
-        <v>34038</v>
+        <v>31098</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>1362</v>
+        <v>1244</v>
       </c>
       <c r="Q255" t="n">
         <v>25</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44267</v>
+        <v>44280</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>520</v>
+        <v>1400</v>
       </c>
       <c r="K256" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L256" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M256" t="n">
-        <v>21038</v>
+        <v>29071</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>842</v>
+        <v>1163</v>
       </c>
       <c r="Q256" t="n">
         <v>25</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44267</v>
+        <v>44300</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="K257" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L257" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M257" t="n">
-        <v>18979</v>
+        <v>24448</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18879,11 +18879,11 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>759</v>
+        <v>978</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44270</v>
+        <v>44497</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,29 +18933,29 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="K258" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L258" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M258" t="n">
-        <v>25000</v>
+        <v>34038</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>1000</v>
+        <v>1362</v>
       </c>
       <c r="Q258" t="n">
         <v>25</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44270</v>
+        <v>44267</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19001,20 +19001,20 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>150</v>
+        <v>520</v>
       </c>
       <c r="K259" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L259" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="M259" t="n">
-        <v>23000</v>
+        <v>21038</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19023,11 +19023,11 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>920</v>
+        <v>842</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44525</v>
+        <v>44267</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,32 +19077,32 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>95</v>
+        <v>470</v>
       </c>
       <c r="K260" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L260" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M260" t="n">
-        <v>28579</v>
+        <v>18979</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>1905</v>
+        <v>759</v>
       </c>
       <c r="Q260" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44525</v>
+        <v>44270</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19152,26 +19152,26 @@
         <v>200</v>
       </c>
       <c r="K261" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L261" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M261" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>1320</v>
+        <v>1000</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44286</v>
+        <v>44270</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="K262" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L262" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M262" t="n">
-        <v>22675</v>
+        <v>23000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>907</v>
+        <v>920</v>
       </c>
       <c r="Q262" t="n">
         <v>25</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44286</v>
+        <v>44525</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,32 +19293,32 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>520</v>
+        <v>95</v>
       </c>
       <c r="K263" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="L263" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M263" t="n">
-        <v>18308</v>
+        <v>28579</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>732</v>
+        <v>1905</v>
       </c>
       <c r="Q263" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44286</v>
+        <v>44525</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,29 +19365,29 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="K264" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L264" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M264" t="n">
-        <v>20125</v>
+        <v>33000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>805</v>
+        <v>1320</v>
       </c>
       <c r="Q264" t="n">
         <v>25</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44307</v>
+        <v>44286</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>280</v>
+        <v>800</v>
       </c>
       <c r="K265" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="L265" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M265" t="n">
-        <v>28714</v>
+        <v>22675</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>1149</v>
+        <v>907</v>
       </c>
       <c r="Q265" t="n">
         <v>25</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44307</v>
+        <v>44286</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="K266" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L266" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M266" t="n">
-        <v>25807</v>
+        <v>18308</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>1032</v>
+        <v>732</v>
       </c>
       <c r="Q266" t="n">
         <v>25</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44299</v>
+        <v>44286</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>1080</v>
+        <v>480</v>
       </c>
       <c r="K267" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L267" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M267" t="n">
-        <v>25833</v>
+        <v>20125</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>1033</v>
+        <v>805</v>
       </c>
       <c r="Q267" t="n">
         <v>25</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44316</v>
+        <v>44307</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="K268" t="n">
         <v>27000</v>
       </c>
       <c r="L268" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M268" t="n">
-        <v>28164</v>
+        <v>28714</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>1127</v>
+        <v>1149</v>
       </c>
       <c r="Q268" t="n">
         <v>25</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44229</v>
+        <v>44307</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="K269" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L269" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M269" t="n">
-        <v>33909</v>
+        <v>25807</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1356</v>
+        <v>1032</v>
       </c>
       <c r="Q269" t="n">
         <v>25</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44229</v>
+        <v>44299</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>430</v>
+        <v>1080</v>
       </c>
       <c r="K270" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       